--- a/Economic_Metrics_All_Metros.xlsx
+++ b/Economic_Metrics_All_Metros.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metric Scores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Values" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="By Rank" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top vs Bottom" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metric Scores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Raw Values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="By Rank" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Top vs Bottom" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>72.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>68.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -745,20 +745,20 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>Hartford</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64.90000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -776,20 +776,20 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
+          <t>Hartford</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63.5</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -807,16 +807,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Milwaukee</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64.3</v>
+        <v>63.5</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -838,16 +838,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>Grand Rapids</t>
+          <t>Louisville</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62.5</v>
+        <v>61.6</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -869,20 +869,20 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Grand Rapids</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>61.4</v>
+        <v>62.5</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="F10" s="8" t="n">
-        <v>59.1</v>
+        <v>59.3</v>
       </c>
       <c r="G10" s="9" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="F12" s="8" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="G12" s="9" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="F13" s="8" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="G13" s="9" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="F14" s="8" t="n">
-        <v>56.2</v>
+        <v>56</v>
       </c>
       <c r="G14" s="9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="F15" s="8" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="G15" s="9" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="F17" s="8" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="G17" s="9" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="F18" s="8" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="G18" s="9" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="F19" s="8" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="G19" s="9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="F20" s="8" t="n">
-        <v>52.8</v>
+        <v>53.2</v>
       </c>
       <c r="G20" s="9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="F21" s="8" t="n">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
       <c r="G21" s="9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="F22" s="8" t="n">
-        <v>52.2</v>
+        <v>51.8</v>
       </c>
       <c r="G22" s="9" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="F24" s="8" t="n">
-        <v>52.4</v>
+        <v>52</v>
       </c>
       <c r="G24" s="9" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="D25" s="10" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" s="9" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="F25" s="8" t="n">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
       <c r="G25" s="9" t="inlineStr">
         <is>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="26">
       <c r="A26" s="11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" s="12" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="D26" s="13" t="n">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="F26" s="11" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="G26" s="12" t="inlineStr">
         <is>
@@ -1426,64 +1426,64 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12" t="inlineStr">
+        <is>
+          <t>Detroit-Warren-Dearborn</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="D27" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" s="12" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F27" s="11" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="G27" s="12" t="inlineStr">
+        <is>
+          <t>Below Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="inlineStr">
+      <c r="B28" s="9" t="inlineStr">
         <is>
           <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
-      <c r="C27" s="9" t="inlineStr">
+      <c r="C28" s="9" t="inlineStr">
         <is>
           <t>Austin</t>
         </is>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D28" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="E27" s="9" t="inlineStr">
+      <c r="E28" s="9" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F28" s="8" t="n">
         <v>50.3</v>
       </c>
-      <c r="G27" s="9" t="inlineStr">
+      <c r="G28" s="9" t="inlineStr">
         <is>
           <t>Average</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B28" s="12" t="inlineStr">
-        <is>
-          <t>Boston-Cambridge-Newton</t>
-        </is>
-      </c>
-      <c r="C28" s="12" t="inlineStr">
-        <is>
-          <t>Boston</t>
-        </is>
-      </c>
-      <c r="D28" s="13" t="n">
-        <v>49</v>
-      </c>
-      <c r="E28" s="12" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F28" s="11" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="G28" s="12" t="inlineStr">
-        <is>
-          <t>Below Average</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="F29" s="11" t="n">
-        <v>48.6</v>
+        <v>49.4</v>
       </c>
       <c r="G29" s="12" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="F30" s="11" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="G30" s="12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F31" s="11" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="G31" s="12" t="inlineStr">
         <is>
@@ -1582,16 +1582,16 @@
     </row>
     <row r="32">
       <c r="A32" s="11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B32" s="12" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Chandler</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="D32" s="13" t="n">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="F32" s="11" t="n">
-        <v>46.6</v>
+        <v>47.2</v>
       </c>
       <c r="G32" s="12" t="inlineStr">
         <is>
@@ -1613,20 +1613,20 @@
     </row>
     <row r="33">
       <c r="A33" s="11" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Washington DC</t>
         </is>
       </c>
       <c r="D33" s="13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="F33" s="11" t="n">
-        <v>47.2</v>
+        <v>46.1</v>
       </c>
       <c r="G33" s="12" t="inlineStr">
         <is>
@@ -1644,16 +1644,16 @@
     </row>
     <row r="34">
       <c r="A34" s="11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B34" s="12" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Phoenix-Mesa-Chandler</t>
         </is>
       </c>
       <c r="C34" s="12" t="inlineStr">
         <is>
-          <t>Washington DC</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="D34" s="13" t="n">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="F34" s="11" t="n">
-        <v>46.1</v>
+        <v>46.4</v>
       </c>
       <c r="G34" s="12" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="D35" s="13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="12" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="F35" s="11" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="G35" s="12" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="D36" s="13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="12" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="F36" s="11" t="n">
-        <v>44.7</v>
+        <v>43.9</v>
       </c>
       <c r="G36" s="12" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="F37" s="11" t="n">
-        <v>42.1</v>
+        <v>42.5</v>
       </c>
       <c r="G37" s="12" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="F38" s="11" t="n">
-        <v>42.5</v>
+        <v>41.7</v>
       </c>
       <c r="G38" s="12" t="inlineStr">
         <is>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="39">
       <c r="A39" s="11" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>San Jose-Sunnyvale-Santa Clara</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="D39" s="13" t="n">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="F39" s="11" t="n">
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
       <c r="G39" s="12" t="inlineStr">
         <is>
@@ -1830,78 +1830,78 @@
     </row>
     <row r="40">
       <c r="A40" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B40" s="12" t="inlineStr">
+        <is>
+          <t>Orlando-Kissimmee-Sanford</t>
+        </is>
+      </c>
+      <c r="C40" s="12" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="D40" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="E40" s="12" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F40" s="11" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="G40" s="12" t="inlineStr">
+        <is>
+          <t>Below Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="inlineStr">
+      <c r="B41" s="12" t="inlineStr">
         <is>
           <t>Jacksonville</t>
         </is>
       </c>
-      <c r="C40" s="12" t="inlineStr">
+      <c r="C41" s="12" t="inlineStr">
         <is>
           <t>Jacksonville</t>
         </is>
       </c>
-      <c r="D40" s="13" t="n">
-        <v>41</v>
-      </c>
-      <c r="E40" s="12" t="inlineStr">
+      <c r="D41" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
-      <c r="F40" s="11" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="G40" s="12" t="inlineStr">
+      <c r="F41" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G41" s="12" t="inlineStr">
         <is>
           <t>Below Average</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="14" t="n">
-        <v>21</v>
-      </c>
-      <c r="B41" s="15" t="inlineStr">
-        <is>
-          <t>Charlotte-Concord-Gastonia</t>
-        </is>
-      </c>
-      <c r="C41" s="15" t="inlineStr">
-        <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-      <c r="D41" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="E41" s="15" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="F41" s="14" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="G41" s="15" t="inlineStr">
-        <is>
-          <t>Poor</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="14" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B42" s="15" t="inlineStr">
         <is>
-          <t>San Jose-Sunnyvale-Santa Clara</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="C42" s="15" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="D42" s="16" t="n">
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>39.3</v>
+        <v>38.9</v>
       </c>
       <c r="G42" s="15" t="inlineStr">
         <is>
@@ -1923,16 +1923,16 @@
     </row>
     <row r="43">
       <c r="A43" s="14" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B43" s="15" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="C43" s="15" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="D43" s="16" t="n">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="F43" s="14" t="n">
-        <v>34.6</v>
+        <v>35.2</v>
       </c>
       <c r="G43" s="15" t="inlineStr">
         <is>
@@ -1954,20 +1954,20 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B44" s="15" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="C44" s="15" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Las Vegas</t>
         </is>
       </c>
       <c r="D44" s="16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="15" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="F44" s="14" t="n">
-        <v>34.6</v>
+        <v>33.8</v>
       </c>
       <c r="G44" s="15" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="F46" s="14" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="G46" s="15" t="inlineStr">
         <is>
@@ -2047,16 +2047,16 @@
     </row>
     <row r="47">
       <c r="A47" s="17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" s="18" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>Los Angeles-Long Beach-Anaheim</t>
         </is>
       </c>
       <c r="C47" s="18" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D47" s="19" t="n">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="F47" s="17" t="n">
-        <v>27.5</v>
+        <v>28.1</v>
       </c>
       <c r="G47" s="18" t="inlineStr">
         <is>
@@ -2078,20 +2078,20 @@
     </row>
     <row r="48">
       <c r="A48" s="17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="18" t="inlineStr">
         <is>
-          <t>Los Angeles-Long Beach-Anaheim</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="C48" s="18" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D48" s="19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48" s="18" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F48" s="17" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="G48" s="18" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="F49" s="17" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G49" s="18" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="F50" s="17" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="G50" s="18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="F51" s="20" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="G51" s="21" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>70</v>
       </c>
       <c r="J2" s="25" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" s="25" t="n">
         <v>68</v>
@@ -2376,7 +2376,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="25" t="n">
         <v>64</v>
@@ -2416,7 +2416,7 @@
         <v>84</v>
       </c>
       <c r="J4" s="25" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K4" s="25" t="n">
         <v>58</v>
@@ -2428,201 +2428,201 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="B5" s="23" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="24" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>94</v>
+      </c>
+      <c r="E5" s="26" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="24" t="n">
         <v>96</v>
       </c>
-      <c r="D5" s="25" t="n">
-        <v>52</v>
-      </c>
-      <c r="E5" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>84</v>
-      </c>
-      <c r="G5" s="25" t="n">
-        <v>54</v>
-      </c>
-      <c r="H5" s="26" t="n">
-        <v>34</v>
+      <c r="H5" s="24" t="n">
+        <v>90</v>
       </c>
       <c r="I5" s="24" t="n">
-        <v>80</v>
-      </c>
-      <c r="J5" s="24" t="n">
-        <v>98</v>
-      </c>
-      <c r="K5" s="25" t="n">
-        <v>54</v>
-      </c>
-      <c r="L5" s="24" t="n">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="J5" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="K5" s="26" t="n">
+        <v>44</v>
+      </c>
+      <c r="L5" s="26" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="B6" s="23" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="24" t="n">
-        <v>76</v>
-      </c>
-      <c r="D6" s="26" t="n">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="D6" s="25" t="n">
+        <v>52</v>
       </c>
       <c r="E6" s="26" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F6" s="24" t="n">
-        <v>92</v>
-      </c>
-      <c r="G6" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="H6" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="I6" s="26" t="n">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="G6" s="25" t="n">
+        <v>54</v>
+      </c>
+      <c r="H6" s="26" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" s="24" t="n">
+        <v>80</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>94</v>
-      </c>
-      <c r="K6" s="24" t="n">
+        <v>98</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>54</v>
+      </c>
+      <c r="L6" s="24" t="n">
         <v>96</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="B7" s="23" t="n">
         <v>64</v>
       </c>
       <c r="C7" s="24" t="n">
-        <v>74</v>
-      </c>
-      <c r="D7" s="24" t="n">
+        <v>76</v>
+      </c>
+      <c r="D7" s="26" t="n">
+        <v>42</v>
+      </c>
+      <c r="E7" s="26" t="n">
+        <v>26</v>
+      </c>
+      <c r="F7" s="24" t="n">
+        <v>92</v>
+      </c>
+      <c r="G7" s="26" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="I7" s="26" t="n">
+        <v>32</v>
+      </c>
+      <c r="J7" s="24" t="n">
         <v>94</v>
       </c>
-      <c r="E7" s="26" t="n">
-        <v>40</v>
-      </c>
-      <c r="F7" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" s="24" t="n">
+      <c r="K7" s="24" t="n">
         <v>96</v>
       </c>
-      <c r="H7" s="24" t="n">
-        <v>90</v>
-      </c>
-      <c r="I7" s="24" t="n">
-        <v>86</v>
-      </c>
-      <c r="J7" s="26" t="n">
-        <v>38</v>
-      </c>
-      <c r="K7" s="26" t="n">
-        <v>44</v>
-      </c>
-      <c r="L7" s="26" t="n">
-        <v>30</v>
+      <c r="L7" s="24" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="B8" s="23" t="n">
         <v>62</v>
       </c>
-      <c r="C8" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" s="25" t="n">
+      <c r="C8" s="25" t="n">
         <v>66</v>
       </c>
-      <c r="E8" s="25" t="n">
-        <v>54</v>
+      <c r="D8" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" s="26" t="n">
+        <v>30</v>
       </c>
       <c r="F8" s="24" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G8" s="26" t="n">
-        <v>24</v>
-      </c>
-      <c r="H8" s="24" t="n">
+        <v>34</v>
+      </c>
+      <c r="H8" s="25" t="n">
+        <v>52</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>82</v>
+      </c>
+      <c r="J8" s="24" t="n">
         <v>78</v>
       </c>
-      <c r="I8" s="26" t="n">
-        <v>38</v>
-      </c>
-      <c r="J8" s="24" t="n">
-        <v>90</v>
-      </c>
       <c r="K8" s="24" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L8" s="24" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="B9" s="23" t="n">
-        <v>61</v>
-      </c>
-      <c r="C9" s="25" t="n">
+        <v>62</v>
+      </c>
+      <c r="C9" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="25" t="n">
         <v>66</v>
       </c>
-      <c r="D9" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="E9" s="26" t="n">
-        <v>30</v>
+      <c r="E9" s="25" t="n">
+        <v>54</v>
       </c>
       <c r="F9" s="24" t="n">
+        <v>94</v>
+      </c>
+      <c r="G9" s="26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H9" s="24" t="n">
+        <v>78</v>
+      </c>
+      <c r="I9" s="26" t="n">
+        <v>38</v>
+      </c>
+      <c r="J9" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="G9" s="26" t="n">
-        <v>34</v>
-      </c>
-      <c r="H9" s="25" t="n">
-        <v>52</v>
-      </c>
-      <c r="I9" s="24" t="n">
-        <v>82</v>
-      </c>
-      <c r="J9" s="24" t="n">
-        <v>76</v>
-      </c>
       <c r="K9" s="24" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L9" s="24" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -2656,7 +2656,7 @@
         <v>76</v>
       </c>
       <c r="J10" s="26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K10" s="25" t="n">
         <v>66</v>
@@ -2736,7 +2736,7 @@
         <v>68</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="24" t="n">
         <v>80</v>
@@ -2776,7 +2776,7 @@
         <v>60</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" s="24" t="n">
         <v>90</v>
@@ -2816,7 +2816,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="25" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K14" s="26" t="n">
         <v>42</v>
@@ -2856,7 +2856,7 @@
         <v>74</v>
       </c>
       <c r="J15" s="26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K15" s="26" t="n">
         <v>8</v>
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="J17" s="26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K17" s="26" t="n">
         <v>36</v>
@@ -2976,7 +2976,7 @@
         <v>42</v>
       </c>
       <c r="J18" s="26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="25" t="n">
         <v>52</v>
@@ -3016,7 +3016,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K19" s="24" t="n">
         <v>98</v>
@@ -3056,7 +3056,7 @@
         <v>34</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K20" s="24" t="n">
         <v>74</v>
@@ -3095,8 +3095,8 @@
       <c r="I21" s="25" t="n">
         <v>52</v>
       </c>
-      <c r="J21" s="24" t="n">
-        <v>70</v>
+      <c r="J21" s="25" t="n">
+        <v>68</v>
       </c>
       <c r="K21" s="24" t="n">
         <v>70</v>
@@ -3136,7 +3136,7 @@
         <v>56</v>
       </c>
       <c r="J22" s="26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K22" s="26" t="n">
         <v>30</v>
@@ -3216,7 +3216,7 @@
         <v>50</v>
       </c>
       <c r="J24" s="24" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K24" s="25" t="n">
         <v>50</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B25" s="23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>32</v>
@@ -3256,7 +3256,7 @@
         <v>72</v>
       </c>
       <c r="J25" s="26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K25" s="25" t="n">
         <v>62</v>
@@ -3268,121 +3268,121 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="B26" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="C26" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="D26" s="26" t="n">
+      <c r="C26" s="24" t="n">
+        <v>70</v>
+      </c>
+      <c r="D26" s="24" t="n">
+        <v>84</v>
+      </c>
+      <c r="E26" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="E26" s="25" t="n">
-        <v>56</v>
-      </c>
-      <c r="F26" s="25" t="n">
-        <v>58</v>
-      </c>
-      <c r="G26" s="26" t="n">
+      <c r="F26" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="25" t="n">
+        <v>66</v>
+      </c>
+      <c r="H26" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="H26" s="24" t="n">
-        <v>70</v>
-      </c>
-      <c r="I26" s="24" t="n">
-        <v>88</v>
+      <c r="I26" s="26" t="n">
+        <v>18</v>
       </c>
       <c r="J26" s="26" t="n">
-        <v>34</v>
-      </c>
-      <c r="K26" s="26" t="n">
         <v>40</v>
       </c>
+      <c r="K26" s="24" t="n">
+        <v>78</v>
+      </c>
       <c r="L26" s="24" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
       <c r="B27" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="C27" s="24" t="n">
+      <c r="C27" s="26" t="n">
+        <v>48</v>
+      </c>
+      <c r="D27" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>56</v>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>58</v>
+      </c>
+      <c r="G27" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" s="24" t="n">
         <v>70</v>
       </c>
-      <c r="D27" s="24" t="n">
-        <v>96</v>
-      </c>
-      <c r="E27" s="25" t="n">
-        <v>62</v>
-      </c>
-      <c r="F27" s="25" t="n">
-        <v>68</v>
-      </c>
-      <c r="G27" s="25" t="n">
-        <v>56</v>
-      </c>
-      <c r="H27" s="24" t="n">
-        <v>86</v>
-      </c>
-      <c r="I27" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" s="27" t="n">
-        <v>0</v>
+      <c r="I27" s="24" t="n">
+        <v>88</v>
+      </c>
+      <c r="J27" s="26" t="n">
+        <v>36</v>
       </c>
       <c r="K27" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="L27" s="26" t="n">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="L27" s="24" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="B28" s="23" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="24" t="n">
         <v>70</v>
       </c>
       <c r="D28" s="24" t="n">
-        <v>84</v>
-      </c>
-      <c r="E28" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="E28" s="25" t="n">
+        <v>62</v>
+      </c>
+      <c r="F28" s="25" t="n">
+        <v>68</v>
       </c>
       <c r="G28" s="25" t="n">
-        <v>66</v>
-      </c>
-      <c r="H28" s="26" t="n">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="H28" s="24" t="n">
+        <v>86</v>
       </c>
       <c r="I28" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" s="26" t="n">
-        <v>36</v>
-      </c>
-      <c r="K28" s="24" t="n">
-        <v>78</v>
-      </c>
-      <c r="L28" s="24" t="n">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="J28" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" s="26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3415,8 +3415,8 @@
       <c r="I29" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="J29" s="25" t="n">
-        <v>64</v>
+      <c r="J29" s="24" t="n">
+        <v>72</v>
       </c>
       <c r="K29" s="24" t="n">
         <v>86</v>
@@ -3456,7 +3456,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="24" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K30" s="24" t="n">
         <v>92</v>
@@ -3496,7 +3496,7 @@
         <v>94</v>
       </c>
       <c r="J31" s="26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K31" s="26" t="n">
         <v>12</v>
@@ -3508,121 +3508,121 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Chandler</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="B32" s="23" t="n">
         <v>47</v>
       </c>
-      <c r="C32" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="D32" s="25" t="n">
-        <v>64</v>
-      </c>
-      <c r="E32" s="25" t="n">
-        <v>68</v>
-      </c>
-      <c r="F32" s="26" t="n">
-        <v>40</v>
-      </c>
-      <c r="G32" s="25" t="n">
-        <v>52</v>
+      <c r="C32" s="26" t="n">
+        <v>42</v>
+      </c>
+      <c r="D32" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" s="24" t="n">
+        <v>88</v>
+      </c>
+      <c r="F32" s="25" t="n">
+        <v>66</v>
+      </c>
+      <c r="G32" s="24" t="n">
+        <v>70</v>
       </c>
       <c r="H32" s="24" t="n">
-        <v>70</v>
-      </c>
-      <c r="I32" s="26" t="n">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>66</v>
       </c>
       <c r="J32" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" s="25" t="n">
+        <v>56</v>
+      </c>
+      <c r="L32" s="26" t="n">
         <v>6</v>
-      </c>
-      <c r="K32" s="26" t="n">
-        <v>28</v>
-      </c>
-      <c r="L32" s="26" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="B33" s="23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="26" t="n">
-        <v>42</v>
-      </c>
-      <c r="D33" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="E33" s="24" t="n">
-        <v>88</v>
-      </c>
-      <c r="F33" s="25" t="n">
-        <v>66</v>
-      </c>
-      <c r="G33" s="24" t="n">
+        <v>48</v>
+      </c>
+      <c r="D33" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="E33" s="26" t="n">
+        <v>18</v>
+      </c>
+      <c r="F33" s="26" t="n">
+        <v>36</v>
+      </c>
+      <c r="G33" s="26" t="n">
+        <v>46</v>
+      </c>
+      <c r="H33" s="24" t="n">
         <v>70</v>
       </c>
-      <c r="H33" s="24" t="n">
-        <v>78</v>
-      </c>
       <c r="I33" s="25" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J33" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" s="25" t="n">
-        <v>56</v>
-      </c>
-      <c r="L33" s="26" t="n">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="K33" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="24" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Phoenix-Mesa-Chandler</t>
         </is>
       </c>
       <c r="B34" s="23" t="n">
         <v>46</v>
       </c>
-      <c r="C34" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="D34" s="24" t="n">
-        <v>80</v>
-      </c>
-      <c r="E34" s="26" t="n">
-        <v>18</v>
+      <c r="C34" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="D34" s="25" t="n">
+        <v>64</v>
+      </c>
+      <c r="E34" s="25" t="n">
+        <v>68</v>
       </c>
       <c r="F34" s="26" t="n">
-        <v>36</v>
-      </c>
-      <c r="G34" s="26" t="n">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="G34" s="25" t="n">
+        <v>52</v>
       </c>
       <c r="H34" s="24" t="n">
         <v>70</v>
       </c>
-      <c r="I34" s="25" t="n">
-        <v>54</v>
+      <c r="I34" s="26" t="n">
+        <v>24</v>
       </c>
       <c r="J34" s="26" t="n">
-        <v>26</v>
-      </c>
-      <c r="K34" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="24" t="n">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="K34" s="26" t="n">
+        <v>28</v>
+      </c>
+      <c r="L34" s="26" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="35">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B35" s="23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="26" t="n">
         <v>16</v>
@@ -3656,7 +3656,7 @@
         <v>40</v>
       </c>
       <c r="J35" s="25" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K35" s="26" t="n">
         <v>32</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B36" s="23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="26" t="n">
         <v>32</v>
@@ -3695,8 +3695,8 @@
       <c r="I36" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="J36" s="25" t="n">
-        <v>50</v>
+      <c r="J36" s="26" t="n">
+        <v>42</v>
       </c>
       <c r="K36" s="25" t="n">
         <v>60</v>
@@ -3735,8 +3735,8 @@
       <c r="I37" s="26" t="n">
         <v>48</v>
       </c>
-      <c r="J37" s="25" t="n">
-        <v>66</v>
+      <c r="J37" s="24" t="n">
+        <v>70</v>
       </c>
       <c r="K37" s="24" t="n">
         <v>76</v>
@@ -3776,7 +3776,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="26" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K38" s="26" t="n">
         <v>14</v>
@@ -3788,241 +3788,241 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>San Jose-Sunnyvale-Santa Clara</t>
         </is>
       </c>
       <c r="B39" s="23" t="n">
         <v>41</v>
       </c>
       <c r="C39" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="D39" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="E39" s="26" t="n">
-        <v>36</v>
-      </c>
-      <c r="F39" s="26" t="n">
-        <v>32</v>
-      </c>
-      <c r="G39" s="24" t="n">
-        <v>90</v>
-      </c>
-      <c r="H39" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="I39" s="26" t="n">
-        <v>44</v>
-      </c>
-      <c r="J39" s="24" t="n">
-        <v>74</v>
+        <v>24</v>
+      </c>
+      <c r="D39" s="25" t="n">
+        <v>54</v>
+      </c>
+      <c r="E39" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="26" t="n">
+        <v>40</v>
+      </c>
+      <c r="H39" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="I39" s="24" t="n">
+        <v>96</v>
+      </c>
+      <c r="J39" s="25" t="n">
+        <v>62</v>
       </c>
       <c r="K39" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="L39" s="26" t="n">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="L39" s="24" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="B40" s="23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="26" t="n">
+        <v>48</v>
+      </c>
+      <c r="D40" s="26" t="n">
+        <v>48</v>
+      </c>
+      <c r="E40" s="26" t="n">
+        <v>36</v>
+      </c>
+      <c r="F40" s="26" t="n">
         <v>32</v>
       </c>
-      <c r="D40" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="E40" s="24" t="n">
-        <v>98</v>
-      </c>
-      <c r="F40" s="24" t="n">
-        <v>76</v>
-      </c>
-      <c r="G40" s="26" t="n">
-        <v>22</v>
+      <c r="G40" s="24" t="n">
+        <v>90</v>
       </c>
       <c r="H40" s="26" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I40" s="26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J40" s="25" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K40" s="26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L40" s="26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="B41" s="23" t="n">
-        <v>39</v>
-      </c>
-      <c r="C41" s="25" t="n">
-        <v>62</v>
-      </c>
-      <c r="D41" s="25" t="n">
-        <v>50</v>
-      </c>
-      <c r="E41" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="F41" s="26" t="n">
-        <v>26</v>
-      </c>
-      <c r="G41" s="24" t="n">
-        <v>92</v>
+        <v>40</v>
+      </c>
+      <c r="C41" s="26" t="n">
+        <v>32</v>
+      </c>
+      <c r="D41" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="E41" s="24" t="n">
+        <v>98</v>
+      </c>
+      <c r="F41" s="24" t="n">
+        <v>76</v>
+      </c>
+      <c r="G41" s="26" t="n">
+        <v>22</v>
       </c>
       <c r="H41" s="26" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I41" s="26" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J41" s="26" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K41" s="26" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="L41" s="26" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>San Jose-Sunnyvale-Santa Clara</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="B42" s="23" t="n">
         <v>39</v>
       </c>
-      <c r="C42" s="26" t="n">
-        <v>24</v>
+      <c r="C42" s="25" t="n">
+        <v>62</v>
       </c>
       <c r="D42" s="25" t="n">
-        <v>54</v>
-      </c>
-      <c r="E42" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="26" t="n">
-        <v>40</v>
-      </c>
-      <c r="H42" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="I42" s="24" t="n">
-        <v>96</v>
+        <v>50</v>
+      </c>
+      <c r="E42" s="26" t="n">
+        <v>16</v>
+      </c>
+      <c r="F42" s="26" t="n">
+        <v>26</v>
+      </c>
+      <c r="G42" s="24" t="n">
+        <v>92</v>
+      </c>
+      <c r="H42" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" s="26" t="n">
+        <v>36</v>
       </c>
       <c r="J42" s="26" t="n">
+        <v>28</v>
+      </c>
+      <c r="K42" s="26" t="n">
         <v>48</v>
       </c>
-      <c r="K42" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="L42" s="24" t="n">
-        <v>84</v>
+      <c r="L42" s="26" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="B43" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="C43" s="26" t="n">
-        <v>6</v>
+      <c r="C43" s="27" t="n">
+        <v>0</v>
       </c>
       <c r="D43" s="26" t="n">
-        <v>36</v>
-      </c>
-      <c r="E43" s="24" t="n">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="E43" s="25" t="n">
+        <v>58</v>
       </c>
       <c r="F43" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="G43" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="26" t="n">
         <v>34</v>
       </c>
-      <c r="G43" s="24" t="n">
-        <v>74</v>
-      </c>
-      <c r="H43" s="25" t="n">
-        <v>52</v>
-      </c>
-      <c r="I43" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="26" t="n">
-        <v>22</v>
+      <c r="I43" s="24" t="n">
+        <v>92</v>
+      </c>
+      <c r="J43" s="25" t="n">
+        <v>60</v>
       </c>
       <c r="K43" s="26" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L43" s="26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="B44" s="23" t="n">
-        <v>35</v>
-      </c>
-      <c r="C44" s="27" t="n">
+        <v>34</v>
+      </c>
+      <c r="C44" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" s="26" t="n">
+        <v>36</v>
+      </c>
+      <c r="E44" s="24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F44" s="26" t="n">
+        <v>34</v>
+      </c>
+      <c r="G44" s="24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H44" s="25" t="n">
+        <v>52</v>
+      </c>
+      <c r="I44" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="E44" s="25" t="n">
-        <v>58</v>
-      </c>
-      <c r="F44" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="G44" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="26" t="n">
-        <v>34</v>
-      </c>
-      <c r="I44" s="24" t="n">
-        <v>92</v>
-      </c>
-      <c r="J44" s="25" t="n">
-        <v>54</v>
+      <c r="J44" s="26" t="n">
+        <v>14</v>
       </c>
       <c r="K44" s="26" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L44" s="26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -4096,7 +4096,7 @@
         <v>28</v>
       </c>
       <c r="J46" s="26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K46" s="26" t="n">
         <v>22</v>
@@ -4108,81 +4108,81 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>Los Angeles-Long Beach-Anaheim</t>
         </is>
       </c>
       <c r="B47" s="23" t="n">
         <v>28</v>
       </c>
       <c r="C47" s="26" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D47" s="26" t="n">
-        <v>32</v>
-      </c>
-      <c r="E47" s="24" t="n">
-        <v>70</v>
+        <v>34</v>
+      </c>
+      <c r="E47" s="25" t="n">
+        <v>52</v>
       </c>
       <c r="F47" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="G47" s="25" t="n">
-        <v>56</v>
-      </c>
-      <c r="H47" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" s="26" t="n">
+        <v>16</v>
+      </c>
+      <c r="H47" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="I47" s="25" t="n">
+        <v>64</v>
+      </c>
+      <c r="J47" s="26" t="n">
+        <v>24</v>
+      </c>
+      <c r="K47" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="J47" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="K47" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="L47" s="25" t="n">
-        <v>50</v>
+      <c r="L47" s="26" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Los Angeles-Long Beach-Anaheim</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="B48" s="23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="26" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D48" s="26" t="n">
-        <v>34</v>
-      </c>
-      <c r="E48" s="25" t="n">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="E48" s="24" t="n">
+        <v>70</v>
       </c>
       <c r="F48" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="H48" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="25" t="n">
-        <v>64</v>
+        <v>12</v>
+      </c>
+      <c r="G48" s="25" t="n">
+        <v>56</v>
+      </c>
+      <c r="H48" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="26" t="n">
+        <v>22</v>
       </c>
       <c r="J48" s="26" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="K48" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="L48" s="26" t="n">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="L48" s="25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -4216,7 +4216,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K49" s="26" t="n">
         <v>4</v>
@@ -4256,7 +4256,7 @@
         <v>90</v>
       </c>
       <c r="J50" s="26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K50" s="26" t="n">
         <v>16</v>
@@ -4296,7 +4296,7 @@
         <v>14</v>
       </c>
       <c r="J51" s="26" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K51" s="26" t="n">
         <v>22</v>
@@ -4433,7 +4433,7 @@
         <v>10.49</v>
       </c>
       <c r="J2" s="27" t="n">
-        <v>15.01</v>
+        <v>10.86</v>
       </c>
       <c r="K2" s="27" t="n">
         <v>0.2</v>
@@ -4475,7 +4475,7 @@
         <v>5.24</v>
       </c>
       <c r="J3" s="27" t="n">
-        <v>16.15</v>
+        <v>14.37</v>
       </c>
       <c r="K3" s="27" t="n">
         <v>0</v>
@@ -4517,7 +4517,7 @@
         <v>22.78</v>
       </c>
       <c r="J4" s="27" t="n">
-        <v>10.55</v>
+        <v>7.88</v>
       </c>
       <c r="K4" s="27" t="n">
         <v>-0.38</v>
@@ -4529,91 +4529,91 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="B5" s="28" t="inlineStr">
         <is>
-          <t>65 (B+)</t>
+          <t>66 (B+)</t>
         </is>
       </c>
       <c r="C5" s="27" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D5" s="27" t="n">
-        <v>64.7</v>
+        <v>72.53</v>
       </c>
       <c r="E5" s="27" t="n">
-        <v>-0.49</v>
+        <v>3.22</v>
       </c>
       <c r="F5" s="27" t="n">
-        <v>3.51</v>
+        <v>5.31</v>
       </c>
       <c r="G5" s="27" t="n">
-        <v>2.6</v>
+        <v>4.34</v>
       </c>
       <c r="H5" s="27" t="n">
-        <v>33.8</v>
+        <v>35.4</v>
       </c>
       <c r="I5" s="27" t="n">
-        <v>16.13</v>
+        <v>36.31</v>
       </c>
       <c r="J5" s="27" t="n">
-        <v>28.07</v>
+        <v>6.26</v>
       </c>
       <c r="K5" s="27" t="n">
-        <v>-0.41</v>
+        <v>-0.76</v>
       </c>
       <c r="L5" s="27" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="B6" s="28" t="inlineStr">
         <is>
-          <t>64 (B+)</t>
+          <t>65 (B+)</t>
         </is>
       </c>
       <c r="C6" s="27" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D6" s="27" t="n">
-        <v>64.09</v>
+        <v>64.7</v>
       </c>
       <c r="E6" s="27" t="n">
-        <v>2.34</v>
+        <v>-0.49</v>
       </c>
       <c r="F6" s="27" t="n">
-        <v>0.86</v>
+        <v>3.51</v>
       </c>
       <c r="G6" s="27" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="H6" s="27" t="n">
-        <v>34.4</v>
+        <v>33.8</v>
       </c>
       <c r="I6" s="27" t="n">
-        <v>-16.64</v>
+        <v>16.13</v>
       </c>
       <c r="J6" s="27" t="n">
-        <v>22.05</v>
+        <v>26.71</v>
       </c>
       <c r="K6" s="27" t="n">
-        <v>5.71</v>
+        <v>-0.41</v>
       </c>
       <c r="L6" s="27" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="B7" s="28" t="inlineStr">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="C7" s="27" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D7" s="27" t="n">
-        <v>72.53</v>
+        <v>64.09</v>
       </c>
       <c r="E7" s="27" t="n">
-        <v>3.22</v>
+        <v>2.34</v>
       </c>
       <c r="F7" s="27" t="n">
-        <v>5.31</v>
+        <v>0.86</v>
       </c>
       <c r="G7" s="27" t="n">
-        <v>4.34</v>
+        <v>1.62</v>
       </c>
       <c r="H7" s="27" t="n">
-        <v>35.4</v>
+        <v>34.4</v>
       </c>
       <c r="I7" s="27" t="n">
-        <v>36.31</v>
+        <v>-16.64</v>
       </c>
       <c r="J7" s="27" t="n">
-        <v>4.42</v>
+        <v>21.59</v>
       </c>
       <c r="K7" s="27" t="n">
-        <v>-0.76</v>
+        <v>5.71</v>
       </c>
       <c r="L7" s="27" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="B8" s="28" t="inlineStr">
@@ -4664,76 +4664,76 @@
         </is>
       </c>
       <c r="C8" s="27" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="27" t="n">
-        <v>65.59999999999999</v>
+        <v>63.02</v>
       </c>
       <c r="E8" s="27" t="n">
-        <v>4.35</v>
+        <v>2.51</v>
       </c>
       <c r="F8" s="27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G8" s="27" t="n">
-        <v>1.74</v>
+        <v>2.06</v>
       </c>
       <c r="H8" s="27" t="n">
-        <v>34.8</v>
+        <v>34.2</v>
       </c>
       <c r="I8" s="27" t="n">
-        <v>-8.640000000000001</v>
+        <v>18.48</v>
       </c>
       <c r="J8" s="27" t="n">
-        <v>20.55</v>
+        <v>16.45</v>
       </c>
       <c r="K8" s="27" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L8" s="27" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>61 (B+)</t>
+          <t>62 (B+)</t>
         </is>
       </c>
       <c r="C9" s="27" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D9" s="27" t="n">
-        <v>63.02</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E9" s="27" t="n">
-        <v>2.51</v>
+        <v>4.35</v>
       </c>
       <c r="F9" s="27" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G9" s="27" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="H9" s="27" t="n">
-        <v>34.2</v>
+        <v>34.8</v>
       </c>
       <c r="I9" s="27" t="n">
-        <v>18.48</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="J9" s="27" t="n">
-        <v>16.45</v>
+        <v>19.4</v>
       </c>
       <c r="K9" s="27" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L9" s="27" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -4769,7 +4769,7 @@
         <v>14.29</v>
       </c>
       <c r="J10" s="27" t="n">
-        <v>-0.09</v>
+        <v>-0.54</v>
       </c>
       <c r="K10" s="27" t="n">
         <v>0.08</v>
@@ -4811,7 +4811,7 @@
         <v>-38.63</v>
       </c>
       <c r="J11" s="27" t="n">
-        <v>19.64</v>
+        <v>19.13</v>
       </c>
       <c r="K11" s="27" t="n">
         <v>0.75</v>
@@ -4853,7 +4853,7 @@
         <v>10.29</v>
       </c>
       <c r="J12" s="27" t="n">
-        <v>16.91</v>
+        <v>17</v>
       </c>
       <c r="K12" s="27" t="n">
         <v>1.05</v>
@@ -4895,7 +4895,7 @@
         <v>5.26</v>
       </c>
       <c r="J13" s="27" t="n">
-        <v>18.59</v>
+        <v>18.58</v>
       </c>
       <c r="K13" s="27" t="n">
         <v>3.01</v>
@@ -4937,7 +4937,7 @@
         <v>-28.25</v>
       </c>
       <c r="J14" s="27" t="n">
-        <v>10.75</v>
+        <v>8.65</v>
       </c>
       <c r="K14" s="27" t="n">
         <v>-0.9</v>
@@ -4979,7 +4979,7 @@
         <v>13.55</v>
       </c>
       <c r="J15" s="27" t="n">
-        <v>-0.72</v>
+        <v>-0.64</v>
       </c>
       <c r="K15" s="27" t="n">
         <v>-3.57</v>
@@ -5021,7 +5021,7 @@
         <v>144.37</v>
       </c>
       <c r="J16" s="27" t="n">
-        <v>22.12</v>
+        <v>21.89</v>
       </c>
       <c r="K16" s="27" t="n">
         <v>2.79</v>
@@ -5063,7 +5063,7 @@
         <v>-20.77</v>
       </c>
       <c r="J17" s="27" t="n">
-        <v>0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="K17" s="27" t="n">
         <v>-1.18</v>
@@ -5105,7 +5105,7 @@
         <v>-5.7</v>
       </c>
       <c r="J18" s="27" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="K18" s="27" t="n">
         <v>-0.47</v>
@@ -5145,7 +5145,7 @@
         <v>14.96</v>
       </c>
       <c r="J19" s="27" t="n">
-        <v>4.67</v>
+        <v>4</v>
       </c>
       <c r="K19" s="27" t="n">
         <v>12.86</v>
@@ -5187,7 +5187,7 @@
         <v>-15.43</v>
       </c>
       <c r="J20" s="27" t="n">
-        <v>17.21</v>
+        <v>18.79</v>
       </c>
       <c r="K20" s="27" t="n">
         <v>0.8100000000000001</v>
@@ -5229,7 +5229,7 @@
         <v>1.56</v>
       </c>
       <c r="J21" s="27" t="n">
-        <v>15.41</v>
+        <v>10.88</v>
       </c>
       <c r="K21" s="27" t="n">
         <v>0.63</v>
@@ -5271,7 +5271,7 @@
         <v>4.08</v>
       </c>
       <c r="J22" s="27" t="n">
-        <v>-1.19</v>
+        <v>-1.32</v>
       </c>
       <c r="K22" s="27" t="n">
         <v>-1.78</v>
@@ -5313,7 +5313,7 @@
         <v>5.64</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>20.88</v>
+        <v>20</v>
       </c>
       <c r="K23" s="27" t="n">
         <v>2.14</v>
@@ -5355,7 +5355,7 @@
         <v>1.32</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>18.24</v>
+        <v>16.76</v>
       </c>
       <c r="K24" s="27" t="n">
         <v>-0.65</v>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B25" s="28" t="inlineStr">
         <is>
-          <t>50 (B)</t>
+          <t>51 (B)</t>
         </is>
       </c>
       <c r="C25" s="27" t="n">
@@ -5397,7 +5397,7 @@
         <v>11.46</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>5.89</v>
+        <v>5.46</v>
       </c>
       <c r="K25" s="27" t="n">
         <v>-0.16</v>
@@ -5409,7 +5409,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="B26" s="28" t="inlineStr">
@@ -5418,118 +5418,118 @@
         </is>
       </c>
       <c r="C26" s="27" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D26" s="27" t="n">
-        <v>60.93</v>
+        <v>68.47</v>
       </c>
       <c r="E26" s="27" t="n">
-        <v>4.58</v>
+        <v>2.1</v>
       </c>
       <c r="F26" s="27" t="n">
-        <v>4.75</v>
+        <v>6.46</v>
       </c>
       <c r="G26" s="27" t="n">
-        <v>1.72</v>
+        <v>2.94</v>
       </c>
       <c r="H26" s="27" t="n">
-        <v>34.7</v>
+        <v>33.5</v>
       </c>
       <c r="I26" s="27" t="n">
-        <v>57.77</v>
+        <v>-25.94</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>3.53</v>
+        <v>4.14</v>
       </c>
       <c r="K26" s="27" t="n">
-        <v>-1.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L26" s="27" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
       <c r="B27" s="28" t="inlineStr">
         <is>
-          <t>50 (B)</t>
+          <t>50 (B-)</t>
         </is>
       </c>
       <c r="C27" s="27" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D27" s="27" t="n">
-        <v>73.45999999999999</v>
+        <v>60.93</v>
       </c>
       <c r="E27" s="27" t="n">
-        <v>5.02</v>
+        <v>4.58</v>
       </c>
       <c r="F27" s="27" t="n">
-        <v>4.64</v>
+        <v>4.75</v>
       </c>
       <c r="G27" s="27" t="n">
-        <v>2.68</v>
+        <v>1.72</v>
       </c>
       <c r="H27" s="27" t="n">
-        <v>35.3</v>
+        <v>34.7</v>
       </c>
       <c r="I27" s="27" t="n">
-        <v>-37.08</v>
+        <v>57.77</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-10.76</v>
+        <v>3.7</v>
       </c>
       <c r="K27" s="27" t="n">
-        <v>-4.23</v>
+        <v>-1.09</v>
       </c>
       <c r="L27" s="27" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="B28" s="28" t="inlineStr">
         <is>
-          <t>49 (B-)</t>
+          <t>50 (B)</t>
         </is>
       </c>
       <c r="C28" s="27" t="n">
         <v>3.9</v>
       </c>
       <c r="D28" s="27" t="n">
-        <v>68.47</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="E28" s="27" t="n">
-        <v>2.1</v>
+        <v>5.02</v>
       </c>
       <c r="F28" s="27" t="n">
-        <v>6.46</v>
+        <v>4.64</v>
       </c>
       <c r="G28" s="27" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="H28" s="27" t="n">
-        <v>33.5</v>
+        <v>35.3</v>
       </c>
       <c r="I28" s="27" t="n">
-        <v>-25.94</v>
+        <v>-37.08</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>4.07</v>
+        <v>-10.3</v>
       </c>
       <c r="K28" s="27" t="n">
-        <v>0.9399999999999999</v>
+        <v>-4.23</v>
       </c>
       <c r="L28" s="27" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -5565,7 +5565,7 @@
         <v>-32</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>13.42</v>
+        <v>14.35</v>
       </c>
       <c r="K29" s="27" t="n">
         <v>2.48</v>
@@ -5607,7 +5607,7 @@
         <v>-24.33</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>16.85</v>
+        <v>15.05</v>
       </c>
       <c r="K30" s="27" t="n">
         <v>4.71</v>
@@ -5649,7 +5649,7 @@
         <v>76.97</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-1.69</v>
+        <v>-1.26</v>
       </c>
       <c r="K31" s="27" t="n">
         <v>-3.51</v>
@@ -5661,7 +5661,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Chandler</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="B32" s="28" t="inlineStr">
@@ -5670,82 +5670,82 @@
         </is>
       </c>
       <c r="C32" s="27" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D32" s="27" t="n">
-        <v>65.47</v>
+        <v>60.12</v>
       </c>
       <c r="E32" s="27" t="n">
-        <v>5.17</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F32" s="27" t="n">
-        <v>5.08</v>
+        <v>4.68</v>
       </c>
       <c r="G32" s="27" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="H32" s="27" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="I32" s="27" t="n">
-        <v>-21.38</v>
+        <v>10.06</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-1.68</v>
+        <v>-4.14</v>
       </c>
       <c r="K32" s="27" t="n">
-        <v>-1.94</v>
+        <v>-0.4</v>
       </c>
       <c r="L32" s="27" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="B33" s="28" t="inlineStr">
         <is>
-          <t>47 (B-)</t>
+          <t>46 (B-)</t>
         </is>
       </c>
       <c r="C33" s="27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D33" s="27" t="n">
-        <v>60.12</v>
+        <v>68.17</v>
       </c>
       <c r="E33" s="27" t="n">
-        <v>8.640000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="F33" s="27" t="n">
-        <v>4.68</v>
+        <v>5.2</v>
       </c>
       <c r="G33" s="27" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="H33" s="27" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="I33" s="27" t="n">
-        <v>10.06</v>
+        <v>2.42</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-3.34</v>
+        <v>0.67</v>
       </c>
       <c r="K33" s="27" t="n">
-        <v>-0.4</v>
+        <v>-4.37</v>
       </c>
       <c r="L33" s="27" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Phoenix-Mesa-Chandler</t>
         </is>
       </c>
       <c r="B34" s="28" t="inlineStr">
@@ -5754,34 +5754,34 @@
         </is>
       </c>
       <c r="C34" s="27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D34" s="27" t="n">
-        <v>68.17</v>
+        <v>65.47</v>
       </c>
       <c r="E34" s="27" t="n">
-        <v>1.83</v>
+        <v>5.17</v>
       </c>
       <c r="F34" s="27" t="n">
-        <v>5.2</v>
+        <v>5.08</v>
       </c>
       <c r="G34" s="27" t="n">
-        <v>2.28</v>
+        <v>2.58</v>
       </c>
       <c r="H34" s="27" t="n">
         <v>34.7</v>
       </c>
       <c r="I34" s="27" t="n">
-        <v>2.42</v>
+        <v>-21.38</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.91</v>
+        <v>-2.02</v>
       </c>
       <c r="K34" s="27" t="n">
-        <v>-4.37</v>
+        <v>-1.94</v>
       </c>
       <c r="L34" s="27" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>45 (B-)</t>
+          <t>44 (B-)</t>
         </is>
       </c>
       <c r="C35" s="27" t="n">
@@ -5817,7 +5817,7 @@
         <v>-6.1</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>10.73</v>
+        <v>8.48</v>
       </c>
       <c r="K35" s="27" t="n">
         <v>-1.71</v>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="B36" s="28" t="inlineStr">
         <is>
-          <t>45 (B-)</t>
+          <t>44 (B-)</t>
         </is>
       </c>
       <c r="C36" s="27" t="n">
@@ -5859,7 +5859,7 @@
         <v>-34.38</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>9.220000000000001</v>
+        <v>5.21</v>
       </c>
       <c r="K36" s="27" t="n">
         <v>-0.21</v>
@@ -5901,7 +5901,7 @@
         <v>-0.88</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>14.33</v>
+        <v>14.25</v>
       </c>
       <c r="K37" s="27" t="n">
         <v>0.88</v>
@@ -5943,7 +5943,7 @@
         <v>-36.19</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>5.46</v>
+        <v>3.43</v>
       </c>
       <c r="K38" s="27" t="n">
         <v>-3.3</v>
@@ -5955,7 +5955,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>San Jose-Sunnyvale-Santa Clara</t>
         </is>
       </c>
       <c r="B39" s="28" t="inlineStr">
@@ -5964,124 +5964,124 @@
         </is>
       </c>
       <c r="C39" s="27" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D39" s="27" t="n">
-        <v>64.44</v>
+        <v>64.77</v>
       </c>
       <c r="E39" s="27" t="n">
-        <v>2.81</v>
+        <v>-0.88</v>
       </c>
       <c r="F39" s="27" t="n">
-        <v>5.26</v>
+        <v>7.66</v>
       </c>
       <c r="G39" s="27" t="n">
-        <v>3.9</v>
+        <v>2.14</v>
       </c>
       <c r="H39" s="27" t="n">
-        <v>33.5</v>
+        <v>34.4</v>
       </c>
       <c r="I39" s="27" t="n">
-        <v>-3.79</v>
+        <v>90.23</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>16.16</v>
+        <v>9.58</v>
       </c>
       <c r="K39" s="27" t="n">
-        <v>-2.83</v>
+        <v>-3.54</v>
       </c>
       <c r="L39" s="27" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="B40" s="28" t="inlineStr">
         <is>
-          <t>41 (B-)</t>
+          <t>40 (B-)</t>
         </is>
       </c>
       <c r="C40" s="27" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D40" s="27" t="n">
-        <v>60.61</v>
+        <v>64.44</v>
       </c>
       <c r="E40" s="27" t="n">
-        <v>9.66</v>
+        <v>2.81</v>
       </c>
       <c r="F40" s="27" t="n">
-        <v>4.4</v>
+        <v>5.26</v>
       </c>
       <c r="G40" s="27" t="n">
-        <v>1.72</v>
+        <v>3.9</v>
       </c>
       <c r="H40" s="27" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="I40" s="27" t="n">
-        <v>-2.63</v>
+        <v>-3.79</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>12.27</v>
+        <v>10.12</v>
       </c>
       <c r="K40" s="27" t="n">
-        <v>-2.55</v>
+        <v>-2.83</v>
       </c>
       <c r="L40" s="27" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="B41" s="28" t="inlineStr">
         <is>
-          <t>39 (C+)</t>
+          <t>40 (B-)</t>
         </is>
       </c>
       <c r="C41" s="27" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D41" s="27" t="n">
-        <v>64.69</v>
+        <v>60.61</v>
       </c>
       <c r="E41" s="27" t="n">
-        <v>1.59</v>
+        <v>9.66</v>
       </c>
       <c r="F41" s="27" t="n">
-        <v>5.36</v>
+        <v>4.4</v>
       </c>
       <c r="G41" s="27" t="n">
-        <v>4.1</v>
+        <v>1.72</v>
       </c>
       <c r="H41" s="27" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="I41" s="27" t="n">
-        <v>-15.37</v>
+        <v>-2.63</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>1.59</v>
+        <v>5.54</v>
       </c>
       <c r="K41" s="27" t="n">
-        <v>-0.75</v>
+        <v>-2.55</v>
       </c>
       <c r="L41" s="27" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>San Jose-Sunnyvale-Santa Clara</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="B42" s="28" t="inlineStr">
@@ -6090,40 +6090,40 @@
         </is>
       </c>
       <c r="C42" s="27" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D42" s="27" t="n">
-        <v>64.77</v>
+        <v>64.69</v>
       </c>
       <c r="E42" s="27" t="n">
-        <v>-0.88</v>
+        <v>1.59</v>
       </c>
       <c r="F42" s="27" t="n">
-        <v>7.66</v>
+        <v>5.36</v>
       </c>
       <c r="G42" s="27" t="n">
-        <v>2.14</v>
+        <v>4.1</v>
       </c>
       <c r="H42" s="27" t="n">
-        <v>34.4</v>
+        <v>33.2</v>
       </c>
       <c r="I42" s="27" t="n">
-        <v>90.23</v>
+        <v>-15.37</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>6.95</v>
+        <v>0.73</v>
       </c>
       <c r="K42" s="27" t="n">
-        <v>-3.54</v>
+        <v>-0.75</v>
       </c>
       <c r="L42" s="27" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="B43" s="28" t="inlineStr">
@@ -6132,76 +6132,76 @@
         </is>
       </c>
       <c r="C43" s="27" t="n">
-        <v>5.6</v>
+        <v>7.9</v>
       </c>
       <c r="D43" s="27" t="n">
-        <v>63.62</v>
+        <v>60.66</v>
       </c>
       <c r="E43" s="27" t="n">
-        <v>6.47</v>
+        <v>4.59</v>
       </c>
       <c r="F43" s="27" t="n">
-        <v>5.22</v>
+        <v>5.44</v>
       </c>
       <c r="G43" s="27" t="n">
-        <v>3.04</v>
+        <v>0.12</v>
       </c>
       <c r="H43" s="27" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="I43" s="27" t="n">
-        <v>-46.49</v>
+        <v>61.97</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.24</v>
+        <v>9.4</v>
       </c>
       <c r="K43" s="27" t="n">
-        <v>-1.12</v>
+        <v>-0.76</v>
       </c>
       <c r="L43" s="27" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="B44" s="28" t="inlineStr">
         <is>
-          <t>35 (C+)</t>
+          <t>34 (C+)</t>
         </is>
       </c>
       <c r="C44" s="27" t="n">
-        <v>7.9</v>
+        <v>5.6</v>
       </c>
       <c r="D44" s="27" t="n">
-        <v>60.66</v>
+        <v>63.62</v>
       </c>
       <c r="E44" s="27" t="n">
-        <v>4.59</v>
+        <v>6.47</v>
       </c>
       <c r="F44" s="27" t="n">
-        <v>5.44</v>
+        <v>5.22</v>
       </c>
       <c r="G44" s="27" t="n">
-        <v>0.12</v>
+        <v>3.04</v>
       </c>
       <c r="H44" s="27" t="n">
-        <v>33.8</v>
+        <v>34.2</v>
       </c>
       <c r="I44" s="27" t="n">
-        <v>61.97</v>
+        <v>-46.49</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>9.84</v>
+        <v>-0.71</v>
       </c>
       <c r="K44" s="27" t="n">
-        <v>-0.76</v>
+        <v>-1.12</v>
       </c>
       <c r="L44" s="27" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
@@ -6237,7 +6237,7 @@
         <v>-18.53</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>9.42</v>
+        <v>7.22</v>
       </c>
       <c r="K45" s="27" t="n">
         <v>-1.27</v>
@@ -6279,7 +6279,7 @@
         <v>-20.27</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>0.24</v>
+        <v>-0.24</v>
       </c>
       <c r="K46" s="27" t="n">
         <v>-2.11</v>
@@ -6291,7 +6291,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>Los Angeles-Long Beach-Anaheim</t>
         </is>
       </c>
       <c r="B47" s="28" t="inlineStr">
@@ -6300,76 +6300,76 @@
         </is>
       </c>
       <c r="C47" s="27" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D47" s="27" t="n">
-        <v>63.15</v>
+        <v>63.49</v>
       </c>
       <c r="E47" s="27" t="n">
-        <v>5.45</v>
+        <v>4.16</v>
       </c>
       <c r="F47" s="27" t="n">
-        <v>6.26</v>
+        <v>7.43</v>
       </c>
       <c r="G47" s="27" t="n">
-        <v>2.68</v>
+        <v>1.32</v>
       </c>
       <c r="H47" s="27" t="n">
-        <v>32.7</v>
+        <v>33.7</v>
       </c>
       <c r="I47" s="27" t="n">
-        <v>-21.86</v>
+        <v>6.1</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>6.08</v>
+        <v>0.36</v>
       </c>
       <c r="K47" s="27" t="n">
-        <v>-3.86</v>
+        <v>-2.11</v>
       </c>
       <c r="L47" s="27" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Los Angeles-Long Beach-Anaheim</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="B48" s="28" t="inlineStr">
         <is>
-          <t>28 (C)</t>
+          <t>27 (C)</t>
         </is>
       </c>
       <c r="C48" s="27" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="D48" s="27" t="n">
-        <v>63.49</v>
+        <v>63.15</v>
       </c>
       <c r="E48" s="27" t="n">
-        <v>4.16</v>
+        <v>5.45</v>
       </c>
       <c r="F48" s="27" t="n">
-        <v>7.43</v>
+        <v>6.26</v>
       </c>
       <c r="G48" s="27" t="n">
-        <v>1.32</v>
+        <v>2.68</v>
       </c>
       <c r="H48" s="27" t="n">
-        <v>33.7</v>
+        <v>32.7</v>
       </c>
       <c r="I48" s="27" t="n">
-        <v>6.1</v>
+        <v>-21.86</v>
       </c>
       <c r="J48" s="27" t="n">
-        <v>-0.02</v>
+        <v>5.24</v>
       </c>
       <c r="K48" s="27" t="n">
-        <v>-2.11</v>
+        <v>-3.86</v>
       </c>
       <c r="L48" s="27" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
@@ -6405,7 +6405,7 @@
         <v>-39.96</v>
       </c>
       <c r="J49" s="27" t="n">
-        <v>-1.51</v>
+        <v>-0.83</v>
       </c>
       <c r="K49" s="27" t="n">
         <v>-4.22</v>
@@ -6447,7 +6447,7 @@
         <v>61.67</v>
       </c>
       <c r="J50" s="27" t="n">
-        <v>-0.67</v>
+        <v>-0.82</v>
       </c>
       <c r="K50" s="27" t="n">
         <v>-3.13</v>
@@ -6489,7 +6489,7 @@
         <v>-30.14</v>
       </c>
       <c r="J51" s="27" t="n">
-        <v>0.95</v>
+        <v>3.1</v>
       </c>
       <c r="K51" s="27" t="n">
         <v>-2.11</v>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="D2" s="17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="18" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="F2" s="17" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="G2" s="17" t="n">
         <v>5.2</v>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="F3" s="17" t="n">
-        <v>27.5</v>
+        <v>28.1</v>
       </c>
       <c r="G3" s="17" t="n">
         <v>5.9</v>
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D4" s="8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="F4" s="8" t="n">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>4.6</v>
@@ -6718,7 +6718,7 @@
         </is>
       </c>
       <c r="F5" s="8" t="n">
-        <v>52.2</v>
+        <v>51.8</v>
       </c>
       <c r="G5" s="8" t="n">
         <v>4.4</v>
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="D6" s="11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="F6" s="11" t="n">
-        <v>44.6</v>
+        <v>44.4</v>
       </c>
       <c r="G6" s="11" t="n">
         <v>5</v>
@@ -6794,7 +6794,7 @@
         </is>
       </c>
       <c r="F7" s="11" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="G7" s="11" t="n">
         <v>3.7</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="F9" s="8" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="G9" s="8" t="n">
         <v>3.5</v>
@@ -6908,7 +6908,7 @@
         </is>
       </c>
       <c r="F10" s="11" t="n">
-        <v>42.1</v>
+        <v>42.5</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>5.1</v>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="D11" s="11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="12" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="F11" s="11" t="n">
-        <v>46.6</v>
+        <v>46.4</v>
       </c>
       <c r="G11" s="11" t="n">
         <v>4.2</v>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="D12" s="11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="12" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="F12" s="11" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>3.9</v>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="F14" s="17" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="G14" s="17" t="n">
         <v>4.8</v>
@@ -7098,7 +7098,7 @@
         </is>
       </c>
       <c r="F15" s="11" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="G15" s="11" t="n">
         <v>4.3</v>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="F16" s="8" t="n">
-        <v>59.1</v>
+        <v>59.3</v>
       </c>
       <c r="G16" s="8" t="n">
         <v>4.6</v>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="F17" s="8" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="G17" s="8" t="n">
         <v>4.1</v>
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="F19" s="17" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="G19" s="17" t="n">
         <v>5</v>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="F20" s="8" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="G20" s="8" t="n">
         <v>3.7</v>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="D21" s="11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="12" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         </is>
       </c>
       <c r="F21" s="11" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="G21" s="11" t="n">
         <v>4.3</v>
@@ -7364,7 +7364,7 @@
         </is>
       </c>
       <c r="F22" s="14" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="G22" s="14" t="n">
         <v>4.1</v>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="F23" s="11" t="n">
-        <v>48.6</v>
+        <v>49.4</v>
       </c>
       <c r="G23" s="11" t="n">
         <v>4.3</v>
@@ -7440,7 +7440,7 @@
         </is>
       </c>
       <c r="F24" s="8" t="n">
-        <v>52.8</v>
+        <v>53.2</v>
       </c>
       <c r="G24" s="8" t="n">
         <v>4.5</v>
@@ -7478,7 +7478,7 @@
         </is>
       </c>
       <c r="F25" s="11" t="n">
-        <v>42.5</v>
+        <v>41.7</v>
       </c>
       <c r="G25" s="11" t="n">
         <v>4.4</v>
@@ -7554,7 +7554,7 @@
         </is>
       </c>
       <c r="F27" s="14" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="G27" s="14" t="n">
         <v>5.3</v>
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="F28" s="20" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="G28" s="20" t="n">
         <v>5.4</v>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="F29" s="11" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="G29" s="11" t="n">
         <v>4.7</v>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="D30" s="14" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="15" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         </is>
       </c>
       <c r="F30" s="14" t="n">
-        <v>34.6</v>
+        <v>33.8</v>
       </c>
       <c r="G30" s="14" t="n">
         <v>5.6</v>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="F32" s="8" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="G32" s="8" t="n">
         <v>4.3</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="F33" s="8" t="n">
-        <v>52.4</v>
+        <v>52</v>
       </c>
       <c r="G33" s="8" t="n">
         <v>4.7</v>
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="F34" s="5" t="n">
-        <v>68.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>3.6</v>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="F35" s="8" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="G35" s="8" t="n">
         <v>3.4</v>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="F36" s="5" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>3.1</v>
@@ -7910,40 +7910,40 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="n">
+      <c r="A37" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>San Jose-Sunnyvale-Santa Clara</t>
         </is>
       </c>
-      <c r="C37" s="15" t="inlineStr">
+      <c r="C37" s="12" t="inlineStr">
         <is>
           <t>San Jose</t>
         </is>
       </c>
-      <c r="D37" s="14" t="n">
-        <v>39</v>
-      </c>
-      <c r="E37" s="15" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="F37" s="14" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="G37" s="14" t="n">
+      <c r="D37" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F37" s="11" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="G37" s="11" t="n">
         <v>4.7</v>
       </c>
-      <c r="H37" s="14" t="n">
+      <c r="H37" s="11" t="n">
         <v>64.77</v>
       </c>
-      <c r="I37" s="14" t="n">
+      <c r="I37" s="11" t="n">
         <v>-0.88</v>
       </c>
-      <c r="J37" s="14" t="n">
+      <c r="J37" s="11" t="n">
         <v>7.66</v>
       </c>
     </row>
@@ -7970,7 +7970,7 @@
         </is>
       </c>
       <c r="F38" s="8" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="G38" s="8" t="n">
         <v>4</v>
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="D39" s="11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="12" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="F39" s="11" t="n">
-        <v>41.4</v>
+        <v>40</v>
       </c>
       <c r="G39" s="11" t="n">
         <v>4.6</v>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="F42" s="8" t="n">
-        <v>56.2</v>
+        <v>56</v>
       </c>
       <c r="G42" s="8" t="n">
         <v>3.5</v>
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>72.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>3.3</v>
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="D44" s="5" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E44" s="6" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="F44" s="5" t="n">
-        <v>61.4</v>
+        <v>61.6</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>4</v>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="D46" s="11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="12" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         </is>
       </c>
       <c r="F46" s="11" t="n">
-        <v>44.7</v>
+        <v>43.9</v>
       </c>
       <c r="G46" s="11" t="n">
         <v>4.6</v>
@@ -8304,7 +8304,7 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E47" s="6" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="F47" s="5" t="n">
-        <v>64.3</v>
+        <v>65.5</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>3.8</v>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="F48" s="8" t="n">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
       <c r="G48" s="8" t="n">
         <v>2.5</v>
@@ -8388,7 +8388,7 @@
         </is>
       </c>
       <c r="F49" s="14" t="n">
-        <v>34.6</v>
+        <v>35.2</v>
       </c>
       <c r="G49" s="14" t="n">
         <v>7.9</v>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="F3" s="34" t="inlineStr">
         <is>
-          <t>San Jose-Sunnyvale-Santa Clara</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="G3" s="34" t="n">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="F4" s="34" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="G4" s="34" t="n">
@@ -8652,11 +8652,11 @@
       </c>
       <c r="F5" s="34" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="G5" s="34" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="34" t="inlineStr">
         <is>
@@ -8670,11 +8670,11 @@
       </c>
       <c r="B6" s="33" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="C6" s="33" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="33" t="inlineStr">
         <is>
@@ -8704,11 +8704,11 @@
       </c>
       <c r="B7" s="33" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="C7" s="33" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="33" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B8" s="33" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="C8" s="33" t="n">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="F8" s="34" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>Los Angeles-Long Beach-Anaheim</t>
         </is>
       </c>
       <c r="G8" s="34" t="n">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B9" s="33" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="C9" s="33" t="n">
@@ -8788,11 +8788,11 @@
       </c>
       <c r="F9" s="34" t="inlineStr">
         <is>
-          <t>Los Angeles-Long Beach-Anaheim</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="G9" s="34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="34" t="inlineStr">
         <is>
@@ -8806,11 +8806,11 @@
       </c>
       <c r="B10" s="33" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="C10" s="33" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="33" t="inlineStr">
         <is>

--- a/Economic_Metrics_All_Metros.xlsx
+++ b/Economic_Metrics_All_Metros.xlsx
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -670,20 +670,20 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
+          <t>Grand Rapids</t>
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>67.5</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
@@ -701,20 +701,20 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Milwaukee</t>
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>67.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
@@ -732,20 +732,20 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="D5" s="4" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>65</v>
+        <v>65.8</v>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
@@ -763,16 +763,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="D6" s="4" t="n">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>65.09999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
@@ -794,16 +794,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Hartford</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D7" s="4" t="n">
@@ -825,20 +825,20 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Hartford</t>
         </is>
       </c>
       <c r="D8" s="4" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>64.09999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
@@ -856,20 +856,20 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Grand Rapids</t>
+          <t>Louisville</t>
         </is>
       </c>
       <c r="D9" s="4" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>63.7</v>
+        <v>62.6</v>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D10" s="4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>62.6</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
@@ -918,20 +918,20 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58.7</v>
+        <v>59.6</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -949,20 +949,20 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -980,20 +980,20 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>Providence-Warwick</t>
+          <t>Virginia Beach-Chesapeake-Norfolk</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>Providence</t>
+          <t>Virginia Beach</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55.6</v>
+        <v>56.9</v>
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
@@ -1011,20 +1011,20 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell</t>
+          <t>Seattle-Tacoma-Bellevue</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54.7</v>
+        <v>56.3</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
@@ -1042,20 +1042,20 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>Virginia Beach-Chesapeake-Norfolk</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>Virginia Beach</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55.4</v>
+        <v>56.3</v>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53.5</v>
+        <v>54.7</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -1104,16 +1104,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53.6</v>
+        <v>54.1</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1135,16 +1135,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1166,20 +1166,20 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53.1</v>
+        <v>53.8</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1228,20 +1228,20 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51.6</v>
+        <v>52.6</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1259,20 +1259,20 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Providence-Warwick</t>
         </is>
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Providence</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51.6</v>
+        <v>52.9</v>
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
@@ -1290,16 +1290,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Dallas-Fort Worth-Arlington</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
@@ -1321,16 +1321,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Chicago-Naperville-Elgin</t>
         </is>
       </c>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D24" s="7" t="n">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51.1</v>
+        <v>51.2</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>Raleigh-Cary</t>
+          <t>Houston-Pasadena-The Woodlands</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>Raleigh</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D25" s="7" t="n">
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="G25" s="6" t="inlineStr">
         <is>
@@ -1383,20 +1383,20 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>Chicago-Naperville-Elgin</t>
+          <t>Raleigh-Cary</t>
         </is>
       </c>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Raleigh</t>
         </is>
       </c>
       <c r="D26" s="7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="6" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50.3</v>
+        <v>51.3</v>
       </c>
       <c r="G26" s="6" t="inlineStr">
         <is>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="D27" s="7" t="n">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="F27" s="5" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
       <c r="G27" s="6" t="inlineStr">
         <is>
@@ -1444,52 +1444,52 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>Detroit-Warren-Dearborn</t>
-        </is>
-      </c>
-      <c r="C28" s="9" t="inlineStr">
-        <is>
-          <t>Detroit</t>
-        </is>
-      </c>
-      <c r="D28" s="10" t="n">
+      <c r="A28" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="G28" s="9" t="inlineStr">
-        <is>
-          <t>Below Average</t>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="G28" s="6" t="inlineStr">
+        <is>
+          <t>Average</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="D29" s="10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="9" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="F29" s="8" t="n">
-        <v>49.9</v>
+        <v>48.3</v>
       </c>
       <c r="G29" s="9" t="inlineStr">
         <is>
@@ -1507,20 +1507,20 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>Houston-Pasadena-The Woodlands</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="D30" s="10" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F30" s="8" t="n">
-        <v>49.1</v>
+        <v>46.3</v>
       </c>
       <c r="G30" s="9" t="inlineStr">
         <is>
@@ -1538,20 +1538,20 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="D31" s="10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="9" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="F31" s="8" t="n">
-        <v>47.5</v>
+        <v>46.5</v>
       </c>
       <c r="G31" s="9" t="inlineStr">
         <is>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="32">
       <c r="A32" s="8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Chandler</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="D32" s="10" t="n">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="F32" s="8" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="G32" s="9" t="inlineStr">
         <is>
@@ -1600,20 +1600,20 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Washington DC</t>
         </is>
       </c>
       <c r="D33" s="10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="9" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="F33" s="8" t="n">
-        <v>45.8</v>
+        <v>44.6</v>
       </c>
       <c r="G33" s="9" t="inlineStr">
         <is>
@@ -1631,20 +1631,20 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="D34" s="10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="9" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="F34" s="8" t="n">
-        <v>46.5</v>
+        <v>44.8</v>
       </c>
       <c r="G34" s="9" t="inlineStr">
         <is>
@@ -1662,20 +1662,20 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Phoenix-Mesa-Chandler</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>Washington DC</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="D35" s="10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="9" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="F35" s="8" t="n">
-        <v>45.2</v>
+        <v>44.5</v>
       </c>
       <c r="G35" s="9" t="inlineStr">
         <is>
@@ -1693,20 +1693,20 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Baltimore</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="D36" s="10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="9" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="F36" s="8" t="n">
-        <v>44.8</v>
+        <v>44</v>
       </c>
       <c r="G36" s="9" t="inlineStr">
         <is>
@@ -1724,20 +1724,20 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Baltimore-Columbia-Towson</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Baltimore</t>
         </is>
       </c>
       <c r="D37" s="10" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E37" s="9" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="F37" s="8" t="n">
-        <v>44.1</v>
+        <v>40.9</v>
       </c>
       <c r="G37" s="9" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="F38" s="8" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="G38" s="9" t="inlineStr">
         <is>
@@ -1848,16 +1848,16 @@
     </row>
     <row r="41">
       <c r="A41" s="11" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="D41" s="13" t="n">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="F41" s="11" t="n">
-        <v>39.3</v>
+        <v>38.6</v>
       </c>
       <c r="G41" s="12" t="inlineStr">
         <is>
@@ -1879,16 +1879,16 @@
     </row>
     <row r="42">
       <c r="A42" s="11" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B42" s="12" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="C42" s="12" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="D42" s="13" t="n">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="F42" s="11" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="G42" s="12" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D43" s="13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" s="12" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F43" s="11" t="n">
-        <v>36.5</v>
+        <v>37.1</v>
       </c>
       <c r="G43" s="12" t="inlineStr">
         <is>
@@ -1941,20 +1941,20 @@
     </row>
     <row r="44">
       <c r="A44" s="11" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B44" s="12" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="C44" s="12" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Riverside</t>
         </is>
       </c>
       <c r="D44" s="13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="12" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="F44" s="11" t="n">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
@@ -1972,16 +1972,16 @@
     </row>
     <row r="45">
       <c r="A45" s="11" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Riverside</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="D45" s="13" t="n">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F45" s="11" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="G45" s="12" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="D46" s="13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46" s="12" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="F46" s="11" t="n">
-        <v>30.2</v>
+        <v>30.8</v>
       </c>
       <c r="G46" s="12" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="D47" s="16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" s="15" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F47" s="14" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="G47" s="15" t="inlineStr">
         <is>
@@ -2065,20 +2065,20 @@
     </row>
     <row r="48">
       <c r="A48" s="14" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B48" s="15" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>San Francisco-Oakland-Fremont</t>
         </is>
       </c>
       <c r="C48" s="15" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="D48" s="16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E48" s="15" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F48" s="14" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="G48" s="15" t="inlineStr">
         <is>
@@ -2096,16 +2096,16 @@
     </row>
     <row r="49">
       <c r="A49" s="14" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B49" s="15" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Fremont</t>
+          <t>San Diego-Chula Vista-Carlsbad</t>
         </is>
       </c>
       <c r="C49" s="15" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="D49" s="16" t="n">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="F49" s="14" t="n">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="G49" s="15" t="inlineStr">
         <is>
@@ -2127,20 +2127,20 @@
     </row>
     <row r="50">
       <c r="A50" s="14" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B50" s="15" t="inlineStr">
         <is>
-          <t>San Diego-Chula Vista-Carlsbad</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="C50" s="15" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D50" s="16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" s="15" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="F50" s="14" t="n">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="G50" s="15" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="21" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="21" t="n">
         <v>78</v>
@@ -2335,281 +2335,281 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="B3" s="20" t="n">
+        <v>69</v>
+      </c>
+      <c r="C3" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" s="22" t="n">
         <v>68</v>
       </c>
-      <c r="C3" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" s="23" t="n">
-        <v>42</v>
-      </c>
       <c r="E3" s="22" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3" s="21" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G3" s="23" t="n">
-        <v>26</v>
-      </c>
-      <c r="H3" s="22" t="n">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="H3" s="21" t="n">
+        <v>78</v>
       </c>
       <c r="I3" s="23" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J3" s="21" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K3" s="21" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L3" s="21" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="B4" s="20" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="D4" s="21" t="n">
-        <v>72</v>
+        <v>94</v>
+      </c>
+      <c r="D4" s="23" t="n">
+        <v>28</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="F4" s="23" t="n">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="F4" s="21" t="n">
+        <v>94</v>
       </c>
       <c r="G4" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="H4" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="I4" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="J4" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="K4" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="L4" s="22" t="n">
-        <v>56</v>
+        <v>26</v>
+      </c>
+      <c r="H4" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="I4" s="23" t="n">
+        <v>32</v>
+      </c>
+      <c r="J4" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="K4" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="L4" s="21" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="B5" s="20" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="21" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="E5" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21" t="n">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="E5" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="F5" s="23" t="n">
+        <v>48</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>30</v>
       </c>
       <c r="H5" s="21" t="n">
         <v>86</v>
       </c>
       <c r="I5" s="21" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J5" s="22" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K5" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="L5" s="23" t="n">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="L5" s="22" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="B6" s="20" t="n">
         <v>65</v>
       </c>
       <c r="C6" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="D6" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="E6" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="F6" s="22" t="n">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="E6" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="F6" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="H6" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="I6" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="21" t="n">
-        <v>88</v>
-      </c>
-      <c r="K6" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="L6" s="22" t="n">
-        <v>62</v>
+        <v>86</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="K6" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="L6" s="23" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B7" s="20" t="n">
         <v>65</v>
       </c>
       <c r="C7" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="D7" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="E7" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="G7" s="23" t="n">
+        <v>88</v>
+      </c>
+      <c r="D7" s="23" t="n">
         <v>48</v>
       </c>
+      <c r="E7" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>78</v>
+      </c>
       <c r="H7" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="I7" s="21" t="n">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>4</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="K7" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="L7" s="21" t="n">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="K7" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="B8" s="20" t="n">
-        <v>64</v>
-      </c>
-      <c r="C8" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="D8" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="E8" s="23" t="n">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="F8" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="G8" s="22" t="n">
+        <v>82</v>
+      </c>
+      <c r="G8" s="23" t="n">
+        <v>48</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>38</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="K8" s="22" t="n">
         <v>56</v>
       </c>
-      <c r="H8" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="I8" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="J8" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="K8" s="21" t="n">
-        <v>88</v>
-      </c>
       <c r="L8" s="21" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="B9" s="20" t="n">
-        <v>64</v>
-      </c>
-      <c r="C9" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="E9" s="22" t="n">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>34</v>
+      </c>
+      <c r="E9" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="G9" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="H9" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>56</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>82</v>
+      </c>
+      <c r="J9" s="21" t="n">
         <v>78</v>
       </c>
-      <c r="I9" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="J9" s="21" t="n">
-        <v>90</v>
-      </c>
       <c r="K9" s="21" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L9" s="21" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="B10" s="20" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="21" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="21" t="n">
         <v>94</v>
@@ -2655,201 +2655,201 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="B11" s="20" t="n">
-        <v>59</v>
-      </c>
-      <c r="C11" s="23" t="n">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="C11" s="21" t="n">
+        <v>76</v>
       </c>
       <c r="D11" s="21" t="n">
         <v>82</v>
       </c>
-      <c r="E11" s="21" t="n">
-        <v>92</v>
+      <c r="E11" s="23" t="n">
+        <v>40</v>
       </c>
       <c r="F11" s="23" t="n">
-        <v>32</v>
-      </c>
-      <c r="G11" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="H11" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="I11" s="21" t="n">
+        <v>44</v>
+      </c>
+      <c r="G11" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="I11" s="22" t="n">
+        <v>68</v>
+      </c>
+      <c r="J11" s="21" t="n">
+        <v>82</v>
+      </c>
+      <c r="K11" s="21" t="n">
         <v>76</v>
       </c>
-      <c r="J11" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="K11" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="L11" s="22" t="n">
-        <v>52</v>
+      <c r="L11" s="23" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="B12" s="20" t="n">
-        <v>56</v>
-      </c>
-      <c r="C12" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <v>68</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>62</v>
       </c>
       <c r="E12" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="F12" s="23" t="n">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>96</v>
       </c>
       <c r="G12" s="23" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H12" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="I12" s="22" t="n">
-        <v>68</v>
+      <c r="I12" s="23" t="n">
+        <v>34</v>
       </c>
       <c r="J12" s="21" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K12" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="L12" s="23" t="n">
-        <v>48</v>
+        <v>86</v>
+      </c>
+      <c r="L12" s="22" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Providence-Warwick</t>
+          <t>Virginia Beach-Chesapeake-Norfolk</t>
         </is>
       </c>
       <c r="B13" s="20" t="n">
-        <v>56</v>
-      </c>
-      <c r="C13" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="D13" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="F13" s="21" t="n">
+        <v>57</v>
+      </c>
+      <c r="C13" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="D13" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="F13" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="G13" s="23" t="n">
+        <v>28</v>
+      </c>
+      <c r="H13" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="J13" s="21" t="n">
         <v>84</v>
       </c>
-      <c r="G13" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="I13" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="J13" s="21" t="n">
-        <v>96</v>
-      </c>
       <c r="K13" s="21" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L13" s="21" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell</t>
+          <t>Seattle-Tacoma-Bellevue</t>
         </is>
       </c>
       <c r="B14" s="20" t="n">
-        <v>55</v>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="D14" s="23" t="n">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="C14" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>84</v>
       </c>
       <c r="E14" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="F14" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="G14" s="22" t="n">
-        <v>68</v>
+        <v>92</v>
+      </c>
+      <c r="F14" s="23" t="n">
+        <v>32</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>84</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>72</v>
       </c>
-      <c r="I14" s="23" t="n">
-        <v>26</v>
+      <c r="I14" s="21" t="n">
+        <v>76</v>
       </c>
       <c r="J14" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="K14" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="L14" s="23" t="n">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="K14" s="22" t="n">
+        <v>58</v>
+      </c>
+      <c r="L14" s="22" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Virginia Beach-Chesapeake-Norfolk</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="B15" s="20" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="D15" s="22" t="n">
         <v>66</v>
       </c>
-      <c r="D15" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="F15" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="G15" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="H15" s="23" t="n">
-        <v>10</v>
+      <c r="E15" s="23" t="n">
+        <v>32</v>
+      </c>
+      <c r="F15" s="23" t="n">
+        <v>38</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="H15" s="22" t="n">
+        <v>52</v>
       </c>
       <c r="I15" s="22" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="K15" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="L15" s="21" t="n">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="K15" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="L15" s="22" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -2859,10 +2859,10 @@
         </is>
       </c>
       <c r="B16" s="20" t="n">
-        <v>54</v>
-      </c>
-      <c r="C16" s="22" t="n">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <v>70</v>
       </c>
       <c r="D16" s="21" t="n">
         <v>88</v>
@@ -2895,318 +2895,318 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="B17" s="20" t="n">
         <v>54</v>
       </c>
-      <c r="C17" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" s="22" t="n">
+      <c r="C17" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="D17" s="23" t="n">
+        <v>46</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="G17" s="22" t="n">
         <v>68</v>
       </c>
-      <c r="E17" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="F17" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="G17" s="23" t="n">
-        <v>14</v>
-      </c>
-      <c r="H17" s="23" t="n">
+      <c r="H17" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="I17" s="23" t="n">
+        <v>26</v>
+      </c>
+      <c r="J17" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="I17" s="23" t="n">
-        <v>34</v>
-      </c>
-      <c r="J17" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="K17" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="L17" s="22" t="n">
-        <v>62</v>
+      <c r="K17" s="23" t="n">
+        <v>42</v>
+      </c>
+      <c r="L17" s="23" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="B18" s="20" t="n">
         <v>54</v>
       </c>
-      <c r="C18" s="21" t="n">
-        <v>90</v>
+      <c r="C18" s="22" t="n">
+        <v>54</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" s="22" t="n">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>76</v>
       </c>
       <c r="G18" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="H18" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="I18" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="J18" s="23" t="n">
-        <v>38</v>
+        <v>82</v>
+      </c>
+      <c r="H18" s="23" t="n">
+        <v>48</v>
+      </c>
+      <c r="I18" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" s="21" t="n">
+        <v>76</v>
       </c>
       <c r="K18" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="L18" s="22" t="n">
-        <v>54</v>
+        <v>92</v>
+      </c>
+      <c r="L18" s="23" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="B19" s="20" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="D19" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="E19" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="F19" s="22" t="n">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="23" t="n">
+        <v>38</v>
+      </c>
+      <c r="E19" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>88</v>
       </c>
       <c r="G19" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="H19" s="21" t="n">
-        <v>96</v>
+        <v>20</v>
+      </c>
+      <c r="H19" s="23" t="n">
+        <v>34</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="J19" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" s="23" t="n">
-        <v>34</v>
-      </c>
-      <c r="L19" s="23" t="n">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="J19" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="K19" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="L19" s="21" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
       <c r="B20" s="20" t="n">
         <v>53</v>
       </c>
-      <c r="C20" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="E20" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="F20" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="G20" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="H20" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="I20" s="21" t="n">
+      <c r="C20" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D20" s="23" t="n">
+        <v>40</v>
+      </c>
+      <c r="E20" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="G20" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="I20" s="23" t="n">
+        <v>48</v>
+      </c>
+      <c r="J20" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="K20" s="21" t="n">
         <v>74</v>
       </c>
-      <c r="J20" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K20" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="L20" s="23" t="n">
-        <v>16</v>
+      <c r="L20" s="21" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="B21" s="20" t="n">
-        <v>52</v>
-      </c>
-      <c r="C21" s="23" t="n">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="C21" s="21" t="n">
+        <v>80</v>
       </c>
       <c r="D21" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="22" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="J21" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="E21" s="23" t="n">
-        <v>14</v>
-      </c>
-      <c r="F21" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="G21" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="H21" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="I21" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="J21" s="21" t="n">
-        <v>70</v>
-      </c>
       <c r="K21" s="21" t="n">
-        <v>74</v>
-      </c>
-      <c r="L21" s="21" t="n">
-        <v>70</v>
+        <v>98</v>
+      </c>
+      <c r="L21" s="22" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Providence-Warwick</t>
         </is>
       </c>
       <c r="B22" s="20" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="D22" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="F22" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <v>62</v>
+      </c>
+      <c r="H22" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="E22" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="F22" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="G22" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="H22" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="I22" s="23" t="n">
-        <v>20</v>
+      <c r="I22" s="21" t="n">
+        <v>98</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="K22" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="L22" s="23" t="n">
-        <v>42</v>
+        <v>90</v>
+      </c>
+      <c r="L22" s="21" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Dallas-Fort Worth-Arlington</t>
         </is>
       </c>
       <c r="B23" s="20" t="n">
         <v>52</v>
       </c>
       <c r="C23" s="23" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D23" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="E23" s="23" t="n">
-        <v>32</v>
-      </c>
-      <c r="F23" s="23" t="n">
+        <v>90</v>
+      </c>
+      <c r="E23" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="F23" s="22" t="n">
+        <v>58</v>
+      </c>
+      <c r="G23" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="G23" s="21" t="n">
+      <c r="H23" s="21" t="n">
         <v>96</v>
       </c>
-      <c r="H23" s="22" t="n">
-        <v>52</v>
-      </c>
       <c r="I23" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="J23" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="K23" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="L23" s="22" t="n">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="J23" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" s="23" t="n">
+        <v>34</v>
+      </c>
+      <c r="L23" s="23" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Chicago-Naperville-Elgin</t>
         </is>
       </c>
       <c r="B24" s="20" t="n">
         <v>51</v>
       </c>
       <c r="C24" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="D24" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="E24" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="21" t="n">
-        <v>88</v>
+        <v>38</v>
+      </c>
+      <c r="D24" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="E24" s="22" t="n">
+        <v>56</v>
+      </c>
+      <c r="F24" s="23" t="n">
+        <v>46</v>
       </c>
       <c r="G24" s="23" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H24" s="23" t="n">
-        <v>34</v>
-      </c>
-      <c r="I24" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J24" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="K24" s="21" t="n">
-        <v>84</v>
+        <v>14</v>
+      </c>
+      <c r="I24" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="J24" s="23" t="n">
+        <v>46</v>
+      </c>
+      <c r="K24" s="22" t="n">
+        <v>66</v>
       </c>
       <c r="L24" s="21" t="n">
         <v>86</v>
@@ -3215,521 +3215,521 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Raleigh-Cary</t>
+          <t>Houston-Pasadena-The Woodlands</t>
         </is>
       </c>
       <c r="B25" s="20" t="n">
         <v>51</v>
       </c>
-      <c r="C25" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="D25" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="E25" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="F25" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="G25" s="21" t="n">
+      <c r="C25" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="D25" s="22" t="n">
+        <v>56</v>
+      </c>
+      <c r="E25" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="F25" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="G25" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" s="21" t="n">
         <v>98</v>
       </c>
-      <c r="H25" s="23" t="n">
-        <v>10</v>
-      </c>
       <c r="I25" s="23" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="J25" s="22" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25" s="23" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L25" s="23" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chicago-Naperville-Elgin</t>
+          <t>Raleigh-Cary</t>
         </is>
       </c>
       <c r="B26" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="C26" s="23" t="n">
-        <v>32</v>
-      </c>
-      <c r="D26" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="E26" s="22" t="n">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="C26" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="E26" s="23" t="n">
+        <v>44</v>
       </c>
       <c r="F26" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="G26" s="23" t="n">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="G26" s="21" t="n">
+        <v>98</v>
       </c>
       <c r="H26" s="23" t="n">
-        <v>14</v>
-      </c>
-      <c r="I26" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="J26" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="K26" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="L26" s="21" t="n">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="I26" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="J26" s="22" t="n">
+        <v>58</v>
+      </c>
+      <c r="K26" s="23" t="n">
+        <v>40</v>
+      </c>
+      <c r="L26" s="23" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="B27" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="C27" s="21" t="n">
-        <v>70</v>
+      <c r="C27" s="22" t="n">
+        <v>54</v>
       </c>
       <c r="D27" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="E27" s="23" t="n">
-        <v>34</v>
-      </c>
-      <c r="F27" s="23" t="n">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="E27" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="F27" s="22" t="n">
+        <v>54</v>
       </c>
       <c r="G27" s="22" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H27" s="23" t="n">
         <v>28</v>
       </c>
-      <c r="I27" s="23" t="n">
-        <v>18</v>
+      <c r="I27" s="21" t="n">
+        <v>74</v>
       </c>
       <c r="J27" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="K27" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="L27" s="21" t="n">
-        <v>70</v>
+        <v>16</v>
+      </c>
+      <c r="K27" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="23" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B28" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="C28" s="23" t="n">
-        <v>48</v>
+      <c r="C28" s="21" t="n">
+        <v>96</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E28" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="F28" s="22" t="n">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="F28" s="23" t="n">
+        <v>10</v>
       </c>
       <c r="G28" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="H28" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="I28" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="J28" s="22" t="n">
         <v>68</v>
       </c>
-      <c r="I28" s="21" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="K28" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="L28" s="21" t="n">
-        <v>82</v>
+      <c r="K28" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="L28" s="23" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="B29" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="C29" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="D29" s="23" t="n">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="D29" s="21" t="n">
+        <v>86</v>
       </c>
       <c r="E29" s="23" t="n">
+        <v>34</v>
+      </c>
+      <c r="F29" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G29" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="H29" s="23" t="n">
         <v>28</v>
       </c>
-      <c r="F29" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="G29" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="H29" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="I29" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J29" s="22" t="n">
-        <v>68</v>
+      <c r="I29" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="J29" s="23" t="n">
+        <v>40</v>
       </c>
       <c r="K29" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="L29" s="21" t="n">
         <v>70</v>
-      </c>
-      <c r="L29" s="23" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Houston-Pasadena-The Woodlands</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
       <c r="B30" s="20" t="n">
-        <v>49</v>
-      </c>
-      <c r="C30" s="23" t="n">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="C30" s="21" t="n">
+        <v>70</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E30" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="F30" s="21" t="n">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="F30" s="23" t="n">
+        <v>20</v>
       </c>
       <c r="G30" s="23" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H30" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="I30" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="J30" s="22" t="n">
-        <v>56</v>
+        <v>82</v>
+      </c>
+      <c r="I30" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="J30" s="23" t="n">
+        <v>8</v>
       </c>
       <c r="K30" s="23" t="n">
-        <v>26</v>
-      </c>
-      <c r="L30" s="23" t="n">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="L30" s="24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="B31" s="20" t="n">
-        <v>48</v>
-      </c>
-      <c r="C31" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="D31" s="23" t="n">
-        <v>26</v>
-      </c>
-      <c r="E31" s="21" t="n">
+        <v>46</v>
+      </c>
+      <c r="C31" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="D31" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="E31" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" s="21" t="n">
         <v>86</v>
       </c>
-      <c r="F31" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="G31" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="H31" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="I31" s="21" t="n">
-        <v>94</v>
+      <c r="G31" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="H31" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="J31" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="K31" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="L31" s="24" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K31" s="22" t="n">
+        <v>50</v>
+      </c>
+      <c r="L31" s="23" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Chandler</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="B32" s="20" t="n">
         <v>46</v>
       </c>
       <c r="C32" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="D32" s="22" t="n">
         <v>64</v>
       </c>
-      <c r="E32" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F32" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="G32" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="H32" s="22" t="n">
-        <v>68</v>
+      <c r="D32" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="E32" s="23" t="n">
+        <v>42</v>
+      </c>
+      <c r="F32" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="G32" s="22" t="n">
+        <v>58</v>
+      </c>
+      <c r="H32" s="21" t="n">
+        <v>84</v>
       </c>
       <c r="I32" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J32" s="23" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="J32" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="K32" s="23" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="L32" s="23" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="B33" s="20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="23" t="n">
+        <v>44</v>
+      </c>
+      <c r="D33" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E33" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="G33" s="23" t="n">
         <v>42</v>
       </c>
-      <c r="D33" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="E33" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="F33" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="G33" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="H33" s="22" t="n">
-        <v>52</v>
+      <c r="H33" s="21" t="n">
+        <v>78</v>
       </c>
       <c r="I33" s="22" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J33" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="L33" s="23" t="n">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="K33" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" s="21" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
       <c r="B34" s="20" t="n">
+        <v>45</v>
+      </c>
+      <c r="C34" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="D34" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="E34" s="23" t="n">
+        <v>48</v>
+      </c>
+      <c r="F34" s="22" t="n">
+        <v>56</v>
+      </c>
+      <c r="G34" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="H34" s="22" t="n">
+        <v>68</v>
+      </c>
+      <c r="I34" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="J34" s="23" t="n">
+        <v>36</v>
+      </c>
+      <c r="K34" s="23" t="n">
         <v>46</v>
       </c>
-      <c r="C34" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="D34" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="E34" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="F34" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="G34" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="H34" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="I34" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="J34" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L34" s="23" t="n">
-        <v>2</v>
+      <c r="L34" s="21" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Phoenix-Mesa-Chandler</t>
         </is>
       </c>
       <c r="B35" s="20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="23" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D35" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="E35" s="23" t="n">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="E35" s="22" t="n">
+        <v>60</v>
       </c>
       <c r="F35" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="G35" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="H35" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="I35" s="22" t="n">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="G35" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="H35" s="22" t="n">
+        <v>68</v>
+      </c>
+      <c r="I35" s="23" t="n">
+        <v>24</v>
       </c>
       <c r="J35" s="23" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K35" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="L35" s="21" t="n">
-        <v>74</v>
+        <v>24</v>
+      </c>
+      <c r="L35" s="23" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="B36" s="20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="D36" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="E36" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="F36" s="23" t="n">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D36" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="F36" s="22" t="n">
+        <v>62</v>
       </c>
       <c r="G36" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="H36" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="I36" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="K36" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="L36" s="21" t="n">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="H36" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="I36" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="J36" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" s="22" t="n">
+        <v>68</v>
+      </c>
+      <c r="L36" s="23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Baltimore-Columbia-Towson</t>
         </is>
       </c>
       <c r="B37" s="20" t="n">
-        <v>44</v>
-      </c>
-      <c r="C37" s="22" t="n">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="C37" s="23" t="n">
+        <v>30</v>
       </c>
       <c r="D37" s="22" t="n">
         <v>50</v>
       </c>
       <c r="E37" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="F37" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="G37" s="21" t="n">
-        <v>92</v>
+        <v>16</v>
+      </c>
+      <c r="F37" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" s="22" t="n">
+        <v>60</v>
       </c>
       <c r="H37" s="23" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I37" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="J37" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="K37" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="L37" s="23" t="n">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="J37" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="K37" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="L37" s="21" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="38">
@@ -3742,10 +3742,10 @@
         <v>41</v>
       </c>
       <c r="C38" s="23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D38" s="23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E38" s="21" t="n">
         <v>74</v>
@@ -3782,10 +3782,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39" s="22" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" s="23" t="n">
         <v>4</v>
@@ -3822,10 +3822,10 @@
         <v>40</v>
       </c>
       <c r="C40" s="23" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D40" s="23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E40" s="21" t="n">
         <v>84</v>
@@ -3855,81 +3855,81 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="B41" s="20" t="n">
         <v>39</v>
       </c>
-      <c r="C41" s="23" t="n">
-        <v>48</v>
+      <c r="C41" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="D41" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="E41" s="23" t="n">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="E41" s="21" t="n">
+        <v>70</v>
       </c>
       <c r="F41" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="G41" s="21" t="n">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="G41" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="H41" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="I41" s="23" t="n">
+        <v>38</v>
+      </c>
+      <c r="I41" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="J41" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="K41" s="23" t="n">
         <v>44</v>
       </c>
-      <c r="J41" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="K41" s="23" t="n">
-        <v>20</v>
-      </c>
       <c r="L41" s="23" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="B42" s="20" t="n">
         <v>38</v>
       </c>
-      <c r="C42" s="24" t="n">
-        <v>0</v>
+      <c r="C42" s="23" t="n">
+        <v>44</v>
       </c>
       <c r="D42" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="E42" s="21" t="n">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E42" s="23" t="n">
+        <v>30</v>
       </c>
       <c r="F42" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="G42" s="24" t="n">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G42" s="21" t="n">
+        <v>74</v>
       </c>
       <c r="H42" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="I42" s="21" t="n">
-        <v>92</v>
+        <v>16</v>
+      </c>
+      <c r="I42" s="23" t="n">
+        <v>44</v>
       </c>
       <c r="J42" s="22" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K42" s="23" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L42" s="23" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -3939,13 +3939,13 @@
         </is>
       </c>
       <c r="B43" s="20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" s="23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" s="23" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E43" s="21" t="n">
         <v>96</v>
@@ -3975,81 +3975,81 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="B44" s="20" t="n">
+        <v>31</v>
+      </c>
+      <c r="C44" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="F44" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="G44" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="H44" s="23" t="n">
+        <v>38</v>
+      </c>
+      <c r="I44" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="J44" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="K44" s="23" t="n">
+        <v>48</v>
+      </c>
+      <c r="L44" s="23" t="n">
         <v>32</v>
-      </c>
-      <c r="C44" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" s="21" t="n">
-        <v>74</v>
-      </c>
-      <c r="E44" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="F44" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="G44" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="H44" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="I44" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="J44" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="K44" s="23" t="n">
-        <v>32</v>
-      </c>
-      <c r="L44" s="23" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="B45" s="20" t="n">
         <v>31</v>
       </c>
       <c r="C45" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <v>88</v>
+        <v>12</v>
+      </c>
+      <c r="D45" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="E45" s="23" t="n">
+        <v>24</v>
       </c>
       <c r="F45" s="23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G45" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="H45" s="23" t="n">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="H45" s="22" t="n">
+        <v>52</v>
       </c>
       <c r="I45" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="J45" s="22" t="n">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="J45" s="23" t="n">
+        <v>20</v>
       </c>
       <c r="K45" s="23" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L45" s="23" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="B46" s="20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" s="23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" s="23" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E46" s="21" t="n">
         <v>70</v>
@@ -4099,13 +4099,13 @@
         </is>
       </c>
       <c r="B47" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" s="23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47" s="23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E47" s="22" t="n">
         <v>68</v>
@@ -4135,121 +4135,121 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>San Francisco-Oakland-Fremont</t>
         </is>
       </c>
       <c r="B48" s="20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="D48" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="D48" s="22" t="n">
+        <v>58</v>
+      </c>
+      <c r="E48" s="22" t="n">
+        <v>62</v>
+      </c>
+      <c r="F48" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="G48" s="23" t="n">
         <v>32</v>
       </c>
-      <c r="E48" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="F48" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="G48" s="21" t="n">
-        <v>72</v>
-      </c>
       <c r="H48" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="I48" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="I48" s="23" t="n">
-        <v>22</v>
-      </c>
       <c r="J48" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="K48" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="L48" s="23" t="n">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="K48" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="22" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Fremont</t>
+          <t>San Diego-Chula Vista-Carlsbad</t>
         </is>
       </c>
       <c r="B49" s="20" t="n">
         <v>27</v>
       </c>
       <c r="C49" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D49" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="E49" s="22" t="n">
-        <v>62</v>
+        <v>14</v>
+      </c>
+      <c r="D49" s="23" t="n">
+        <v>26</v>
+      </c>
+      <c r="E49" s="23" t="n">
+        <v>46</v>
       </c>
       <c r="F49" s="23" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G49" s="23" t="n">
-        <v>32</v>
-      </c>
-      <c r="H49" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="I49" s="23" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="H49" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="21" t="n">
+        <v>90</v>
       </c>
       <c r="J49" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="K49" s="24" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K49" s="23" t="n">
+        <v>18</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>San Diego-Chula Vista-Carlsbad</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="B50" s="20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="23" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D50" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="E50" s="23" t="n">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="E50" s="22" t="n">
+        <v>64</v>
       </c>
       <c r="F50" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="G50" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="H50" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="21" t="n">
-        <v>90</v>
+      <c r="G50" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="H50" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="23" t="n">
+        <v>22</v>
       </c>
       <c r="J50" s="23" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="K50" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="L50" s="22" t="n">
-        <v>68</v>
+        <v>6</v>
+      </c>
+      <c r="L50" s="23" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="51">
@@ -4262,10 +4262,10 @@
         <v>18</v>
       </c>
       <c r="C51" s="23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D51" s="23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51" s="23" t="n">
         <v>26</v>
@@ -4399,10 +4399,10 @@
         </is>
       </c>
       <c r="C2" s="24" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D2" s="24" t="n">
-        <v>67.95</v>
+        <v>67.88</v>
       </c>
       <c r="E2" s="24" t="n">
         <v>6.5</v>
@@ -4432,133 +4432,133 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="B3" s="25" t="inlineStr">
         <is>
-          <t>68 (B+)</t>
+          <t>69 (B+)</t>
         </is>
       </c>
       <c r="C3" s="24" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D3" s="24" t="n">
-        <v>64.09</v>
+        <v>66.05</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>3.99</v>
+        <v>3.47</v>
       </c>
       <c r="F3" s="24" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="G3" s="24" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H3" s="24" t="n">
-        <v>34.4</v>
+        <v>34.8</v>
       </c>
       <c r="I3" s="24" t="n">
-        <v>-16.64</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>21.59</v>
+        <v>19.4</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>4.91</v>
+        <v>5.35</v>
       </c>
       <c r="L3" s="24" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="B4" s="25" t="inlineStr">
         <is>
-          <t>67 (B+)</t>
+          <t>68 (B+)</t>
         </is>
       </c>
       <c r="C4" s="24" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D4" s="24" t="n">
-        <v>66.29000000000001</v>
+        <v>62.75</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>3.49</v>
+        <v>3.99</v>
       </c>
       <c r="F4" s="24" t="n">
-        <v>5.02</v>
+        <v>0.64</v>
       </c>
       <c r="G4" s="24" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="H4" s="24" t="n">
-        <v>35.4</v>
+        <v>34.4</v>
       </c>
       <c r="I4" s="24" t="n">
-        <v>10.49</v>
+        <v>-16.64</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>10.86</v>
+        <v>21.59</v>
       </c>
       <c r="K4" s="24" t="n">
-        <v>0</v>
+        <v>4.91</v>
       </c>
       <c r="L4" s="24" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="B5" s="25" t="inlineStr">
         <is>
-          <t>65 (B+)</t>
+          <t>66 (B+)</t>
         </is>
       </c>
       <c r="C5" s="24" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D5" s="24" t="n">
-        <v>75.77</v>
+        <v>66.8</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>1.15</v>
+        <v>3.49</v>
       </c>
       <c r="F5" s="24" t="n">
-        <v>7.83</v>
+        <v>5.02</v>
       </c>
       <c r="G5" s="24" t="n">
-        <v>3.62</v>
+        <v>1.98</v>
       </c>
       <c r="H5" s="24" t="n">
         <v>35.4</v>
       </c>
       <c r="I5" s="24" t="n">
-        <v>22.78</v>
+        <v>10.49</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>7.88</v>
+        <v>10.86</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="L5" s="24" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="B6" s="25" t="inlineStr">
@@ -4567,40 +4567,40 @@
         </is>
       </c>
       <c r="C6" s="24" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D6" s="24" t="n">
-        <v>65.37</v>
+        <v>76.06</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>7.81</v>
+        <v>1.15</v>
       </c>
       <c r="F6" s="24" t="n">
-        <v>4.51</v>
+        <v>7.83</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>3.08</v>
+        <v>3.62</v>
       </c>
       <c r="H6" s="24" t="n">
-        <v>34.1</v>
+        <v>35.4</v>
       </c>
       <c r="I6" s="24" t="n">
-        <v>-38.63</v>
+        <v>22.78</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>19.13</v>
+        <v>7.88</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>1.35</v>
+        <v>-0.13</v>
       </c>
       <c r="L6" s="24" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B7" s="25" t="inlineStr">
@@ -4609,118 +4609,118 @@
         </is>
       </c>
       <c r="C7" s="24" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D7" s="24" t="n">
-        <v>64.7</v>
+        <v>64.58</v>
       </c>
       <c r="E7" s="24" t="n">
-        <v>-1.68</v>
+        <v>7.81</v>
       </c>
       <c r="F7" s="24" t="n">
-        <v>3.53</v>
+        <v>4.51</v>
       </c>
       <c r="G7" s="24" t="n">
-        <v>2.42</v>
+        <v>3.08</v>
       </c>
       <c r="H7" s="24" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="I7" s="24" t="n">
-        <v>16.13</v>
+        <v>-38.63</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>26.71</v>
+        <v>19.13</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>-0.41</v>
+        <v>1.35</v>
       </c>
       <c r="L7" s="24" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="B8" s="25" t="inlineStr">
         <is>
-          <t>64 (B+)</t>
+          <t>65 (B+)</t>
         </is>
       </c>
       <c r="C8" s="24" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>63.02</v>
+        <v>64.7</v>
       </c>
       <c r="E8" s="24" t="n">
-        <v>2.68</v>
+        <v>-1.68</v>
       </c>
       <c r="F8" s="24" t="n">
-        <v>0.76</v>
+        <v>3.53</v>
       </c>
       <c r="G8" s="24" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="H8" s="24" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="I8" s="24" t="n">
-        <v>18.48</v>
+        <v>16.13</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>16.45</v>
+        <v>26.71</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>3.09</v>
+        <v>-0.41</v>
       </c>
       <c r="L8" s="24" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>64 (B+)</t>
+          <t>63 (B+)</t>
         </is>
       </c>
       <c r="C9" s="24" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="24" t="n">
-        <v>65.59999999999999</v>
+        <v>63.25</v>
       </c>
       <c r="E9" s="24" t="n">
-        <v>3.47</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="24" t="n">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="G9" s="24" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="H9" s="24" t="n">
-        <v>34.8</v>
+        <v>34.2</v>
       </c>
       <c r="I9" s="24" t="n">
-        <v>-8.640000000000001</v>
+        <v>18.48</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>19.4</v>
+        <v>16.45</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>5.35</v>
+        <v>3.09</v>
       </c>
       <c r="L9" s="24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -4731,14 +4731,14 @@
       </c>
       <c r="B10" s="25" t="inlineStr">
         <is>
-          <t>63 (B+)</t>
+          <t>62 (B+)</t>
         </is>
       </c>
       <c r="C10" s="24" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D10" s="24" t="n">
-        <v>72.53</v>
+        <v>72.66</v>
       </c>
       <c r="E10" s="24" t="n">
         <v>1</v>
@@ -4768,211 +4768,211 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="B11" s="25" t="inlineStr">
         <is>
-          <t>59 (B)</t>
+          <t>60 (B)</t>
         </is>
       </c>
       <c r="C11" s="24" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D11" s="24" t="n">
-        <v>68.19</v>
+        <v>67.98</v>
       </c>
       <c r="E11" s="24" t="n">
-        <v>8.65</v>
+        <v>2.82</v>
       </c>
       <c r="F11" s="24" t="n">
-        <v>5.4</v>
+        <v>5.08</v>
       </c>
       <c r="G11" s="24" t="n">
-        <v>3.54</v>
+        <v>1.08</v>
       </c>
       <c r="H11" s="24" t="n">
-        <v>34.7</v>
+        <v>33.5</v>
       </c>
       <c r="I11" s="24" t="n">
-        <v>14.29</v>
+        <v>10.29</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>-0.54</v>
+        <v>17</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>-0.15</v>
+        <v>1.06</v>
       </c>
       <c r="L11" s="24" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="B12" s="25" t="inlineStr">
         <is>
-          <t>56 (B)</t>
+          <t>57 (B)</t>
         </is>
       </c>
       <c r="C12" s="24" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D12" s="24" t="n">
-        <v>68.55</v>
+        <v>65.2</v>
       </c>
       <c r="E12" s="24" t="n">
-        <v>2.82</v>
+        <v>0.22</v>
       </c>
       <c r="F12" s="24" t="n">
-        <v>5.08</v>
+        <v>0.64</v>
       </c>
       <c r="G12" s="24" t="n">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="H12" s="24" t="n">
         <v>33.5</v>
       </c>
       <c r="I12" s="24" t="n">
-        <v>10.29</v>
+        <v>-15.43</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>17</v>
+        <v>18.79</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>1.06</v>
+        <v>2.89</v>
       </c>
       <c r="L12" s="24" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Providence-Warwick</t>
+          <t>Virginia Beach-Chesapeake-Norfolk</t>
         </is>
       </c>
       <c r="B13" s="25" t="inlineStr">
         <is>
-          <t>56 (B)</t>
+          <t>57 (B)</t>
         </is>
       </c>
       <c r="C13" s="24" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D13" s="24" t="n">
-        <v>50.77</v>
+        <v>59.3</v>
       </c>
       <c r="E13" s="24" t="n">
-        <v>0.85</v>
+        <v>10.68</v>
       </c>
       <c r="F13" s="24" t="n">
-        <v>1.94</v>
+        <v>4.53</v>
       </c>
       <c r="G13" s="24" t="n">
-        <v>2.84</v>
+        <v>1.88</v>
       </c>
       <c r="H13" s="24" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="I13" s="24" t="n">
-        <v>144.37</v>
+        <v>5.26</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>21.89</v>
+        <v>18.58</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>3.23</v>
+        <v>2.52</v>
       </c>
       <c r="L13" s="24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell</t>
+          <t>Seattle-Tacoma-Bellevue</t>
         </is>
       </c>
       <c r="B14" s="25" t="inlineStr">
         <is>
-          <t>55 (B)</t>
+          <t>56 (B)</t>
         </is>
       </c>
       <c r="C14" s="24" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="D14" s="24" t="n">
-        <v>64.14</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="E14" s="24" t="n">
-        <v>6.24</v>
+        <v>8.65</v>
       </c>
       <c r="F14" s="24" t="n">
-        <v>4.66</v>
+        <v>5.4</v>
       </c>
       <c r="G14" s="24" t="n">
-        <v>2.94</v>
+        <v>3.54</v>
       </c>
       <c r="H14" s="24" t="n">
         <v>34.7</v>
       </c>
       <c r="I14" s="24" t="n">
-        <v>-20.77</v>
+        <v>14.29</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>-0.16</v>
+        <v>-0.54</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>-1.02</v>
+        <v>-0.15</v>
       </c>
       <c r="L14" s="24" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Virginia Beach-Chesapeake-Norfolk</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="B15" s="25" t="inlineStr">
         <is>
-          <t>55 (B)</t>
+          <t>56 (B)</t>
         </is>
       </c>
       <c r="C15" s="24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D15" s="24" t="n">
-        <v>59.97</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="E15" s="24" t="n">
-        <v>10.68</v>
+        <v>2.26</v>
       </c>
       <c r="F15" s="24" t="n">
-        <v>4.53</v>
+        <v>5.34</v>
       </c>
       <c r="G15" s="24" t="n">
-        <v>1.88</v>
+        <v>4.24</v>
       </c>
       <c r="H15" s="24" t="n">
-        <v>33.1</v>
+        <v>34.2</v>
       </c>
       <c r="I15" s="24" t="n">
-        <v>5.26</v>
+        <v>1.32</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>18.58</v>
+        <v>16.76</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>2.52</v>
+        <v>-0.65</v>
       </c>
       <c r="L15" s="24" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -4983,14 +4983,14 @@
       </c>
       <c r="B16" s="25" t="inlineStr">
         <is>
-          <t>54 (B)</t>
+          <t>55 (B)</t>
         </is>
       </c>
       <c r="C16" s="24" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D16" s="24" t="n">
-        <v>69.39</v>
+        <v>69.34</v>
       </c>
       <c r="E16" s="24" t="n">
         <v>2.74</v>
@@ -5020,7 +5020,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="B17" s="25" t="inlineStr">
@@ -5029,40 +5029,40 @@
         </is>
       </c>
       <c r="C17" s="24" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>65.69</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="E17" s="24" t="n">
-        <v>0.22</v>
+        <v>6.24</v>
       </c>
       <c r="F17" s="24" t="n">
-        <v>0.64</v>
+        <v>4.66</v>
       </c>
       <c r="G17" s="24" t="n">
-        <v>1.46</v>
+        <v>2.94</v>
       </c>
       <c r="H17" s="24" t="n">
-        <v>33.5</v>
+        <v>34.7</v>
       </c>
       <c r="I17" s="24" t="n">
-        <v>-15.43</v>
+        <v>-20.77</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>18.79</v>
+        <v>-0.16</v>
       </c>
       <c r="K17" s="24" t="n">
-        <v>2.89</v>
+        <v>-1.02</v>
       </c>
       <c r="L17" s="24" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="B18" s="25" t="inlineStr">
@@ -5071,80 +5071,82 @@
         </is>
       </c>
       <c r="C18" s="24" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>58.01</v>
+        <v>60.25</v>
       </c>
       <c r="E18" s="24" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="F18" s="24" t="n"/>
+        <v>5.7</v>
+      </c>
+      <c r="F18" s="24" t="n">
+        <v>4.29</v>
+      </c>
       <c r="G18" s="24" t="n">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="H18" s="24" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="I18" s="24" t="n">
-        <v>14.96</v>
+        <v>-24.33</v>
       </c>
       <c r="J18" s="24" t="n">
-        <v>4</v>
+        <v>15.05</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>12.86</v>
+        <v>4.1</v>
       </c>
       <c r="L18" s="24" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="B19" s="25" t="inlineStr">
         <is>
-          <t>53 (B)</t>
+          <t>54 (B)</t>
         </is>
       </c>
       <c r="C19" s="24" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D19" s="24" t="n">
-        <v>69.56999999999999</v>
+        <v>63.68</v>
       </c>
       <c r="E19" s="24" t="n">
-        <v>3.82</v>
+        <v>-1.51</v>
       </c>
       <c r="F19" s="24" t="n">
-        <v>4.81</v>
+        <v>1.05</v>
       </c>
       <c r="G19" s="24" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H19" s="24" t="n">
-        <v>35.9</v>
+        <v>33.8</v>
       </c>
       <c r="I19" s="24" t="n">
-        <v>4.08</v>
+        <v>5.64</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>-1.32</v>
+        <v>20</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>-1.78</v>
+        <v>2.7</v>
       </c>
       <c r="L19" s="24" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
       <c r="B20" s="25" t="inlineStr">
@@ -5153,124 +5155,122 @@
         </is>
       </c>
       <c r="C20" s="24" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D20" s="24" t="n">
-        <v>71.28</v>
+        <v>63.77</v>
       </c>
       <c r="E20" s="24" t="n">
-        <v>4.35</v>
+        <v>0.34</v>
       </c>
       <c r="F20" s="24" t="n">
-        <v>4.92</v>
+        <v>3.55</v>
       </c>
       <c r="G20" s="24" t="n">
-        <v>2.58</v>
+        <v>3.86</v>
       </c>
       <c r="H20" s="24" t="n">
-        <v>33.6</v>
+        <v>34.7</v>
       </c>
       <c r="I20" s="24" t="n">
-        <v>13.55</v>
+        <v>-0.88</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>-0.64</v>
+        <v>14.25</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>-3.48</v>
+        <v>0.73</v>
       </c>
       <c r="L20" s="24" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="B21" s="25" t="inlineStr">
         <is>
-          <t>52 (B)</t>
+          <t>53 (B)</t>
         </is>
       </c>
       <c r="C21" s="24" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="D21" s="24" t="n">
-        <v>63.89</v>
+        <v>58.01</v>
       </c>
       <c r="E21" s="24" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F21" s="24" t="n">
-        <v>3.55</v>
-      </c>
+        <v>-1.24</v>
+      </c>
+      <c r="F21" s="24" t="n"/>
       <c r="G21" s="24" t="n">
-        <v>3.86</v>
+        <v>3.2</v>
       </c>
       <c r="H21" s="24" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="I21" s="24" t="n">
-        <v>-0.88</v>
+        <v>14.96</v>
       </c>
       <c r="J21" s="24" t="n">
-        <v>14.25</v>
+        <v>4</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>0.73</v>
+        <v>12.86</v>
       </c>
       <c r="L21" s="24" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Providence-Warwick</t>
         </is>
       </c>
       <c r="B22" s="25" t="inlineStr">
         <is>
-          <t>52 (B)</t>
+          <t>53 (B)</t>
         </is>
       </c>
       <c r="C22" s="24" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D22" s="24" t="n">
-        <v>60.7</v>
+        <v>50.77</v>
       </c>
       <c r="E22" s="24" t="n">
-        <v>5.7</v>
+        <v>0.85</v>
       </c>
       <c r="F22" s="24" t="n">
-        <v>4.29</v>
+        <v>1.94</v>
       </c>
       <c r="G22" s="24" t="n">
-        <v>3.28</v>
+        <v>2.84</v>
       </c>
       <c r="H22" s="24" t="n">
-        <v>34.1</v>
+        <v>33.4</v>
       </c>
       <c r="I22" s="24" t="n">
-        <v>-24.33</v>
+        <v>144.37</v>
       </c>
       <c r="J22" s="24" t="n">
-        <v>15.05</v>
+        <v>21.89</v>
       </c>
       <c r="K22" s="24" t="n">
-        <v>4.1</v>
+        <v>3.23</v>
       </c>
       <c r="L22" s="24" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Dallas-Fort Worth-Arlington</t>
         </is>
       </c>
       <c r="B23" s="25" t="inlineStr">
@@ -5279,40 +5279,40 @@
         </is>
       </c>
       <c r="C23" s="24" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D23" s="24" t="n">
-        <v>66.13</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="E23" s="24" t="n">
-        <v>2.26</v>
+        <v>3.82</v>
       </c>
       <c r="F23" s="24" t="n">
-        <v>5.34</v>
+        <v>4.81</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>4.24</v>
+        <v>2.2</v>
       </c>
       <c r="H23" s="24" t="n">
-        <v>34.2</v>
+        <v>35.9</v>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.32</v>
+        <v>4.08</v>
       </c>
       <c r="J23" s="24" t="n">
-        <v>16.76</v>
+        <v>-1.32</v>
       </c>
       <c r="K23" s="24" t="n">
-        <v>-0.65</v>
+        <v>-1.78</v>
       </c>
       <c r="L23" s="24" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Chicago-Naperville-Elgin</t>
         </is>
       </c>
       <c r="B24" s="25" t="inlineStr">
@@ -5321,31 +5321,31 @@
         </is>
       </c>
       <c r="C24" s="24" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D24" s="24" t="n">
-        <v>64.06999999999999</v>
+        <v>65.09</v>
       </c>
       <c r="E24" s="24" t="n">
-        <v>-1.51</v>
+        <v>3.94</v>
       </c>
       <c r="F24" s="24" t="n">
-        <v>1.05</v>
+        <v>5.04</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H24" s="24" t="n">
-        <v>33.8</v>
+        <v>33.2</v>
       </c>
       <c r="I24" s="24" t="n">
-        <v>5.64</v>
+        <v>11.46</v>
       </c>
       <c r="J24" s="24" t="n">
-        <v>20</v>
+        <v>5.46</v>
       </c>
       <c r="K24" s="24" t="n">
-        <v>2.7</v>
+        <v>0.16</v>
       </c>
       <c r="L24" s="24" t="n">
         <v>43</v>
@@ -5354,7 +5354,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Raleigh-Cary</t>
+          <t>Houston-Pasadena-The Woodlands</t>
         </is>
       </c>
       <c r="B25" s="25" t="inlineStr">
@@ -5363,82 +5363,82 @@
         </is>
       </c>
       <c r="C25" s="24" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="D25" s="24" t="n">
-        <v>67.45</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="E25" s="24" t="n">
-        <v>2.94</v>
+        <v>5.93</v>
       </c>
       <c r="F25" s="24" t="n">
-        <v>5.1</v>
+        <v>4.32</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>4.34</v>
+        <v>1.06</v>
       </c>
       <c r="H25" s="24" t="n">
-        <v>33.1</v>
+        <v>36.8</v>
       </c>
       <c r="I25" s="24" t="n">
-        <v>-28.25</v>
+        <v>-6.1</v>
       </c>
       <c r="J25" s="24" t="n">
-        <v>8.65</v>
+        <v>8.48</v>
       </c>
       <c r="K25" s="24" t="n">
-        <v>-1.05</v>
+        <v>-1.9</v>
       </c>
       <c r="L25" s="24" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chicago-Naperville-Elgin</t>
+          <t>Raleigh-Cary</t>
         </is>
       </c>
       <c r="B26" s="25" t="inlineStr">
         <is>
-          <t>50 (B)</t>
+          <t>51 (B)</t>
         </is>
       </c>
       <c r="C26" s="24" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="D26" s="24" t="n">
-        <v>65.11</v>
+        <v>67.86</v>
       </c>
       <c r="E26" s="24" t="n">
-        <v>3.94</v>
+        <v>2.94</v>
       </c>
       <c r="F26" s="24" t="n">
-        <v>5.04</v>
+        <v>5.1</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>2.3</v>
+        <v>4.34</v>
       </c>
       <c r="H26" s="24" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="I26" s="24" t="n">
-        <v>11.46</v>
+        <v>-28.25</v>
       </c>
       <c r="J26" s="24" t="n">
-        <v>5.46</v>
+        <v>8.65</v>
       </c>
       <c r="K26" s="24" t="n">
-        <v>0.16</v>
+        <v>-1.05</v>
       </c>
       <c r="L26" s="24" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="B27" s="25" t="inlineStr">
@@ -5450,205 +5450,205 @@
         <v>3.9</v>
       </c>
       <c r="D27" s="24" t="n">
-        <v>68.47</v>
+        <v>71.33</v>
       </c>
       <c r="E27" s="24" t="n">
-        <v>2.61</v>
+        <v>4.35</v>
       </c>
       <c r="F27" s="24" t="n">
-        <v>6.39</v>
+        <v>4.92</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="H27" s="24" t="n">
         <v>33.6</v>
       </c>
       <c r="I27" s="24" t="n">
-        <v>-25.94</v>
+        <v>13.55</v>
       </c>
       <c r="J27" s="24" t="n">
-        <v>4.14</v>
+        <v>-0.64</v>
       </c>
       <c r="K27" s="24" t="n">
-        <v>0.57</v>
+        <v>-3.48</v>
       </c>
       <c r="L27" s="24" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B28" s="25" t="inlineStr">
         <is>
-          <t>50 (B-)</t>
+          <t>50 (B)</t>
         </is>
       </c>
       <c r="C28" s="24" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="D28" s="24" t="n">
-        <v>60.93</v>
+        <v>60.48</v>
       </c>
       <c r="E28" s="24" t="n">
-        <v>3.04</v>
+        <v>1.96</v>
       </c>
       <c r="F28" s="24" t="n">
-        <v>4.91</v>
+        <v>7.14</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="H28" s="24" t="n">
-        <v>34.6</v>
+        <v>35.5</v>
       </c>
       <c r="I28" s="24" t="n">
-        <v>57.77</v>
+        <v>1.56</v>
       </c>
       <c r="J28" s="24" t="n">
-        <v>3.7</v>
+        <v>10.88</v>
       </c>
       <c r="K28" s="24" t="n">
-        <v>-0.93</v>
+        <v>0.42</v>
       </c>
       <c r="L28" s="24" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="B29" s="25" t="inlineStr">
         <is>
-          <t>50 (B-)</t>
+          <t>48 (B-)</t>
         </is>
       </c>
       <c r="C29" s="24" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D29" s="24" t="n">
-        <v>60.1</v>
+        <v>68.47</v>
       </c>
       <c r="E29" s="24" t="n">
-        <v>1.96</v>
+        <v>2.61</v>
       </c>
       <c r="F29" s="24" t="n">
-        <v>7.14</v>
+        <v>6.39</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.78</v>
+        <v>2.9</v>
       </c>
       <c r="H29" s="24" t="n">
-        <v>35.5</v>
+        <v>33.6</v>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.56</v>
+        <v>-25.94</v>
       </c>
       <c r="J29" s="24" t="n">
-        <v>10.88</v>
+        <v>4.14</v>
       </c>
       <c r="K29" s="24" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="L29" s="24" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Houston-Pasadena-The Woodlands</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
       <c r="B30" s="25" t="inlineStr">
         <is>
-          <t>49 (B-)</t>
+          <t>46 (B-)</t>
         </is>
       </c>
       <c r="C30" s="24" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="D30" s="24" t="n">
-        <v>64.31</v>
+        <v>62.01</v>
       </c>
       <c r="E30" s="24" t="n">
-        <v>5.93</v>
+        <v>7.05</v>
       </c>
       <c r="F30" s="24" t="n">
-        <v>4.32</v>
+        <v>5.73</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.06</v>
+        <v>2.26</v>
       </c>
       <c r="H30" s="24" t="n">
-        <v>36.8</v>
+        <v>34.9</v>
       </c>
       <c r="I30" s="24" t="n">
-        <v>-6.1</v>
+        <v>76.97</v>
       </c>
       <c r="J30" s="24" t="n">
-        <v>8.48</v>
+        <v>-1.26</v>
       </c>
       <c r="K30" s="24" t="n">
-        <v>-1.9</v>
+        <v>-3.06</v>
       </c>
       <c r="L30" s="24" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="B31" s="25" t="inlineStr">
         <is>
-          <t>48 (B-)</t>
+          <t>46 (B-)</t>
         </is>
       </c>
       <c r="C31" s="24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D31" s="24" t="n">
-        <v>62.23</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E31" s="24" t="n">
-        <v>7.05</v>
+        <v>-1.15</v>
       </c>
       <c r="F31" s="24" t="n">
-        <v>5.73</v>
+        <v>1.37</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>2.26</v>
+        <v>4.1</v>
       </c>
       <c r="H31" s="24" t="n">
-        <v>34.9</v>
+        <v>32.9</v>
       </c>
       <c r="I31" s="24" t="n">
-        <v>76.97</v>
+        <v>-15.37</v>
       </c>
       <c r="J31" s="24" t="n">
-        <v>-1.26</v>
+        <v>0.73</v>
       </c>
       <c r="K31" s="24" t="n">
-        <v>-3.06</v>
+        <v>-0.75</v>
       </c>
       <c r="L31" s="24" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Chandler</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="B32" s="25" t="inlineStr">
@@ -5657,244 +5657,244 @@
         </is>
       </c>
       <c r="C32" s="24" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D32" s="24" t="n">
-        <v>65.47</v>
+        <v>73.89</v>
       </c>
       <c r="E32" s="24" t="n">
-        <v>4.08</v>
+        <v>2.84</v>
       </c>
       <c r="F32" s="24" t="n">
-        <v>5.22</v>
+        <v>4.97</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="H32" s="24" t="n">
-        <v>34.6</v>
+        <v>35.2</v>
       </c>
       <c r="I32" s="24" t="n">
-        <v>-21.38</v>
+        <v>-37.08</v>
       </c>
       <c r="J32" s="24" t="n">
-        <v>-2.02</v>
+        <v>-10.3</v>
       </c>
       <c r="K32" s="24" t="n">
-        <v>-2.06</v>
+        <v>-4.52</v>
       </c>
       <c r="L32" s="24" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="B33" s="25" t="inlineStr">
         <is>
-          <t>46 (B-)</t>
+          <t>45 (B-)</t>
         </is>
       </c>
       <c r="C33" s="24" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D33" s="24" t="n">
-        <v>60.12</v>
+        <v>67.92</v>
       </c>
       <c r="E33" s="24" t="n">
-        <v>9.51</v>
+        <v>-0.14</v>
       </c>
       <c r="F33" s="24" t="n">
-        <v>4.63</v>
+        <v>5.44</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>2.94</v>
+        <v>2.28</v>
       </c>
       <c r="H33" s="24" t="n">
-        <v>34.2</v>
+        <v>34.8</v>
       </c>
       <c r="I33" s="24" t="n">
-        <v>10.06</v>
+        <v>2.42</v>
       </c>
       <c r="J33" s="24" t="n">
-        <v>-4.14</v>
+        <v>0.67</v>
       </c>
       <c r="K33" s="24" t="n">
-        <v>0.41</v>
+        <v>-4.06</v>
       </c>
       <c r="L33" s="24" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
       <c r="B34" s="25" t="inlineStr">
         <is>
-          <t>46 (B-)</t>
+          <t>45 (B-)</t>
         </is>
       </c>
       <c r="C34" s="24" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="D34" s="24" t="n">
-        <v>73.45999999999999</v>
+        <v>60.73</v>
       </c>
       <c r="E34" s="24" t="n">
-        <v>2.84</v>
+        <v>3.04</v>
       </c>
       <c r="F34" s="24" t="n">
-        <v>4.97</v>
+        <v>4.91</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>2.74</v>
+        <v>1.72</v>
       </c>
       <c r="H34" s="24" t="n">
-        <v>35.2</v>
+        <v>34.6</v>
       </c>
       <c r="I34" s="24" t="n">
-        <v>-37.08</v>
+        <v>57.77</v>
       </c>
       <c r="J34" s="24" t="n">
-        <v>-10.3</v>
+        <v>3.7</v>
       </c>
       <c r="K34" s="24" t="n">
-        <v>-4.52</v>
+        <v>-0.93</v>
       </c>
       <c r="L34" s="24" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Phoenix-Mesa-Chandler</t>
         </is>
       </c>
       <c r="B35" s="25" t="inlineStr">
         <is>
-          <t>45 (B-)</t>
+          <t>44 (B-)</t>
         </is>
       </c>
       <c r="C35" s="24" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D35" s="24" t="n">
-        <v>68.17</v>
+        <v>66.59</v>
       </c>
       <c r="E35" s="24" t="n">
-        <v>-0.14</v>
+        <v>4.08</v>
       </c>
       <c r="F35" s="24" t="n">
-        <v>5.44</v>
+        <v>5.22</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="H35" s="24" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="I35" s="24" t="n">
-        <v>2.42</v>
+        <v>-21.38</v>
       </c>
       <c r="J35" s="24" t="n">
-        <v>0.67</v>
+        <v>-2.02</v>
       </c>
       <c r="K35" s="24" t="n">
-        <v>-4.06</v>
+        <v>-2.06</v>
       </c>
       <c r="L35" s="24" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="B36" s="25" t="inlineStr">
         <is>
-          <t>45 (B-)</t>
+          <t>44 (B-)</t>
         </is>
       </c>
       <c r="C36" s="24" t="n">
         <v>4.3</v>
       </c>
       <c r="D36" s="24" t="n">
-        <v>64.90000000000001</v>
+        <v>60.34</v>
       </c>
       <c r="E36" s="24" t="n">
-        <v>0.74</v>
+        <v>9.51</v>
       </c>
       <c r="F36" s="24" t="n">
-        <v>7.45</v>
+        <v>4.63</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="H36" s="24" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="I36" s="24" t="n">
-        <v>-32</v>
+        <v>10.06</v>
       </c>
       <c r="J36" s="24" t="n">
-        <v>14.35</v>
+        <v>-4.14</v>
       </c>
       <c r="K36" s="24" t="n">
-        <v>1.71</v>
+        <v>0.41</v>
       </c>
       <c r="L36" s="24" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Baltimore-Columbia-Towson</t>
         </is>
       </c>
       <c r="B37" s="25" t="inlineStr">
         <is>
-          <t>44 (B-)</t>
+          <t>41 (B-)</t>
         </is>
       </c>
       <c r="C37" s="24" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D37" s="24" t="n">
-        <v>64.69</v>
+        <v>64.61</v>
       </c>
       <c r="E37" s="24" t="n">
-        <v>-1.15</v>
+        <v>0.74</v>
       </c>
       <c r="F37" s="24" t="n">
-        <v>1.37</v>
+        <v>7.45</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="H37" s="24" t="n">
-        <v>32.9</v>
+        <v>33.9</v>
       </c>
       <c r="I37" s="24" t="n">
-        <v>-15.37</v>
+        <v>-32</v>
       </c>
       <c r="J37" s="24" t="n">
-        <v>0.73</v>
+        <v>14.35</v>
       </c>
       <c r="K37" s="24" t="n">
-        <v>-0.75</v>
+        <v>1.71</v>
       </c>
       <c r="L37" s="24" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -5909,10 +5909,10 @@
         </is>
       </c>
       <c r="C38" s="24" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D38" s="24" t="n">
-        <v>62.92</v>
+        <v>63.01</v>
       </c>
       <c r="E38" s="24" t="n">
         <v>4.9</v>
@@ -5951,10 +5951,10 @@
         </is>
       </c>
       <c r="C39" s="24" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D39" s="24" t="n">
-        <v>64.77</v>
+        <v>64.66</v>
       </c>
       <c r="E39" s="24" t="n">
         <v>-1.3</v>
@@ -5993,10 +5993,10 @@
         </is>
       </c>
       <c r="C40" s="24" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D40" s="24" t="n">
-        <v>60.45</v>
+        <v>60.64</v>
       </c>
       <c r="E40" s="24" t="n">
         <v>6.95</v>
@@ -6026,7 +6026,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="B41" s="25" t="inlineStr">
@@ -6035,40 +6035,40 @@
         </is>
       </c>
       <c r="C41" s="24" t="n">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="D41" s="24" t="n">
-        <v>64.44</v>
+        <v>61.03</v>
       </c>
       <c r="E41" s="24" t="n">
-        <v>2.18</v>
+        <v>4.88</v>
       </c>
       <c r="F41" s="24" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>3.06</v>
+        <v>0.12</v>
       </c>
       <c r="H41" s="24" t="n">
-        <v>33.3</v>
+        <v>33.9</v>
       </c>
       <c r="I41" s="24" t="n">
-        <v>-3.79</v>
+        <v>61.97</v>
       </c>
       <c r="J41" s="24" t="n">
-        <v>10.12</v>
+        <v>9.4</v>
       </c>
       <c r="K41" s="24" t="n">
-        <v>-2.56</v>
+        <v>-1.01</v>
       </c>
       <c r="L41" s="24" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="B42" s="25" t="inlineStr">
@@ -6077,34 +6077,34 @@
         </is>
       </c>
       <c r="C42" s="24" t="n">
-        <v>7.9</v>
+        <v>4.1</v>
       </c>
       <c r="D42" s="24" t="n">
-        <v>60.66</v>
+        <v>64.5</v>
       </c>
       <c r="E42" s="24" t="n">
-        <v>4.88</v>
+        <v>2.18</v>
       </c>
       <c r="F42" s="24" t="n">
-        <v>5.45</v>
+        <v>5.34</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>0.12</v>
+        <v>3.06</v>
       </c>
       <c r="H42" s="24" t="n">
-        <v>33.9</v>
+        <v>33.3</v>
       </c>
       <c r="I42" s="24" t="n">
-        <v>61.97</v>
+        <v>-3.79</v>
       </c>
       <c r="J42" s="24" t="n">
-        <v>9.4</v>
+        <v>10.12</v>
       </c>
       <c r="K42" s="24" t="n">
-        <v>-1.01</v>
+        <v>-2.56</v>
       </c>
       <c r="L42" s="24" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -6115,14 +6115,14 @@
       </c>
       <c r="B43" s="25" t="inlineStr">
         <is>
-          <t>36 (C+)</t>
+          <t>37 (C+)</t>
         </is>
       </c>
       <c r="C43" s="24" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D43" s="24" t="n">
-        <v>60.61</v>
+        <v>60.83</v>
       </c>
       <c r="E43" s="24" t="n">
         <v>9.59</v>
@@ -6152,49 +6152,49 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="B44" s="25" t="inlineStr">
         <is>
-          <t>32 (C+)</t>
+          <t>31 (C+)</t>
         </is>
       </c>
       <c r="C44" s="24" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D44" s="24" t="n">
-        <v>66.84</v>
+        <v>60.25</v>
       </c>
       <c r="E44" s="24" t="n">
-        <v>1.59</v>
+        <v>7.71</v>
       </c>
       <c r="F44" s="24" t="n">
-        <v>5.68</v>
+        <v>5.61</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.52</v>
+        <v>1.12</v>
       </c>
       <c r="H44" s="24" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="I44" s="24" t="n">
-        <v>-20.27</v>
+        <v>-18.53</v>
       </c>
       <c r="J44" s="24" t="n">
-        <v>-0.24</v>
+        <v>7.22</v>
       </c>
       <c r="K44" s="24" t="n">
-        <v>-1.8</v>
+        <v>-0.88</v>
       </c>
       <c r="L44" s="24" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="B45" s="25" t="inlineStr">
@@ -6203,34 +6203,34 @@
         </is>
       </c>
       <c r="C45" s="24" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="D45" s="24" t="n">
-        <v>60.02</v>
+        <v>66.5</v>
       </c>
       <c r="E45" s="24" t="n">
-        <v>7.71</v>
+        <v>1.59</v>
       </c>
       <c r="F45" s="24" t="n">
-        <v>5.61</v>
+        <v>5.68</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.12</v>
+        <v>1.52</v>
       </c>
       <c r="H45" s="24" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="I45" s="24" t="n">
-        <v>-18.53</v>
+        <v>-20.27</v>
       </c>
       <c r="J45" s="24" t="n">
-        <v>7.22</v>
+        <v>-0.24</v>
       </c>
       <c r="K45" s="24" t="n">
-        <v>-0.88</v>
+        <v>-1.8</v>
       </c>
       <c r="L45" s="24" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
@@ -6241,14 +6241,14 @@
       </c>
       <c r="B46" s="25" t="inlineStr">
         <is>
-          <t>30 (C+)</t>
+          <t>31 (C+)</t>
         </is>
       </c>
       <c r="C46" s="24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D46" s="24" t="n">
-        <v>63.62</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="E46" s="24" t="n">
         <v>4.88</v>
@@ -6283,14 +6283,14 @@
       </c>
       <c r="B47" s="25" t="inlineStr">
         <is>
-          <t>29 (C)</t>
+          <t>30 (C)</t>
         </is>
       </c>
       <c r="C47" s="24" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="D47" s="24" t="n">
-        <v>63.49</v>
+        <v>63.66</v>
       </c>
       <c r="E47" s="24" t="n">
         <v>4.58</v>
@@ -6320,49 +6320,49 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>San Francisco-Oakland-Fremont</t>
         </is>
       </c>
       <c r="B48" s="25" t="inlineStr">
         <is>
-          <t>27 (C)</t>
+          <t>28 (C)</t>
         </is>
       </c>
       <c r="C48" s="24" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="D48" s="24" t="n">
-        <v>63.15</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="E48" s="24" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="F48" s="24" t="n">
-        <v>6.47</v>
+        <v>6.19</v>
       </c>
       <c r="G48" s="24" t="n">
-        <v>3.04</v>
+        <v>2.02</v>
       </c>
       <c r="H48" s="24" t="n">
-        <v>32.8</v>
+        <v>33.3</v>
       </c>
       <c r="I48" s="24" t="n">
-        <v>-21.86</v>
+        <v>-39.96</v>
       </c>
       <c r="J48" s="24" t="n">
-        <v>5.24</v>
+        <v>-0.83</v>
       </c>
       <c r="K48" s="24" t="n">
-        <v>-3.7</v>
+        <v>-4.62</v>
       </c>
       <c r="L48" s="24" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Fremont</t>
+          <t>San Diego-Chula Vista-Carlsbad</t>
         </is>
       </c>
       <c r="B49" s="25" t="inlineStr">
@@ -6371,76 +6371,76 @@
         </is>
       </c>
       <c r="C49" s="24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="D49" s="24" t="n">
-        <v>64.89</v>
+        <v>62.18</v>
       </c>
       <c r="E49" s="24" t="n">
-        <v>4.29</v>
+        <v>3.03</v>
       </c>
       <c r="F49" s="24" t="n">
-        <v>6.19</v>
+        <v>7.2</v>
       </c>
       <c r="G49" s="24" t="n">
-        <v>2.02</v>
+        <v>1.16</v>
       </c>
       <c r="H49" s="24" t="n">
-        <v>33.3</v>
+        <v>32.7</v>
       </c>
       <c r="I49" s="24" t="n">
-        <v>-39.96</v>
+        <v>61.67</v>
       </c>
       <c r="J49" s="24" t="n">
-        <v>-0.83</v>
+        <v>-0.82</v>
       </c>
       <c r="K49" s="24" t="n">
-        <v>-4.62</v>
+        <v>-2.73</v>
       </c>
       <c r="L49" s="24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>San Diego-Chula Vista-Carlsbad</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="B50" s="25" t="inlineStr">
         <is>
-          <t>27 (C)</t>
+          <t>26 (C)</t>
         </is>
       </c>
       <c r="C50" s="24" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D50" s="24" t="n">
-        <v>62.1</v>
+        <v>63.08</v>
       </c>
       <c r="E50" s="24" t="n">
-        <v>3.03</v>
+        <v>4.3</v>
       </c>
       <c r="F50" s="24" t="n">
-        <v>7.2</v>
+        <v>6.47</v>
       </c>
       <c r="G50" s="24" t="n">
-        <v>1.16</v>
+        <v>3.04</v>
       </c>
       <c r="H50" s="24" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="I50" s="24" t="n">
-        <v>61.67</v>
+        <v>-21.86</v>
       </c>
       <c r="J50" s="24" t="n">
-        <v>-0.82</v>
+        <v>5.24</v>
       </c>
       <c r="K50" s="24" t="n">
-        <v>-2.73</v>
+        <v>-3.7</v>
       </c>
       <c r="L50" s="24" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
@@ -6455,10 +6455,10 @@
         </is>
       </c>
       <c r="C51" s="24" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="D51" s="24" t="n">
-        <v>60.62</v>
+        <v>60.54</v>
       </c>
       <c r="E51" s="24" t="n">
         <v>1.74</v>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="D2" s="14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="15" t="inlineStr">
         <is>
@@ -6591,13 +6591,13 @@
         </is>
       </c>
       <c r="F2" s="14" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="G2" s="14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H2" s="14" t="n">
-        <v>63.15</v>
+        <v>63.08</v>
       </c>
       <c r="I2" s="14" t="n">
         <v>4.3</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="D3" s="14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="15" t="inlineStr">
         <is>
@@ -6629,13 +6629,13 @@
         </is>
       </c>
       <c r="F3" s="14" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="G3" s="14" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="H3" s="14" t="n">
-        <v>63.49</v>
+        <v>63.66</v>
       </c>
       <c r="I3" s="14" t="n">
         <v>4.58</v>
@@ -6659,7 +6659,7 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -6667,13 +6667,13 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50.3</v>
+        <v>51.2</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>65.11</v>
+        <v>65.09</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.94</v>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53.1</v>
+        <v>52.5</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>69.56999999999999</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3.82</v>
@@ -6721,40 +6721,40 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Houston-Pasadena-The Woodlands</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
       </c>
-      <c r="D6" s="8" t="n">
-        <v>49</v>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>64.31</v>
-      </c>
-      <c r="I6" s="8" t="n">
+      <c r="D6" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>5.93</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="5" t="n">
         <v>4.32</v>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="D7" s="8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
@@ -6781,13 +6781,13 @@
         </is>
       </c>
       <c r="F7" s="8" t="n">
-        <v>47.5</v>
+        <v>46.3</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>62.23</v>
+        <v>62.01</v>
       </c>
       <c r="I7" s="8" t="n">
         <v>7.05</v>
@@ -6819,13 +6819,13 @@
         </is>
       </c>
       <c r="F8" s="8" t="n">
-        <v>45.2</v>
+        <v>44.6</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H8" s="8" t="n">
-        <v>68.17</v>
+        <v>67.92</v>
       </c>
       <c r="I8" s="8" t="n">
         <v>-0.14</v>
@@ -6849,7 +6849,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
@@ -6857,13 +6857,13 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54.7</v>
+        <v>54.1</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>64.14</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>6.24</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51.6</v>
+        <v>53.1</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>63.89</v>
+        <v>63.77</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.34</v>
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="D11" s="8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="F11" s="8" t="n">
-        <v>45.7</v>
+        <v>44.5</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H11" s="8" t="n">
-        <v>65.47</v>
+        <v>66.59</v>
       </c>
       <c r="I11" s="8" t="n">
         <v>4.08</v>
@@ -6949,40 +6949,40 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="9" t="inlineStr">
         <is>
           <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Boston</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="G12" s="5" t="n">
+      <c r="D12" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="G12" s="8" t="n">
         <v>3.9</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="8" t="n">
         <v>68.47</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="8" t="n">
         <v>2.61</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="8" t="n">
         <v>6.39</v>
       </c>
     </row>
@@ -7012,10 +7012,10 @@
         <v>31.2</v>
       </c>
       <c r="G13" s="11" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="H13" s="11" t="n">
-        <v>60.02</v>
+        <v>60.25</v>
       </c>
       <c r="I13" s="11" t="n">
         <v>7.71</v>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="D14" s="14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="15" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="F14" s="14" t="n">
-        <v>26.6</v>
+        <v>27.5</v>
       </c>
       <c r="G14" s="14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>64.89</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="I14" s="14" t="n">
         <v>4.29</v>
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="D15" s="8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E15" s="9" t="inlineStr">
         <is>
@@ -7085,13 +7085,13 @@
         </is>
       </c>
       <c r="F15" s="8" t="n">
-        <v>49.9</v>
+        <v>44.8</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H15" s="8" t="n">
-        <v>60.93</v>
+        <v>60.73</v>
       </c>
       <c r="I15" s="8" t="n">
         <v>3.04</v>
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
@@ -7123,13 +7123,13 @@
         </is>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58.7</v>
+        <v>56.3</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>68.19</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>8.65</v>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53.5</v>
+        <v>54.7</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>69.39</v>
+        <v>69.34</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>2.74</v>
@@ -7191,7 +7191,7 @@
         </is>
       </c>
       <c r="D18" s="8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="9" t="inlineStr">
         <is>
@@ -7199,13 +7199,13 @@
         </is>
       </c>
       <c r="F18" s="8" t="n">
-        <v>45.8</v>
+        <v>44</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H18" s="8" t="n">
-        <v>60.12</v>
+        <v>60.34</v>
       </c>
       <c r="I18" s="8" t="n">
         <v>9.51</v>
@@ -7240,10 +7240,10 @@
         <v>27.4</v>
       </c>
       <c r="G19" s="14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H19" s="14" t="n">
-        <v>62.1</v>
+        <v>62.18</v>
       </c>
       <c r="I19" s="14" t="n">
         <v>3.03</v>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
@@ -7275,13 +7275,13 @@
         </is>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>71.28</v>
+        <v>71.33</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>4.35</v>
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="D21" s="11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="12" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="F21" s="11" t="n">
-        <v>39.3</v>
+        <v>38.1</v>
       </c>
       <c r="G21" s="11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H21" s="11" t="n">
-        <v>64.44</v>
+        <v>64.5</v>
       </c>
       <c r="I21" s="11" t="n">
         <v>2.18</v>
@@ -7343,7 +7343,7 @@
         </is>
       </c>
       <c r="D22" s="8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="9" t="inlineStr">
         <is>
@@ -7351,13 +7351,13 @@
         </is>
       </c>
       <c r="F22" s="8" t="n">
-        <v>44.1</v>
+        <v>46.5</v>
       </c>
       <c r="G22" s="8" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H22" s="8" t="n">
-        <v>64.69</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="I22" s="8" t="n">
         <v>-1.15</v>
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="D23" s="8" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E23" s="9" t="inlineStr">
         <is>
@@ -7389,13 +7389,13 @@
         </is>
       </c>
       <c r="F23" s="8" t="n">
-        <v>44.8</v>
+        <v>40.9</v>
       </c>
       <c r="G23" s="8" t="n">
         <v>4.3</v>
       </c>
       <c r="H23" s="8" t="n">
-        <v>64.90000000000001</v>
+        <v>64.61</v>
       </c>
       <c r="I23" s="8" t="n">
         <v>0.74</v>
@@ -7419,7 +7419,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
@@ -7427,13 +7427,13 @@
         </is>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53.6</v>
+        <v>56.9</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>65.69</v>
+        <v>65.2</v>
       </c>
       <c r="I24" s="5" t="n">
         <v>0.22</v>
@@ -7465,13 +7465,13 @@
         </is>
       </c>
       <c r="F25" s="8" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H25" s="8" t="n">
-        <v>62.92</v>
+        <v>63.01</v>
       </c>
       <c r="I25" s="8" t="n">
         <v>4.9</v>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="F26" s="8" t="n">
-        <v>46.5</v>
+        <v>45.6</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H26" s="8" t="n">
-        <v>73.45999999999999</v>
+        <v>73.89</v>
       </c>
       <c r="I26" s="8" t="n">
         <v>2.84</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D27" s="11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
@@ -7541,13 +7541,13 @@
         </is>
       </c>
       <c r="F27" s="11" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="G27" s="11" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="11" t="n">
-        <v>66.84</v>
+        <v>66.5</v>
       </c>
       <c r="I27" s="11" t="n">
         <v>1.59</v>
@@ -7582,10 +7582,10 @@
         <v>18.3</v>
       </c>
       <c r="G28" s="17" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H28" s="17" t="n">
-        <v>60.62</v>
+        <v>60.54</v>
       </c>
       <c r="I28" s="17" t="n">
         <v>1.74</v>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
@@ -7617,13 +7617,13 @@
         </is>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51.6</v>
+        <v>54.3</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>60.7</v>
+        <v>60.25</v>
       </c>
       <c r="I29" s="5" t="n">
         <v>5.7</v>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="D30" s="11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="12" t="inlineStr">
         <is>
@@ -7655,13 +7655,13 @@
         </is>
       </c>
       <c r="F30" s="11" t="n">
-        <v>30.2</v>
+        <v>30.8</v>
       </c>
       <c r="G30" s="11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H30" s="11" t="n">
-        <v>63.62</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="I30" s="11" t="n">
         <v>4.88</v>
@@ -7685,7 +7685,7 @@
         </is>
       </c>
       <c r="D31" s="5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E31" s="6" t="inlineStr">
         <is>
@@ -7693,13 +7693,13 @@
         </is>
       </c>
       <c r="F31" s="5" t="n">
-        <v>51.1</v>
+        <v>53.8</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>64.06999999999999</v>
+        <v>63.68</v>
       </c>
       <c r="I31" s="5" t="n">
         <v>-1.51</v>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="D32" s="5" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E32" s="6" t="inlineStr">
         <is>
@@ -7731,13 +7731,13 @@
         </is>
       </c>
       <c r="F32" s="5" t="n">
-        <v>56</v>
+        <v>59.6</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>68.55</v>
+        <v>67.98</v>
       </c>
       <c r="I32" s="5" t="n">
         <v>2.82</v>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="D33" s="5" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E33" s="6" t="inlineStr">
         <is>
@@ -7769,13 +7769,13 @@
         </is>
       </c>
       <c r="F33" s="5" t="n">
-        <v>52.4</v>
+        <v>56.3</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>66.13</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="I33" s="5" t="n">
         <v>2.26</v>
@@ -7807,13 +7807,13 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>68.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>67.95</v>
+        <v>67.88</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>6.5</v>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="D35" s="5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="6" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="F35" s="5" t="n">
-        <v>54.1</v>
+        <v>52.6</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>3.4</v>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>65</v>
+        <v>64.7</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>3.1</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>75.77</v>
+        <v>76.06</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1.15</v>
@@ -7922,10 +7922,10 @@
         <v>41.4</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H37" s="8" t="n">
-        <v>64.77</v>
+        <v>64.66</v>
       </c>
       <c r="I37" s="8" t="n">
         <v>-1.3</v>
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E38" s="6" t="inlineStr">
         <is>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F38" s="5" t="n">
-        <v>55.4</v>
+        <v>56.9</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>59.97</v>
+        <v>59.3</v>
       </c>
       <c r="I38" s="5" t="n">
         <v>10.68</v>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="D39" s="11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E39" s="12" t="inlineStr">
         <is>
@@ -7995,13 +7995,13 @@
         </is>
       </c>
       <c r="F39" s="11" t="n">
-        <v>36.5</v>
+        <v>37.1</v>
       </c>
       <c r="G39" s="11" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H39" s="11" t="n">
-        <v>60.61</v>
+        <v>60.83</v>
       </c>
       <c r="I39" s="11" t="n">
         <v>9.59</v>
@@ -8025,7 +8025,7 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E40" s="6" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         </is>
       </c>
       <c r="F40" s="5" t="n">
-        <v>55.6</v>
+        <v>52.9</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>4.3</v>
@@ -8071,13 +8071,13 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>67.5</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>64.09</v>
+        <v>62.75</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>3.99</v>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="F42" s="5" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>67.45</v>
+        <v>67.86</v>
       </c>
       <c r="I42" s="5" t="n">
         <v>2.94</v>
@@ -8139,7 +8139,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
@@ -8147,13 +8147,13 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>67.3</v>
+        <v>65.8</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>66.29000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>3.49</v>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
@@ -8185,13 +8185,13 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>64.09999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>4</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>63.02</v>
+        <v>63.25</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>2.68</v>
@@ -8223,13 +8223,13 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>65.09999999999999</v>
+        <v>64.8</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>65.37</v>
+        <v>64.58</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>7.81</v>
@@ -8264,10 +8264,10 @@
         <v>40.1</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H46" s="8" t="n">
-        <v>60.45</v>
+        <v>60.64</v>
       </c>
       <c r="I46" s="8" t="n">
         <v>6.95</v>
@@ -8291,7 +8291,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
@@ -8299,13 +8299,13 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>62.6</v>
+        <v>62</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>72.53</v>
+        <v>72.66</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>1</v>
@@ -8315,40 +8315,40 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="n">
+      <c r="A48" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B48" s="6" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="C48" s="9" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="D48" s="8" t="n">
+      <c r="D48" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F48" s="8" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="G48" s="8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H48" s="8" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="I48" s="8" t="n">
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>60.48</v>
+      </c>
+      <c r="I48" s="5" t="n">
         <v>1.96</v>
       </c>
-      <c r="J48" s="8" t="n">
+      <c r="J48" s="5" t="n">
         <v>7.14</v>
       </c>
     </row>
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="D49" s="11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49" s="12" t="inlineStr">
         <is>
@@ -8375,13 +8375,13 @@
         </is>
       </c>
       <c r="F49" s="11" t="n">
-        <v>38</v>
+        <v>38.6</v>
       </c>
       <c r="G49" s="11" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="H49" s="11" t="n">
-        <v>60.66</v>
+        <v>61.03</v>
       </c>
       <c r="I49" s="11" t="n">
         <v>4.88</v>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
@@ -8413,13 +8413,13 @@
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>63.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>65.59999999999999</v>
+        <v>66.05</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>3.47</v>
@@ -8451,7 +8451,7 @@
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>64.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>2.7</v>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="F3" s="31" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="G3" s="31" t="n">
@@ -8589,11 +8589,11 @@
       </c>
       <c r="B4" s="30" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="C4" s="30" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="30" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         </is>
       </c>
       <c r="G4" s="31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="31" t="inlineStr">
         <is>
@@ -8623,11 +8623,11 @@
       </c>
       <c r="B5" s="30" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="C5" s="30" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="30" t="inlineStr">
         <is>
@@ -8639,11 +8639,11 @@
       </c>
       <c r="F5" s="31" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="G5" s="31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="31" t="inlineStr">
         <is>
@@ -8657,11 +8657,11 @@
       </c>
       <c r="B6" s="30" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="C6" s="30" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="30" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="F6" s="31" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="G6" s="31" t="n">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="B7" s="30" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="C7" s="30" t="n">
@@ -8711,7 +8711,7 @@
         </is>
       </c>
       <c r="G7" s="31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="31" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="B8" s="30" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="C8" s="30" t="n">
@@ -8745,7 +8745,7 @@
         </is>
       </c>
       <c r="G8" s="31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="31" t="inlineStr">
         <is>
@@ -8759,11 +8759,11 @@
       </c>
       <c r="B9" s="30" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="C9" s="30" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="30" t="inlineStr">
         <is>
@@ -8775,11 +8775,11 @@
       </c>
       <c r="F9" s="31" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>San Francisco-Oakland-Fremont</t>
         </is>
       </c>
       <c r="G9" s="31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="31" t="inlineStr">
         <is>
@@ -8793,11 +8793,11 @@
       </c>
       <c r="B10" s="30" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="C10" s="30" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="30" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="F10" s="31" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Fremont</t>
+          <t>San Diego-Chula Vista-Carlsbad</t>
         </is>
       </c>
       <c r="G10" s="31" t="n">
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="C11" s="30" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="30" t="inlineStr">
         <is>
@@ -8843,11 +8843,11 @@
       </c>
       <c r="F11" s="31" t="inlineStr">
         <is>
-          <t>San Diego-Chula Vista-Carlsbad</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="G11" s="31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="31" t="inlineStr">
         <is>
@@ -8861,11 +8861,11 @@
       </c>
       <c r="B12" s="30" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="C12" s="30" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="30" t="inlineStr">
         <is>

--- a/Economic_Metrics_All_Metros.xlsx
+++ b/Economic_Metrics_All_Metros.xlsx
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="D27" s="7" t="n">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="F27" s="5" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="G27" s="6" t="inlineStr">
         <is>
@@ -1444,33 +1444,33 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="G28" s="6" t="inlineStr">
-        <is>
-          <t>Average</t>
+      <c r="A28" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>Denver-Aurora-Centennial</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="G28" s="9" t="inlineStr">
+        <is>
+          <t>Below Average</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="F29" s="8" t="n">
-        <v>48.3</v>
+        <v>47.5</v>
       </c>
       <c r="G29" s="9" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F30" s="8" t="n">
-        <v>46.3</v>
+        <v>46.5</v>
       </c>
       <c r="G30" s="9" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="F31" s="8" t="n">
-        <v>46.5</v>
+        <v>46.3</v>
       </c>
       <c r="G31" s="9" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="F33" s="8" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="G33" s="9" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="F34" s="8" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="G34" s="9" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="F38" s="8" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="G38" s="9" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="F40" s="8" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="G40" s="9" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F43" s="11" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="G43" s="12" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F45" s="11" t="n">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
       <c r="G45" s="12" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="F46" s="11" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="G46" s="12" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="D47" s="16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="15" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F47" s="14" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="G47" s="15" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="D48" s="16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E48" s="15" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F48" s="14" t="n">
-        <v>27.5</v>
+        <v>28.9</v>
       </c>
       <c r="G48" s="15" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="D49" s="16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E49" s="15" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="F49" s="14" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="G49" s="15" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="F50" s="14" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="G50" s="15" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="F51" s="17" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="G51" s="18" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>26</v>
       </c>
       <c r="J17" s="23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K17" s="23" t="n">
         <v>42</v>
@@ -3083,7 +3083,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21" s="21" t="n">
         <v>98</v>
@@ -3203,7 +3203,7 @@
         <v>72</v>
       </c>
       <c r="J24" s="23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>66</v>
@@ -3295,81 +3295,81 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B27" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="C27" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="D27" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="E27" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="F27" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="G27" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="H27" s="23" t="n">
+      <c r="C27" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="D27" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="E27" s="23" t="n">
         <v>28</v>
       </c>
-      <c r="I27" s="21" t="n">
-        <v>74</v>
-      </c>
-      <c r="J27" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K27" s="23" t="n">
+      <c r="F27" s="23" t="n">
         <v>10</v>
       </c>
+      <c r="G27" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="I27" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="J27" s="22" t="n">
+        <v>68</v>
+      </c>
+      <c r="K27" s="21" t="n">
+        <v>70</v>
+      </c>
       <c r="L27" s="23" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="B28" s="20" t="n">
+        <v>49</v>
+      </c>
+      <c r="C28" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="D28" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="E28" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="F28" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="G28" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="C28" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="D28" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="E28" s="23" t="n">
+      <c r="H28" s="23" t="n">
         <v>28</v>
       </c>
-      <c r="F28" s="23" t="n">
+      <c r="I28" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="J28" s="23" t="n">
+        <v>8</v>
+      </c>
+      <c r="K28" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="G28" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="H28" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="I28" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J28" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="K28" s="21" t="n">
-        <v>70</v>
-      </c>
       <c r="L28" s="23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -3403,7 +3403,7 @@
         <v>18</v>
       </c>
       <c r="J29" s="23" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K29" s="21" t="n">
         <v>72</v>
@@ -3443,7 +3443,7 @@
         <v>94</v>
       </c>
       <c r="J30" s="23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K30" s="23" t="n">
         <v>12</v>
@@ -3483,7 +3483,7 @@
         <v>36</v>
       </c>
       <c r="J31" s="23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K31" s="22" t="n">
         <v>50</v>
@@ -3563,7 +3563,7 @@
         <v>54</v>
       </c>
       <c r="J33" s="23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K33" s="23" t="n">
         <v>4</v>
@@ -3603,7 +3603,7 @@
         <v>88</v>
       </c>
       <c r="J34" s="23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K34" s="23" t="n">
         <v>46</v>
@@ -3763,7 +3763,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K38" s="23" t="n">
         <v>8</v>
@@ -3843,7 +3843,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K40" s="23" t="n">
         <v>28</v>
@@ -3963,7 +3963,7 @@
         <v>46</v>
       </c>
       <c r="J43" s="23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K43" s="23" t="n">
         <v>16</v>
@@ -4043,7 +4043,7 @@
         <v>28</v>
       </c>
       <c r="J45" s="23" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K45" s="23" t="n">
         <v>32</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K46" s="23" t="n">
         <v>36</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="B47" s="20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="23" t="n">
         <v>6</v>
@@ -4123,7 +4123,7 @@
         <v>64</v>
       </c>
       <c r="J47" s="23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K47" s="23" t="n">
         <v>22</v>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="B48" s="20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" s="23" t="n">
         <v>24</v>
@@ -4163,7 +4163,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="23" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K48" s="24" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="B49" s="20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49" s="23" t="n">
         <v>14</v>
@@ -4203,7 +4203,7 @@
         <v>90</v>
       </c>
       <c r="J49" s="23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K49" s="23" t="n">
         <v>18</v>
@@ -4243,7 +4243,7 @@
         <v>22</v>
       </c>
       <c r="J50" s="23" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K50" s="23" t="n">
         <v>6</v>
@@ -4283,7 +4283,7 @@
         <v>14</v>
       </c>
       <c r="J51" s="23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K51" s="23" t="n">
         <v>30</v>
@@ -4924,7 +4924,7 @@
         <v>14.29</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>-0.54</v>
+        <v>-0.39</v>
       </c>
       <c r="K14" s="24" t="n">
         <v>-0.15</v>
@@ -5008,7 +5008,7 @@
         <v>-5.7</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>2.37</v>
+        <v>2.69</v>
       </c>
       <c r="K16" s="24" t="n">
         <v>-0.63</v>
@@ -5050,7 +5050,7 @@
         <v>-20.77</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>-0.16</v>
+        <v>-0.11</v>
       </c>
       <c r="K17" s="24" t="n">
         <v>-1.02</v>
@@ -5216,7 +5216,7 @@
         <v>14.96</v>
       </c>
       <c r="J21" s="24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K21" s="24" t="n">
         <v>12.86</v>
@@ -5300,7 +5300,7 @@
         <v>4.08</v>
       </c>
       <c r="J23" s="24" t="n">
-        <v>-1.32</v>
+        <v>-1.45</v>
       </c>
       <c r="K23" s="24" t="n">
         <v>-1.78</v>
@@ -5342,7 +5342,7 @@
         <v>11.46</v>
       </c>
       <c r="J24" s="24" t="n">
-        <v>5.46</v>
+        <v>5.85</v>
       </c>
       <c r="K24" s="24" t="n">
         <v>0.16</v>
@@ -5438,7 +5438,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B27" s="25" t="inlineStr">
@@ -5447,76 +5447,76 @@
         </is>
       </c>
       <c r="C27" s="24" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D27" s="24" t="n">
-        <v>71.33</v>
+        <v>60.48</v>
       </c>
       <c r="E27" s="24" t="n">
-        <v>4.35</v>
+        <v>1.96</v>
       </c>
       <c r="F27" s="24" t="n">
-        <v>4.92</v>
+        <v>7.14</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>2.58</v>
+        <v>1.78</v>
       </c>
       <c r="H27" s="24" t="n">
-        <v>33.6</v>
+        <v>35.5</v>
       </c>
       <c r="I27" s="24" t="n">
-        <v>13.55</v>
+        <v>1.56</v>
       </c>
       <c r="J27" s="24" t="n">
-        <v>-0.64</v>
+        <v>10.88</v>
       </c>
       <c r="K27" s="24" t="n">
-        <v>-3.48</v>
+        <v>0.42</v>
       </c>
       <c r="L27" s="24" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="B28" s="25" t="inlineStr">
         <is>
-          <t>50 (B)</t>
+          <t>49 (B-)</t>
         </is>
       </c>
       <c r="C28" s="24" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D28" s="24" t="n">
-        <v>60.48</v>
+        <v>71.33</v>
       </c>
       <c r="E28" s="24" t="n">
-        <v>1.96</v>
+        <v>4.35</v>
       </c>
       <c r="F28" s="24" t="n">
-        <v>7.14</v>
+        <v>4.92</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.78</v>
+        <v>2.58</v>
       </c>
       <c r="H28" s="24" t="n">
-        <v>35.5</v>
+        <v>33.6</v>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.56</v>
+        <v>13.55</v>
       </c>
       <c r="J28" s="24" t="n">
-        <v>10.88</v>
+        <v>-1.32</v>
       </c>
       <c r="K28" s="24" t="n">
-        <v>0.42</v>
+        <v>-3.48</v>
       </c>
       <c r="L28" s="24" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -5552,7 +5552,7 @@
         <v>-25.94</v>
       </c>
       <c r="J29" s="24" t="n">
-        <v>4.14</v>
+        <v>2.95</v>
       </c>
       <c r="K29" s="24" t="n">
         <v>0.57</v>
@@ -5594,7 +5594,7 @@
         <v>76.97</v>
       </c>
       <c r="J30" s="24" t="n">
-        <v>-1.26</v>
+        <v>-1.04</v>
       </c>
       <c r="K30" s="24" t="n">
         <v>-3.06</v>
@@ -5636,7 +5636,7 @@
         <v>-15.37</v>
       </c>
       <c r="J31" s="24" t="n">
-        <v>0.73</v>
+        <v>0.39</v>
       </c>
       <c r="K31" s="24" t="n">
         <v>-0.75</v>
@@ -5720,7 +5720,7 @@
         <v>2.42</v>
       </c>
       <c r="J33" s="24" t="n">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
       <c r="K33" s="24" t="n">
         <v>-4.06</v>
@@ -5762,7 +5762,7 @@
         <v>57.77</v>
       </c>
       <c r="J34" s="24" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K34" s="24" t="n">
         <v>-0.93</v>
@@ -5804,7 +5804,7 @@
         <v>-21.38</v>
       </c>
       <c r="J35" s="24" t="n">
-        <v>-2.02</v>
+        <v>-1.54</v>
       </c>
       <c r="K35" s="24" t="n">
         <v>-2.06</v>
@@ -5846,7 +5846,7 @@
         <v>10.06</v>
       </c>
       <c r="J36" s="24" t="n">
-        <v>-4.14</v>
+        <v>-4.16</v>
       </c>
       <c r="K36" s="24" t="n">
         <v>0.41</v>
@@ -6224,7 +6224,7 @@
         <v>-20.27</v>
       </c>
       <c r="J45" s="24" t="n">
-        <v>-0.24</v>
+        <v>-0.59</v>
       </c>
       <c r="K45" s="24" t="n">
         <v>-1.8</v>
@@ -6266,7 +6266,7 @@
         <v>-46.49</v>
       </c>
       <c r="J46" s="24" t="n">
-        <v>-0.71</v>
+        <v>-0.66</v>
       </c>
       <c r="K46" s="24" t="n">
         <v>-1.49</v>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B47" s="25" t="inlineStr">
         <is>
-          <t>30 (C)</t>
+          <t>29 (C)</t>
         </is>
       </c>
       <c r="C47" s="24" t="n">
@@ -6308,7 +6308,7 @@
         <v>6.1</v>
       </c>
       <c r="J47" s="24" t="n">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="K47" s="24" t="n">
         <v>-2.07</v>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="B48" s="25" t="inlineStr">
         <is>
-          <t>28 (C)</t>
+          <t>29 (C)</t>
         </is>
       </c>
       <c r="C48" s="24" t="n">
@@ -6350,7 +6350,7 @@
         <v>-39.96</v>
       </c>
       <c r="J48" s="24" t="n">
-        <v>-0.83</v>
+        <v>0.3</v>
       </c>
       <c r="K48" s="24" t="n">
         <v>-4.62</v>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="B49" s="25" t="inlineStr">
         <is>
-          <t>27 (C)</t>
+          <t>28 (C)</t>
         </is>
       </c>
       <c r="C49" s="24" t="n">
@@ -6392,7 +6392,7 @@
         <v>61.67</v>
       </c>
       <c r="J49" s="24" t="n">
-        <v>-0.82</v>
+        <v>-0.55</v>
       </c>
       <c r="K49" s="24" t="n">
         <v>-2.73</v>
@@ -6434,7 +6434,7 @@
         <v>-21.86</v>
       </c>
       <c r="J50" s="24" t="n">
-        <v>5.24</v>
+        <v>4.97</v>
       </c>
       <c r="K50" s="24" t="n">
         <v>-3.7</v>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="F2" s="14" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="G2" s="14" t="n">
         <v>5.3</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="D3" s="14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         </is>
       </c>
       <c r="F3" s="14" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>5.5</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.2</v>
@@ -6781,7 +6781,7 @@
         </is>
       </c>
       <c r="F7" s="8" t="n">
-        <v>46.3</v>
+        <v>46.5</v>
       </c>
       <c r="G7" s="8" t="n">
         <v>3.6</v>
@@ -6819,7 +6819,7 @@
         </is>
       </c>
       <c r="F8" s="8" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="G8" s="8" t="n">
         <v>4.1</v>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>3.4</v>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="F12" s="8" t="n">
-        <v>48.3</v>
+        <v>47.5</v>
       </c>
       <c r="G12" s="8" t="n">
         <v>3.9</v>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="D14" s="14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="15" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="F14" s="14" t="n">
-        <v>27.5</v>
+        <v>28.9</v>
       </c>
       <c r="G14" s="14" t="n">
         <v>4.6</v>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="F15" s="8" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="G15" s="8" t="n">
         <v>4.8</v>
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="D19" s="14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="15" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="F19" s="14" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="G19" s="14" t="n">
         <v>4.9</v>
@@ -7253,40 +7253,40 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>Denver</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G20" s="5" t="n">
+      <c r="D20" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="G20" s="8" t="n">
         <v>3.9</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="8" t="n">
         <v>71.33</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="8" t="n">
         <v>4.35</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="8" t="n">
         <v>4.92</v>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
         </is>
       </c>
       <c r="F22" s="8" t="n">
-        <v>46.5</v>
+        <v>46.3</v>
       </c>
       <c r="G22" s="8" t="n">
         <v>3.8</v>
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="F25" s="8" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="G25" s="8" t="n">
         <v>4.2</v>
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="F27" s="11" t="n">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
       <c r="G27" s="11" t="n">
         <v>5</v>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="F28" s="17" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="G28" s="17" t="n">
         <v>5.2</v>
@@ -7655,7 +7655,7 @@
         </is>
       </c>
       <c r="F30" s="11" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="G30" s="11" t="n">
         <v>5.7</v>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="F35" s="5" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>3.4</v>
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="F39" s="11" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="G39" s="11" t="n">
         <v>4.3</v>
@@ -8261,7 +8261,7 @@
         </is>
       </c>
       <c r="F46" s="8" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="G46" s="8" t="n">
         <v>4.4</v>
@@ -8745,7 +8745,7 @@
         </is>
       </c>
       <c r="G8" s="31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="31" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         </is>
       </c>
       <c r="G9" s="31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="31" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         </is>
       </c>
       <c r="G10" s="31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="31" t="inlineStr">
         <is>

--- a/Economic_Metrics_All_Metros.xlsx
+++ b/Economic_Metrics_All_Metros.xlsx
@@ -192,10 +192,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -639,16 +639,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Indianapolis-Carmel-Greenwood</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="D2" s="4" t="n">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>69.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -670,20 +670,20 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Grand Rapids</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>69.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
@@ -701,20 +701,20 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>68.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
@@ -732,16 +732,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Grand Rapids</t>
         </is>
       </c>
       <c r="D5" s="4" t="n">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
@@ -763,16 +763,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D6" s="4" t="n">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>64.7</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
@@ -794,16 +794,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hartford</t>
         </is>
       </c>
       <c r="D7" s="4" t="n">
@@ -825,20 +825,20 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Hartford</t>
+          <t>Milwaukee</t>
         </is>
       </c>
       <c r="D8" s="4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>65.40000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
@@ -856,20 +856,20 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="D9" s="4" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>62.6</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
@@ -887,20 +887,20 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Indianapolis-Carmel-Greenwood</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Indianapolis</t>
         </is>
       </c>
       <c r="D10" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>62</v>
+        <v>63.2</v>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
@@ -917,52 +917,52 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>Kansas City</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Kansas City</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="n">
+      <c r="A11" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Louisville-Jefferson County</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Louisville</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>Average</t>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Above Average</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Virginia Beach-Chesapeake-Norfolk</t>
         </is>
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Virginia Beach</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56.9</v>
+        <v>59</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -980,20 +980,20 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>Virginia Beach-Chesapeake-Norfolk</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>Virginia Beach</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56.9</v>
+        <v>58.3</v>
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56.3</v>
+        <v>57.2</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56.3</v>
+        <v>56.4</v>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
@@ -1073,20 +1073,20 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>Minneapolis-St. Paul-Bloomington</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54.7</v>
+        <v>56</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -1104,20 +1104,20 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell</t>
+          <t>Raleigh-Cary</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Raleigh</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53.9</v>
+        <v>56.1</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1166,16 +1166,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Dallas-Fort Worth-Arlington</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1197,20 +1197,20 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53.1</v>
+        <v>54.5</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52.8</v>
+        <v>53.3</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1259,20 +1259,20 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>Providence-Warwick</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>Providence</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52.9</v>
+        <v>52</v>
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
@@ -1290,16 +1290,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington</t>
+          <t>Providence-Warwick</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Providence</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52.5</v>
+        <v>51.6</v>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51.4</v>
+        <v>51.2</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1351,114 +1351,114 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="B25" s="9" t="inlineStr">
         <is>
           <t>Houston-Pasadena-The Woodlands</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
       </c>
-      <c r="D25" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="E25" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="G25" s="6" t="inlineStr">
-        <is>
-          <t>Average</t>
+      <c r="D25" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="G25" s="9" t="inlineStr">
+        <is>
+          <t>Below Average</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
-        <is>
-          <t>Raleigh-Cary</t>
-        </is>
-      </c>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>Raleigh</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>51</v>
-      </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="G26" s="6" t="inlineStr">
-        <is>
-          <t>Average</t>
+      <c r="A26" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Washington-Arlington-Alexandria</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>Washington DC</t>
+        </is>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="G26" s="9" t="inlineStr">
+        <is>
+          <t>Below Average</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="G27" s="6" t="inlineStr">
-        <is>
-          <t>Average</t>
+      <c r="A27" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B27" s="9" t="inlineStr">
+        <is>
+          <t>Minneapolis-St. Paul-Bloomington</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
+        <is>
+          <t>Minneapolis</t>
+        </is>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="E27" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="G27" s="9" t="inlineStr">
+        <is>
+          <t>Below Average</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="D28" s="10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="9" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="F28" s="8" t="n">
-        <v>49.2</v>
+        <v>47.7</v>
       </c>
       <c r="G28" s="9" t="inlineStr">
         <is>
@@ -1476,16 +1476,16 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="D29" s="10" t="n">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="F29" s="8" t="n">
-        <v>47.5</v>
+        <v>48.3</v>
       </c>
       <c r="G29" s="9" t="inlineStr">
         <is>
@@ -1507,20 +1507,20 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="D30" s="10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" s="9" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F30" s="8" t="n">
-        <v>46.5</v>
+        <v>48.4</v>
       </c>
       <c r="G30" s="9" t="inlineStr">
         <is>
@@ -1538,20 +1538,20 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="D31" s="10" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="9" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="F31" s="8" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="G31" s="9" t="inlineStr">
         <is>
@@ -1569,20 +1569,20 @@
     </row>
     <row r="32">
       <c r="A32" s="8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Phoenix-Mesa-Chandler</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="D32" s="10" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="9" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="F32" s="8" t="n">
-        <v>45.6</v>
+        <v>46.8</v>
       </c>
       <c r="G32" s="9" t="inlineStr">
         <is>
@@ -1600,16 +1600,16 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>Washington DC</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="D33" s="10" t="n">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="F33" s="8" t="n">
-        <v>44.8</v>
+        <v>45.3</v>
       </c>
       <c r="G33" s="9" t="inlineStr">
         <is>
@@ -1631,16 +1631,16 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="D34" s="10" t="n">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="F34" s="8" t="n">
-        <v>45</v>
+        <v>44.7</v>
       </c>
       <c r="G34" s="9" t="inlineStr">
         <is>
@@ -1662,16 +1662,16 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Chandler</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="D35" s="10" t="n">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="F35" s="8" t="n">
-        <v>44.5</v>
+        <v>43.8</v>
       </c>
       <c r="G35" s="9" t="inlineStr">
         <is>
@@ -1693,16 +1693,16 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="D36" s="10" t="n">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="F36" s="8" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="G36" s="9" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson</t>
+          <t>San Jose-Sunnyvale-Santa Clara</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>Baltimore</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="D37" s="10" t="n">
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="F37" s="8" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="G37" s="9" t="inlineStr">
         <is>
@@ -1755,16 +1755,16 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>San Antonio-New Braunfels</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="D38" s="10" t="n">
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="F38" s="8" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="G38" s="9" t="inlineStr">
         <is>
@@ -1786,20 +1786,20 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>San Jose-Sunnyvale-Santa Clara</t>
+          <t>Baltimore-Columbia-Towson</t>
         </is>
       </c>
       <c r="C39" s="9" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Baltimore</t>
         </is>
       </c>
       <c r="D39" s="10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="9" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="F39" s="8" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="G39" s="9" t="inlineStr">
         <is>
@@ -1816,33 +1816,33 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Memphis</t>
-        </is>
-      </c>
-      <c r="D40" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F40" s="8" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="G40" s="9" t="inlineStr">
-        <is>
-          <t>Below Average</t>
+      <c r="A40" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B40" s="12" t="inlineStr">
+        <is>
+          <t>Detroit-Warren-Dearborn</t>
+        </is>
+      </c>
+      <c r="C40" s="12" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="D40" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" s="12" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="F40" s="11" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="G40" s="12" t="inlineStr">
+        <is>
+          <t>Poor</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="F41" s="11" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="G41" s="12" t="inlineStr">
         <is>
@@ -1879,16 +1879,16 @@
     </row>
     <row r="42">
       <c r="A42" s="11" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B42" s="12" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="C42" s="12" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="D42" s="13" t="n">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="F42" s="11" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="G42" s="12" t="inlineStr">
         <is>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="43">
       <c r="A43" s="11" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>San Antonio-New Braunfels</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="D43" s="13" t="n">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F43" s="11" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="G43" s="12" t="inlineStr">
         <is>
@@ -1941,20 +1941,20 @@
     </row>
     <row r="44">
       <c r="A44" s="11" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B44" s="12" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="C44" s="12" t="inlineStr">
         <is>
-          <t>Riverside</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="D44" s="13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E44" s="12" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="F44" s="11" t="n">
-        <v>31.2</v>
+        <v>33.1</v>
       </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
@@ -1972,20 +1972,20 @@
     </row>
     <row r="45">
       <c r="A45" s="11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Las Vegas</t>
         </is>
       </c>
       <c r="D45" s="13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="12" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F45" s="11" t="n">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="G45" s="12" t="inlineStr">
         <is>
@@ -2002,33 +2002,33 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="B46" s="12" t="inlineStr">
-        <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
-        </is>
-      </c>
-      <c r="C46" s="12" t="inlineStr">
-        <is>
-          <t>Las Vegas</t>
-        </is>
-      </c>
-      <c r="D46" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="E46" s="12" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="F46" s="11" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="G46" s="12" t="inlineStr">
-        <is>
-          <t>Poor</t>
+      <c r="A46" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" s="15" t="inlineStr">
+        <is>
+          <t>New York Newark-Jersey City</t>
+        </is>
+      </c>
+      <c r="C46" s="15" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="D46" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="E46" s="15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F46" s="14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G46" s="15" t="inlineStr">
+        <is>
+          <t>Very Poor</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="D47" s="16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E47" s="15" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F47" s="14" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="G47" s="15" t="inlineStr">
         <is>
@@ -2065,20 +2065,20 @@
     </row>
     <row r="48">
       <c r="A48" s="14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="15" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Fremont</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="C48" s="15" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Riverside</t>
         </is>
       </c>
       <c r="D48" s="16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E48" s="15" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F48" s="14" t="n">
-        <v>28.9</v>
+        <v>27.4</v>
       </c>
       <c r="G48" s="15" t="inlineStr">
         <is>
@@ -2096,20 +2096,20 @@
     </row>
     <row r="49">
       <c r="A49" s="14" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B49" s="15" t="inlineStr">
         <is>
-          <t>San Diego-Chula Vista-Carlsbad</t>
+          <t>San Francisco-Oakland-Fremont</t>
         </is>
       </c>
       <c r="C49" s="15" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="D49" s="16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" s="15" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="F49" s="14" t="n">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="G49" s="15" t="inlineStr">
         <is>
@@ -2127,16 +2127,16 @@
     </row>
     <row r="50">
       <c r="A50" s="14" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B50" s="15" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>San Diego-Chula Vista-Carlsbad</t>
         </is>
       </c>
       <c r="C50" s="15" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="D50" s="16" t="n">
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="F50" s="14" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="G50" s="15" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="D51" s="19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E51" s="18" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="F51" s="17" t="n">
-        <v>18.5</v>
+        <v>19.8</v>
       </c>
       <c r="G51" s="18" t="inlineStr">
         <is>
@@ -2295,481 +2295,481 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indianapolis-Carmel-Greenwood</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="B2" s="20" t="n">
         <v>69</v>
       </c>
       <c r="C2" s="21" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="E2" s="21" t="n">
-        <v>82</v>
+        <v>98</v>
+      </c>
+      <c r="E2" s="22" t="n">
+        <v>40</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="G2" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="H2" s="21" t="n">
         <v>88</v>
       </c>
-      <c r="H2" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="I2" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="J2" s="21" t="n">
-        <v>74</v>
-      </c>
-      <c r="K2" s="22" t="n">
-        <v>62</v>
+      <c r="I2" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="J2" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="K2" s="23" t="n">
+        <v>60</v>
       </c>
       <c r="L2" s="22" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="B3" s="20" t="n">
-        <v>69</v>
-      </c>
-      <c r="C3" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" s="22" t="n">
         <v>68</v>
       </c>
-      <c r="E3" s="22" t="n">
-        <v>50</v>
+      <c r="C3" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" s="21" t="n">
+        <v>82</v>
+      </c>
+      <c r="E3" s="21" t="n">
+        <v>80</v>
       </c>
       <c r="F3" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="G3" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="H3" s="21" t="n">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="G3" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" s="22" t="n">
+        <v>40</v>
       </c>
       <c r="I3" s="23" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J3" s="21" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K3" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="L3" s="21" t="n">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="L3" s="22" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="B4" s="20" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="D4" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="E4" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="F4" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="G4" s="23" t="n">
-        <v>26</v>
-      </c>
-      <c r="H4" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="I4" s="23" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="E4" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="F4" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="G4" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="J4" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="K4" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="L4" s="21" t="n">
-        <v>98</v>
+      <c r="H4" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="I4" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J4" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="L4" s="23" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="B5" s="20" t="n">
         <v>66</v>
       </c>
-      <c r="C5" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" s="21" t="n">
-        <v>74</v>
+      <c r="C5" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <v>68</v>
       </c>
       <c r="E5" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="H5" s="23" t="n">
         <v>52</v>
       </c>
-      <c r="F5" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="G5" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="H5" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="I5" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="J5" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="K5" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="L5" s="22" t="n">
-        <v>56</v>
+      <c r="I5" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="K5" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="L5" s="21" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B6" s="20" t="n">
         <v>65</v>
       </c>
       <c r="C6" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="E6" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="F6" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="H6" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="I6" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="J6" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="K6" s="22" t="n">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="F6" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="G6" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="H6" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>78</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="B7" s="20" t="n">
         <v>65</v>
       </c>
       <c r="C7" s="21" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D7" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="E7" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="F7" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="I7" s="23" t="n">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>80</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>88</v>
-      </c>
-      <c r="K7" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="L7" s="22" t="n">
-        <v>62</v>
+        <v>98</v>
+      </c>
+      <c r="K7" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="L7" s="21" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="B8" s="20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="I8" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="L8" s="21" t="n">
         <v>98</v>
-      </c>
-      <c r="D8" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="E8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="H8" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="I8" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="K8" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="L8" s="21" t="n">
-        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="B9" s="20" t="n">
-        <v>63</v>
-      </c>
-      <c r="C9" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="D9" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="F9" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="E9" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="F9" s="21" t="n">
+      <c r="G9" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="H9" s="21" t="n">
         <v>90</v>
       </c>
-      <c r="G9" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="H9" s="22" t="n">
-        <v>52</v>
-      </c>
       <c r="I9" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="J9" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="K9" s="21" t="n">
-        <v>88</v>
-      </c>
-      <c r="L9" s="21" t="n">
         <v>86</v>
+      </c>
+      <c r="J9" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="K9" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="L9" s="22" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Indianapolis-Carmel-Greenwood</t>
         </is>
       </c>
       <c r="B10" s="20" t="n">
+        <v>63</v>
+      </c>
+      <c r="C10" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="E10" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="F10" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="H10" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="K10" s="23" t="n">
         <v>62</v>
       </c>
-      <c r="C10" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="D10" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="E10" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" s="23" t="n">
-        <v>26</v>
-      </c>
-      <c r="G10" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="H10" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="I10" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="J10" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="K10" s="23" t="n">
-        <v>38</v>
-      </c>
       <c r="L10" s="23" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="B11" s="20" t="n">
         <v>60</v>
       </c>
-      <c r="C11" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="D11" s="21" t="n">
+      <c r="C11" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="E11" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="F11" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="G11" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="I11" s="21" t="n">
         <v>82</v>
       </c>
-      <c r="E11" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="F11" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="G11" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="I11" s="22" t="n">
-        <v>68</v>
-      </c>
       <c r="J11" s="21" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K11" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="L11" s="23" t="n">
-        <v>48</v>
+        <v>88</v>
+      </c>
+      <c r="L11" s="21" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Virginia Beach-Chesapeake-Norfolk</t>
         </is>
       </c>
       <c r="B12" s="20" t="n">
-        <v>57</v>
-      </c>
-      <c r="C12" s="22" t="n">
+        <v>59</v>
+      </c>
+      <c r="C12" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="F12" s="23" t="n">
         <v>68</v>
       </c>
-      <c r="D12" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="E12" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="F12" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="G12" s="23" t="n">
-        <v>14</v>
-      </c>
-      <c r="H12" s="23" t="n">
-        <v>22</v>
+      <c r="G12" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>24</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J12" s="21" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="L12" s="22" t="n">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="L12" s="21" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Virginia Beach-Chesapeake-Norfolk</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="B13" s="20" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="H13" s="21" t="n">
         <v>76</v>
       </c>
-      <c r="D13" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="F13" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="G13" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>10</v>
-      </c>
       <c r="I13" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="J13" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="K13" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="L13" s="21" t="n">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="J13" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K13" s="22" t="n">
+        <v>42</v>
+      </c>
+      <c r="L13" s="22" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2779,9 +2779,9 @@
         </is>
       </c>
       <c r="B14" s="20" t="n">
-        <v>56</v>
-      </c>
-      <c r="C14" s="23" t="n">
+        <v>57</v>
+      </c>
+      <c r="C14" s="22" t="n">
         <v>14</v>
       </c>
       <c r="D14" s="21" t="n">
@@ -2790,146 +2790,146 @@
       <c r="E14" s="21" t="n">
         <v>92</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="22" t="n">
         <v>32</v>
       </c>
       <c r="G14" s="21" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I14" s="21" t="n">
         <v>76</v>
       </c>
-      <c r="J14" s="23" t="n">
+      <c r="J14" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="K14" s="22" t="n">
+      <c r="K14" s="23" t="n">
         <v>58</v>
       </c>
-      <c r="L14" s="22" t="n">
+      <c r="L14" s="23" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="B15" s="20" t="n">
         <v>56</v>
       </c>
-      <c r="C15" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="D15" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="E15" s="23" t="n">
-        <v>32</v>
-      </c>
-      <c r="F15" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="G15" s="21" t="n">
+      <c r="C15" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="D15" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="E15" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="21" t="n">
         <v>96</v>
       </c>
+      <c r="G15" s="22" t="n">
+        <v>40</v>
+      </c>
       <c r="H15" s="22" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I15" s="22" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="K15" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="L15" s="22" t="n">
+        <v>86</v>
+      </c>
+      <c r="K15" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="L15" s="23" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Minneapolis-St. Paul-Bloomington</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="B16" s="20" t="n">
-        <v>55</v>
-      </c>
-      <c r="C16" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="D16" s="21" t="n">
-        <v>88</v>
-      </c>
-      <c r="E16" s="23" t="n">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="C16" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="D16" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="E16" s="22" t="n">
+        <v>24</v>
       </c>
       <c r="F16" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="H16" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="I16" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="G16" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="H16" s="23" t="n">
-        <v>34</v>
-      </c>
-      <c r="I16" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="K16" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="L16" s="21" t="n">
-        <v>74</v>
+      <c r="J16" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="K16" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="L16" s="23" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell</t>
+          <t>Raleigh-Cary</t>
         </is>
       </c>
       <c r="B17" s="20" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="D17" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="E17" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="F17" s="22" t="n">
+        <v>88</v>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="E17" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="F17" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="G17" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="H17" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="I17" s="23" t="n">
-        <v>26</v>
+      <c r="G17" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="H17" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="I17" s="22" t="n">
+        <v>16</v>
       </c>
       <c r="J17" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="K17" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="L17" s="23" t="n">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="K17" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="L17" s="22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -2939,27 +2939,27 @@
         </is>
       </c>
       <c r="B18" s="20" t="n">
+        <v>55</v>
+      </c>
+      <c r="C18" s="23" t="n">
         <v>54</v>
       </c>
-      <c r="C18" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="D18" s="23" t="n">
+      <c r="D18" s="22" t="n">
         <v>8</v>
       </c>
       <c r="E18" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="G18" s="21" t="n">
         <v>76</v>
       </c>
-      <c r="F18" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="G18" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="H18" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="I18" s="23" t="n">
+      <c r="H18" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="I18" s="22" t="n">
         <v>20</v>
       </c>
       <c r="J18" s="21" t="n">
@@ -2968,88 +2968,88 @@
       <c r="K18" s="21" t="n">
         <v>92</v>
       </c>
-      <c r="L18" s="23" t="n">
+      <c r="L18" s="22" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Dallas-Fort Worth-Arlington</t>
         </is>
       </c>
       <c r="B19" s="20" t="n">
         <v>54</v>
       </c>
-      <c r="C19" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="D19" s="23" t="n">
+      <c r="C19" s="22" t="n">
         <v>38</v>
       </c>
+      <c r="D19" s="21" t="n">
+        <v>90</v>
+      </c>
       <c r="E19" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="21" t="n">
-        <v>88</v>
-      </c>
-      <c r="G19" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="F19" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="I19" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="J19" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="L19" s="22" t="n">
         <v>20</v>
-      </c>
-      <c r="H19" s="23" t="n">
-        <v>34</v>
-      </c>
-      <c r="I19" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J19" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="K19" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="L19" s="21" t="n">
-        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="B20" s="20" t="n">
-        <v>53</v>
-      </c>
-      <c r="C20" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="D20" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="E20" s="23" t="n">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="E20" s="22" t="n">
+        <v>4</v>
       </c>
       <c r="F20" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="G20" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="H20" s="21" t="n">
-        <v>72</v>
+        <v>88</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>36</v>
       </c>
       <c r="I20" s="23" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K20" s="21" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L20" s="21" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -3064,112 +3064,112 @@
       <c r="C21" s="21" t="n">
         <v>80</v>
       </c>
-      <c r="D21" s="23" t="n">
+      <c r="D21" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="22" t="n">
+      <c r="E21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23" t="n">
         <v>50</v>
       </c>
       <c r="G21" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" s="21" t="n">
         <v>80</v>
-      </c>
-      <c r="H21" s="22" t="n">
-        <v>66</v>
       </c>
       <c r="I21" s="21" t="n">
         <v>78</v>
       </c>
-      <c r="J21" s="23" t="n">
+      <c r="J21" s="22" t="n">
         <v>40</v>
       </c>
       <c r="K21" s="21" t="n">
         <v>98</v>
       </c>
-      <c r="L21" s="22" t="n">
+      <c r="L21" s="23" t="n">
         <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Providence-Warwick</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="B22" s="20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="D22" s="24" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="21" t="n">
+        <v>92</v>
       </c>
       <c r="E22" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="F22" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="G22" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="F22" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="G22" s="23" t="n">
         <v>62</v>
       </c>
-      <c r="H22" s="23" t="n">
-        <v>20</v>
+      <c r="H22" s="22" t="n">
+        <v>48</v>
       </c>
       <c r="I22" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="J22" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="K22" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="L22" s="21" t="n">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="J22" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" s="22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington</t>
+          <t>Providence-Warwick</t>
         </is>
       </c>
       <c r="B23" s="20" t="n">
         <v>52</v>
       </c>
-      <c r="C23" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="D23" s="21" t="n">
+      <c r="C23" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="G23" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="J23" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="K23" s="21" t="n">
         <v>90</v>
       </c>
-      <c r="E23" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="F23" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="G23" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="H23" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="I23" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="J23" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="K23" s="23" t="n">
-        <v>34</v>
-      </c>
-      <c r="L23" s="23" t="n">
-        <v>20</v>
+      <c r="L23" s="21" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -3181,31 +3181,31 @@
       <c r="B24" s="20" t="n">
         <v>51</v>
       </c>
-      <c r="C24" s="23" t="n">
+      <c r="C24" s="22" t="n">
         <v>38</v>
       </c>
-      <c r="D24" s="22" t="n">
+      <c r="D24" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="E24" s="22" t="n">
-        <v>56</v>
+      <c r="E24" s="23" t="n">
+        <v>58</v>
       </c>
       <c r="F24" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="G24" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="H24" s="23" t="n">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="G24" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="H24" s="22" t="n">
+        <v>10</v>
       </c>
       <c r="I24" s="21" t="n">
         <v>72</v>
       </c>
-      <c r="J24" s="23" t="n">
+      <c r="J24" s="22" t="n">
         <v>48</v>
       </c>
-      <c r="K24" s="22" t="n">
+      <c r="K24" s="23" t="n">
         <v>66</v>
       </c>
       <c r="L24" s="21" t="n">
@@ -3219,637 +3219,637 @@
         </is>
       </c>
       <c r="B25" s="20" t="n">
-        <v>51</v>
-      </c>
-      <c r="C25" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="D25" s="22" t="n">
+      <c r="D25" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="E25" s="21" t="n">
-        <v>78</v>
+      <c r="E25" s="23" t="n">
+        <v>64</v>
       </c>
       <c r="F25" s="21" t="n">
-        <v>74</v>
-      </c>
-      <c r="G25" s="23" t="n">
+        <v>76</v>
+      </c>
+      <c r="G25" s="22" t="n">
         <v>4</v>
       </c>
       <c r="H25" s="21" t="n">
         <v>98</v>
       </c>
-      <c r="I25" s="23" t="n">
+      <c r="I25" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="J25" s="22" t="n">
+      <c r="J25" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="K25" s="23" t="n">
+      <c r="K25" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="L25" s="23" t="n">
+      <c r="L25" s="22" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Raleigh-Cary</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="B26" s="20" t="n">
-        <v>51</v>
-      </c>
-      <c r="C26" s="21" t="n">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="C26" s="22" t="n">
+        <v>44</v>
       </c>
       <c r="D26" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="E26" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="F26" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="G26" s="21" t="n">
-        <v>98</v>
-      </c>
-      <c r="H26" s="23" t="n">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="E26" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="F26" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="G26" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="H26" s="21" t="n">
+        <v>70</v>
       </c>
       <c r="I26" s="23" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J26" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="K26" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="L26" s="23" t="n">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="K26" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" s="21" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Minneapolis-St. Paul-Bloomington</t>
         </is>
       </c>
       <c r="B27" s="20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="D27" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="E27" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="F27" s="23" t="n">
+        <v>70</v>
+      </c>
+      <c r="D27" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E27" s="22" t="n">
         <v>10</v>
       </c>
+      <c r="F27" s="22" t="n">
+        <v>36</v>
+      </c>
       <c r="G27" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="H27" s="21" t="n">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="H27" s="22" t="n">
+        <v>16</v>
       </c>
       <c r="I27" s="22" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J27" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="K27" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="L27" s="23" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="K27" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="L27" s="21" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="B28" s="20" t="n">
-        <v>49</v>
-      </c>
-      <c r="C28" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="C28" s="23" t="n">
         <v>54</v>
       </c>
       <c r="D28" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="E28" s="22" t="n">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="E28" s="23" t="n">
+        <v>50</v>
       </c>
       <c r="F28" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="G28" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="H28" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="I28" s="21" t="n">
-        <v>74</v>
-      </c>
-      <c r="J28" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="K28" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G28" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="H28" s="22" t="n">
         <v>16</v>
+      </c>
+      <c r="I28" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="K28" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="L28" s="21" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="B29" s="20" t="n">
         <v>48</v>
       </c>
-      <c r="C29" s="22" t="n">
-        <v>54</v>
+      <c r="C29" s="23" t="n">
+        <v>64</v>
       </c>
       <c r="D29" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="E29" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="G29" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="H29" s="21" t="n">
         <v>86</v>
       </c>
-      <c r="E29" s="23" t="n">
-        <v>34</v>
-      </c>
-      <c r="F29" s="23" t="n">
-        <v>14</v>
-      </c>
-      <c r="G29" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="H29" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="I29" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J29" s="23" t="n">
-        <v>32</v>
-      </c>
-      <c r="K29" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="L29" s="21" t="n">
-        <v>70</v>
+      <c r="I29" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" s="22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B30" s="20" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="D30" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="E30" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H30" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="I30" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="J30" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="K30" s="21" t="n">
         <v>70</v>
       </c>
-      <c r="D30" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="E30" s="21" t="n">
-        <v>86</v>
-      </c>
-      <c r="F30" s="23" t="n">
+      <c r="L30" s="22" t="n">
         <v>20</v>
-      </c>
-      <c r="G30" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="H30" s="21" t="n">
-        <v>82</v>
-      </c>
-      <c r="I30" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="J30" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="K30" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="L30" s="24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
       <c r="B31" s="20" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="22" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D31" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="E31" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="F31" s="21" t="n">
-        <v>86</v>
+        <v>40</v>
+      </c>
+      <c r="E31" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="F31" s="22" t="n">
+        <v>22</v>
       </c>
       <c r="G31" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="H31" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="I31" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="J31" s="23" t="n">
-        <v>26</v>
-      </c>
-      <c r="K31" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="L31" s="23" t="n">
-        <v>30</v>
+        <v>88</v>
+      </c>
+      <c r="H31" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="I31" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="J31" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="K31" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="L31" s="21" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Phoenix-Mesa-Chandler</t>
         </is>
       </c>
       <c r="B32" s="20" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="22" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D32" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="E32" s="23" t="n">
-        <v>42</v>
+        <v>72</v>
+      </c>
+      <c r="E32" s="21" t="n">
+        <v>70</v>
       </c>
       <c r="F32" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="G32" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="H32" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="I32" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" s="23" t="n">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="G32" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="H32" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="I32" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="J32" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="L32" s="22" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
       <c r="B33" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="C33" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="D33" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="E33" s="23" t="n">
+      <c r="C33" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="D33" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="E33" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="F33" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="G33" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="H33" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="I33" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="J33" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="F33" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="G33" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="H33" s="21" t="n">
-        <v>78</v>
-      </c>
-      <c r="I33" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="J33" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="K33" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="L33" s="21" t="n">
-        <v>74</v>
+      <c r="K33" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="L33" s="24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="B34" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="C34" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="D34" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="E34" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="F34" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="G34" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="H34" s="22" t="n">
+      <c r="C34" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D34" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" s="21" t="n">
+        <v>82</v>
+      </c>
+      <c r="F34" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="G34" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="H34" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="I34" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="J34" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" s="23" t="n">
         <v>68</v>
       </c>
-      <c r="I34" s="21" t="n">
-        <v>88</v>
-      </c>
-      <c r="J34" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="K34" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="L34" s="21" t="n">
-        <v>82</v>
+      <c r="L34" s="22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Chandler</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="B35" s="20" t="n">
         <v>44</v>
       </c>
-      <c r="C35" s="23" t="n">
+      <c r="C35" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="D35" s="21" t="n">
-        <v>72</v>
+      <c r="D35" s="22" t="n">
+        <v>44</v>
       </c>
       <c r="E35" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F35" s="23" t="n">
-        <v>40</v>
-      </c>
-      <c r="G35" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="H35" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="F35" s="22" t="n">
+        <v>42</v>
+      </c>
+      <c r="G35" s="23" t="n">
         <v>68</v>
       </c>
-      <c r="I35" s="23" t="n">
-        <v>24</v>
+      <c r="H35" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="I35" s="22" t="n">
+        <v>44</v>
       </c>
       <c r="J35" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="K35" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L35" s="22" t="n">
         <v>4</v>
-      </c>
-      <c r="K35" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="L35" s="23" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="B36" s="20" t="n">
         <v>44</v>
       </c>
       <c r="C36" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="D36" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="E36" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="G36" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="H36" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="I36" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="J36" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="K36" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="L36" s="22" t="n">
         <v>30</v>
-      </c>
-      <c r="D36" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" s="21" t="n">
-        <v>94</v>
-      </c>
-      <c r="F36" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="G36" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="H36" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="I36" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J36" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="L36" s="23" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson</t>
+          <t>San Jose-Sunnyvale-Santa Clara</t>
         </is>
       </c>
       <c r="B37" s="20" t="n">
         <v>41</v>
       </c>
-      <c r="C37" s="23" t="n">
+      <c r="C37" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="D37" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="E37" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="D37" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="E37" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="F37" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="G37" s="22" t="n">
-        <v>60</v>
-      </c>
       <c r="H37" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="I37" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="I37" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="J37" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="K37" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="J37" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="K37" s="21" t="n">
-        <v>80</v>
-      </c>
       <c r="L37" s="21" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>San Antonio-New Braunfels</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="B38" s="20" t="n">
         <v>41</v>
       </c>
-      <c r="C38" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="D38" s="23" t="n">
+      <c r="C38" s="22" t="n">
         <v>30</v>
       </c>
+      <c r="D38" s="22" t="n">
+        <v>20</v>
+      </c>
       <c r="E38" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="F38" s="21" t="n">
         <v>74</v>
       </c>
-      <c r="F38" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="G38" s="23" t="n">
-        <v>32</v>
-      </c>
-      <c r="H38" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="I38" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="J38" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="K38" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="L38" s="23" t="n">
-        <v>12</v>
+      <c r="G38" s="22" t="n">
+        <v>42</v>
+      </c>
+      <c r="H38" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="I38" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="J38" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K38" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="L38" s="22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>San Jose-Sunnyvale-Santa Clara</t>
+          <t>Baltimore-Columbia-Towson</t>
         </is>
       </c>
       <c r="B39" s="20" t="n">
-        <v>41</v>
-      </c>
-      <c r="C39" s="23" t="n">
+        <v>40</v>
+      </c>
+      <c r="C39" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="F39" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="D39" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="E39" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F39" s="23" t="n">
-        <v>2</v>
-      </c>
       <c r="G39" s="23" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H39" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="I39" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="J39" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="K39" s="23" t="n">
         <v>12</v>
       </c>
+      <c r="I39" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J39" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="K39" s="21" t="n">
+        <v>80</v>
+      </c>
       <c r="L39" s="21" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
       <c r="B40" s="20" t="n">
-        <v>40</v>
-      </c>
-      <c r="C40" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="D40" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="E40" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="F40" s="21" t="n">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="D40" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="E40" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="F40" s="22" t="n">
+        <v>44</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H40" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="I40" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="K40" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="L40" s="23" t="n">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="I40" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="J40" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="K40" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="L40" s="21" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -3864,232 +3864,232 @@
       <c r="C41" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="23" t="n">
+      <c r="D41" s="22" t="n">
         <v>22</v>
       </c>
       <c r="E41" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="F41" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="G41" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="23" t="n">
+        <v>74</v>
+      </c>
+      <c r="F41" s="22" t="n">
         <v>38</v>
+      </c>
+      <c r="G41" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="22" t="n">
+        <v>24</v>
       </c>
       <c r="I41" s="21" t="n">
         <v>92</v>
       </c>
-      <c r="J41" s="22" t="n">
+      <c r="J41" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="K41" s="23" t="n">
+      <c r="K41" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="L41" s="23" t="n">
+      <c r="L41" s="22" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="B42" s="20" t="n">
         <v>38</v>
       </c>
-      <c r="C42" s="23" t="n">
+      <c r="C42" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="D42" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="E42" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="F42" s="21" t="n">
+        <v>82</v>
+      </c>
+      <c r="G42" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H42" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="I42" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="D42" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="E42" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="F42" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="G42" s="21" t="n">
-        <v>74</v>
-      </c>
-      <c r="H42" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="I42" s="23" t="n">
-        <v>44</v>
-      </c>
-      <c r="J42" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="K42" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="L42" s="23" t="n">
-        <v>4</v>
+      <c r="K42" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="L42" s="22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>San Antonio-New Braunfels</t>
         </is>
       </c>
       <c r="B43" s="20" t="n">
         <v>37</v>
       </c>
-      <c r="C43" s="23" t="n">
+      <c r="C43" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="D43" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="D43" s="23" t="n">
-        <v>20</v>
-      </c>
-      <c r="E43" s="21" t="n">
-        <v>96</v>
+      <c r="E43" s="23" t="n">
+        <v>52</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="G43" s="23" t="n">
+        <v>70</v>
+      </c>
+      <c r="G43" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="H43" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="I43" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="J43" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="K43" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="L43" s="23" t="n">
-        <v>6</v>
+      <c r="H43" s="21" t="n">
+        <v>82</v>
+      </c>
+      <c r="I43" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="K43" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="L43" s="22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="B44" s="20" t="n">
-        <v>31</v>
-      </c>
-      <c r="C44" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="E44" s="21" t="n">
-        <v>88</v>
-      </c>
-      <c r="F44" s="23" t="n">
+        <v>33</v>
+      </c>
+      <c r="C44" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D44" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="E44" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="F44" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="G44" s="23" t="n">
-        <v>8</v>
+      <c r="G44" s="22" t="n">
+        <v>14</v>
       </c>
       <c r="H44" s="23" t="n">
-        <v>38</v>
-      </c>
-      <c r="I44" s="23" t="n">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="I44" s="22" t="n">
+        <v>28</v>
       </c>
       <c r="J44" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="K44" s="23" t="n">
-        <v>48</v>
-      </c>
-      <c r="L44" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="K44" s="22" t="n">
         <v>32</v>
+      </c>
+      <c r="L44" s="22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="B45" s="20" t="n">
-        <v>31</v>
-      </c>
-      <c r="C45" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="C45" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="22" t="n">
+        <v>42</v>
+      </c>
+      <c r="E45" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="F45" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="G45" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="H45" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="I45" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="D45" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="E45" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="F45" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="G45" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="H45" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="I45" s="23" t="n">
-        <v>28</v>
-      </c>
-      <c r="J45" s="23" t="n">
-        <v>14</v>
-      </c>
-      <c r="K45" s="23" t="n">
-        <v>32</v>
-      </c>
-      <c r="L45" s="23" t="n">
-        <v>10</v>
+      <c r="K45" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="L45" s="22" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="B46" s="20" t="n">
-        <v>31</v>
-      </c>
-      <c r="C46" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D46" s="23" t="n">
+        <v>27</v>
+      </c>
+      <c r="C46" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="D46" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="E46" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="F46" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="H46" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J46" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="E46" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="F46" s="23" t="n">
-        <v>34</v>
-      </c>
-      <c r="G46" s="21" t="n">
-        <v>74</v>
-      </c>
-      <c r="H46" s="23" t="n">
+      <c r="K46" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="22" t="n">
         <v>38</v>
-      </c>
-      <c r="I46" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="K46" s="23" t="n">
-        <v>36</v>
-      </c>
-      <c r="L46" s="23" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -4099,157 +4099,157 @@
         </is>
       </c>
       <c r="B47" s="20" t="n">
-        <v>29</v>
-      </c>
-      <c r="C47" s="23" t="n">
+        <v>27</v>
+      </c>
+      <c r="C47" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="D47" s="23" t="n">
+      <c r="D47" s="22" t="n">
         <v>36</v>
       </c>
       <c r="E47" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="F47" s="23" t="n">
+        <v>46</v>
+      </c>
+      <c r="F47" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="G47" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="H47" s="23" t="n">
+      <c r="H47" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="I47" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="J47" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="I47" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="J47" s="23" t="n">
+      <c r="K47" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="K47" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="L47" s="23" t="n">
+      <c r="L47" s="22" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Fremont</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="B48" s="20" t="n">
-        <v>29</v>
-      </c>
-      <c r="C48" s="23" t="n">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C48" s="22" t="n">
+        <v>2</v>
       </c>
       <c r="D48" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="E48" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="F48" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="F48" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="G48" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H48" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="G48" s="23" t="n">
+      <c r="I48" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="J48" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="K48" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="L48" s="22" t="n">
         <v>32</v>
-      </c>
-      <c r="H48" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="I48" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="K48" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="22" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>San Diego-Chula Vista-Carlsbad</t>
+          <t>San Francisco-Oakland-Fremont</t>
         </is>
       </c>
       <c r="B49" s="20" t="n">
-        <v>28</v>
-      </c>
-      <c r="C49" s="23" t="n">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="C49" s="22" t="n">
+        <v>24</v>
       </c>
       <c r="D49" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="E49" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="E49" s="23" t="n">
-        <v>46</v>
-      </c>
-      <c r="F49" s="23" t="n">
+      <c r="F49" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="G49" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="H49" s="24" t="n">
+      <c r="G49" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="H49" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="I49" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="J49" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K49" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="L49" s="22" t="n">
-        <v>68</v>
+      <c r="L49" s="23" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>San Diego-Chula Vista-Carlsbad</t>
         </is>
       </c>
       <c r="B50" s="20" t="n">
         <v>26</v>
       </c>
-      <c r="C50" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="D50" s="23" t="n">
-        <v>32</v>
+      <c r="C50" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D50" s="22" t="n">
+        <v>26</v>
       </c>
       <c r="E50" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="F50" s="23" t="n">
-        <v>12</v>
-      </c>
-      <c r="G50" s="21" t="n">
-        <v>72</v>
-      </c>
-      <c r="H50" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="J50" s="23" t="n">
-        <v>42</v>
-      </c>
-      <c r="K50" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="F50" s="22" t="n">
         <v>6</v>
       </c>
+      <c r="G50" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="H50" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="J50" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K50" s="22" t="n">
+        <v>18</v>
+      </c>
       <c r="L50" s="23" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51">
@@ -4259,36 +4259,36 @@
         </is>
       </c>
       <c r="B51" s="20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C51" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="D51" s="23" t="n">
+      <c r="D51" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="E51" s="23" t="n">
-        <v>26</v>
-      </c>
-      <c r="F51" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="G51" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" s="23" t="n">
+      <c r="E51" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="F51" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G51" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="I51" s="23" t="n">
+      <c r="I51" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="J51" s="23" t="n">
+      <c r="J51" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="K51" s="23" t="n">
+      <c r="K51" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="L51" s="23" t="n">
+      <c r="L51" s="22" t="n">
         <v>40</v>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indianapolis-Carmel-Greenwood</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="B2" s="25" t="inlineStr">
@@ -4399,124 +4399,124 @@
         </is>
       </c>
       <c r="C2" s="24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D2" s="24" t="n">
-        <v>67.88</v>
+        <v>76.06</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>6.5</v>
+        <v>4.05</v>
       </c>
       <c r="F2" s="24" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G2" s="24" t="n">
-        <v>3.78</v>
+        <v>3.84</v>
       </c>
       <c r="H2" s="24" t="n">
-        <v>33.6</v>
+        <v>35.7</v>
       </c>
       <c r="I2" s="24" t="n">
-        <v>5.24</v>
+        <v>22.78</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>14.37</v>
+        <v>7.88</v>
       </c>
       <c r="K2" s="24" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="L2" s="24" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="B3" s="25" t="inlineStr">
         <is>
-          <t>69 (B+)</t>
+          <t>68 (B+)</t>
         </is>
       </c>
       <c r="C3" s="24" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D3" s="24" t="n">
-        <v>66.05</v>
+        <v>67.98</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>3.47</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F3" s="24" t="n">
-        <v>0.67</v>
+        <v>4.39</v>
       </c>
       <c r="G3" s="24" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H3" s="24" t="n">
-        <v>34.8</v>
+        <v>34.2</v>
       </c>
       <c r="I3" s="24" t="n">
-        <v>-8.640000000000001</v>
+        <v>10.29</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>19.4</v>
+        <v>17</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>5.35</v>
+        <v>1.06</v>
       </c>
       <c r="L3" s="24" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="B4" s="25" t="inlineStr">
         <is>
-          <t>68 (B+)</t>
+          <t>67 (B+)</t>
         </is>
       </c>
       <c r="C4" s="24" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D4" s="24" t="n">
-        <v>62.75</v>
+        <v>66.8</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>3.99</v>
+        <v>5.1</v>
       </c>
       <c r="F4" s="24" t="n">
-        <v>0.64</v>
+        <v>4.8</v>
       </c>
       <c r="G4" s="24" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="H4" s="24" t="n">
-        <v>34.4</v>
+        <v>36.2</v>
       </c>
       <c r="I4" s="24" t="n">
-        <v>-16.64</v>
+        <v>10.49</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>21.59</v>
+        <v>10.86</v>
       </c>
       <c r="K4" s="24" t="n">
-        <v>4.91</v>
+        <v>0</v>
       </c>
       <c r="L4" s="24" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="B5" s="25" t="inlineStr">
@@ -4525,40 +4525,40 @@
         </is>
       </c>
       <c r="C5" s="24" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D5" s="24" t="n">
-        <v>66.8</v>
+        <v>66.05</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
       <c r="F5" s="24" t="n">
-        <v>5.02</v>
+        <v>0.65</v>
       </c>
       <c r="G5" s="24" t="n">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="H5" s="24" t="n">
-        <v>35.4</v>
+        <v>34.4</v>
       </c>
       <c r="I5" s="24" t="n">
-        <v>10.49</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>10.86</v>
+        <v>19.4</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="L5" s="24" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B6" s="25" t="inlineStr">
@@ -4567,40 +4567,40 @@
         </is>
       </c>
       <c r="C6" s="24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D6" s="24" t="n">
-        <v>76.06</v>
+        <v>64.58</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>1.15</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F6" s="24" t="n">
-        <v>7.83</v>
+        <v>4.49</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>3.62</v>
+        <v>3</v>
       </c>
       <c r="H6" s="24" t="n">
-        <v>35.4</v>
+        <v>34.6</v>
       </c>
       <c r="I6" s="24" t="n">
-        <v>22.78</v>
+        <v>-38.63</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>7.88</v>
+        <v>19.13</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>-0.13</v>
+        <v>1.35</v>
       </c>
       <c r="L6" s="24" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="B7" s="25" t="inlineStr">
@@ -4609,286 +4609,286 @@
         </is>
       </c>
       <c r="C7" s="24" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D7" s="24" t="n">
-        <v>64.58</v>
+        <v>64.7</v>
       </c>
       <c r="E7" s="24" t="n">
-        <v>7.81</v>
+        <v>-0.36</v>
       </c>
       <c r="F7" s="24" t="n">
-        <v>4.51</v>
+        <v>3.51</v>
       </c>
       <c r="G7" s="24" t="n">
-        <v>3.08</v>
+        <v>2.24</v>
       </c>
       <c r="H7" s="24" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="I7" s="24" t="n">
-        <v>-38.63</v>
+        <v>16.13</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>19.13</v>
+        <v>26.71</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>1.35</v>
+        <v>-0.41</v>
       </c>
       <c r="L7" s="24" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="B8" s="25" t="inlineStr">
         <is>
-          <t>65 (B+)</t>
+          <t>64 (B+)</t>
         </is>
       </c>
       <c r="C8" s="24" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>64.7</v>
+        <v>62.75</v>
       </c>
       <c r="E8" s="24" t="n">
-        <v>-1.68</v>
+        <v>3.27</v>
       </c>
       <c r="F8" s="24" t="n">
-        <v>3.53</v>
+        <v>0.73</v>
       </c>
       <c r="G8" s="24" t="n">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="H8" s="24" t="n">
-        <v>33.9</v>
+        <v>34.5</v>
       </c>
       <c r="I8" s="24" t="n">
-        <v>16.13</v>
+        <v>-16.64</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>26.71</v>
+        <v>21.59</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>-0.41</v>
+        <v>4.91</v>
       </c>
       <c r="L8" s="24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>63 (B+)</t>
+          <t>64 (B+)</t>
         </is>
       </c>
       <c r="C9" s="24" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D9" s="24" t="n">
-        <v>63.25</v>
+        <v>72.66</v>
       </c>
       <c r="E9" s="24" t="n">
-        <v>2.68</v>
+        <v>3.68</v>
       </c>
       <c r="F9" s="24" t="n">
-        <v>0.76</v>
+        <v>5.16</v>
       </c>
       <c r="G9" s="24" t="n">
-        <v>2.72</v>
+        <v>4.28</v>
       </c>
       <c r="H9" s="24" t="n">
-        <v>34.2</v>
+        <v>36.1</v>
       </c>
       <c r="I9" s="24" t="n">
-        <v>18.48</v>
+        <v>36.31</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>16.45</v>
+        <v>6.26</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>3.09</v>
+        <v>-1.27</v>
       </c>
       <c r="L9" s="24" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Indianapolis-Carmel-Greenwood</t>
         </is>
       </c>
       <c r="B10" s="25" t="inlineStr">
         <is>
-          <t>62 (B+)</t>
+          <t>63 (B+)</t>
         </is>
       </c>
       <c r="C10" s="24" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D10" s="24" t="n">
-        <v>72.66</v>
+        <v>67.88</v>
       </c>
       <c r="E10" s="24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="24" t="n">
-        <v>5.51</v>
+        <v>4.7</v>
       </c>
       <c r="G10" s="24" t="n">
-        <v>4.22</v>
+        <v>3.66</v>
       </c>
       <c r="H10" s="24" t="n">
-        <v>35.7</v>
+        <v>33.7</v>
       </c>
       <c r="I10" s="24" t="n">
-        <v>36.31</v>
+        <v>5.24</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>6.26</v>
+        <v>14.37</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>-1.27</v>
+        <v>0</v>
       </c>
       <c r="L10" s="24" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="B11" s="25" t="inlineStr">
         <is>
-          <t>60 (B)</t>
+          <t>60 (B+)</t>
         </is>
       </c>
       <c r="C11" s="24" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="24" t="n">
-        <v>67.98</v>
+        <v>63.25</v>
       </c>
       <c r="E11" s="24" t="n">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="F11" s="24" t="n">
-        <v>5.08</v>
+        <v>0.66</v>
       </c>
       <c r="G11" s="24" t="n">
-        <v>1.08</v>
+        <v>2.44</v>
       </c>
       <c r="H11" s="24" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="I11" s="24" t="n">
-        <v>10.29</v>
+        <v>18.48</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>17</v>
+        <v>16.45</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>1.06</v>
+        <v>3.09</v>
       </c>
       <c r="L11" s="24" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Virginia Beach-Chesapeake-Norfolk</t>
         </is>
       </c>
       <c r="B12" s="25" t="inlineStr">
         <is>
-          <t>57 (B)</t>
+          <t>59 (B)</t>
         </is>
       </c>
       <c r="C12" s="24" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D12" s="24" t="n">
-        <v>65.2</v>
+        <v>59.3</v>
       </c>
       <c r="E12" s="24" t="n">
-        <v>0.22</v>
+        <v>13</v>
       </c>
       <c r="F12" s="24" t="n">
-        <v>0.64</v>
+        <v>4.49</v>
       </c>
       <c r="G12" s="24" t="n">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
       <c r="H12" s="24" t="n">
-        <v>33.5</v>
+        <v>33.9</v>
       </c>
       <c r="I12" s="24" t="n">
-        <v>-15.43</v>
+        <v>5.26</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>18.79</v>
+        <v>18.58</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>2.89</v>
+        <v>2.52</v>
       </c>
       <c r="L12" s="24" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Virginia Beach-Chesapeake-Norfolk</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="B13" s="25" t="inlineStr">
         <is>
-          <t>57 (B)</t>
+          <t>58 (B)</t>
         </is>
       </c>
       <c r="C13" s="24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D13" s="24" t="n">
-        <v>59.3</v>
+        <v>64.51000000000001</v>
       </c>
       <c r="E13" s="24" t="n">
-        <v>10.68</v>
+        <v>9.99</v>
       </c>
       <c r="F13" s="24" t="n">
-        <v>4.53</v>
+        <v>4.22</v>
       </c>
       <c r="G13" s="24" t="n">
-        <v>1.88</v>
+        <v>3.46</v>
       </c>
       <c r="H13" s="24" t="n">
-        <v>33.1</v>
+        <v>35.1</v>
       </c>
       <c r="I13" s="24" t="n">
-        <v>5.26</v>
+        <v>-20.77</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>18.58</v>
+        <v>-0.11</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>2.52</v>
+        <v>-1.02</v>
       </c>
       <c r="L13" s="24" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B14" s="25" t="inlineStr">
         <is>
-          <t>56 (B)</t>
+          <t>57 (B)</t>
         </is>
       </c>
       <c r="C14" s="24" t="n">
@@ -4909,16 +4909,16 @@
         <v>68.18000000000001</v>
       </c>
       <c r="E14" s="24" t="n">
-        <v>8.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F14" s="24" t="n">
-        <v>5.4</v>
+        <v>5.24</v>
       </c>
       <c r="G14" s="24" t="n">
-        <v>3.54</v>
+        <v>3.38</v>
       </c>
       <c r="H14" s="24" t="n">
-        <v>34.7</v>
+        <v>35.4</v>
       </c>
       <c r="I14" s="24" t="n">
         <v>14.29</v>
@@ -4936,7 +4936,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="B15" s="25" t="inlineStr">
@@ -4945,31 +4945,31 @@
         </is>
       </c>
       <c r="C15" s="24" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D15" s="24" t="n">
-        <v>65.93000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="E15" s="24" t="n">
-        <v>2.26</v>
+        <v>1.72</v>
       </c>
       <c r="F15" s="24" t="n">
-        <v>5.34</v>
+        <v>0.45</v>
       </c>
       <c r="G15" s="24" t="n">
-        <v>4.24</v>
+        <v>2.1</v>
       </c>
       <c r="H15" s="24" t="n">
-        <v>34.2</v>
+        <v>33</v>
       </c>
       <c r="I15" s="24" t="n">
-        <v>1.32</v>
+        <v>-15.43</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>16.76</v>
+        <v>18.79</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>-0.65</v>
+        <v>2.89</v>
       </c>
       <c r="L15" s="24" t="n">
         <v>49</v>
@@ -4978,85 +4978,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Minneapolis-St. Paul-Bloomington</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="B16" s="25" t="inlineStr">
         <is>
-          <t>55 (B)</t>
+          <t>56 (B)</t>
         </is>
       </c>
       <c r="C16" s="24" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D16" s="24" t="n">
-        <v>69.34</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="E16" s="24" t="n">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="F16" s="24" t="n">
-        <v>4.99</v>
+        <v>5.25</v>
       </c>
       <c r="G16" s="24" t="n">
-        <v>2.58</v>
+        <v>4.24</v>
       </c>
       <c r="H16" s="24" t="n">
-        <v>33.8</v>
+        <v>34.7</v>
       </c>
       <c r="I16" s="24" t="n">
-        <v>-5.7</v>
+        <v>1.32</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>2.69</v>
+        <v>16.76</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>-0.63</v>
+        <v>-0.65</v>
       </c>
       <c r="L16" s="24" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell</t>
+          <t>Raleigh-Cary</t>
         </is>
       </c>
       <c r="B17" s="25" t="inlineStr">
         <is>
-          <t>54 (B)</t>
+          <t>56 (B)</t>
         </is>
       </c>
       <c r="C17" s="24" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>64.51000000000001</v>
+        <v>67.86</v>
       </c>
       <c r="E17" s="24" t="n">
-        <v>6.24</v>
+        <v>6.56</v>
       </c>
       <c r="F17" s="24" t="n">
-        <v>4.66</v>
+        <v>4.64</v>
       </c>
       <c r="G17" s="24" t="n">
-        <v>2.94</v>
+        <v>4.46</v>
       </c>
       <c r="H17" s="24" t="n">
-        <v>34.7</v>
+        <v>33.8</v>
       </c>
       <c r="I17" s="24" t="n">
-        <v>-20.77</v>
+        <v>-28.25</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>-0.11</v>
+        <v>8.65</v>
       </c>
       <c r="K17" s="24" t="n">
-        <v>-1.02</v>
+        <v>-1.05</v>
       </c>
       <c r="L17" s="24" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B18" s="25" t="inlineStr">
         <is>
-          <t>54 (B)</t>
+          <t>55 (B)</t>
         </is>
       </c>
       <c r="C18" s="24" t="n">
@@ -5077,16 +5077,16 @@
         <v>60.25</v>
       </c>
       <c r="E18" s="24" t="n">
-        <v>5.7</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="F18" s="24" t="n">
-        <v>4.29</v>
+        <v>4.2</v>
       </c>
       <c r="G18" s="24" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="H18" s="24" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="I18" s="24" t="n">
         <v>-24.33</v>
@@ -5104,7 +5104,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Dallas-Fort Worth-Arlington</t>
         </is>
       </c>
       <c r="B19" s="25" t="inlineStr">
@@ -5113,76 +5113,76 @@
         </is>
       </c>
       <c r="C19" s="24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D19" s="24" t="n">
-        <v>63.68</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="E19" s="24" t="n">
-        <v>-1.51</v>
+        <v>5.9</v>
       </c>
       <c r="F19" s="24" t="n">
-        <v>1.05</v>
+        <v>4.54</v>
       </c>
       <c r="G19" s="24" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="H19" s="24" t="n">
-        <v>33.8</v>
+        <v>36.2</v>
       </c>
       <c r="I19" s="24" t="n">
-        <v>5.64</v>
+        <v>4.08</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>20</v>
+        <v>-1.45</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>2.7</v>
+        <v>-1.78</v>
       </c>
       <c r="L19" s="24" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="B20" s="25" t="inlineStr">
         <is>
-          <t>53 (B)</t>
+          <t>54 (B)</t>
         </is>
       </c>
       <c r="C20" s="24" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D20" s="24" t="n">
-        <v>63.77</v>
+        <v>63.68</v>
       </c>
       <c r="E20" s="24" t="n">
-        <v>0.34</v>
+        <v>0.89</v>
       </c>
       <c r="F20" s="24" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="G20" s="24" t="n">
-        <v>3.86</v>
+        <v>1.9</v>
       </c>
       <c r="H20" s="24" t="n">
-        <v>34.7</v>
+        <v>34.1</v>
       </c>
       <c r="I20" s="24" t="n">
-        <v>-0.88</v>
+        <v>5.64</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>14.25</v>
+        <v>20</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>0.73</v>
+        <v>2.7</v>
       </c>
       <c r="L20" s="24" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
@@ -5203,14 +5203,14 @@
         <v>58.01</v>
       </c>
       <c r="E21" s="24" t="n">
-        <v>-1.24</v>
+        <v>-1.84</v>
       </c>
       <c r="F21" s="24" t="n"/>
       <c r="G21" s="24" t="n">
         <v>3.2</v>
       </c>
       <c r="H21" s="24" t="n">
-        <v>34.5</v>
+        <v>35.2</v>
       </c>
       <c r="I21" s="24" t="n">
         <v>14.96</v>
@@ -5228,49 +5228,49 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Providence-Warwick</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="B22" s="25" t="inlineStr">
         <is>
-          <t>53 (B)</t>
+          <t>52 (B)</t>
         </is>
       </c>
       <c r="C22" s="24" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D22" s="24" t="n">
-        <v>50.77</v>
+        <v>71.33</v>
       </c>
       <c r="E22" s="24" t="n">
-        <v>0.85</v>
+        <v>6.2</v>
       </c>
       <c r="F22" s="24" t="n">
-        <v>1.94</v>
+        <v>4.66</v>
       </c>
       <c r="G22" s="24" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="H22" s="24" t="n">
-        <v>33.4</v>
+        <v>34.3</v>
       </c>
       <c r="I22" s="24" t="n">
-        <v>144.37</v>
+        <v>13.55</v>
       </c>
       <c r="J22" s="24" t="n">
-        <v>21.89</v>
+        <v>-1.32</v>
       </c>
       <c r="K22" s="24" t="n">
-        <v>3.23</v>
+        <v>-3.48</v>
       </c>
       <c r="L22" s="24" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington</t>
+          <t>Providence-Warwick</t>
         </is>
       </c>
       <c r="B23" s="25" t="inlineStr">
@@ -5279,34 +5279,34 @@
         </is>
       </c>
       <c r="C23" s="24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D23" s="24" t="n">
-        <v>69.84999999999999</v>
+        <v>50.77</v>
       </c>
       <c r="E23" s="24" t="n">
-        <v>3.82</v>
+        <v>2.51</v>
       </c>
       <c r="F23" s="24" t="n">
-        <v>4.81</v>
+        <v>1.72</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="H23" s="24" t="n">
-        <v>35.9</v>
+        <v>33.1</v>
       </c>
       <c r="I23" s="24" t="n">
-        <v>4.08</v>
+        <v>144.37</v>
       </c>
       <c r="J23" s="24" t="n">
-        <v>-1.45</v>
+        <v>21.89</v>
       </c>
       <c r="K23" s="24" t="n">
-        <v>-1.78</v>
+        <v>3.23</v>
       </c>
       <c r="L23" s="24" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -5327,16 +5327,16 @@
         <v>65.09</v>
       </c>
       <c r="E24" s="24" t="n">
-        <v>3.94</v>
+        <v>5.39</v>
       </c>
       <c r="F24" s="24" t="n">
-        <v>5.04</v>
+        <v>4.85</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="H24" s="24" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="I24" s="24" t="n">
         <v>11.46</v>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="B25" s="25" t="inlineStr">
         <is>
-          <t>51 (B)</t>
+          <t>50 (B-)</t>
         </is>
       </c>
       <c r="C25" s="24" t="n">
@@ -5369,16 +5369,16 @@
         <v>64.73999999999999</v>
       </c>
       <c r="E25" s="24" t="n">
-        <v>5.93</v>
+        <v>6.04</v>
       </c>
       <c r="F25" s="24" t="n">
-        <v>4.32</v>
+        <v>4.29</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="H25" s="24" t="n">
-        <v>36.8</v>
+        <v>37.2</v>
       </c>
       <c r="I25" s="24" t="n">
         <v>-6.1</v>
@@ -5396,133 +5396,133 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Raleigh-Cary</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="B26" s="25" t="inlineStr">
         <is>
-          <t>51 (B)</t>
+          <t>49 (B-)</t>
         </is>
       </c>
       <c r="C26" s="24" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D26" s="24" t="n">
-        <v>67.86</v>
+        <v>67.92</v>
       </c>
       <c r="E26" s="24" t="n">
-        <v>2.94</v>
+        <v>4.04</v>
       </c>
       <c r="F26" s="24" t="n">
-        <v>5.1</v>
+        <v>4.92</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>4.34</v>
+        <v>2.34</v>
       </c>
       <c r="H26" s="24" t="n">
-        <v>33.1</v>
+        <v>34.9</v>
       </c>
       <c r="I26" s="24" t="n">
-        <v>-28.25</v>
+        <v>2.42</v>
       </c>
       <c r="J26" s="24" t="n">
-        <v>8.65</v>
+        <v>0.47</v>
       </c>
       <c r="K26" s="24" t="n">
-        <v>-1.05</v>
+        <v>-4.06</v>
       </c>
       <c r="L26" s="24" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Minneapolis-St. Paul-Bloomington</t>
         </is>
       </c>
       <c r="B27" s="25" t="inlineStr">
         <is>
-          <t>50 (B)</t>
+          <t>49 (B-)</t>
         </is>
       </c>
       <c r="C27" s="24" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D27" s="24" t="n">
-        <v>60.48</v>
+        <v>69.34</v>
       </c>
       <c r="E27" s="24" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="F27" s="24" t="n">
-        <v>7.14</v>
+        <v>5.15</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.78</v>
+        <v>2.64</v>
       </c>
       <c r="H27" s="24" t="n">
-        <v>35.5</v>
+        <v>33.8</v>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.56</v>
+        <v>-5.7</v>
       </c>
       <c r="J27" s="24" t="n">
-        <v>10.88</v>
+        <v>2.69</v>
       </c>
       <c r="K27" s="24" t="n">
-        <v>0.42</v>
+        <v>-0.63</v>
       </c>
       <c r="L27" s="24" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="B28" s="25" t="inlineStr">
         <is>
-          <t>49 (B-)</t>
+          <t>48 (B-)</t>
         </is>
       </c>
       <c r="C28" s="24" t="n">
         <v>3.9</v>
       </c>
       <c r="D28" s="24" t="n">
-        <v>71.33</v>
+        <v>68.47</v>
       </c>
       <c r="E28" s="24" t="n">
-        <v>4.35</v>
+        <v>4.74</v>
       </c>
       <c r="F28" s="24" t="n">
-        <v>4.92</v>
+        <v>6.08</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="H28" s="24" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="I28" s="24" t="n">
-        <v>13.55</v>
+        <v>-25.94</v>
       </c>
       <c r="J28" s="24" t="n">
-        <v>-1.32</v>
+        <v>2.95</v>
       </c>
       <c r="K28" s="24" t="n">
-        <v>-3.48</v>
+        <v>0.57</v>
       </c>
       <c r="L28" s="24" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="B29" s="25" t="inlineStr">
@@ -5531,166 +5531,166 @@
         </is>
       </c>
       <c r="C29" s="24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D29" s="24" t="n">
-        <v>68.47</v>
+        <v>73.89</v>
       </c>
       <c r="E29" s="24" t="n">
-        <v>2.61</v>
+        <v>5.67</v>
       </c>
       <c r="F29" s="24" t="n">
-        <v>6.39</v>
+        <v>4.59</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H29" s="24" t="n">
-        <v>33.6</v>
+        <v>35.5</v>
       </c>
       <c r="I29" s="24" t="n">
-        <v>-25.94</v>
+        <v>-37.08</v>
       </c>
       <c r="J29" s="24" t="n">
-        <v>2.95</v>
+        <v>-10.3</v>
       </c>
       <c r="K29" s="24" t="n">
-        <v>0.57</v>
+        <v>-4.52</v>
       </c>
       <c r="L29" s="24" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B30" s="25" t="inlineStr">
         <is>
-          <t>46 (B-)</t>
+          <t>48 (B-)</t>
         </is>
       </c>
       <c r="C30" s="24" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D30" s="24" t="n">
-        <v>62.01</v>
+        <v>60.48</v>
       </c>
       <c r="E30" s="24" t="n">
-        <v>7.05</v>
+        <v>1.65</v>
       </c>
       <c r="F30" s="24" t="n">
-        <v>5.73</v>
+        <v>7.15</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>2.26</v>
+        <v>1.68</v>
       </c>
       <c r="H30" s="24" t="n">
-        <v>34.9</v>
+        <v>36.4</v>
       </c>
       <c r="I30" s="24" t="n">
-        <v>76.97</v>
+        <v>1.56</v>
       </c>
       <c r="J30" s="24" t="n">
-        <v>-1.04</v>
+        <v>10.88</v>
       </c>
       <c r="K30" s="24" t="n">
-        <v>-3.06</v>
+        <v>0.42</v>
       </c>
       <c r="L30" s="24" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
       <c r="B31" s="25" t="inlineStr">
         <is>
-          <t>46 (B-)</t>
+          <t>47 (B-)</t>
         </is>
       </c>
       <c r="C31" s="24" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D31" s="24" t="n">
-        <v>65.51000000000001</v>
+        <v>63.77</v>
       </c>
       <c r="E31" s="24" t="n">
-        <v>-1.15</v>
+        <v>1.94</v>
       </c>
       <c r="F31" s="24" t="n">
-        <v>1.37</v>
+        <v>5.45</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>4.1</v>
+        <v>3.74</v>
       </c>
       <c r="H31" s="24" t="n">
-        <v>32.9</v>
+        <v>34.9</v>
       </c>
       <c r="I31" s="24" t="n">
-        <v>-15.37</v>
+        <v>-0.88</v>
       </c>
       <c r="J31" s="24" t="n">
-        <v>0.39</v>
+        <v>14.25</v>
       </c>
       <c r="K31" s="24" t="n">
-        <v>-0.75</v>
+        <v>0.73</v>
       </c>
       <c r="L31" s="24" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Phoenix-Mesa-Chandler</t>
         </is>
       </c>
       <c r="B32" s="25" t="inlineStr">
         <is>
-          <t>46 (B-)</t>
+          <t>47 (B-)</t>
         </is>
       </c>
       <c r="C32" s="24" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D32" s="24" t="n">
-        <v>73.89</v>
+        <v>66.59</v>
       </c>
       <c r="E32" s="24" t="n">
-        <v>2.84</v>
+        <v>6.57</v>
       </c>
       <c r="F32" s="24" t="n">
-        <v>4.97</v>
+        <v>4.91</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>2.74</v>
+        <v>3.34</v>
       </c>
       <c r="H32" s="24" t="n">
-        <v>35.2</v>
+        <v>34.8</v>
       </c>
       <c r="I32" s="24" t="n">
-        <v>-37.08</v>
+        <v>-21.38</v>
       </c>
       <c r="J32" s="24" t="n">
-        <v>-10.3</v>
+        <v>-1.54</v>
       </c>
       <c r="K32" s="24" t="n">
-        <v>-4.52</v>
+        <v>-2.06</v>
       </c>
       <c r="L32" s="24" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
       <c r="B33" s="25" t="inlineStr">
@@ -5699,40 +5699,40 @@
         </is>
       </c>
       <c r="C33" s="24" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D33" s="24" t="n">
-        <v>67.92</v>
+        <v>62.01</v>
       </c>
       <c r="E33" s="24" t="n">
-        <v>-0.14</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F33" s="24" t="n">
-        <v>5.44</v>
+        <v>5.64</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="H33" s="24" t="n">
-        <v>34.8</v>
+        <v>35.1</v>
       </c>
       <c r="I33" s="24" t="n">
-        <v>2.42</v>
+        <v>76.97</v>
       </c>
       <c r="J33" s="24" t="n">
-        <v>0.47</v>
+        <v>-1.04</v>
       </c>
       <c r="K33" s="24" t="n">
-        <v>-4.06</v>
+        <v>-3.06</v>
       </c>
       <c r="L33" s="24" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="B34" s="25" t="inlineStr">
@@ -5741,40 +5741,40 @@
         </is>
       </c>
       <c r="C34" s="24" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="D34" s="24" t="n">
-        <v>60.73</v>
+        <v>60.34</v>
       </c>
       <c r="E34" s="24" t="n">
-        <v>3.04</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F34" s="24" t="n">
-        <v>4.91</v>
+        <v>4.66</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.72</v>
+        <v>3.26</v>
       </c>
       <c r="H34" s="24" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="I34" s="24" t="n">
-        <v>57.77</v>
+        <v>10.06</v>
       </c>
       <c r="J34" s="24" t="n">
-        <v>3.5</v>
+        <v>-4.16</v>
       </c>
       <c r="K34" s="24" t="n">
-        <v>-0.93</v>
+        <v>0.41</v>
       </c>
       <c r="L34" s="24" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Phoenix-Mesa-Chandler</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="B35" s="25" t="inlineStr">
@@ -5786,37 +5786,37 @@
         <v>4.1</v>
       </c>
       <c r="D35" s="24" t="n">
-        <v>66.59</v>
+        <v>64.5</v>
       </c>
       <c r="E35" s="24" t="n">
-        <v>4.08</v>
+        <v>4.63</v>
       </c>
       <c r="F35" s="24" t="n">
-        <v>5.22</v>
+        <v>5.01</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>3</v>
       </c>
       <c r="H35" s="24" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="I35" s="24" t="n">
-        <v>-21.38</v>
+        <v>-3.79</v>
       </c>
       <c r="J35" s="24" t="n">
-        <v>-1.54</v>
+        <v>10.12</v>
       </c>
       <c r="K35" s="24" t="n">
-        <v>-2.06</v>
+        <v>-2.56</v>
       </c>
       <c r="L35" s="24" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="B36" s="25" t="inlineStr">
@@ -5825,40 +5825,40 @@
         </is>
       </c>
       <c r="C36" s="24" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D36" s="24" t="n">
-        <v>60.34</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E36" s="24" t="n">
-        <v>9.51</v>
+        <v>1.2</v>
       </c>
       <c r="F36" s="24" t="n">
-        <v>4.63</v>
+        <v>5.33</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>2.94</v>
+        <v>4.14</v>
       </c>
       <c r="H36" s="24" t="n">
         <v>34.2</v>
       </c>
       <c r="I36" s="24" t="n">
-        <v>10.06</v>
+        <v>-15.37</v>
       </c>
       <c r="J36" s="24" t="n">
-        <v>-4.16</v>
+        <v>0.39</v>
       </c>
       <c r="K36" s="24" t="n">
-        <v>0.41</v>
+        <v>-0.75</v>
       </c>
       <c r="L36" s="24" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson</t>
+          <t>San Jose-Sunnyvale-Santa Clara</t>
         </is>
       </c>
       <c r="B37" s="25" t="inlineStr">
@@ -5867,40 +5867,40 @@
         </is>
       </c>
       <c r="C37" s="24" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D37" s="24" t="n">
-        <v>64.61</v>
+        <v>64.66</v>
       </c>
       <c r="E37" s="24" t="n">
-        <v>0.74</v>
+        <v>1.21</v>
       </c>
       <c r="F37" s="24" t="n">
-        <v>7.45</v>
+        <v>7.42</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>2.8</v>
+        <v>2.02</v>
       </c>
       <c r="H37" s="24" t="n">
-        <v>33.9</v>
+        <v>34.6</v>
       </c>
       <c r="I37" s="24" t="n">
-        <v>-32</v>
+        <v>90.23</v>
       </c>
       <c r="J37" s="24" t="n">
-        <v>14.35</v>
+        <v>9.58</v>
       </c>
       <c r="K37" s="24" t="n">
-        <v>1.71</v>
+        <v>-3.06</v>
       </c>
       <c r="L37" s="24" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>San Antonio-New Braunfels</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="B38" s="25" t="inlineStr">
@@ -5909,118 +5909,118 @@
         </is>
       </c>
       <c r="C38" s="24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D38" s="24" t="n">
-        <v>63.01</v>
+        <v>60.83</v>
       </c>
       <c r="E38" s="24" t="n">
-        <v>4.9</v>
+        <v>10.99</v>
       </c>
       <c r="F38" s="24" t="n">
-        <v>4.44</v>
+        <v>4.33</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="H38" s="24" t="n">
-        <v>35.5</v>
+        <v>34</v>
       </c>
       <c r="I38" s="24" t="n">
-        <v>-36.19</v>
+        <v>-2.63</v>
       </c>
       <c r="J38" s="24" t="n">
-        <v>3.43</v>
+        <v>5.54</v>
       </c>
       <c r="K38" s="24" t="n">
-        <v>-3.5</v>
+        <v>-2.86</v>
       </c>
       <c r="L38" s="24" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>San Jose-Sunnyvale-Santa Clara</t>
+          <t>Baltimore-Columbia-Towson</t>
         </is>
       </c>
       <c r="B39" s="25" t="inlineStr">
         <is>
-          <t>41 (B-)</t>
+          <t>40 (B-)</t>
         </is>
       </c>
       <c r="C39" s="24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D39" s="24" t="n">
-        <v>64.66</v>
+        <v>64.61</v>
       </c>
       <c r="E39" s="24" t="n">
-        <v>-1.3</v>
+        <v>2.16</v>
       </c>
       <c r="F39" s="24" t="n">
-        <v>7.48</v>
+        <v>5.34</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="H39" s="24" t="n">
-        <v>34.3</v>
+        <v>33.7</v>
       </c>
       <c r="I39" s="24" t="n">
-        <v>90.23</v>
+        <v>-32</v>
       </c>
       <c r="J39" s="24" t="n">
-        <v>9.58</v>
+        <v>14.35</v>
       </c>
       <c r="K39" s="24" t="n">
-        <v>-3.06</v>
+        <v>1.71</v>
       </c>
       <c r="L39" s="24" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
       <c r="B40" s="25" t="inlineStr">
         <is>
-          <t>40 (B-)</t>
+          <t>39 (C+)</t>
         </is>
       </c>
       <c r="C40" s="24" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D40" s="24" t="n">
-        <v>60.64</v>
+        <v>60.73</v>
       </c>
       <c r="E40" s="24" t="n">
-        <v>6.95</v>
+        <v>2.74</v>
       </c>
       <c r="F40" s="24" t="n">
-        <v>4.15</v>
+        <v>4.94</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>2.68</v>
+        <v>1.88</v>
       </c>
       <c r="H40" s="24" t="n">
         <v>34.3</v>
       </c>
       <c r="I40" s="24" t="n">
-        <v>-34.38</v>
+        <v>57.77</v>
       </c>
       <c r="J40" s="24" t="n">
-        <v>5.21</v>
+        <v>3.5</v>
       </c>
       <c r="K40" s="24" t="n">
-        <v>-1.88</v>
+        <v>-0.93</v>
       </c>
       <c r="L40" s="24" t="n">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -6041,13 +6041,13 @@
         <v>61.03</v>
       </c>
       <c r="E41" s="24" t="n">
-        <v>4.88</v>
+        <v>7.51</v>
       </c>
       <c r="F41" s="24" t="n">
-        <v>5.45</v>
+        <v>5.12</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="H41" s="24" t="n">
         <v>33.9</v>
@@ -6068,7 +6068,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="B42" s="25" t="inlineStr">
@@ -6077,40 +6077,40 @@
         </is>
       </c>
       <c r="C42" s="24" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D42" s="24" t="n">
-        <v>64.5</v>
+        <v>60.64</v>
       </c>
       <c r="E42" s="24" t="n">
-        <v>2.18</v>
+        <v>8.34</v>
       </c>
       <c r="F42" s="24" t="n">
-        <v>5.34</v>
+        <v>4.13</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>3.06</v>
+        <v>1.14</v>
       </c>
       <c r="H42" s="24" t="n">
-        <v>33.3</v>
+        <v>34.6</v>
       </c>
       <c r="I42" s="24" t="n">
-        <v>-3.79</v>
+        <v>-34.38</v>
       </c>
       <c r="J42" s="24" t="n">
-        <v>10.12</v>
+        <v>5.21</v>
       </c>
       <c r="K42" s="24" t="n">
-        <v>-2.56</v>
+        <v>-1.88</v>
       </c>
       <c r="L42" s="24" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>San Antonio-New Braunfels</t>
         </is>
       </c>
       <c r="B43" s="25" t="inlineStr">
@@ -6119,160 +6119,160 @@
         </is>
       </c>
       <c r="C43" s="24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D43" s="24" t="n">
-        <v>60.83</v>
+        <v>63.01</v>
       </c>
       <c r="E43" s="24" t="n">
-        <v>9.59</v>
+        <v>4.99</v>
       </c>
       <c r="F43" s="24" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="H43" s="24" t="n">
-        <v>33</v>
+        <v>35.4</v>
       </c>
       <c r="I43" s="24" t="n">
-        <v>-2.63</v>
+        <v>-36.19</v>
       </c>
       <c r="J43" s="24" t="n">
-        <v>5.54</v>
+        <v>3.43</v>
       </c>
       <c r="K43" s="24" t="n">
-        <v>-2.86</v>
+        <v>-3.5</v>
       </c>
       <c r="L43" s="24" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="B44" s="25" t="inlineStr">
         <is>
-          <t>31 (C+)</t>
+          <t>33 (C+)</t>
         </is>
       </c>
       <c r="C44" s="24" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="D44" s="24" t="n">
-        <v>60.25</v>
+        <v>66.5</v>
       </c>
       <c r="E44" s="24" t="n">
-        <v>7.71</v>
+        <v>4.05</v>
       </c>
       <c r="F44" s="24" t="n">
-        <v>5.61</v>
+        <v>5.36</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="H44" s="24" t="n">
-        <v>33.9</v>
+        <v>34.6</v>
       </c>
       <c r="I44" s="24" t="n">
-        <v>-18.53</v>
+        <v>-20.27</v>
       </c>
       <c r="J44" s="24" t="n">
-        <v>7.22</v>
+        <v>-0.59</v>
       </c>
       <c r="K44" s="24" t="n">
-        <v>-0.88</v>
+        <v>-1.8</v>
       </c>
       <c r="L44" s="24" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="B45" s="25" t="inlineStr">
         <is>
-          <t>31 (C+)</t>
+          <t>30 (C+)</t>
         </is>
       </c>
       <c r="C45" s="24" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D45" s="24" t="n">
-        <v>66.5</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="E45" s="24" t="n">
-        <v>1.59</v>
+        <v>7.52</v>
       </c>
       <c r="F45" s="24" t="n">
-        <v>5.68</v>
+        <v>5.02</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.52</v>
+        <v>2.98</v>
       </c>
       <c r="H45" s="24" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="I45" s="24" t="n">
-        <v>-20.27</v>
+        <v>-46.49</v>
       </c>
       <c r="J45" s="24" t="n">
-        <v>-0.59</v>
+        <v>-0.66</v>
       </c>
       <c r="K45" s="24" t="n">
-        <v>-1.8</v>
+        <v>-1.49</v>
       </c>
       <c r="L45" s="24" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="B46" s="25" t="inlineStr">
         <is>
-          <t>31 (C+)</t>
+          <t>27 (C)</t>
         </is>
       </c>
       <c r="C46" s="24" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="D46" s="24" t="n">
-        <v>64.23999999999999</v>
+        <v>63.08</v>
       </c>
       <c r="E46" s="24" t="n">
-        <v>4.88</v>
+        <v>7</v>
       </c>
       <c r="F46" s="24" t="n">
-        <v>5.35</v>
+        <v>6.09</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="H46" s="24" t="n">
-        <v>33.9</v>
+        <v>33.3</v>
       </c>
       <c r="I46" s="24" t="n">
-        <v>-46.49</v>
+        <v>-21.86</v>
       </c>
       <c r="J46" s="24" t="n">
-        <v>-0.66</v>
+        <v>4.97</v>
       </c>
       <c r="K46" s="24" t="n">
-        <v>-1.49</v>
+        <v>-3.7</v>
       </c>
       <c r="L46" s="24" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="B47" s="25" t="inlineStr">
         <is>
-          <t>29 (C)</t>
+          <t>27 (C)</t>
         </is>
       </c>
       <c r="C47" s="24" t="n">
@@ -6293,16 +6293,16 @@
         <v>63.66</v>
       </c>
       <c r="E47" s="24" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="F47" s="24" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="H47" s="24" t="n">
-        <v>33.5</v>
+        <v>34</v>
       </c>
       <c r="I47" s="24" t="n">
         <v>6.1</v>
@@ -6320,91 +6320,91 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Fremont</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="B48" s="25" t="inlineStr">
         <is>
-          <t>29 (C)</t>
+          <t>27 (C)</t>
         </is>
       </c>
       <c r="C48" s="24" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="D48" s="24" t="n">
-        <v>64.93000000000001</v>
+        <v>60.25</v>
       </c>
       <c r="E48" s="24" t="n">
-        <v>4.29</v>
+        <v>7.77</v>
       </c>
       <c r="F48" s="24" t="n">
-        <v>6.19</v>
+        <v>5.61</v>
       </c>
       <c r="G48" s="24" t="n">
-        <v>2.02</v>
+        <v>1.12</v>
       </c>
       <c r="H48" s="24" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="I48" s="24" t="n">
-        <v>-39.96</v>
+        <v>-18.53</v>
       </c>
       <c r="J48" s="24" t="n">
-        <v>0.3</v>
+        <v>7.22</v>
       </c>
       <c r="K48" s="24" t="n">
-        <v>-4.62</v>
+        <v>-0.88</v>
       </c>
       <c r="L48" s="24" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>San Diego-Chula Vista-Carlsbad</t>
+          <t>San Francisco-Oakland-Fremont</t>
         </is>
       </c>
       <c r="B49" s="25" t="inlineStr">
         <is>
-          <t>28 (C)</t>
+          <t>27 (C)</t>
         </is>
       </c>
       <c r="C49" s="24" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="D49" s="24" t="n">
-        <v>62.18</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="E49" s="24" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="F49" s="24" t="n">
-        <v>7.2</v>
+        <v>6.42</v>
       </c>
       <c r="G49" s="24" t="n">
-        <v>1.16</v>
+        <v>2.08</v>
       </c>
       <c r="H49" s="24" t="n">
-        <v>32.7</v>
+        <v>34.2</v>
       </c>
       <c r="I49" s="24" t="n">
-        <v>61.67</v>
+        <v>-39.96</v>
       </c>
       <c r="J49" s="24" t="n">
-        <v>-0.55</v>
+        <v>0.3</v>
       </c>
       <c r="K49" s="24" t="n">
-        <v>-2.73</v>
+        <v>-4.62</v>
       </c>
       <c r="L49" s="24" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>San Diego-Chula Vista-Carlsbad</t>
         </is>
       </c>
       <c r="B50" s="25" t="inlineStr">
@@ -6413,34 +6413,34 @@
         </is>
       </c>
       <c r="C50" s="24" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="D50" s="24" t="n">
-        <v>63.08</v>
+        <v>62.18</v>
       </c>
       <c r="E50" s="24" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="F50" s="24" t="n">
-        <v>6.47</v>
+        <v>7.13</v>
       </c>
       <c r="G50" s="24" t="n">
-        <v>3.04</v>
+        <v>1.22</v>
       </c>
       <c r="H50" s="24" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="I50" s="24" t="n">
-        <v>-21.86</v>
+        <v>61.67</v>
       </c>
       <c r="J50" s="24" t="n">
-        <v>4.97</v>
+        <v>-0.55</v>
       </c>
       <c r="K50" s="24" t="n">
-        <v>-3.7</v>
+        <v>-2.73</v>
       </c>
       <c r="L50" s="24" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="B51" s="25" t="inlineStr">
         <is>
-          <t>18 (C-)</t>
+          <t>20 (C-)</t>
         </is>
       </c>
       <c r="C51" s="24" t="n">
@@ -6461,16 +6461,16 @@
         <v>60.54</v>
       </c>
       <c r="E51" s="24" t="n">
-        <v>1.74</v>
+        <v>4.36</v>
       </c>
       <c r="F51" s="24" t="n">
-        <v>6.01</v>
+        <v>5.66</v>
       </c>
       <c r="G51" s="24" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="H51" s="24" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="I51" s="24" t="n">
         <v>-30.14</v>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="D2" s="14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="15" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="F2" s="14" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="G2" s="14" t="n">
         <v>5.3</v>
@@ -6600,10 +6600,10 @@
         <v>63.08</v>
       </c>
       <c r="I2" s="14" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="J2" s="14" t="n">
-        <v>6.47</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="3">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="D3" s="14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="15" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         </is>
       </c>
       <c r="F3" s="14" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>5.5</v>
@@ -6638,10 +6638,10 @@
         <v>63.66</v>
       </c>
       <c r="I3" s="14" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="J3" s="14" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="4">
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51.4</v>
+        <v>51.2</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.2</v>
@@ -6676,10 +6676,10 @@
         <v>65.09</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>3.94</v>
+        <v>5.39</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>5.04</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="5">
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52.5</v>
+        <v>53.9</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>4.2</v>
@@ -6714,48 +6714,48 @@
         <v>69.84999999999999</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.82</v>
+        <v>5.9</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.81</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Houston-Pasadena-The Woodlands</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>51</v>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="G6" s="5" t="n">
+      <c r="D6" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="G6" s="8" t="n">
         <v>4.8</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="8" t="n">
         <v>64.73999999999999</v>
       </c>
-      <c r="I6" s="5" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>4.32</v>
+      <c r="I6" s="8" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row r="7">
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="D7" s="8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         </is>
       </c>
       <c r="F7" s="8" t="n">
-        <v>46.5</v>
+        <v>45.3</v>
       </c>
       <c r="G7" s="8" t="n">
         <v>3.6</v>
@@ -6790,10 +6790,10 @@
         <v>62.01</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>7.05</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>5.73</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="8">
@@ -6811,7 +6811,7 @@
         </is>
       </c>
       <c r="D8" s="8" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         </is>
       </c>
       <c r="F8" s="8" t="n">
-        <v>44.8</v>
+        <v>48.7</v>
       </c>
       <c r="G8" s="8" t="n">
         <v>4.1</v>
@@ -6828,10 +6828,10 @@
         <v>67.92</v>
       </c>
       <c r="I8" s="8" t="n">
-        <v>-0.14</v>
+        <v>4.04</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>5.44</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="9">
@@ -6849,7 +6849,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53.9</v>
+        <v>58.3</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>3.4</v>
@@ -6866,48 +6866,48 @@
         <v>64.51000000000001</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>6.24</v>
+        <v>9.99</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>4.66</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Philadelphia</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>53</v>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="D10" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="G10" s="8" t="n">
         <v>4.7</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="8" t="n">
         <v>63.77</v>
       </c>
-      <c r="I10" s="5" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>3.55</v>
+      <c r="I10" s="8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>5.45</v>
       </c>
     </row>
     <row r="11">
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="D11" s="8" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         </is>
       </c>
       <c r="F11" s="8" t="n">
-        <v>44.5</v>
+        <v>46.8</v>
       </c>
       <c r="G11" s="8" t="n">
         <v>4.1</v>
@@ -6942,10 +6942,10 @@
         <v>66.59</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>4.08</v>
+        <v>6.57</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>5.22</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="12">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="F12" s="8" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="G12" s="8" t="n">
         <v>3.9</v>
@@ -6980,47 +6980,47 @@
         <v>68.47</v>
       </c>
       <c r="I12" s="8" t="n">
-        <v>2.61</v>
+        <v>4.74</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>6.39</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
-      <c r="C13" s="12" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
         <is>
           <t>Riverside</t>
         </is>
       </c>
-      <c r="D13" s="11" t="n">
-        <v>31</v>
-      </c>
-      <c r="E13" s="12" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="G13" s="11" t="n">
+      <c r="D13" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="G13" s="14" t="n">
         <v>5.9</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="14" t="n">
         <v>60.25</v>
       </c>
-      <c r="I13" s="11" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="J13" s="11" t="n">
+      <c r="I13" s="14" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="J13" s="14" t="n">
         <v>5.61</v>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="D14" s="14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="15" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="F14" s="14" t="n">
-        <v>28.9</v>
+        <v>27.1</v>
       </c>
       <c r="G14" s="14" t="n">
         <v>4.6</v>
@@ -7056,48 +7056,48 @@
         <v>64.93000000000001</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>4.29</v>
+        <v>3</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>6.19</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C15" s="12" t="inlineStr">
         <is>
           <t>Detroit</t>
         </is>
       </c>
-      <c r="D15" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="n">
-        <v>45</v>
-      </c>
-      <c r="G15" s="8" t="n">
+      <c r="D15" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="E15" s="12" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="G15" s="11" t="n">
         <v>4.8</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="11" t="n">
         <v>60.73</v>
       </c>
-      <c r="I15" s="8" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J15" s="8" t="n">
-        <v>4.91</v>
+      <c r="I15" s="11" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>4.94</v>
       </c>
     </row>
     <row r="16">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         </is>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56.3</v>
+        <v>57.2</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>4.9</v>
@@ -7132,48 +7132,48 @@
         <v>68.18000000000001</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>8.65</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>5.4</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <t>Minneapolis-St. Paul-Bloomington</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Minneapolis</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>55</v>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="G17" s="5" t="n">
+      <c r="D17" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="G17" s="8" t="n">
         <v>3.6</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="8" t="n">
         <v>69.34</v>
       </c>
-      <c r="I17" s="5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>4.99</v>
+      <c r="I17" s="8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>5.15</v>
       </c>
     </row>
     <row r="18">
@@ -7191,7 +7191,7 @@
         </is>
       </c>
       <c r="D18" s="8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         </is>
       </c>
       <c r="F18" s="8" t="n">
-        <v>44</v>
+        <v>44.7</v>
       </c>
       <c r="G18" s="8" t="n">
         <v>4.3</v>
@@ -7208,10 +7208,10 @@
         <v>60.34</v>
       </c>
       <c r="I18" s="8" t="n">
-        <v>9.51</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>4.63</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="19">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="D19" s="14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="15" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="F19" s="14" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="G19" s="14" t="n">
         <v>4.9</v>
@@ -7246,86 +7246,86 @@
         <v>62.18</v>
       </c>
       <c r="I19" s="14" t="n">
-        <v>3.03</v>
+        <v>3.35</v>
       </c>
       <c r="J19" s="14" t="n">
-        <v>7.2</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>Denver</t>
         </is>
       </c>
-      <c r="D20" s="8" t="n">
-        <v>49</v>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
+      <c r="D20" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>71.33</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>Orlando-Kissimmee-Sanford</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
-      <c r="F20" s="8" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="G20" s="8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H20" s="8" t="n">
-        <v>71.33</v>
-      </c>
-      <c r="I20" s="8" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="inlineStr">
-        <is>
-          <t>Orlando-Kissimmee-Sanford</t>
-        </is>
-      </c>
-      <c r="C21" s="12" t="inlineStr">
-        <is>
-          <t>Orlando</t>
-        </is>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>38</v>
-      </c>
-      <c r="E21" s="12" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="F21" s="11" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="G21" s="11" t="n">
+      <c r="F21" s="8" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="G21" s="8" t="n">
         <v>4.1</v>
       </c>
-      <c r="H21" s="11" t="n">
+      <c r="H21" s="8" t="n">
         <v>64.5</v>
       </c>
-      <c r="I21" s="11" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J21" s="11" t="n">
-        <v>5.34</v>
+      <c r="I21" s="8" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>5.01</v>
       </c>
     </row>
     <row r="22">
@@ -7343,7 +7343,7 @@
         </is>
       </c>
       <c r="D22" s="8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="9" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         </is>
       </c>
       <c r="F22" s="8" t="n">
-        <v>46.3</v>
+        <v>43.9</v>
       </c>
       <c r="G22" s="8" t="n">
         <v>3.8</v>
@@ -7360,10 +7360,10 @@
         <v>65.51000000000001</v>
       </c>
       <c r="I22" s="8" t="n">
-        <v>-1.15</v>
+        <v>1.2</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>1.37</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="23">
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="D23" s="8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="9" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="F23" s="8" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="G23" s="8" t="n">
         <v>4.3</v>
@@ -7398,10 +7398,10 @@
         <v>64.61</v>
       </c>
       <c r="I23" s="8" t="n">
-        <v>0.74</v>
+        <v>2.16</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>7.45</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="24">
@@ -7419,7 +7419,7 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56.9</v>
+        <v>56.4</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>3.7</v>
@@ -7436,48 +7436,48 @@
         <v>65.2</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.22</v>
+        <v>1.72</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>San Antonio-New Braunfels</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="C25" s="12" t="inlineStr">
         <is>
           <t>San Antonio</t>
         </is>
       </c>
-      <c r="D25" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="G25" s="8" t="n">
+      <c r="D25" s="11" t="n">
+        <v>37</v>
+      </c>
+      <c r="E25" s="12" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="F25" s="11" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="G25" s="11" t="n">
         <v>4.2</v>
       </c>
-      <c r="H25" s="8" t="n">
+      <c r="H25" s="11" t="n">
         <v>63.01</v>
       </c>
-      <c r="I25" s="8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>4.44</v>
+      <c r="I25" s="11" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="J25" s="11" t="n">
+        <v>4.42</v>
       </c>
     </row>
     <row r="26">
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="D26" s="8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" s="9" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="F26" s="8" t="n">
-        <v>45.6</v>
+        <v>48.3</v>
       </c>
       <c r="G26" s="8" t="n">
         <v>3.8</v>
@@ -7512,10 +7512,10 @@
         <v>73.89</v>
       </c>
       <c r="I26" s="8" t="n">
-        <v>2.84</v>
+        <v>5.67</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>4.97</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="27">
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D27" s="11" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="F27" s="11" t="n">
-        <v>30.8</v>
+        <v>33.1</v>
       </c>
       <c r="G27" s="11" t="n">
         <v>5</v>
@@ -7550,10 +7550,10 @@
         <v>66.5</v>
       </c>
       <c r="I27" s="11" t="n">
-        <v>1.59</v>
+        <v>4.05</v>
       </c>
       <c r="J27" s="11" t="n">
-        <v>5.68</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="28">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="D28" s="17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" s="18" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="F28" s="17" t="n">
-        <v>18.5</v>
+        <v>19.8</v>
       </c>
       <c r="G28" s="17" t="n">
         <v>5.2</v>
@@ -7588,10 +7588,10 @@
         <v>60.54</v>
       </c>
       <c r="I28" s="17" t="n">
-        <v>1.74</v>
+        <v>4.36</v>
       </c>
       <c r="J28" s="17" t="n">
-        <v>6.01</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="29">
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="F29" s="5" t="n">
-        <v>54.3</v>
+        <v>54.6</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>3.9</v>
@@ -7626,10 +7626,10 @@
         <v>60.25</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.7</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.29</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="30">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="D30" s="11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="12" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         </is>
       </c>
       <c r="F30" s="11" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="n">
         <v>5.7</v>
@@ -7664,10 +7664,10 @@
         <v>64.23999999999999</v>
       </c>
       <c r="I30" s="11" t="n">
-        <v>4.88</v>
+        <v>7.52</v>
       </c>
       <c r="J30" s="11" t="n">
-        <v>5.35</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="31">
@@ -7693,7 +7693,7 @@
         </is>
       </c>
       <c r="F31" s="5" t="n">
-        <v>53.8</v>
+        <v>54.5</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>4.1</v>
@@ -7702,48 +7702,48 @@
         <v>63.68</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>-1.51</v>
+        <v>0.89</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>Kansas City</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>Kansas City</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="G32" s="5" t="n">
+      <c r="D32" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="G32" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="H32" s="5" t="n">
+      <c r="H32" s="2" t="n">
         <v>67.98</v>
       </c>
-      <c r="I32" s="5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J32" s="5" t="n">
-        <v>5.08</v>
+      <c r="I32" s="2" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>4.39</v>
       </c>
     </row>
     <row r="33">
@@ -7769,7 +7769,7 @@
         </is>
       </c>
       <c r="F33" s="5" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>3.9</v>
@@ -7778,10 +7778,10 @@
         <v>65.93000000000001</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>2.26</v>
+        <v>2.91</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>5.34</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="34">
@@ -7799,7 +7799,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>69.09999999999999</v>
+        <v>63.2</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>3.3</v>
@@ -7816,10 +7816,10 @@
         <v>67.88</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="35">
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="F35" s="5" t="n">
-        <v>52.8</v>
+        <v>53.3</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>3.4</v>
@@ -7854,7 +7854,7 @@
         <v>58.01</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.24</v>
+        <v>-1.84</v>
       </c>
       <c r="J35" s="5" t="n"/>
     </row>
@@ -7873,7 +7873,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>64.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>3.1</v>
@@ -7890,10 +7890,10 @@
         <v>76.06</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>1.15</v>
+        <v>4.05</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>7.83</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="37">
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="F37" s="8" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="G37" s="8" t="n">
         <v>4.5</v>
@@ -7928,10 +7928,10 @@
         <v>64.66</v>
       </c>
       <c r="I37" s="8" t="n">
-        <v>-1.3</v>
+        <v>1.21</v>
       </c>
       <c r="J37" s="8" t="n">
-        <v>7.48</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="38">
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="D38" s="5" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E38" s="6" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F38" s="5" t="n">
-        <v>56.9</v>
+        <v>59</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>3.5</v>
@@ -7966,48 +7966,48 @@
         <v>59.3</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>10.68</v>
+        <v>13</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>4.53</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="inlineStr">
+      <c r="B39" s="9" t="inlineStr">
         <is>
           <t>Jacksonville</t>
         </is>
       </c>
-      <c r="C39" s="12" t="inlineStr">
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Jacksonville</t>
         </is>
       </c>
-      <c r="D39" s="11" t="n">
-        <v>37</v>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="F39" s="11" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="G39" s="11" t="n">
+      <c r="D39" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="E39" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="G39" s="8" t="n">
         <v>4.3</v>
       </c>
-      <c r="H39" s="11" t="n">
+      <c r="H39" s="8" t="n">
         <v>60.83</v>
       </c>
-      <c r="I39" s="11" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="J39" s="11" t="n">
-        <v>4.4</v>
+      <c r="I39" s="8" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J39" s="8" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="40">
@@ -8025,7 +8025,7 @@
         </is>
       </c>
       <c r="D40" s="5" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="6" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         </is>
       </c>
       <c r="F40" s="5" t="n">
-        <v>52.9</v>
+        <v>51.6</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>4.3</v>
@@ -8042,10 +8042,10 @@
         <v>50.77</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>0.85</v>
+        <v>2.51</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="41">
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>68.09999999999999</v>
+        <v>63.7</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>3</v>
@@ -8080,10 +8080,10 @@
         <v>62.75</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>3.99</v>
+        <v>3.27</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="42">
@@ -8101,7 +8101,7 @@
         </is>
       </c>
       <c r="D42" s="5" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E42" s="6" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="F42" s="5" t="n">
-        <v>51.3</v>
+        <v>56.1</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>3.2</v>
@@ -8118,10 +8118,10 @@
         <v>67.86</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.94</v>
+        <v>6.56</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.1</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="43">
@@ -8139,7 +8139,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>65.8</v>
+        <v>67.3</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>3.4</v>
@@ -8156,10 +8156,10 @@
         <v>66.8</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>3.49</v>
+        <v>5.1</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>5.02</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="44">
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>62.6</v>
+        <v>60.5</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>4</v>
@@ -8194,10 +8194,10 @@
         <v>63.25</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>2.68</v>
+        <v>3.41</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="45">
@@ -8223,7 +8223,7 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>64.8</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>3.2</v>
@@ -8232,48 +8232,48 @@
         <v>64.58</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>7.81</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="n">
+      <c r="A46" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="inlineStr">
+      <c r="B46" s="12" t="inlineStr">
         <is>
           <t>Memphis</t>
         </is>
       </c>
-      <c r="C46" s="9" t="inlineStr">
+      <c r="C46" s="12" t="inlineStr">
         <is>
           <t>Memphis</t>
         </is>
       </c>
-      <c r="D46" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F46" s="8" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="G46" s="8" t="n">
+      <c r="D46" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="E46" s="12" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="F46" s="11" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="G46" s="11" t="n">
         <v>4.4</v>
       </c>
-      <c r="H46" s="8" t="n">
+      <c r="H46" s="11" t="n">
         <v>60.64</v>
       </c>
-      <c r="I46" s="8" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="J46" s="8" t="n">
-        <v>4.15</v>
+      <c r="I46" s="11" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="J46" s="11" t="n">
+        <v>4.13</v>
       </c>
     </row>
     <row r="47">
@@ -8291,7 +8291,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>62</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>3.6</v>
@@ -8308,48 +8308,48 @@
         <v>72.66</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>1</v>
+        <v>3.68</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>5.51</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n">
+      <c r="A48" s="8" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="B48" s="9" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="D48" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E48" s="6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F48" s="5" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="G48" s="5" t="n">
+      <c r="D48" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="G48" s="8" t="n">
         <v>2.8</v>
       </c>
-      <c r="H48" s="5" t="n">
+      <c r="H48" s="8" t="n">
         <v>60.48</v>
       </c>
-      <c r="I48" s="5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J48" s="5" t="n">
-        <v>7.14</v>
+      <c r="I48" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>7.15</v>
       </c>
     </row>
     <row r="49">
@@ -8375,7 +8375,7 @@
         </is>
       </c>
       <c r="F49" s="11" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="G49" s="11" t="n">
         <v>7.5</v>
@@ -8384,10 +8384,10 @@
         <v>61.03</v>
       </c>
       <c r="I49" s="11" t="n">
-        <v>4.88</v>
+        <v>7.51</v>
       </c>
       <c r="J49" s="11" t="n">
-        <v>5.45</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="50">
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>69.09999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>3.9</v>
@@ -8422,10 +8422,10 @@
         <v>66.05</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>3.47</v>
+        <v>3.57</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="51">
@@ -8451,7 +8451,7 @@
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>65.40000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>2.7</v>
@@ -8460,10 +8460,10 @@
         <v>64.7</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>-1.68</v>
+        <v>-0.36</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>3.53</v>
+        <v>3.51</v>
       </c>
     </row>
   </sheetData>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="B3" s="30" t="inlineStr">
         <is>
-          <t>Indianapolis-Carmel-Greenwood</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="C3" s="30" t="n">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="F3" s="31" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="G3" s="31" t="n">
@@ -8589,11 +8589,11 @@
       </c>
       <c r="B4" s="30" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Kansas City</t>
         </is>
       </c>
       <c r="C4" s="30" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="30" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="F4" s="31" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>San Antonio-New Braunfels</t>
         </is>
       </c>
       <c r="G4" s="31" t="n">
@@ -8623,11 +8623,11 @@
       </c>
       <c r="B5" s="30" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="C5" s="30" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="30" t="inlineStr">
         <is>
@@ -8639,11 +8639,11 @@
       </c>
       <c r="F5" s="31" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="G5" s="31" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="31" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="B6" s="30" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="C6" s="30" t="n">
@@ -8673,11 +8673,11 @@
       </c>
       <c r="F6" s="31" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="G6" s="31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="31" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="B7" s="30" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="C7" s="30" t="n">
@@ -8707,15 +8707,15 @@
       </c>
       <c r="F7" s="31" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>New York Newark-Jersey City</t>
         </is>
       </c>
       <c r="G7" s="31" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H7" s="31" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="B8" s="30" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="C8" s="30" t="n">
@@ -8745,7 +8745,7 @@
         </is>
       </c>
       <c r="G8" s="31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="31" t="inlineStr">
         <is>
@@ -8759,11 +8759,11 @@
       </c>
       <c r="B9" s="30" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="C9" s="30" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="30" t="inlineStr">
         <is>
@@ -8775,11 +8775,11 @@
       </c>
       <c r="F9" s="31" t="inlineStr">
         <is>
-          <t>San Francisco-Oakland-Fremont</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="G9" s="31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="31" t="inlineStr">
         <is>
@@ -8793,11 +8793,11 @@
       </c>
       <c r="B10" s="30" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="C10" s="30" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="30" t="inlineStr">
         <is>
@@ -8809,11 +8809,11 @@
       </c>
       <c r="F10" s="31" t="inlineStr">
         <is>
-          <t>San Diego-Chula Vista-Carlsbad</t>
+          <t>San Francisco-Oakland-Fremont</t>
         </is>
       </c>
       <c r="G10" s="31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="31" t="inlineStr">
         <is>
@@ -8827,11 +8827,11 @@
       </c>
       <c r="B11" s="30" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Indianapolis-Carmel-Greenwood</t>
         </is>
       </c>
       <c r="C11" s="30" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="30" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="F11" s="31" t="inlineStr">
         <is>
-          <t>New York Newark-Jersey City</t>
+          <t>San Diego-Chula Vista-Carlsbad</t>
         </is>
       </c>
       <c r="G11" s="31" t="n">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="B12" s="30" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="C12" s="30" t="n">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="D12" s="30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="E12" s="31" t="n">
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G12" s="31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="31" t="inlineStr">
         <is>

--- a/Economic_Metrics_All_Metros.xlsx
+++ b/Economic_Metrics_All_Metros.xlsx
@@ -94,14 +94,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8CBAD"/>
-        <bgColor rgb="00F8CBAD"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00F8CBAD"/>
+        <bgColor rgb="00F8CBAD"/>
       </patternFill>
     </fill>
     <fill>
@@ -198,10 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -645,20 +645,20 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Indianapolis-Carmel-Greenwood</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Grand Rapids</t>
+          <t>Indianapolis</t>
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>71.59999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -676,16 +676,16 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>Indianapolis-Carmel-Greenwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>67.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="D4" s="7" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68</v>
+        <v>66.2</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -738,20 +738,20 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>Milwaukee</t>
+          <t>Nashville</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64.90000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -769,16 +769,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63.8</v>
+        <v>63.7</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -800,20 +800,20 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Grand Rapids</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62.9</v>
+        <v>64.3</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -831,20 +831,20 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Milwaukee</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>60.6</v>
+        <v>62.8</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -861,114 +861,114 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>St. Louis</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>St. Louis</t>
-        </is>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Average</t>
+      <c r="A9" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>Louisville-Jefferson County</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Louisville</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>Above Average</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
+        <v>62</v>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>Above Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Kansas City</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>Kansas City</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="F11" s="5" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
         <is>
           <t>Above Average</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="n">
-        <v>31</v>
-      </c>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Kansas City</t>
-        </is>
-      </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>Kansas City</t>
-        </is>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Average</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="D12" s="10" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="F12" s="8" t="n">
-        <v>59.8</v>
+        <v>57.5</v>
       </c>
       <c r="G12" s="9" t="inlineStr">
         <is>
@@ -986,20 +986,20 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="D13" s="10" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="9" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F13" s="8" t="n">
-        <v>58.2</v>
+        <v>57</v>
       </c>
       <c r="G13" s="9" t="inlineStr">
         <is>
@@ -1017,20 +1017,20 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Hartford</t>
         </is>
       </c>
       <c r="D14" s="10" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="F14" s="8" t="n">
-        <v>57.8</v>
+        <v>57</v>
       </c>
       <c r="G14" s="9" t="inlineStr">
         <is>
@@ -1048,20 +1048,20 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Providence-Warwick</t>
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Providence</t>
         </is>
       </c>
       <c r="D15" s="10" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" s="9" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="F15" s="8" t="n">
-        <v>57.8</v>
+        <v>54.7</v>
       </c>
       <c r="G15" s="9" t="inlineStr">
         <is>
@@ -1079,20 +1079,20 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>Providence-Warwick</t>
+          <t>Raleigh-Cary</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>Providence</t>
+          <t>Raleigh</t>
         </is>
       </c>
       <c r="D16" s="10" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="9" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="F16" s="8" t="n">
-        <v>56.9</v>
+        <v>54.8</v>
       </c>
       <c r="G16" s="9" t="inlineStr">
         <is>
@@ -1110,20 +1110,20 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Seattle-Tacoma-Bellevue</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>Hartford</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="D17" s="10" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E17" s="9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="F17" s="8" t="n">
-        <v>57</v>
+        <v>52.9</v>
       </c>
       <c r="G17" s="9" t="inlineStr">
         <is>
@@ -1141,20 +1141,20 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="D18" s="10" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="9" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F18" s="8" t="n">
-        <v>56.2</v>
+        <v>53.2</v>
       </c>
       <c r="G18" s="9" t="inlineStr">
         <is>
@@ -1172,20 +1172,20 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="D19" s="10" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="9" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="F19" s="8" t="n">
-        <v>54.6</v>
+        <v>52.6</v>
       </c>
       <c r="G19" s="9" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="D20" s="10" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="9" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="F20" s="8" t="n">
-        <v>53.6</v>
+        <v>52.5</v>
       </c>
       <c r="G20" s="9" t="inlineStr">
         <is>
@@ -1234,20 +1234,20 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Denver</t>
         </is>
       </c>
       <c r="D21" s="10" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="9" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="F21" s="8" t="n">
-        <v>54.3</v>
+        <v>52.5</v>
       </c>
       <c r="G21" s="9" t="inlineStr">
         <is>
@@ -1265,20 +1265,20 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="D22" s="10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="F22" s="8" t="n">
-        <v>53</v>
+        <v>51.6</v>
       </c>
       <c r="G22" s="9" t="inlineStr">
         <is>
@@ -1296,16 +1296,16 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>Virginia Beach-Chesapeake-Norfolk</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>Virginia Beach</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="D23" s="10" t="n">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="F23" s="8" t="n">
-        <v>52.4</v>
+        <v>51.9</v>
       </c>
       <c r="G23" s="9" t="inlineStr">
         <is>
@@ -1327,20 +1327,20 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Virginia Beach-Chesapeake-Norfolk</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Virginia Beach</t>
         </is>
       </c>
       <c r="D24" s="10" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="F24" s="8" t="n">
-        <v>50.8</v>
+        <v>52.3</v>
       </c>
       <c r="G24" s="9" t="inlineStr">
         <is>
@@ -1358,16 +1358,16 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>Raleigh-Cary</t>
+          <t>Dallas-Fort Worth-Arlington</t>
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>Raleigh</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="D25" s="10" t="n">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="F25" s="8" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="G25" s="9" t="inlineStr">
         <is>
@@ -1389,20 +1389,20 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Austin</t>
         </is>
       </c>
       <c r="D26" s="10" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="9" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="F26" s="8" t="n">
-        <v>50</v>
+        <v>50.7</v>
       </c>
       <c r="G26" s="9" t="inlineStr">
         <is>
@@ -1420,20 +1420,20 @@
     </row>
     <row r="27">
       <c r="A27" s="11" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Baltimore-Columbia-Towson</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Baltimore</t>
         </is>
       </c>
       <c r="D27" s="13" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F27" s="11" t="n">
-        <v>49.2</v>
+        <v>49.7</v>
       </c>
       <c r="G27" s="12" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="D28" s="13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="F28" s="11" t="n">
-        <v>45.7</v>
+        <v>46.6</v>
       </c>
       <c r="G28" s="12" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="D29" s="13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="12" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="F29" s="11" t="n">
-        <v>46</v>
+        <v>46.8</v>
       </c>
       <c r="G29" s="12" t="inlineStr">
         <is>
@@ -1513,16 +1513,16 @@
     </row>
     <row r="30">
       <c r="A30" s="11" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B30" s="12" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="C30" s="12" t="inlineStr">
         <is>
-          <t>Baltimore</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="D30" s="13" t="n">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="F30" s="11" t="n">
-        <v>46.3</v>
+        <v>46.4</v>
       </c>
       <c r="G30" s="12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="F31" s="11" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="G31" s="12" t="inlineStr">
         <is>
@@ -1575,16 +1575,16 @@
     </row>
     <row r="32">
       <c r="A32" s="11" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B32" s="12" t="inlineStr">
         <is>
-          <t>Minneapolis-St. Paul-Bloomington</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Las Vegas</t>
         </is>
       </c>
       <c r="D32" s="13" t="n">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="F32" s="11" t="n">
-        <v>44.7</v>
+        <v>45.2</v>
       </c>
       <c r="G32" s="12" t="inlineStr">
         <is>
@@ -1606,16 +1606,16 @@
     </row>
     <row r="33">
       <c r="A33" s="11" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="D33" s="13" t="n">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="F33" s="11" t="n">
-        <v>44</v>
+        <v>43.6</v>
       </c>
       <c r="G33" s="12" t="inlineStr">
         <is>
@@ -1637,20 +1637,20 @@
     </row>
     <row r="34">
       <c r="A34" s="11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B34" s="12" t="inlineStr">
         <is>
-          <t>Chicago-Naperville-Elgin</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="C34" s="12" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Washington DC</t>
         </is>
       </c>
       <c r="D34" s="13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="12" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="F34" s="11" t="n">
-        <v>42.9</v>
+        <v>44.1</v>
       </c>
       <c r="G34" s="12" t="inlineStr">
         <is>
@@ -1668,16 +1668,16 @@
     </row>
     <row r="35">
       <c r="A35" s="11" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Chicago-Naperville-Elgin</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D35" s="13" t="n">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="F35" s="11" t="n">
-        <v>41.8</v>
+        <v>42.4</v>
       </c>
       <c r="G35" s="12" t="inlineStr">
         <is>
@@ -1699,82 +1699,82 @@
     </row>
     <row r="36">
       <c r="A36" s="11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B36" s="12" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="C36" s="12" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="D36" s="13" t="n">
+        <v>42</v>
+      </c>
+      <c r="E36" s="12" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F36" s="11" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="G36" s="12" t="inlineStr">
+        <is>
+          <t>Below Average</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>Detroit-Warren-Dearborn</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="D37" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="E36" s="12" t="inlineStr">
+      <c r="E37" s="12" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
       </c>
-      <c r="F36" s="11" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="G36" s="12" t="inlineStr">
+      <c r="F37" s="11" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="G37" s="12" t="inlineStr">
         <is>
           <t>Below Average</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" s="15" t="inlineStr">
-        <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach</t>
-        </is>
-      </c>
-      <c r="C37" s="15" t="inlineStr">
-        <is>
-          <t>Miami</t>
-        </is>
-      </c>
-      <c r="D37" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="E37" s="15" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="F37" s="14" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="G37" s="15" t="inlineStr">
-        <is>
-          <t>Poor</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B38" s="12" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="C38" s="12" t="inlineStr">
         <is>
-          <t>Washington DC</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="D38" s="13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" s="12" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="F38" s="11" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="G38" s="12" t="inlineStr">
         <is>
@@ -1791,52 +1791,52 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="B39" s="12" t="inlineStr">
-        <is>
-          <t>Detroit-Warren-Dearborn</t>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Detroit</t>
-        </is>
-      </c>
-      <c r="D39" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F39" s="11" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="G39" s="12" t="inlineStr">
-        <is>
-          <t>Below Average</t>
+      <c r="A39" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B39" s="15" t="inlineStr">
+        <is>
+          <t>Minneapolis-St. Paul-Bloomington</t>
+        </is>
+      </c>
+      <c r="C39" s="15" t="inlineStr">
+        <is>
+          <t>Minneapolis</t>
+        </is>
+      </c>
+      <c r="D39" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="E39" s="15" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="G39" s="15" t="inlineStr">
+        <is>
+          <t>Poor</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="14" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B40" s="15" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="C40" s="15" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="D40" s="16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>39.4</v>
+        <v>37.8</v>
       </c>
       <c r="G40" s="15" t="inlineStr">
         <is>
@@ -1854,16 +1854,16 @@
     </row>
     <row r="41">
       <c r="A41" s="14" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B41" s="15" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="C41" s="15" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Orlando</t>
         </is>
       </c>
       <c r="D41" s="16" t="n">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="G41" s="15" t="inlineStr">
         <is>
@@ -1885,20 +1885,20 @@
     </row>
     <row r="42">
       <c r="A42" s="14" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B42" s="15" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="C42" s="15" t="inlineStr">
         <is>
-          <t>Riverside</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="D42" s="16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E42" s="15" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>35.3</v>
+        <v>36.1</v>
       </c>
       <c r="G42" s="15" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
     </row>
     <row r="43">
       <c r="A43" s="14" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B43" s="15" t="inlineStr">
         <is>
-          <t>San Antonio-New Braunfels</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="C43" s="15" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Riverside</t>
         </is>
       </c>
       <c r="D43" s="16" t="n">
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="F43" s="14" t="n">
-        <v>34.7</v>
+        <v>35.4</v>
       </c>
       <c r="G43" s="15" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D44" s="16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E44" s="15" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="F44" s="14" t="n">
-        <v>33.7</v>
+        <v>35.1</v>
       </c>
       <c r="G44" s="15" t="inlineStr">
         <is>
@@ -1978,20 +1978,20 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B45" s="15" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>San Antonio-New Braunfels</t>
         </is>
       </c>
       <c r="C45" s="15" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="D45" s="16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E45" s="15" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="F45" s="14" t="n">
-        <v>34</v>
+        <v>35.2</v>
       </c>
       <c r="G45" s="15" t="inlineStr">
         <is>
@@ -2009,16 +2009,16 @@
     </row>
     <row r="46">
       <c r="A46" s="14" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B46" s="15" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="C46" s="15" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="D46" s="16" t="n">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F46" s="14" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="G46" s="15" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="D47" s="16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E47" s="15" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="F47" s="14" t="n">
-        <v>32.3</v>
+        <v>33.8</v>
       </c>
       <c r="G47" s="15" t="inlineStr">
         <is>
@@ -2084,50 +2084,50 @@
         </is>
       </c>
       <c r="D48" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="E48" s="15" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="F48" s="14" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="G48" s="15" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" s="15" t="inlineStr">
+        <is>
+          <t>Los Angeles-Long Beach-Anaheim</t>
+        </is>
+      </c>
+      <c r="C49" s="15" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="D49" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="E48" s="15" t="inlineStr">
+      <c r="E49" s="15" t="inlineStr">
         <is>
           <t>C+</t>
         </is>
       </c>
-      <c r="F48" s="14" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="G48" s="15" t="inlineStr">
+      <c r="F49" s="14" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="G49" s="15" t="inlineStr">
         <is>
           <t>Poor</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" s="18" t="inlineStr">
-        <is>
-          <t>Los Angeles-Long Beach-Anaheim</t>
-        </is>
-      </c>
-      <c r="C49" s="18" t="inlineStr">
-        <is>
-          <t>Los Angeles</t>
-        </is>
-      </c>
-      <c r="D49" s="19" t="n">
-        <v>30</v>
-      </c>
-      <c r="E49" s="18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F49" s="17" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G49" s="18" t="inlineStr">
-        <is>
-          <t>Very Poor</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="F50" s="17" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="G50" s="18" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F51" s="17" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="G51" s="18" t="inlineStr">
         <is>
@@ -2301,81 +2301,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Indianapolis-Carmel-Greenwood</t>
         </is>
       </c>
       <c r="B2" s="20" t="n">
+        <v>70</v>
+      </c>
+      <c r="C2" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="D2" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="E2" s="21" t="n">
         <v>72</v>
       </c>
-      <c r="C2" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="E2" s="21" t="n">
+      <c r="F2" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="G2" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="H2" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" s="22" t="n">
         <v>46</v>
       </c>
-      <c r="F2" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="G2" s="23" t="n">
-        <v>72</v>
-      </c>
-      <c r="H2" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="I2" s="23" t="n">
-        <v>84</v>
-      </c>
-      <c r="J2" s="23" t="n">
-        <v>90</v>
-      </c>
-      <c r="K2" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="L2" s="23" t="n">
-        <v>76</v>
+      <c r="J2" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="K2" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="L2" s="22" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indianapolis-Carmel-Greenwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B3" s="20" t="n">
         <v>68</v>
       </c>
-      <c r="C3" s="23" t="n">
-        <v>92</v>
-      </c>
-      <c r="D3" s="23" t="n">
+      <c r="C3" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="E3" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="F3" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="G3" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="H3" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="I3" s="21" t="n">
         <v>76</v>
       </c>
-      <c r="E3" s="23" t="n">
-        <v>72</v>
-      </c>
-      <c r="F3" s="23" t="n">
+      <c r="J3" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="K3" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="L3" s="21" t="n">
         <v>74</v>
-      </c>
-      <c r="G3" s="23" t="n">
-        <v>84</v>
-      </c>
-      <c r="H3" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" s="21" t="n">
-        <v>46</v>
-      </c>
-      <c r="J3" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="K3" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="L3" s="22" t="n">
-        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -2385,277 +2385,277 @@
         </is>
       </c>
       <c r="B4" s="20" t="n">
-        <v>68</v>
-      </c>
-      <c r="C4" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="E4" s="23" t="n">
         <v>62</v>
       </c>
-      <c r="D4" s="23" t="n">
-        <v>70</v>
-      </c>
-      <c r="E4" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="F4" s="22" t="n">
+      <c r="F4" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="G4" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="G4" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="21" t="n">
         <v>96</v>
       </c>
-      <c r="I4" s="23" t="n">
+      <c r="I4" s="21" t="n">
         <v>86</v>
       </c>
-      <c r="J4" s="22" t="n">
+      <c r="J4" s="23" t="n">
         <v>66</v>
       </c>
-      <c r="K4" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="L4" s="22" t="n">
+      <c r="K4" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="L4" s="23" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="B5" s="20" t="n">
-        <v>65</v>
-      </c>
-      <c r="C5" s="23" t="n">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="C5" s="21" t="n">
+        <v>90</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="F5" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="G5" s="21" t="n">
         <v>92</v>
       </c>
-      <c r="G5" s="21" t="n">
-        <v>22</v>
-      </c>
-      <c r="H5" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="I5" s="21" t="n">
-        <v>10</v>
+      <c r="H5" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="I5" s="22" t="n">
+        <v>40</v>
       </c>
       <c r="J5" s="23" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="K5" s="23" t="n">
-        <v>90</v>
-      </c>
-      <c r="L5" s="23" t="n">
-        <v>98</v>
+        <v>62</v>
+      </c>
+      <c r="L5" s="22" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="B6" s="20" t="n">
         <v>64</v>
       </c>
-      <c r="C6" s="22" t="n">
-        <v>68</v>
+      <c r="C6" s="21" t="n">
+        <v>76</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="F6" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="E6" s="22" t="n">
         <v>48</v>
       </c>
-      <c r="G6" s="22" t="n">
-        <v>68</v>
+      <c r="F6" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <v>98</v>
       </c>
       <c r="H6" s="21" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J6" s="23" t="n">
-        <v>88</v>
-      </c>
-      <c r="K6" s="23" t="n">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="K6" s="22" t="n">
+        <v>36</v>
       </c>
       <c r="L6" s="22" t="n">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="B7" s="20" t="n">
-        <v>63</v>
-      </c>
-      <c r="C7" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="D7" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="K7" s="21" t="n">
         <v>94</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="L7" s="22" t="n">
         <v>48</v>
-      </c>
-      <c r="F7" s="21" t="n">
-        <v>32</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>98</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <v>90</v>
-      </c>
-      <c r="I7" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J7" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="K7" s="21" t="n">
-        <v>36</v>
-      </c>
-      <c r="L7" s="21" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="B8" s="20" t="n">
-        <v>61</v>
-      </c>
-      <c r="C8" s="23" t="n">
+        <v>63</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="E8" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="F8" s="21" t="n">
         <v>90</v>
       </c>
-      <c r="D8" s="23" t="n">
-        <v>98</v>
-      </c>
-      <c r="E8" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>92</v>
+      <c r="G8" s="22" t="n">
+        <v>22</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="I8" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="J8" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="K8" s="22" t="n">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="I8" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>90</v>
       </c>
       <c r="L8" s="21" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="B9" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="23" t="n">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <v>86</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="E9" s="21" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" s="23" t="n">
-        <v>96</v>
-      </c>
-      <c r="G9" s="21" t="n">
-        <v>46</v>
-      </c>
-      <c r="H9" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" s="21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J9" s="23" t="n">
-        <v>86</v>
-      </c>
-      <c r="K9" s="23" t="n">
-        <v>92</v>
-      </c>
-      <c r="L9" s="22" t="n">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="L9" s="21" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="B10" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="22" t="n">
         <v>62</v>
       </c>
-      <c r="D10" s="21" t="n">
-        <v>34</v>
+      <c r="C10" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>56</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="F10" s="23" t="n">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>74</v>
       </c>
       <c r="G10" s="21" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="I10" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="J10" s="23" t="n">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="I10" s="22" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" s="22" t="n">
+        <v>18</v>
       </c>
       <c r="K10" s="23" t="n">
-        <v>84</v>
-      </c>
-      <c r="L10" s="23" t="n">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="L10" s="22" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -2667,355 +2667,355 @@
       <c r="B11" s="20" t="n">
         <v>60</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="23" t="n">
         <v>68</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="21" t="n">
         <v>82</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="21" t="n">
         <v>84</v>
       </c>
-      <c r="F11" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="G11" s="21" t="n">
+      <c r="F11" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="G11" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="21" t="n">
+      <c r="H11" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="I11" s="21" t="n">
+      <c r="I11" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="23" t="n">
+      <c r="J11" s="21" t="n">
         <v>82</v>
       </c>
-      <c r="K11" s="23" t="n">
-        <v>74</v>
+      <c r="K11" s="21" t="n">
+        <v>76</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="B12" s="20" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="23" t="n">
-        <v>98</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="F12" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="G12" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="H12" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="D12" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="G12" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="J12" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="K12" s="21" t="n">
         <v>92</v>
       </c>
-      <c r="I12" s="23" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="K12" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="L12" s="21" t="n">
-        <v>18</v>
+      <c r="L12" s="22" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="B13" s="20" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="G13" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="H13" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="K13" s="21" t="n">
+        <v>82</v>
+      </c>
+      <c r="L13" s="21" t="n">
         <v>74</v>
-      </c>
-      <c r="D13" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="E13" s="23" t="n">
-        <v>96</v>
-      </c>
-      <c r="F13" s="23" t="n">
-        <v>72</v>
-      </c>
-      <c r="G13" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <v>44</v>
-      </c>
-      <c r="I13" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" s="23" t="n">
-        <v>76</v>
-      </c>
-      <c r="K13" s="23" t="n">
-        <v>88</v>
-      </c>
-      <c r="L13" s="21" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="B14" s="20" t="n">
+        <v>57</v>
+      </c>
+      <c r="C14" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="D14" s="23" t="n">
         <v>58</v>
       </c>
-      <c r="C14" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="D14" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="E14" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="F14" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="G14" s="23" t="n">
-        <v>90</v>
+      <c r="E14" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="22" t="n">
+        <v>32</v>
       </c>
       <c r="H14" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="I14" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J14" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="K14" s="21" t="n">
         <v>44</v>
       </c>
-      <c r="L14" s="22" t="n">
-        <v>60</v>
+      <c r="I14" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="K14" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="L14" s="21" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Providence-Warwick</t>
         </is>
       </c>
       <c r="B15" s="20" t="n">
-        <v>58</v>
-      </c>
-      <c r="C15" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="D15" s="21" t="n">
+        <v>55</v>
+      </c>
+      <c r="C15" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="E15" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="F15" s="23" t="n">
-        <v>90</v>
-      </c>
-      <c r="G15" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>22</v>
-      </c>
-      <c r="I15" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="J15" s="23" t="n">
+      <c r="D15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>82</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="H15" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="K15" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="L15" s="21" t="n">
         <v>78</v>
-      </c>
-      <c r="K15" s="23" t="n">
-        <v>86</v>
-      </c>
-      <c r="L15" s="23" t="n">
-        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Providence-Warwick</t>
+          <t>Raleigh-Cary</t>
         </is>
       </c>
       <c r="B16" s="20" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="21" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22" t="n">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E16" s="23" t="n">
+        <v>58</v>
       </c>
       <c r="F16" s="23" t="n">
-        <v>82</v>
-      </c>
-      <c r="G16" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="I16" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="G16" s="21" t="n">
         <v>96</v>
       </c>
+      <c r="H16" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="22" t="n">
+        <v>14</v>
+      </c>
       <c r="J16" s="23" t="n">
-        <v>96</v>
-      </c>
-      <c r="K16" s="23" t="n">
-        <v>96</v>
-      </c>
-      <c r="L16" s="23" t="n">
-        <v>92</v>
+        <v>58</v>
+      </c>
+      <c r="K16" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="L16" s="22" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Seattle-Tacoma-Bellevue</t>
         </is>
       </c>
       <c r="B17" s="20" t="n">
-        <v>57</v>
-      </c>
-      <c r="C17" s="23" t="n">
-        <v>96</v>
-      </c>
-      <c r="D17" s="22" t="n">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>84</v>
       </c>
       <c r="E17" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" s="21" t="n">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>30</v>
       </c>
       <c r="G17" s="21" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="H17" s="21" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="I17" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="J17" s="23" t="n">
-        <v>98</v>
-      </c>
-      <c r="K17" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="L17" s="23" t="n">
-        <v>92</v>
+        <v>64</v>
+      </c>
+      <c r="J17" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K17" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="L17" s="22" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="B18" s="20" t="n">
-        <v>56</v>
-      </c>
-      <c r="C18" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="D18" s="21" t="n">
-        <v>46</v>
-      </c>
-      <c r="E18" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="F18" s="23" t="n">
-        <v>70</v>
-      </c>
-      <c r="G18" s="23" t="n">
-        <v>82</v>
-      </c>
-      <c r="H18" s="23" t="n">
-        <v>72</v>
-      </c>
-      <c r="I18" s="21" t="n">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="G18" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="I18" s="22" t="n">
+        <v>20</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>18</v>
-      </c>
-      <c r="K18" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="L18" s="21" t="n">
-        <v>38</v>
+        <v>76</v>
+      </c>
+      <c r="K18" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="L18" s="22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B19" s="20" t="n">
-        <v>55</v>
-      </c>
-      <c r="C19" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="D19" s="23" t="n">
+        <v>53</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H19" s="21" t="n">
         <v>92</v>
       </c>
-      <c r="E19" s="23" t="n">
-        <v>80</v>
-      </c>
-      <c r="F19" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="G19" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="H19" s="21" t="n">
-        <v>26</v>
-      </c>
-      <c r="I19" s="23" t="n">
-        <v>72</v>
-      </c>
-      <c r="J19" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="K19" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="L19" s="21" t="n">
-        <v>12</v>
+      <c r="I19" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="J19" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="K19" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="L19" s="22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -3025,317 +3025,317 @@
         </is>
       </c>
       <c r="B20" s="20" t="n">
-        <v>54</v>
-      </c>
-      <c r="C20" s="21" t="n">
+        <v>52</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="D20" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="D20" s="21" t="n">
-        <v>44</v>
-      </c>
-      <c r="E20" s="21" t="n">
+      <c r="E20" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="F20" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="G20" s="23" t="n">
+      <c r="F20" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="G20" s="21" t="n">
         <v>86</v>
       </c>
-      <c r="H20" s="23" t="n">
+      <c r="H20" s="21" t="n">
         <v>80</v>
       </c>
-      <c r="I20" s="22" t="n">
+      <c r="I20" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="J20" s="23" t="n">
+      <c r="J20" s="21" t="n">
         <v>70</v>
       </c>
-      <c r="K20" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="L20" s="22" t="n">
-        <v>68</v>
+      <c r="K20" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="L20" s="23" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="B21" s="20" t="n">
-        <v>54</v>
-      </c>
-      <c r="C21" s="21" t="n">
+        <v>52</v>
+      </c>
+      <c r="C21" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="E21" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="G21" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="J21" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="D21" s="23" t="n">
-        <v>86</v>
-      </c>
-      <c r="E21" s="23" t="n">
-        <v>92</v>
-      </c>
-      <c r="F21" s="21" t="n">
-        <v>26</v>
-      </c>
-      <c r="G21" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="H21" s="23" t="n">
-        <v>76</v>
-      </c>
-      <c r="I21" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="J21" s="21" t="n">
-        <v>16</v>
-      </c>
       <c r="K21" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="L21" s="21" t="n">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="L21" s="22" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="B22" s="20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="23" t="n">
-        <v>88</v>
-      </c>
-      <c r="D22" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="24" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="D22" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="E22" s="22" t="n">
+        <v>20</v>
       </c>
       <c r="F22" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="H22" s="22" t="n">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="G22" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="H22" s="23" t="n">
+        <v>64</v>
       </c>
       <c r="I22" s="23" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>36</v>
-      </c>
-      <c r="K22" s="23" t="n">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="K22" s="22" t="n">
+        <v>48</v>
       </c>
       <c r="L22" s="23" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Virginia Beach-Chesapeake-Norfolk</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="B23" s="20" t="n">
         <v>52</v>
       </c>
       <c r="C23" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="D23" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="23" t="n">
+        <v>76</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="H23" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="I23" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="J23" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="K23" s="21" t="n">
         <v>98</v>
       </c>
-      <c r="F23" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="G23" s="21" t="n">
-        <v>36</v>
-      </c>
-      <c r="H23" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="I23" s="21" t="n">
-        <v>38</v>
-      </c>
-      <c r="J23" s="23" t="n">
-        <v>84</v>
-      </c>
-      <c r="K23" s="23" t="n">
-        <v>82</v>
-      </c>
-      <c r="L23" s="23" t="n">
+      <c r="L23" s="21" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Virginia Beach-Chesapeake-Norfolk</t>
         </is>
       </c>
       <c r="B24" s="20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="23" t="n">
-        <v>86</v>
-      </c>
-      <c r="D24" s="23" t="n">
-        <v>96</v>
-      </c>
-      <c r="E24" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="F24" s="22" t="n">
-        <v>62</v>
+      <c r="D24" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="F24" s="21" t="n">
+        <v>70</v>
       </c>
       <c r="G24" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="H24" s="23" t="n">
+        <v>36</v>
+      </c>
+      <c r="H24" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="I24" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J24" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="K24" s="21" t="n">
         <v>80</v>
       </c>
-      <c r="I24" s="21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="24" t="n">
-        <v>0</v>
+      <c r="L24" s="21" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Raleigh-Cary</t>
+          <t>Dallas-Fort Worth-Arlington</t>
         </is>
       </c>
       <c r="B25" s="20" t="n">
         <v>51</v>
       </c>
       <c r="C25" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="D25" s="23" t="n">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="D25" s="21" t="n">
+        <v>90</v>
       </c>
       <c r="E25" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="F25" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="G25" s="23" t="n">
-        <v>96</v>
+        <v>44</v>
+      </c>
+      <c r="F25" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="G25" s="22" t="n">
+        <v>42</v>
       </c>
       <c r="H25" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="I25" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="J25" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="I25" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="K25" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="L25" s="21" t="n">
-        <v>20</v>
+      <c r="K25" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="L25" s="22" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="B26" s="20" t="n">
+        <v>51</v>
+      </c>
+      <c r="C26" s="21" t="n">
+        <v>84</v>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="C26" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="D26" s="23" t="n">
-        <v>90</v>
-      </c>
-      <c r="E26" s="21" t="n">
-        <v>44</v>
-      </c>
-      <c r="F26" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="G26" s="21" t="n">
-        <v>42</v>
-      </c>
-      <c r="H26" s="23" t="n">
-        <v>92</v>
-      </c>
-      <c r="I26" s="21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J26" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" s="21" t="n">
-        <v>34</v>
-      </c>
-      <c r="L26" s="21" t="n">
-        <v>28</v>
+      <c r="F26" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="G26" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="H26" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="I26" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Baltimore-Columbia-Towson</t>
         </is>
       </c>
       <c r="B27" s="20" t="n">
-        <v>49</v>
-      </c>
-      <c r="C27" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="D27" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="E27" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="F27" s="21" t="n">
         <v>84</v>
       </c>
-      <c r="E27" s="21" t="n">
-        <v>26</v>
-      </c>
-      <c r="F27" s="21" t="n">
-        <v>16</v>
-      </c>
       <c r="G27" s="23" t="n">
-        <v>76</v>
-      </c>
-      <c r="H27" s="21" t="n">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="H27" s="22" t="n">
+        <v>20</v>
       </c>
       <c r="I27" s="22" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="J27" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="K27" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="L27" s="22" t="n">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="K27" s="21" t="n">
+        <v>72</v>
+      </c>
+      <c r="L27" s="21" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -3345,37 +3345,37 @@
         </is>
       </c>
       <c r="B28" s="20" t="n">
-        <v>46</v>
-      </c>
-      <c r="C28" s="21" t="n">
+        <v>47</v>
+      </c>
+      <c r="C28" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="E28" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="F28" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="G28" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>98</v>
+      </c>
+      <c r="I28" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="D28" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="E28" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="F28" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="G28" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H28" s="23" t="n">
-        <v>98</v>
-      </c>
-      <c r="I28" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="J28" s="22" t="n">
+      <c r="J28" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="K28" s="21" t="n">
-        <v>22</v>
-      </c>
-      <c r="L28" s="22" t="n">
-        <v>54</v>
+      <c r="K28" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="L28" s="23" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -3385,77 +3385,77 @@
         </is>
       </c>
       <c r="B29" s="20" t="n">
-        <v>46</v>
-      </c>
-      <c r="C29" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="D29" s="23" t="n">
-        <v>72</v>
-      </c>
-      <c r="E29" s="22" t="n">
+        <v>47</v>
+      </c>
+      <c r="C29" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="D29" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="E29" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="F29" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="G29" s="23" t="n">
+      <c r="F29" s="22" t="n">
+        <v>42</v>
+      </c>
+      <c r="G29" s="21" t="n">
         <v>88</v>
       </c>
-      <c r="H29" s="22" t="n">
+      <c r="H29" s="23" t="n">
         <v>58</v>
       </c>
-      <c r="I29" s="21" t="n">
+      <c r="I29" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="J29" s="21" t="n">
+      <c r="J29" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="K29" s="21" t="n">
+      <c r="K29" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="L29" s="21" t="n">
-        <v>38</v>
+      <c r="L29" s="22" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="B30" s="20" t="n">
         <v>46</v>
       </c>
-      <c r="C30" s="21" t="n">
-        <v>24</v>
-      </c>
-      <c r="D30" s="22" t="n">
-        <v>50</v>
-      </c>
-      <c r="E30" s="21" t="n">
-        <v>22</v>
-      </c>
-      <c r="F30" s="23" t="n">
-        <v>84</v>
-      </c>
-      <c r="G30" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="H30" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="I30" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" s="23" t="n">
-        <v>72</v>
+      <c r="C30" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="D30" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="E30" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="F30" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="H30" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="J30" s="22" t="n">
+        <v>30</v>
       </c>
       <c r="K30" s="23" t="n">
-        <v>76</v>
-      </c>
-      <c r="L30" s="23" t="n">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="L30" s="21" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -3467,515 +3467,515 @@
       <c r="B31" s="20" t="n">
         <v>46</v>
       </c>
-      <c r="C31" s="21" t="n">
-        <v>38</v>
-      </c>
-      <c r="D31" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="E31" s="21" t="n">
+      <c r="C31" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="F31" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" s="21" t="n">
+      <c r="F31" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="H31" s="23" t="n">
+      <c r="H31" s="21" t="n">
         <v>74</v>
       </c>
-      <c r="I31" s="23" t="n">
+      <c r="I31" s="21" t="n">
         <v>98</v>
       </c>
-      <c r="J31" s="22" t="n">
+      <c r="J31" s="23" t="n">
         <v>62</v>
       </c>
-      <c r="K31" s="21" t="n">
-        <v>24</v>
-      </c>
-      <c r="L31" s="23" t="n">
-        <v>78</v>
+      <c r="K31" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="L31" s="21" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Minneapolis-St. Paul-Bloomington</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="B32" s="20" t="n">
         <v>45</v>
       </c>
       <c r="C32" s="22" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D32" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="E32" s="21" t="n">
+        <v>82</v>
+      </c>
+      <c r="F32" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="G32" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="H32" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="I32" s="21" t="n">
         <v>88</v>
       </c>
-      <c r="E32" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="F32" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G32" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="H32" s="21" t="n">
-        <v>22</v>
-      </c>
-      <c r="I32" s="21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J32" s="21" t="n">
-        <v>32</v>
-      </c>
-      <c r="K32" s="21" t="n">
-        <v>46</v>
+      <c r="J32" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="K32" s="22" t="n">
+        <v>28</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
       <c r="B33" s="20" t="n">
         <v>44</v>
       </c>
-      <c r="C33" s="21" t="n">
+      <c r="C33" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="D33" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="E33" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="F33" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="G33" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="H33" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="I33" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="J33" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="K33" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="L33" s="22" t="n">
         <v>2</v>
-      </c>
-      <c r="D33" s="22" t="n">
-        <v>62</v>
-      </c>
-      <c r="E33" s="23" t="n">
-        <v>82</v>
-      </c>
-      <c r="F33" s="21" t="n">
-        <v>38</v>
-      </c>
-      <c r="G33" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="H33" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="I33" s="23" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="K33" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="L33" s="21" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chicago-Naperville-Elgin</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="B34" s="20" t="n">
-        <v>43</v>
-      </c>
-      <c r="C34" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="D34" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="E34" s="21" t="n">
-        <v>42</v>
-      </c>
-      <c r="F34" s="21" t="n">
-        <v>42</v>
-      </c>
-      <c r="G34" s="21" t="n">
         <v>44</v>
       </c>
-      <c r="H34" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="I34" s="21" t="n">
-        <v>22</v>
-      </c>
-      <c r="J34" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="K34" s="23" t="n">
-        <v>70</v>
-      </c>
-      <c r="L34" s="23" t="n">
+      <c r="C34" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="D34" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="E34" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="F34" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="H34" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="I34" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="J34" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" s="21" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Chicago-Naperville-Elgin</t>
         </is>
       </c>
       <c r="B35" s="20" t="n">
         <v>42</v>
       </c>
-      <c r="C35" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="D35" s="21" t="n">
-        <v>6</v>
+      <c r="C35" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" s="23" t="n">
+        <v>60</v>
       </c>
       <c r="E35" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="F35" s="21" t="n">
-        <v>34</v>
-      </c>
-      <c r="G35" s="23" t="n">
+        <v>42</v>
+      </c>
+      <c r="F35" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="G35" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="H35" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="I35" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J35" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="K35" s="21" t="n">
         <v>74</v>
       </c>
-      <c r="H35" s="23" t="n">
-        <v>76</v>
-      </c>
-      <c r="I35" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="J35" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" s="23" t="n">
+      <c r="L35" s="21" t="n">
         <v>72</v>
-      </c>
-      <c r="L35" s="21" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="B36" s="20" t="n">
-        <v>41</v>
-      </c>
-      <c r="C36" s="21" t="n">
         <v>42</v>
       </c>
+      <c r="C36" s="22" t="n">
+        <v>16</v>
+      </c>
       <c r="D36" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="E36" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="F36" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="G36" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H36" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="I36" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="J36" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="23" t="n">
-        <v>86</v>
-      </c>
-      <c r="G36" s="23" t="n">
-        <v>94</v>
-      </c>
-      <c r="H36" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="I36" s="21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" s="21" t="n">
-        <v>22</v>
-      </c>
-      <c r="K36" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="L36" s="21" t="n">
-        <v>20</v>
+      <c r="K36" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="L36" s="22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach</t>
+          <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
       <c r="B37" s="20" t="n">
+        <v>41</v>
+      </c>
+      <c r="C37" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D37" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="E37" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="G37" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="H37" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="I37" s="21" t="n">
+        <v>74</v>
+      </c>
+      <c r="J37" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="C37" s="21" t="n">
-        <v>46</v>
-      </c>
-      <c r="D37" s="21" t="n">
-        <v>24</v>
-      </c>
-      <c r="E37" s="23" t="n">
-        <v>86</v>
-      </c>
-      <c r="F37" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="G37" s="21" t="n">
-        <v>24</v>
-      </c>
-      <c r="H37" s="23" t="n">
-        <v>88</v>
-      </c>
-      <c r="I37" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="J37" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="K37" s="21" t="n">
-        <v>18</v>
-      </c>
-      <c r="L37" s="21" t="n">
-        <v>2</v>
+      <c r="K37" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="L37" s="23" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="B38" s="20" t="n">
-        <v>40</v>
-      </c>
-      <c r="C38" s="21" t="n">
+        <v>41</v>
+      </c>
+      <c r="C38" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="E38" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="F38" s="22" t="n">
+        <v>46</v>
+      </c>
+      <c r="G38" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="D38" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="E38" s="21" t="n">
-        <v>24</v>
-      </c>
-      <c r="F38" s="21" t="n">
+      <c r="I38" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="J38" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="K38" s="22" t="n">
         <v>46</v>
       </c>
-      <c r="G38" s="21" t="n">
-        <v>38</v>
-      </c>
-      <c r="H38" s="22" t="n">
-        <v>68</v>
-      </c>
-      <c r="I38" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J38" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="K38" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="L38" s="22" t="n">
-        <v>68</v>
+      <c r="L38" s="23" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Minneapolis-St. Paul-Bloomington</t>
         </is>
       </c>
       <c r="B39" s="20" t="n">
-        <v>40</v>
-      </c>
-      <c r="C39" s="21" t="n">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="C39" s="22" t="n">
+        <v>34</v>
       </c>
       <c r="D39" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E39" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="H39" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="E39" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F39" s="23" t="n">
-        <v>78</v>
-      </c>
-      <c r="G39" s="21" t="n">
-        <v>26</v>
-      </c>
-      <c r="H39" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="I39" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="J39" s="21" t="n">
-        <v>40</v>
+      <c r="I39" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="J39" s="22" t="n">
+        <v>32</v>
       </c>
       <c r="K39" s="22" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L39" s="23" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="B40" s="20" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="E40" s="23" t="n">
-        <v>90</v>
-      </c>
-      <c r="F40" s="21" t="n">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C40" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="D40" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="E40" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="22" t="n">
+        <v>40</v>
       </c>
       <c r="G40" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H40" s="21" t="n">
+        <v>94</v>
+      </c>
+      <c r="H40" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="I40" s="23" t="n">
-        <v>92</v>
+      <c r="I40" s="22" t="n">
+        <v>16</v>
       </c>
       <c r="J40" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="K40" s="21" t="n">
-        <v>42</v>
-      </c>
-      <c r="L40" s="21" t="n">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="K40" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="L40" s="22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="B41" s="20" t="n">
         <v>36</v>
       </c>
-      <c r="C41" s="21" t="n">
-        <v>18</v>
-      </c>
-      <c r="D41" s="23" t="n">
-        <v>74</v>
+      <c r="C41" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="D41" s="22" t="n">
+        <v>44</v>
       </c>
       <c r="E41" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F41" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="G41" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="H41" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="I41" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="J41" s="23" t="n">
         <v>64</v>
       </c>
-      <c r="F41" s="21" t="n">
-        <v>36</v>
-      </c>
-      <c r="G41" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="H41" s="21" t="n">
-        <v>44</v>
-      </c>
-      <c r="I41" s="21" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="K41" s="21" t="n">
-        <v>32</v>
-      </c>
-      <c r="L41" s="21" t="n">
+      <c r="K41" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L41" s="22" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="B42" s="20" t="n">
-        <v>35</v>
-      </c>
-      <c r="C42" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D42" s="21" t="n">
-        <v>18</v>
-      </c>
-      <c r="E42" s="23" t="n">
-        <v>88</v>
-      </c>
-      <c r="F42" s="21" t="n">
-        <v>22</v>
-      </c>
-      <c r="G42" s="21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C42" s="22" t="n">
         <v>16</v>
       </c>
+      <c r="D42" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="E42" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="F42" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="G42" s="22" t="n">
+        <v>40</v>
+      </c>
       <c r="H42" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="I42" s="21" t="n">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="I42" s="22" t="n">
+        <v>48</v>
       </c>
       <c r="J42" s="22" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K42" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="L42" s="21" t="n">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="L42" s="22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>San Antonio-New Braunfels</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="B43" s="20" t="n">
         <v>35</v>
       </c>
-      <c r="C43" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="D43" s="21" t="n">
+      <c r="C43" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="E43" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="F43" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="G43" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="H43" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="I43" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="J43" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="K43" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="L43" s="22" t="n">
         <v>30</v>
-      </c>
-      <c r="E43" s="21" t="n">
-        <v>32</v>
-      </c>
-      <c r="F43" s="22" t="n">
-        <v>54</v>
-      </c>
-      <c r="G43" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="H43" s="23" t="n">
-        <v>86</v>
-      </c>
-      <c r="I43" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="21" t="n">
-        <v>38</v>
-      </c>
-      <c r="K43" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="L43" s="21" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -3985,116 +3985,116 @@
         </is>
       </c>
       <c r="B44" s="20" t="n">
+        <v>35</v>
+      </c>
+      <c r="C44" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="D44" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="E44" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="G44" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="C44" s="21" t="n">
-        <v>34</v>
-      </c>
-      <c r="D44" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="E44" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="F44" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="G44" s="21" t="n">
-        <v>34</v>
-      </c>
-      <c r="H44" s="21" t="n">
+      <c r="H44" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="I44" s="22" t="n">
+      <c r="I44" s="23" t="n">
         <v>66</v>
       </c>
-      <c r="J44" s="21" t="n">
+      <c r="J44" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="K44" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L44" s="22" t="n">
-        <v>58</v>
+      <c r="K44" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L44" s="21" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>San Antonio-New Braunfels</t>
         </is>
       </c>
       <c r="B45" s="20" t="n">
-        <v>34</v>
-      </c>
-      <c r="C45" s="21" t="n">
-        <v>18</v>
-      </c>
-      <c r="D45" s="21" t="n">
+        <v>35</v>
+      </c>
+      <c r="C45" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="D45" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="E45" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="F45" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="G45" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="H45" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="I45" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="22" t="n">
         <v>38</v>
       </c>
-      <c r="E45" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="F45" s="21" t="n">
-        <v>24</v>
-      </c>
-      <c r="G45" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="H45" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="I45" s="22" t="n">
-        <v>60</v>
-      </c>
-      <c r="J45" s="22" t="n">
-        <v>64</v>
-      </c>
-      <c r="K45" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="L45" s="21" t="n">
-        <v>6</v>
+      <c r="K45" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="L45" s="22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="B46" s="20" t="n">
         <v>34</v>
       </c>
-      <c r="C46" s="21" t="n">
+      <c r="C46" s="22" t="n">
         <v>8</v>
       </c>
       <c r="D46" s="21" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E46" s="23" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F46" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="G46" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="H46" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="I46" s="21" t="n">
-        <v>48</v>
-      </c>
-      <c r="J46" s="21" t="n">
-        <v>46</v>
-      </c>
-      <c r="K46" s="21" t="n">
-        <v>16</v>
-      </c>
-      <c r="L46" s="21" t="n">
+        <v>38</v>
+      </c>
+      <c r="G46" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="H46" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="I46" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="K46" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="L46" s="22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4105,36 +4105,36 @@
         </is>
       </c>
       <c r="B47" s="20" t="n">
-        <v>32</v>
-      </c>
-      <c r="C47" s="21" t="n">
         <v>34</v>
       </c>
-      <c r="D47" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" s="23" t="n">
+      <c r="C47" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="D47" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="E47" s="21" t="n">
         <v>78</v>
       </c>
-      <c r="F47" s="23" t="n">
-        <v>76</v>
-      </c>
-      <c r="G47" s="21" t="n">
+      <c r="F47" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="G47" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="H47" s="21" t="n">
+      <c r="H47" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="I47" s="21" t="n">
+      <c r="I47" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="J47" s="21" t="n">
+      <c r="J47" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="K47" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="L47" s="21" t="n">
+      <c r="K47" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" s="22" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4145,37 +4145,37 @@
         </is>
       </c>
       <c r="B48" s="20" t="n">
-        <v>31</v>
-      </c>
-      <c r="C48" s="21" t="n">
+        <v>32</v>
+      </c>
+      <c r="C48" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D48" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="E48" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="F48" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="D48" s="21" t="n">
-        <v>36</v>
-      </c>
-      <c r="E48" s="22" t="n">
-        <v>66</v>
-      </c>
-      <c r="F48" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="G48" s="22" t="n">
+      <c r="G48" s="23" t="n">
         <v>64</v>
       </c>
-      <c r="H48" s="21" t="n">
+      <c r="H48" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="I48" s="21" t="n">
+      <c r="I48" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="J48" s="21" t="n">
+      <c r="J48" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="K48" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="L48" s="21" t="n">
-        <v>28</v>
+      <c r="K48" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L48" s="22" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="49">
@@ -4185,37 +4185,37 @@
         </is>
       </c>
       <c r="B49" s="20" t="n">
+        <v>31</v>
+      </c>
+      <c r="C49" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="E49" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="F49" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G49" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H49" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="J49" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="K49" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="C49" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="D49" s="21" t="n">
-        <v>42</v>
-      </c>
-      <c r="E49" s="23" t="n">
-        <v>76</v>
-      </c>
-      <c r="F49" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="G49" s="21" t="n">
-        <v>8</v>
-      </c>
-      <c r="H49" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I49" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="J49" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="K49" s="21" t="n">
-        <v>28</v>
-      </c>
-      <c r="L49" s="21" t="n">
-        <v>46</v>
+      <c r="L49" s="23" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -4227,35 +4227,35 @@
       <c r="B50" s="20" t="n">
         <v>27</v>
       </c>
-      <c r="C50" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="D50" s="21" t="n">
-        <v>12</v>
-      </c>
-      <c r="E50" s="21" t="n">
+      <c r="C50" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" s="22" t="n">
         <v>38</v>
       </c>
-      <c r="F50" s="21" t="n">
-        <v>18</v>
+      <c r="F50" s="22" t="n">
+        <v>20</v>
       </c>
       <c r="G50" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="H50" s="21" t="n">
+      <c r="H50" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="I50" s="23" t="n">
+      <c r="I50" s="21" t="n">
         <v>82</v>
       </c>
-      <c r="J50" s="21" t="n">
+      <c r="J50" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="K50" s="21" t="n">
-        <v>36</v>
-      </c>
-      <c r="L50" s="21" t="n">
-        <v>44</v>
+      <c r="K50" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="L50" s="23" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="51">
@@ -4267,35 +4267,35 @@
       <c r="B51" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="C51" s="21" t="n">
+      <c r="C51" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="D51" s="21" t="n">
-        <v>26</v>
-      </c>
-      <c r="E51" s="21" t="n">
+      <c r="D51" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="E51" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="F51" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="G51" s="21" t="n">
+      <c r="F51" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G51" s="22" t="n">
         <v>18</v>
       </c>
       <c r="H51" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="I51" s="21" t="n">
+      <c r="I51" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="J51" s="21" t="n">
+      <c r="J51" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="K51" s="21" t="n">
-        <v>14</v>
-      </c>
-      <c r="L51" s="23" t="n">
-        <v>74</v>
+      <c r="K51" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="L51" s="21" t="n">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4396,49 +4396,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Indianapolis-Carmel-Greenwood</t>
         </is>
       </c>
       <c r="B2" s="25" t="inlineStr">
         <is>
-          <t>72 (A-)</t>
+          <t>70 (A-)</t>
         </is>
       </c>
       <c r="C2" s="24" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D2" s="24" t="n">
-        <v>65.45999999999999</v>
+        <v>66.86</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>3.13</v>
+        <v>5.1</v>
       </c>
       <c r="F2" s="24" t="n">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
       <c r="G2" s="24" t="n">
-        <v>3.06</v>
+        <v>3.54</v>
       </c>
       <c r="H2" s="24" t="n">
-        <v>34.4</v>
+        <v>33.1</v>
       </c>
       <c r="I2" s="24" t="n">
-        <v>19.91</v>
+        <v>-5.87</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>19.4</v>
+        <v>14.37</v>
       </c>
       <c r="K2" s="24" t="n">
-        <v>5.68</v>
+        <v>3.88</v>
       </c>
       <c r="L2" s="24" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indianapolis-Carmel-Greenwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B3" s="25" t="inlineStr">
@@ -4447,34 +4447,34 @@
         </is>
       </c>
       <c r="C3" s="24" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D3" s="24" t="n">
-        <v>67.42</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="F3" s="24" t="n">
-        <v>4.17</v>
+        <v>4.86</v>
       </c>
       <c r="G3" s="24" t="n">
-        <v>3.54</v>
+        <v>3.02</v>
       </c>
       <c r="H3" s="24" t="n">
-        <v>33.1</v>
+        <v>33.9</v>
       </c>
       <c r="I3" s="24" t="n">
-        <v>-5.87</v>
+        <v>16.01</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>14.37</v>
+        <v>19.13</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>1.29</v>
+        <v>1.79</v>
       </c>
       <c r="L3" s="24" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -4485,20 +4485,20 @@
       </c>
       <c r="B4" s="25" t="inlineStr">
         <is>
-          <t>68 (B+)</t>
+          <t>66 (B+)</t>
         </is>
       </c>
       <c r="C4" s="24" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D4" s="24" t="n">
-        <v>66.19</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="E4" s="24" t="n">
         <v>4.7</v>
       </c>
       <c r="F4" s="24" t="n">
-        <v>4.8</v>
+        <v>4.88</v>
       </c>
       <c r="G4" s="24" t="n">
         <v>2.6</v>
@@ -4516,55 +4516,55 @@
         <v>0.2</v>
       </c>
       <c r="L4" s="24" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="B5" s="25" t="inlineStr">
         <is>
-          <t>65 (B+)</t>
+          <t>64 (B+)</t>
         </is>
       </c>
       <c r="C5" s="24" t="n">
         <v>3</v>
       </c>
       <c r="D5" s="24" t="n">
-        <v>63.2</v>
+        <v>76.27</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>3.73</v>
+        <v>1.62</v>
       </c>
       <c r="F5" s="24" t="n">
-        <v>0.64</v>
+        <v>5.78</v>
       </c>
       <c r="G5" s="24" t="n">
-        <v>1.56</v>
+        <v>3.9</v>
       </c>
       <c r="H5" s="24" t="n">
-        <v>34.2</v>
+        <v>34.9</v>
       </c>
       <c r="I5" s="24" t="n">
-        <v>-26.15</v>
+        <v>-6.96</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>21.59</v>
+        <v>7.88</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>4.43</v>
+        <v>0.13</v>
       </c>
       <c r="L5" s="24" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="B6" s="25" t="inlineStr">
@@ -4573,202 +4573,202 @@
         </is>
       </c>
       <c r="C6" s="24" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D6" s="24" t="n">
-        <v>64.18000000000001</v>
+        <v>72.77</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>5.12</v>
+        <v>3.15</v>
       </c>
       <c r="F6" s="24" t="n">
-        <v>4.99</v>
+        <v>5.31</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>3.02</v>
+        <v>4.76</v>
       </c>
       <c r="H6" s="24" t="n">
-        <v>33.9</v>
+        <v>35.4</v>
       </c>
       <c r="I6" s="24" t="n">
-        <v>16.01</v>
+        <v>9.65</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>19.13</v>
+        <v>6.26</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>1.35</v>
+        <v>-1.77</v>
       </c>
       <c r="L6" s="24" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="B7" s="25" t="inlineStr">
         <is>
-          <t>63 (B+)</t>
+          <t>64 (B+)</t>
         </is>
       </c>
       <c r="C7" s="24" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="24" t="n">
-        <v>73.38</v>
+        <v>63.89</v>
       </c>
       <c r="E7" s="24" t="n">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="F7" s="24" t="n">
-        <v>5.25</v>
+        <v>0.62</v>
       </c>
       <c r="G7" s="24" t="n">
-        <v>4.76</v>
+        <v>3.06</v>
       </c>
       <c r="H7" s="24" t="n">
-        <v>35.4</v>
+        <v>34.4</v>
       </c>
       <c r="I7" s="24" t="n">
-        <v>9.65</v>
+        <v>19.91</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>6.26</v>
+        <v>19.4</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>-1.65</v>
+        <v>7.35</v>
       </c>
       <c r="L7" s="24" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="B8" s="25" t="inlineStr">
         <is>
-          <t>61 (B+)</t>
+          <t>63 (B+)</t>
         </is>
       </c>
       <c r="C8" s="24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>76.17</v>
+        <v>63.19</v>
       </c>
       <c r="E8" s="24" t="n">
-        <v>1.62</v>
+        <v>3.73</v>
       </c>
       <c r="F8" s="24" t="n">
-        <v>7.82</v>
+        <v>0.67</v>
       </c>
       <c r="G8" s="24" t="n">
-        <v>3.9</v>
+        <v>1.56</v>
       </c>
       <c r="H8" s="24" t="n">
-        <v>34.9</v>
+        <v>34.2</v>
       </c>
       <c r="I8" s="24" t="n">
-        <v>-6.96</v>
+        <v>-26.15</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>7.88</v>
+        <v>21.59</v>
       </c>
       <c r="K8" s="24" t="n">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="L8" s="24" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>60 (B)</t>
+          <t>63 (B+)</t>
         </is>
       </c>
       <c r="C9" s="24" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D9" s="24" t="n">
-        <v>65.62</v>
+        <v>62.74</v>
       </c>
       <c r="E9" s="24" t="n">
-        <v>0.66</v>
+        <v>3.37</v>
       </c>
       <c r="F9" s="24" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G9" s="24" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H9" s="24" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="I9" s="24" t="n">
-        <v>-7.66</v>
+        <v>11.25</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>18.79</v>
+        <v>16.45</v>
       </c>
       <c r="K9" s="24" t="n">
-        <v>4.64</v>
+        <v>3.67</v>
       </c>
       <c r="L9" s="24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="B10" s="25" t="inlineStr">
         <is>
-          <t>60 (B+)</t>
+          <t>62 (B+)</t>
         </is>
       </c>
       <c r="C10" s="24" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D10" s="24" t="n">
-        <v>63.36</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="E10" s="24" t="n">
-        <v>1.53</v>
+        <v>8.27</v>
       </c>
       <c r="F10" s="24" t="n">
-        <v>1.01</v>
+        <v>4.36</v>
       </c>
       <c r="G10" s="24" t="n">
-        <v>2.02</v>
+        <v>3.52</v>
       </c>
       <c r="H10" s="24" t="n">
-        <v>33.5</v>
+        <v>34.6</v>
       </c>
       <c r="I10" s="24" t="n">
-        <v>17.69</v>
+        <v>-6.61</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>20</v>
+        <v>-0</v>
       </c>
       <c r="K10" s="24" t="n">
-        <v>2.71</v>
+        <v>-0.51</v>
       </c>
       <c r="L10" s="24" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -4779,20 +4779,20 @@
       </c>
       <c r="B11" s="25" t="inlineStr">
         <is>
-          <t>60 (B)</t>
+          <t>60 (B+)</t>
         </is>
       </c>
       <c r="C11" s="24" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D11" s="24" t="n">
-        <v>68.09</v>
+        <v>67.91</v>
       </c>
       <c r="E11" s="24" t="n">
         <v>6.8</v>
       </c>
       <c r="F11" s="24" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="G11" s="24" t="n">
         <v>1.2</v>
@@ -4807,346 +4807,346 @@
         <v>17</v>
       </c>
       <c r="K11" s="24" t="n">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="L11" s="24" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>St. Louis</t>
         </is>
       </c>
       <c r="B12" s="25" t="inlineStr">
         <is>
-          <t>60 (B)</t>
+          <t>58 (B)</t>
         </is>
       </c>
       <c r="C12" s="24" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D12" s="24" t="n">
-        <v>60.73</v>
+        <v>65.27</v>
       </c>
       <c r="E12" s="24" t="n">
-        <v>-0.12</v>
+        <v>0.66</v>
       </c>
       <c r="F12" s="24" t="n">
-        <v>3.12</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="24" t="n">
-        <v>1.44</v>
+        <v>2.34</v>
       </c>
       <c r="H12" s="24" t="n">
-        <v>35.5</v>
+        <v>32.9</v>
       </c>
       <c r="I12" s="24" t="n">
-        <v>32.24</v>
+        <v>-7.66</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>10.88</v>
+        <v>18.79</v>
       </c>
       <c r="K12" s="24" t="n">
-        <v>0.21</v>
+        <v>5.31</v>
       </c>
       <c r="L12" s="24" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="B13" s="25" t="inlineStr">
         <is>
-          <t>58 (B)</t>
+          <t>57 (B)</t>
         </is>
       </c>
       <c r="C13" s="24" t="n">
         <v>3.6</v>
       </c>
       <c r="D13" s="24" t="n">
-        <v>60.61</v>
+        <v>63.08</v>
       </c>
       <c r="E13" s="24" t="n">
-        <v>8.65</v>
+        <v>1.53</v>
       </c>
       <c r="F13" s="24" t="n">
-        <v>4.17</v>
+        <v>1.02</v>
       </c>
       <c r="G13" s="24" t="n">
-        <v>3.38</v>
+        <v>2.02</v>
       </c>
       <c r="H13" s="24" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="I13" s="24" t="n">
-        <v>-18.72</v>
+        <v>17.69</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>15.05</v>
+        <v>20</v>
       </c>
       <c r="K13" s="24" t="n">
-        <v>4.13</v>
+        <v>2.71</v>
       </c>
       <c r="L13" s="24" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Hartford-West Hartford-East Hartford</t>
         </is>
       </c>
       <c r="B14" s="25" t="inlineStr">
         <is>
-          <t>58 (B)</t>
+          <t>57 (B)</t>
         </is>
       </c>
       <c r="C14" s="24" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D14" s="24" t="n">
-        <v>65.94</v>
+        <v>64.7</v>
       </c>
       <c r="E14" s="24" t="n">
-        <v>0.86</v>
+        <v>-0.36</v>
       </c>
       <c r="F14" s="24" t="n">
-        <v>5.39</v>
+        <v>7.54</v>
       </c>
       <c r="G14" s="24" t="n">
-        <v>3.76</v>
+        <v>2.12</v>
       </c>
       <c r="H14" s="24" t="n">
-        <v>34.3</v>
+        <v>33.9</v>
       </c>
       <c r="I14" s="24" t="n">
-        <v>2.83</v>
+        <v>16.13</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>16.76</v>
+        <v>26.71</v>
       </c>
       <c r="K14" s="24" t="n">
-        <v>-0.98</v>
+        <v>-0.54</v>
       </c>
       <c r="L14" s="24" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Louisville-Jefferson County</t>
+          <t>Providence-Warwick</t>
         </is>
       </c>
       <c r="B15" s="25" t="inlineStr">
         <is>
-          <t>58 (B)</t>
+          <t>55 (B)</t>
         </is>
       </c>
       <c r="C15" s="24" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D15" s="24" t="n">
-        <v>62.61</v>
+        <v>50.77</v>
       </c>
       <c r="E15" s="24" t="n">
-        <v>3.37</v>
+        <v>3.63</v>
       </c>
       <c r="F15" s="24" t="n">
-        <v>0.74</v>
+        <v>1.43</v>
       </c>
       <c r="G15" s="24" t="n">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="H15" s="24" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="I15" s="24" t="n">
-        <v>11.25</v>
+        <v>144.37</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>16.45</v>
+        <v>21.89</v>
       </c>
       <c r="K15" s="24" t="n">
-        <v>3.48</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L15" s="24" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Providence-Warwick</t>
+          <t>Raleigh-Cary</t>
         </is>
       </c>
       <c r="B16" s="25" t="inlineStr">
         <is>
-          <t>57 (B)</t>
+          <t>55 (B)</t>
         </is>
       </c>
       <c r="C16" s="24" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D16" s="24" t="n">
-        <v>50.77</v>
+        <v>67.67</v>
       </c>
       <c r="E16" s="24" t="n">
-        <v>3.63</v>
+        <v>4.51</v>
       </c>
       <c r="F16" s="24" t="n">
-        <v>1.42</v>
+        <v>4.95</v>
       </c>
       <c r="G16" s="24" t="n">
-        <v>2.78</v>
+        <v>4.4</v>
       </c>
       <c r="H16" s="24" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="I16" s="24" t="n">
-        <v>144.37</v>
+        <v>-25.29</v>
       </c>
       <c r="J16" s="24" t="n">
-        <v>21.89</v>
+        <v>8.65</v>
       </c>
       <c r="K16" s="24" t="n">
-        <v>6.28</v>
+        <v>-1.06</v>
       </c>
       <c r="L16" s="24" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hartford-West Hartford-East Hartford</t>
+          <t>Seattle-Tacoma-Bellevue</t>
         </is>
       </c>
       <c r="B17" s="25" t="inlineStr">
         <is>
-          <t>57 (B)</t>
+          <t>53 (B)</t>
         </is>
       </c>
       <c r="C17" s="24" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>64.7</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="E17" s="24" t="n">
-        <v>-0.36</v>
+        <v>7.63</v>
       </c>
       <c r="F17" s="24" t="n">
-        <v>7.53</v>
+        <v>5.53</v>
       </c>
       <c r="G17" s="24" t="n">
-        <v>2.12</v>
+        <v>3.26</v>
       </c>
       <c r="H17" s="24" t="n">
-        <v>33.9</v>
+        <v>34.8</v>
       </c>
       <c r="I17" s="24" t="n">
-        <v>16.13</v>
+        <v>9.73</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>26.71</v>
+        <v>-0.14</v>
       </c>
       <c r="K17" s="24" t="n">
-        <v>-0.27</v>
+        <v>0.23</v>
       </c>
       <c r="L17" s="24" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Atlanta-Sandy Springs-Roswell</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="B18" s="25" t="inlineStr">
         <is>
-          <t>56 (B)</t>
+          <t>53 (B)</t>
         </is>
       </c>
       <c r="C18" s="24" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>64.36</v>
+        <v>60.33</v>
       </c>
       <c r="E18" s="24" t="n">
-        <v>8.27</v>
+        <v>8.65</v>
       </c>
       <c r="F18" s="24" t="n">
-        <v>4.36</v>
+        <v>4.17</v>
       </c>
       <c r="G18" s="24" t="n">
-        <v>3.52</v>
+        <v>3.38</v>
       </c>
       <c r="H18" s="24" t="n">
-        <v>34.6</v>
+        <v>33.9</v>
       </c>
       <c r="I18" s="24" t="n">
-        <v>-6.61</v>
+        <v>-18.72</v>
       </c>
       <c r="J18" s="24" t="n">
-        <v>-0</v>
+        <v>15.05</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>-0.68</v>
+        <v>3.76</v>
       </c>
       <c r="L18" s="24" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Denver-Aurora-Centennial</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B19" s="25" t="inlineStr">
         <is>
-          <t>55 (B)</t>
+          <t>53 (B)</t>
         </is>
       </c>
       <c r="C19" s="24" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="D19" s="24" t="n">
-        <v>70.73</v>
+        <v>60.56</v>
       </c>
       <c r="E19" s="24" t="n">
-        <v>6.57</v>
+        <v>-0.12</v>
       </c>
       <c r="F19" s="24" t="n">
-        <v>4.57</v>
+        <v>7.12</v>
       </c>
       <c r="G19" s="24" t="n">
-        <v>2.76</v>
+        <v>1.44</v>
       </c>
       <c r="H19" s="24" t="n">
-        <v>33.4</v>
+        <v>35.5</v>
       </c>
       <c r="I19" s="24" t="n">
-        <v>14.99</v>
+        <v>32.24</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>-1.28</v>
+        <v>10.88</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>-3.27</v>
+        <v>-0.21</v>
       </c>
       <c r="L19" s="24" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -5157,14 +5157,14 @@
       </c>
       <c r="B20" s="25" t="inlineStr">
         <is>
-          <t>54 (B)</t>
+          <t>52 (B)</t>
         </is>
       </c>
       <c r="C20" s="24" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="24" t="n">
-        <v>64.31</v>
+        <v>63.96</v>
       </c>
       <c r="E20" s="24" t="n">
         <v>2.21</v>
@@ -5185,98 +5185,100 @@
         <v>14.25</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="L20" s="24" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Denver-Aurora-Centennial</t>
         </is>
       </c>
       <c r="B21" s="25" t="inlineStr">
         <is>
-          <t>54 (B)</t>
+          <t>52 (B)</t>
         </is>
       </c>
       <c r="C21" s="24" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="D21" s="24" t="n">
-        <v>68.65000000000001</v>
+        <v>70.39</v>
       </c>
       <c r="E21" s="24" t="n">
-        <v>7.63</v>
+        <v>6.57</v>
       </c>
       <c r="F21" s="24" t="n">
-        <v>5.48</v>
+        <v>4.57</v>
       </c>
       <c r="G21" s="24" t="n">
-        <v>3.26</v>
+        <v>2.76</v>
       </c>
       <c r="H21" s="24" t="n">
-        <v>34.8</v>
+        <v>33.4</v>
       </c>
       <c r="I21" s="24" t="n">
-        <v>9.73</v>
+        <v>14.99</v>
       </c>
       <c r="J21" s="24" t="n">
-        <v>-0.14</v>
+        <v>-1.28</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>0.23</v>
+        <v>-3.37</v>
       </c>
       <c r="L21" s="24" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="B22" s="25" t="inlineStr">
         <is>
-          <t>53 (B)</t>
+          <t>52 (B)</t>
         </is>
       </c>
       <c r="C22" s="24" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D22" s="24" t="n">
-        <v>58.01</v>
+        <v>65.61</v>
       </c>
       <c r="E22" s="24" t="n">
-        <v>-1.79</v>
-      </c>
-      <c r="F22" s="24" t="n"/>
+        <v>0.86</v>
+      </c>
+      <c r="F22" s="24" t="n">
+        <v>7.48</v>
+      </c>
       <c r="G22" s="24" t="n">
-        <v>3.02</v>
+        <v>3.76</v>
       </c>
       <c r="H22" s="24" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="I22" s="24" t="n">
-        <v>14.96</v>
+        <v>2.83</v>
       </c>
       <c r="J22" s="24" t="n">
-        <v>3.37</v>
+        <v>16.76</v>
       </c>
       <c r="K22" s="24" t="n">
-        <v>12.86</v>
+        <v>-0.66</v>
       </c>
       <c r="L22" s="24" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Virginia Beach-Chesapeake-Norfolk</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="B23" s="25" t="inlineStr">
@@ -5285,82 +5287,80 @@
         </is>
       </c>
       <c r="C23" s="24" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D23" s="24" t="n">
-        <v>58.9</v>
+        <v>58.01</v>
       </c>
       <c r="E23" s="24" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="F23" s="24" t="n">
-        <v>4.52</v>
-      </c>
+        <v>-1.79</v>
+      </c>
+      <c r="F23" s="24" t="n"/>
       <c r="G23" s="24" t="n">
-        <v>2.2</v>
+        <v>3.02</v>
       </c>
       <c r="H23" s="24" t="n">
-        <v>33.1</v>
+        <v>34.5</v>
       </c>
       <c r="I23" s="24" t="n">
-        <v>-7.61</v>
+        <v>14.96</v>
       </c>
       <c r="J23" s="24" t="n">
-        <v>18.58</v>
+        <v>3.37</v>
       </c>
       <c r="K23" s="24" t="n">
-        <v>2.03</v>
+        <v>12.86</v>
       </c>
       <c r="L23" s="24" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Austin-Round Rock-San Marcos</t>
+          <t>Virginia Beach-Chesapeake-Norfolk</t>
         </is>
       </c>
       <c r="B24" s="25" t="inlineStr">
         <is>
-          <t>51 (B)</t>
+          <t>52 (B)</t>
         </is>
       </c>
       <c r="C24" s="24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D24" s="24" t="n">
-        <v>74.47</v>
+        <v>58.99</v>
       </c>
       <c r="E24" s="24" t="n">
-        <v>3.18</v>
+        <v>10.22</v>
       </c>
       <c r="F24" s="24" t="n">
-        <v>4.65</v>
+        <v>4.52</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="H24" s="24" t="n">
-        <v>34.9</v>
+        <v>33.1</v>
       </c>
       <c r="I24" s="24" t="n">
-        <v>-19.54</v>
+        <v>-7.61</v>
       </c>
       <c r="J24" s="24" t="n">
-        <v>-10.3</v>
+        <v>18.58</v>
       </c>
       <c r="K24" s="24" t="n">
-        <v>-5.22</v>
+        <v>1.87</v>
       </c>
       <c r="L24" s="24" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Raleigh-Cary</t>
+          <t>Dallas-Fort Worth-Arlington</t>
         </is>
       </c>
       <c r="B25" s="25" t="inlineStr">
@@ -5372,28 +5372,28 @@
         <v>3.6</v>
       </c>
       <c r="D25" s="24" t="n">
-        <v>67.53</v>
+        <v>69.61</v>
       </c>
       <c r="E25" s="24" t="n">
-        <v>4.51</v>
+        <v>3.1</v>
       </c>
       <c r="F25" s="24" t="n">
-        <v>4.95</v>
+        <v>4.87</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>4.4</v>
+        <v>2.26</v>
       </c>
       <c r="H25" s="24" t="n">
-        <v>32.9</v>
+        <v>35.5</v>
       </c>
       <c r="I25" s="24" t="n">
-        <v>-25.29</v>
+        <v>-9.74</v>
       </c>
       <c r="J25" s="24" t="n">
-        <v>8.65</v>
+        <v>-1.39</v>
       </c>
       <c r="K25" s="24" t="n">
-        <v>-1.06</v>
+        <v>-1.8</v>
       </c>
       <c r="L25" s="24" t="n">
         <v>72</v>
@@ -5402,85 +5402,85 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dallas-Fort Worth-Arlington</t>
+          <t>Austin-Round Rock-San Marcos</t>
         </is>
       </c>
       <c r="B26" s="25" t="inlineStr">
         <is>
-          <t>50 (B)</t>
+          <t>51 (B)</t>
         </is>
       </c>
       <c r="C26" s="24" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D26" s="24" t="n">
-        <v>70.08</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="E26" s="24" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="F26" s="24" t="n">
-        <v>4.93</v>
+        <v>4.68</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="H26" s="24" t="n">
-        <v>35.5</v>
+        <v>34.9</v>
       </c>
       <c r="I26" s="24" t="n">
-        <v>-9.74</v>
+        <v>-19.54</v>
       </c>
       <c r="J26" s="24" t="n">
-        <v>-1.39</v>
+        <v>-10.3</v>
       </c>
       <c r="K26" s="24" t="n">
-        <v>-1.79</v>
+        <v>-5.54</v>
       </c>
       <c r="L26" s="24" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Boston-Cambridge-Newton</t>
+          <t>Baltimore-Columbia-Towson</t>
         </is>
       </c>
       <c r="B27" s="25" t="inlineStr">
         <is>
-          <t>49 (B-)</t>
+          <t>50 (B-)</t>
         </is>
       </c>
       <c r="C27" s="24" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D27" s="24" t="n">
-        <v>68.47</v>
+        <v>64.19</v>
       </c>
       <c r="E27" s="24" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="F27" s="24" t="n">
-        <v>6.47</v>
+        <v>1.34</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>3.14</v>
+        <v>2.88</v>
       </c>
       <c r="H27" s="24" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="I27" s="24" t="n">
-        <v>3.83</v>
+        <v>-27.64</v>
       </c>
       <c r="J27" s="24" t="n">
-        <v>1.81</v>
+        <v>14.35</v>
       </c>
       <c r="K27" s="24" t="n">
-        <v>-0.29</v>
+        <v>1.1</v>
       </c>
       <c r="L27" s="24" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -5491,14 +5491,14 @@
       </c>
       <c r="B28" s="25" t="inlineStr">
         <is>
-          <t>46 (B-)</t>
+          <t>47 (B-)</t>
         </is>
       </c>
       <c r="C28" s="24" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D28" s="24" t="n">
-        <v>64.89</v>
+        <v>64.52</v>
       </c>
       <c r="E28" s="24" t="n">
         <v>2.61</v>
@@ -5522,7 +5522,7 @@
         <v>-2.29</v>
       </c>
       <c r="L28" s="24" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -5533,20 +5533,20 @@
       </c>
       <c r="B29" s="25" t="inlineStr">
         <is>
-          <t>46 (B-)</t>
+          <t>47 (B-)</t>
         </is>
       </c>
       <c r="C29" s="24" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D29" s="24" t="n">
-        <v>66.67</v>
+        <v>66.34</v>
       </c>
       <c r="E29" s="24" t="n">
         <v>4.52</v>
       </c>
       <c r="F29" s="24" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="G29" s="24" t="n">
         <v>3.58</v>
@@ -5564,13 +5564,13 @@
         <v>-2.18</v>
       </c>
       <c r="L29" s="24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Baltimore-Columbia-Towson</t>
+          <t>Boston-Cambridge-Newton</t>
         </is>
       </c>
       <c r="B30" s="25" t="inlineStr">
@@ -5579,34 +5579,34 @@
         </is>
       </c>
       <c r="C30" s="24" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D30" s="24" t="n">
-        <v>64.55</v>
+        <v>68.47</v>
       </c>
       <c r="E30" s="24" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="F30" s="24" t="n">
-        <v>1.33</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>2.88</v>
+        <v>3.14</v>
       </c>
       <c r="H30" s="24" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="I30" s="24" t="n">
-        <v>-27.64</v>
+        <v>3.83</v>
       </c>
       <c r="J30" s="24" t="n">
-        <v>14.35</v>
+        <v>1.81</v>
       </c>
       <c r="K30" s="24" t="n">
-        <v>1.25</v>
+        <v>-0.22</v>
       </c>
       <c r="L30" s="24" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -5621,16 +5621,16 @@
         </is>
       </c>
       <c r="C31" s="24" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="24" t="n">
-        <v>64.44</v>
+        <v>64.34</v>
       </c>
       <c r="E31" s="24" t="n">
         <v>0.59</v>
       </c>
       <c r="F31" s="24" t="n">
-        <v>7.38</v>
+        <v>7.33</v>
       </c>
       <c r="G31" s="24" t="n">
         <v>2.02</v>
@@ -5645,16 +5645,16 @@
         <v>9.58</v>
       </c>
       <c r="K31" s="24" t="n">
-        <v>-2.21</v>
+        <v>-2.86</v>
       </c>
       <c r="L31" s="24" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Minneapolis-St. Paul-Bloomington</t>
+          <t>Las Vegas-Henderson-North Las Vegas</t>
         </is>
       </c>
       <c r="B32" s="25" t="inlineStr">
@@ -5663,40 +5663,40 @@
         </is>
       </c>
       <c r="C32" s="24" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="D32" s="24" t="n">
-        <v>69.25</v>
+        <v>65.02</v>
       </c>
       <c r="E32" s="24" t="n">
-        <v>0.03</v>
+        <v>6.71</v>
       </c>
       <c r="F32" s="24" t="n">
-        <v>7.27</v>
+        <v>5.13</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H32" s="24" t="n">
-        <v>33.3</v>
+        <v>34.1</v>
       </c>
       <c r="I32" s="24" t="n">
-        <v>-7.67</v>
+        <v>31.24</v>
       </c>
       <c r="J32" s="24" t="n">
-        <v>2.87</v>
+        <v>-0.42</v>
       </c>
       <c r="K32" s="24" t="n">
-        <v>-0.95</v>
+        <v>-2.1</v>
       </c>
       <c r="L32" s="24" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Las Vegas-Henderson-North Las Vegas</t>
+          <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
       <c r="B33" s="25" t="inlineStr">
@@ -5705,82 +5705,82 @@
         </is>
       </c>
       <c r="C33" s="24" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="D33" s="24" t="n">
-        <v>65.40000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="E33" s="24" t="n">
-        <v>6.71</v>
+        <v>7.12</v>
       </c>
       <c r="F33" s="24" t="n">
-        <v>5.17</v>
+        <v>5.72</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>2.5</v>
+        <v>1.86</v>
       </c>
       <c r="H33" s="24" t="n">
-        <v>34.1</v>
+        <v>35.2</v>
       </c>
       <c r="I33" s="24" t="n">
-        <v>31.24</v>
+        <v>7.44</v>
       </c>
       <c r="J33" s="24" t="n">
-        <v>-0.42</v>
+        <v>-1.03</v>
       </c>
       <c r="K33" s="24" t="n">
-        <v>-1.86</v>
+        <v>-2.69</v>
       </c>
       <c r="L33" s="24" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chicago-Naperville-Elgin</t>
+          <t>Washington-Arlington-Alexandria</t>
         </is>
       </c>
       <c r="B34" s="25" t="inlineStr">
         <is>
-          <t>43 (B-)</t>
+          <t>44 (B-)</t>
         </is>
       </c>
       <c r="C34" s="24" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D34" s="24" t="n">
-        <v>65.04000000000001</v>
+        <v>67.37</v>
       </c>
       <c r="E34" s="24" t="n">
-        <v>2.84</v>
+        <v>1.37</v>
       </c>
       <c r="F34" s="24" t="n">
-        <v>5.05</v>
+        <v>4.97</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H34" s="24" t="n">
-        <v>33.1</v>
+        <v>34.5</v>
       </c>
       <c r="I34" s="24" t="n">
-        <v>-18.25</v>
+        <v>-11.8</v>
       </c>
       <c r="J34" s="24" t="n">
-        <v>5.73</v>
+        <v>0.29</v>
       </c>
       <c r="K34" s="24" t="n">
-        <v>0.64</v>
+        <v>-5.12</v>
       </c>
       <c r="L34" s="24" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tampa-St. Petersburg-Clearwater</t>
+          <t>Chicago-Naperville-Elgin</t>
         </is>
       </c>
       <c r="B35" s="25" t="inlineStr">
@@ -5789,250 +5789,250 @@
         </is>
       </c>
       <c r="C35" s="24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D35" s="24" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="E35" s="24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F35" s="24" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="G35" s="24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H35" s="24" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="I35" s="24" t="n">
+        <v>-18.25</v>
+      </c>
+      <c r="J35" s="24" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="K35" s="24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L35" s="24" t="n">
         <v>60</v>
-      </c>
-      <c r="E35" s="24" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="F35" s="24" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="G35" s="24" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="H35" s="24" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="I35" s="24" t="n">
-        <v>71.38</v>
-      </c>
-      <c r="J35" s="24" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="K35" s="24" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="L35" s="24" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Charlotte-Concord-Gastonia</t>
+          <t>Tampa-St. Petersburg-Clearwater</t>
         </is>
       </c>
       <c r="B36" s="25" t="inlineStr">
         <is>
-          <t>41 (B-)</t>
+          <t>42 (B-)</t>
         </is>
       </c>
       <c r="C36" s="24" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D36" s="24" t="n">
-        <v>65.3</v>
+        <v>59.95</v>
       </c>
       <c r="E36" s="24" t="n">
-        <v>-1.52</v>
+        <v>4.86</v>
       </c>
       <c r="F36" s="24" t="n">
-        <v>1.24</v>
+        <v>5.25</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>4.14</v>
+        <v>3.08</v>
       </c>
       <c r="H36" s="24" t="n">
-        <v>33.5</v>
+        <v>34.8</v>
       </c>
       <c r="I36" s="24" t="n">
-        <v>-22.8</v>
+        <v>71.38</v>
       </c>
       <c r="J36" s="24" t="n">
-        <v>0.34</v>
+        <v>-3.84</v>
       </c>
       <c r="K36" s="24" t="n">
-        <v>-0.91</v>
+        <v>0.41</v>
       </c>
       <c r="L36" s="24" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Miami-Fort Lauderdale-West Palm Beach</t>
+          <t>Detroit-Warren-Dearborn</t>
         </is>
       </c>
       <c r="B37" s="25" t="inlineStr">
         <is>
-          <t>40 (C+)</t>
+          <t>41 (B-)</t>
         </is>
       </c>
       <c r="C37" s="24" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D37" s="24" t="n">
-        <v>62.37</v>
+        <v>61.27</v>
       </c>
       <c r="E37" s="24" t="n">
-        <v>7.12</v>
+        <v>-1.13</v>
       </c>
       <c r="F37" s="24" t="n">
-        <v>5.71</v>
+        <v>3.12</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="H37" s="24" t="n">
-        <v>35.2</v>
+        <v>34</v>
       </c>
       <c r="I37" s="24" t="n">
-        <v>7.44</v>
+        <v>15.2</v>
       </c>
       <c r="J37" s="24" t="n">
-        <v>-1.03</v>
+        <v>3.75</v>
       </c>
       <c r="K37" s="24" t="n">
-        <v>-2.69</v>
+        <v>-0.39</v>
       </c>
       <c r="L37" s="24" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Washington-Arlington-Alexandria</t>
+          <t>Fresno</t>
         </is>
       </c>
       <c r="B38" s="25" t="inlineStr">
         <is>
-          <t>40 (B-)</t>
+          <t>41 (B-)</t>
         </is>
       </c>
       <c r="C38" s="24" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D38" s="24" t="n">
-        <v>67.44</v>
+        <v>60.33</v>
       </c>
       <c r="E38" s="24" t="n">
-        <v>1.37</v>
+        <v>7.6</v>
       </c>
       <c r="F38" s="24" t="n">
-        <v>5.02</v>
+        <v>5.05</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>2.22</v>
+        <v>0.78</v>
       </c>
       <c r="H38" s="24" t="n">
-        <v>34.5</v>
+        <v>33.5</v>
       </c>
       <c r="I38" s="24" t="n">
-        <v>-11.8</v>
+        <v>61.97</v>
       </c>
       <c r="J38" s="24" t="n">
-        <v>0.29</v>
+        <v>9.4</v>
       </c>
       <c r="K38" s="24" t="n">
-        <v>-4.38</v>
+        <v>-1.02</v>
       </c>
       <c r="L38" s="24" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Detroit-Warren-Dearborn</t>
+          <t>Minneapolis-St. Paul-Bloomington</t>
         </is>
       </c>
       <c r="B39" s="25" t="inlineStr">
         <is>
-          <t>40 (B-)</t>
+          <t>39 (C+)</t>
         </is>
       </c>
       <c r="C39" s="24" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="D39" s="24" t="n">
-        <v>61.07</v>
+        <v>69.03</v>
       </c>
       <c r="E39" s="24" t="n">
-        <v>-1.13</v>
+        <v>0.03</v>
       </c>
       <c r="F39" s="24" t="n">
-        <v>3.14</v>
+        <v>7.28</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="H39" s="24" t="n">
-        <v>34</v>
+        <v>33.3</v>
       </c>
       <c r="I39" s="24" t="n">
-        <v>15.2</v>
+        <v>-7.67</v>
       </c>
       <c r="J39" s="24" t="n">
-        <v>3.75</v>
+        <v>2.87</v>
       </c>
       <c r="K39" s="24" t="n">
-        <v>-0.38</v>
+        <v>-1.42</v>
       </c>
       <c r="L39" s="24" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
       <c r="B40" s="25" t="inlineStr">
         <is>
-          <t>39 (C+)</t>
+          <t>38 (C+)</t>
         </is>
       </c>
       <c r="C40" s="24" t="n">
-        <v>8.1</v>
+        <v>3.6</v>
       </c>
       <c r="D40" s="24" t="n">
-        <v>60.38</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="E40" s="24" t="n">
-        <v>7.6</v>
+        <v>-1.52</v>
       </c>
       <c r="F40" s="24" t="n">
-        <v>5.04</v>
+        <v>5.19</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.78</v>
+        <v>4.14</v>
       </c>
       <c r="H40" s="24" t="n">
         <v>33.5</v>
       </c>
       <c r="I40" s="24" t="n">
-        <v>61.97</v>
+        <v>-22.8</v>
       </c>
       <c r="J40" s="24" t="n">
-        <v>9.4</v>
+        <v>0.34</v>
       </c>
       <c r="K40" s="24" t="n">
-        <v>-1.02</v>
+        <v>-1.36</v>
       </c>
       <c r="L40" s="24" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Portland-Vancouver-Hillsboro</t>
+          <t>Orlando-Kissimmee-Sanford</t>
         </is>
       </c>
       <c r="B41" s="25" t="inlineStr">
@@ -6041,82 +6041,82 @@
         </is>
       </c>
       <c r="C41" s="24" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="D41" s="24" t="n">
-        <v>66.84</v>
+        <v>63.98</v>
       </c>
       <c r="E41" s="24" t="n">
-        <v>4.78</v>
+        <v>0.37</v>
       </c>
       <c r="F41" s="24" t="n">
-        <v>5.23</v>
+        <v>5.61</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.22</v>
+        <v>3</v>
       </c>
       <c r="H41" s="24" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="I41" s="24" t="n">
-        <v>-17.1</v>
+        <v>9.6</v>
       </c>
       <c r="J41" s="24" t="n">
-        <v>-0.62</v>
+        <v>10.12</v>
       </c>
       <c r="K41" s="24" t="n">
-        <v>-1.8</v>
+        <v>-2.44</v>
       </c>
       <c r="L41" s="24" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="B42" s="25" t="inlineStr">
         <is>
-          <t>35 (C+)</t>
+          <t>36 (C+)</t>
         </is>
       </c>
       <c r="C42" s="24" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="D42" s="24" t="n">
-        <v>60.71</v>
+        <v>60.38</v>
       </c>
       <c r="E42" s="24" t="n">
-        <v>7.54</v>
+        <v>5</v>
       </c>
       <c r="F42" s="24" t="n">
-        <v>5.7</v>
+        <v>4.65</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.3</v>
+        <v>2.24</v>
       </c>
       <c r="H42" s="24" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="I42" s="24" t="n">
-        <v>-15.14</v>
+        <v>-2.57</v>
       </c>
       <c r="J42" s="24" t="n">
-        <v>7.22</v>
+        <v>5.54</v>
       </c>
       <c r="K42" s="24" t="n">
-        <v>-0.39</v>
+        <v>-2.73</v>
       </c>
       <c r="L42" s="24" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>San Antonio-New Braunfels</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="B43" s="25" t="inlineStr">
@@ -6125,34 +6125,34 @@
         </is>
       </c>
       <c r="C43" s="24" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="D43" s="24" t="n">
-        <v>63.1</v>
+        <v>60.37</v>
       </c>
       <c r="E43" s="24" t="n">
-        <v>1.78</v>
+        <v>7.54</v>
       </c>
       <c r="F43" s="24" t="n">
-        <v>4.84</v>
+        <v>5.64</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="H43" s="24" t="n">
-        <v>35.1</v>
+        <v>34.2</v>
       </c>
       <c r="I43" s="24" t="n">
-        <v>-49.04</v>
+        <v>-15.14</v>
       </c>
       <c r="J43" s="24" t="n">
-        <v>3.43</v>
+        <v>7.22</v>
       </c>
       <c r="K43" s="24" t="n">
-        <v>-3.7</v>
+        <v>-0.39</v>
       </c>
       <c r="L43" s="24" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
@@ -6163,20 +6163,20 @@
       </c>
       <c r="B44" s="25" t="inlineStr">
         <is>
-          <t>34 (C+)</t>
+          <t>35 (C+)</t>
         </is>
       </c>
       <c r="C44" s="24" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D44" s="24" t="n">
-        <v>64.92</v>
+        <v>64.45</v>
       </c>
       <c r="E44" s="24" t="n">
         <v>0.49</v>
       </c>
       <c r="F44" s="24" t="n">
-        <v>6.8</v>
+        <v>6.93</v>
       </c>
       <c r="G44" s="24" t="n">
         <v>2.14</v>
@@ -6191,58 +6191,58 @@
         <v>0.47</v>
       </c>
       <c r="K44" s="24" t="n">
-        <v>-4.81</v>
+        <v>-4.68</v>
       </c>
       <c r="L44" s="24" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>San Antonio-New Braunfels</t>
         </is>
       </c>
       <c r="B45" s="25" t="inlineStr">
         <is>
-          <t>34 (C+)</t>
+          <t>35 (C+)</t>
         </is>
       </c>
       <c r="C45" s="24" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="D45" s="24" t="n">
-        <v>64.05</v>
+        <v>62.78</v>
       </c>
       <c r="E45" s="24" t="n">
-        <v>0.37</v>
+        <v>1.78</v>
       </c>
       <c r="F45" s="24" t="n">
-        <v>5.55</v>
+        <v>4.77</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>3</v>
+        <v>1.24</v>
       </c>
       <c r="H45" s="24" t="n">
-        <v>33.7</v>
+        <v>35.1</v>
       </c>
       <c r="I45" s="24" t="n">
-        <v>9.6</v>
+        <v>-49.04</v>
       </c>
       <c r="J45" s="24" t="n">
-        <v>10.12</v>
+        <v>3.43</v>
       </c>
       <c r="K45" s="24" t="n">
-        <v>-2.58</v>
+        <v>-4.07</v>
       </c>
       <c r="L45" s="24" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="B46" s="25" t="inlineStr">
@@ -6251,34 +6251,34 @@
         </is>
       </c>
       <c r="C46" s="24" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="D46" s="24" t="n">
-        <v>60.62</v>
+        <v>66.17</v>
       </c>
       <c r="E46" s="24" t="n">
-        <v>5</v>
+        <v>4.78</v>
       </c>
       <c r="F46" s="24" t="n">
-        <v>4.71</v>
+        <v>5.21</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>2.24</v>
+        <v>1.22</v>
       </c>
       <c r="H46" s="24" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="I46" s="24" t="n">
-        <v>-2.57</v>
+        <v>-17.1</v>
       </c>
       <c r="J46" s="24" t="n">
-        <v>5.54</v>
+        <v>-0.62</v>
       </c>
       <c r="K46" s="24" t="n">
-        <v>-2.72</v>
+        <v>-1.9</v>
       </c>
       <c r="L46" s="24" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
@@ -6289,20 +6289,20 @@
       </c>
       <c r="B47" s="25" t="inlineStr">
         <is>
-          <t>32 (C+)</t>
+          <t>34 (C+)</t>
         </is>
       </c>
       <c r="C47" s="24" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D47" s="24" t="n">
-        <v>60.17</v>
+        <v>60.48</v>
       </c>
       <c r="E47" s="24" t="n">
         <v>6.16</v>
       </c>
       <c r="F47" s="24" t="n">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
       <c r="G47" s="24" t="n">
         <v>0.6</v>
@@ -6317,10 +6317,10 @@
         <v>5.21</v>
       </c>
       <c r="K47" s="24" t="n">
-        <v>-3.53</v>
+        <v>-4.35</v>
       </c>
       <c r="L47" s="24" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
@@ -6331,20 +6331,20 @@
       </c>
       <c r="B48" s="25" t="inlineStr">
         <is>
-          <t>31 (C+)</t>
+          <t>32 (C+)</t>
         </is>
       </c>
       <c r="C48" s="24" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="D48" s="24" t="n">
-        <v>63.63</v>
+        <v>63.3</v>
       </c>
       <c r="E48" s="24" t="n">
         <v>4.84</v>
       </c>
       <c r="F48" s="24" t="n">
-        <v>6.59</v>
+        <v>6.57</v>
       </c>
       <c r="G48" s="24" t="n">
         <v>2.98</v>
@@ -6359,10 +6359,10 @@
         <v>5.07</v>
       </c>
       <c r="K48" s="24" t="n">
-        <v>-2.88</v>
+        <v>-2.44</v>
       </c>
       <c r="L48" s="24" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -6373,20 +6373,20 @@
       </c>
       <c r="B49" s="25" t="inlineStr">
         <is>
-          <t>30 (C)</t>
+          <t>31 (C+)</t>
         </is>
       </c>
       <c r="C49" s="24" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="D49" s="24" t="n">
-        <v>64.28</v>
+        <v>63.61</v>
       </c>
       <c r="E49" s="24" t="n">
         <v>5.33</v>
       </c>
       <c r="F49" s="24" t="n">
-        <v>7.36</v>
+        <v>7.29</v>
       </c>
       <c r="G49" s="24" t="n">
         <v>0.96</v>
@@ -6401,7 +6401,7 @@
         <v>0.49</v>
       </c>
       <c r="K49" s="24" t="n">
-        <v>-1.98</v>
+        <v>-1.99</v>
       </c>
       <c r="L49" s="24" t="n">
         <v>67</v>
@@ -6419,16 +6419,16 @@
         </is>
       </c>
       <c r="C50" s="24" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D50" s="24" t="n">
-        <v>60.49</v>
+        <v>60.12</v>
       </c>
       <c r="E50" s="24" t="n">
         <v>2.48</v>
       </c>
       <c r="F50" s="24" t="n">
-        <v>5.92</v>
+        <v>5.98</v>
       </c>
       <c r="G50" s="24" t="n">
         <v>0.12</v>
@@ -6443,10 +6443,10 @@
         <v>3.1</v>
       </c>
       <c r="K50" s="24" t="n">
-        <v>-1.65</v>
+        <v>-1.36</v>
       </c>
       <c r="L50" s="24" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
@@ -6461,16 +6461,16 @@
         </is>
       </c>
       <c r="C51" s="24" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D51" s="24" t="n">
-        <v>62.42</v>
+        <v>62.01</v>
       </c>
       <c r="E51" s="24" t="n">
         <v>2.43</v>
       </c>
       <c r="F51" s="24" t="n">
-        <v>7.12</v>
+        <v>7.09</v>
       </c>
       <c r="G51" s="24" t="n">
         <v>1.34</v>
@@ -6485,10 +6485,10 @@
         <v>0.35</v>
       </c>
       <c r="K51" s="24" t="n">
-        <v>-2.85</v>
+        <v>-3.33</v>
       </c>
       <c r="L51" s="24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6589,7 +6589,7 @@
         </is>
       </c>
       <c r="D2" s="14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="15" t="inlineStr">
         <is>
@@ -6597,57 +6597,57 @@
         </is>
       </c>
       <c r="F2" s="14" t="n">
-        <v>30.9</v>
+        <v>32.2</v>
       </c>
       <c r="G2" s="14" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H2" s="14" t="n">
-        <v>63.63</v>
+        <v>63.3</v>
       </c>
       <c r="I2" s="14" t="n">
         <v>4.84</v>
       </c>
       <c r="J2" s="14" t="n">
-        <v>6.59</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="n">
+      <c r="A3" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>Los Angeles-Long Beach-Anaheim</t>
         </is>
       </c>
-      <c r="C3" s="18" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
       </c>
-      <c r="D3" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="E3" s="18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" s="17" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="G3" s="17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H3" s="17" t="n">
-        <v>64.28</v>
-      </c>
-      <c r="I3" s="17" t="n">
+      <c r="D3" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="E3" s="15" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="F3" s="14" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="G3" s="14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H3" s="14" t="n">
+        <v>63.61</v>
+      </c>
+      <c r="I3" s="14" t="n">
         <v>5.33</v>
       </c>
-      <c r="J3" s="17" t="n">
-        <v>7.36</v>
+      <c r="J3" s="14" t="n">
+        <v>7.29</v>
       </c>
     </row>
     <row r="4">
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="D4" s="11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="12" t="inlineStr">
         <is>
@@ -6673,19 +6673,19 @@
         </is>
       </c>
       <c r="F4" s="11" t="n">
-        <v>42.9</v>
+        <v>42.4</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>4.5</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>65.04000000000001</v>
+        <v>64.75</v>
       </c>
       <c r="I4" s="11" t="n">
         <v>2.84</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>5.05</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="5">
@@ -6703,7 +6703,7 @@
         </is>
       </c>
       <c r="D5" s="8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
@@ -6711,19 +6711,19 @@
         </is>
       </c>
       <c r="F5" s="8" t="n">
-        <v>50</v>
+        <v>51.2</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H5" s="8" t="n">
-        <v>70.08</v>
+        <v>69.61</v>
       </c>
       <c r="I5" s="8" t="n">
         <v>3.1</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>4.93</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="6">
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D6" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
@@ -6749,13 +6749,13 @@
         </is>
       </c>
       <c r="F6" s="11" t="n">
-        <v>45.7</v>
+        <v>46.6</v>
       </c>
       <c r="G6" s="11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H6" s="11" t="n">
-        <v>64.89</v>
+        <v>64.52</v>
       </c>
       <c r="I6" s="11" t="n">
         <v>2.61</v>
@@ -6765,41 +6765,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>Miami-Fort Lauderdale-West Palm Beach</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>Miami</t>
         </is>
       </c>
-      <c r="D7" s="14" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" s="15" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="F7" s="14" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="G7" s="14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H7" s="14" t="n">
-        <v>62.37</v>
-      </c>
-      <c r="I7" s="14" t="n">
+      <c r="D7" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>62.53</v>
+      </c>
+      <c r="I7" s="11" t="n">
         <v>7.12</v>
       </c>
-      <c r="J7" s="14" t="n">
-        <v>5.71</v>
+      <c r="J7" s="11" t="n">
+        <v>5.72</v>
       </c>
     </row>
     <row r="8">
@@ -6817,7 +6817,7 @@
         </is>
       </c>
       <c r="D8" s="11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
@@ -6825,56 +6825,56 @@
         </is>
       </c>
       <c r="F8" s="11" t="n">
-        <v>40.4</v>
+        <v>44.1</v>
       </c>
       <c r="G8" s="11" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H8" s="11" t="n">
-        <v>67.44</v>
+        <v>67.37</v>
       </c>
       <c r="I8" s="11" t="n">
         <v>1.37</v>
       </c>
       <c r="J8" s="11" t="n">
-        <v>5.02</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D9" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>64.36</v>
-      </c>
-      <c r="I9" s="8" t="n">
+      <c r="D9" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>64.56999999999999</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>8.27</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="5" t="n">
         <v>4.36</v>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
         </is>
       </c>
       <c r="D10" s="8" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
@@ -6901,13 +6901,13 @@
         </is>
       </c>
       <c r="F10" s="8" t="n">
-        <v>53.6</v>
+        <v>52.5</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>64.31</v>
+        <v>63.96</v>
       </c>
       <c r="I10" s="8" t="n">
         <v>2.21</v>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="D11" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="12" t="inlineStr">
         <is>
@@ -6939,19 +6939,19 @@
         </is>
       </c>
       <c r="F11" s="11" t="n">
-        <v>46</v>
+        <v>46.8</v>
       </c>
       <c r="G11" s="11" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H11" s="11" t="n">
-        <v>66.67</v>
+        <v>66.34</v>
       </c>
       <c r="I11" s="11" t="n">
         <v>4.52</v>
       </c>
       <c r="J11" s="11" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="12">
@@ -6969,7 +6969,7 @@
         </is>
       </c>
       <c r="D12" s="11" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="12" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="F12" s="11" t="n">
-        <v>49.2</v>
+        <v>46.4</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>3.9</v>
@@ -6989,7 +6989,7 @@
         <v>1.42</v>
       </c>
       <c r="J12" s="11" t="n">
-        <v>6.47</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -7015,19 +7015,19 @@
         </is>
       </c>
       <c r="F13" s="14" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="G13" s="14" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="H13" s="14" t="n">
-        <v>60.71</v>
+        <v>60.37</v>
       </c>
       <c r="I13" s="14" t="n">
         <v>7.54</v>
       </c>
       <c r="J13" s="14" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="14">
@@ -7045,7 +7045,7 @@
         </is>
       </c>
       <c r="D14" s="14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="15" t="inlineStr">
         <is>
@@ -7053,19 +7053,19 @@
         </is>
       </c>
       <c r="F14" s="14" t="n">
-        <v>33.7</v>
+        <v>35.1</v>
       </c>
       <c r="G14" s="14" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>64.92</v>
+        <v>64.45</v>
       </c>
       <c r="I14" s="14" t="n">
         <v>0.49</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>6.8</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="15">
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="D15" s="11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="12" t="inlineStr">
         <is>
@@ -7091,19 +7091,19 @@
         </is>
       </c>
       <c r="F15" s="11" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="G15" s="11" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H15" s="11" t="n">
-        <v>61.07</v>
+        <v>61.27</v>
       </c>
       <c r="I15" s="11" t="n">
         <v>-1.13</v>
       </c>
       <c r="J15" s="11" t="n">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="16">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="D16" s="8" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="9" t="inlineStr">
         <is>
@@ -7129,57 +7129,57 @@
         </is>
       </c>
       <c r="F16" s="8" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H16" s="8" t="n">
-        <v>68.65000000000001</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="I16" s="8" t="n">
         <v>7.63</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>5.48</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="inlineStr">
+      <c r="B17" s="15" t="inlineStr">
         <is>
           <t>Minneapolis-St. Paul-Bloomington</t>
         </is>
       </c>
-      <c r="C17" s="12" t="inlineStr">
+      <c r="C17" s="15" t="inlineStr">
         <is>
           <t>Minneapolis</t>
         </is>
       </c>
-      <c r="D17" s="11" t="n">
-        <v>45</v>
-      </c>
-      <c r="E17" s="12" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F17" s="11" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="G17" s="11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H17" s="11" t="n">
-        <v>69.25</v>
-      </c>
-      <c r="I17" s="11" t="n">
+      <c r="D17" s="14" t="n">
+        <v>39</v>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="I17" s="14" t="n">
         <v>0.03</v>
       </c>
-      <c r="J17" s="11" t="n">
-        <v>7.27</v>
+      <c r="J17" s="14" t="n">
+        <v>7.28</v>
       </c>
     </row>
     <row r="18">
@@ -7208,10 +7208,10 @@
         <v>41.8</v>
       </c>
       <c r="G18" s="11" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H18" s="11" t="n">
-        <v>60</v>
+        <v>59.95</v>
       </c>
       <c r="I18" s="11" t="n">
         <v>4.86</v>
@@ -7243,19 +7243,19 @@
         </is>
       </c>
       <c r="F19" s="17" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="G19" s="17" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H19" s="17" t="n">
-        <v>62.42</v>
+        <v>62.01</v>
       </c>
       <c r="I19" s="17" t="n">
         <v>2.43</v>
       </c>
       <c r="J19" s="17" t="n">
-        <v>7.12</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="20">
@@ -7273,7 +7273,7 @@
         </is>
       </c>
       <c r="D20" s="8" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E20" s="9" t="inlineStr">
         <is>
@@ -7281,13 +7281,13 @@
         </is>
       </c>
       <c r="F20" s="8" t="n">
-        <v>54.6</v>
+        <v>52.5</v>
       </c>
       <c r="G20" s="8" t="n">
         <v>3.6</v>
       </c>
       <c r="H20" s="8" t="n">
-        <v>70.73</v>
+        <v>70.39</v>
       </c>
       <c r="I20" s="8" t="n">
         <v>6.57</v>
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="D21" s="14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="15" t="inlineStr">
         <is>
@@ -7319,57 +7319,57 @@
         </is>
       </c>
       <c r="F21" s="14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21" s="14" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H21" s="14" t="n">
-        <v>64.05</v>
+        <v>63.98</v>
       </c>
       <c r="I21" s="14" t="n">
         <v>0.37</v>
       </c>
       <c r="J21" s="14" t="n">
-        <v>5.55</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="inlineStr">
+      <c r="B22" s="15" t="inlineStr">
         <is>
           <t>Charlotte-Concord-Gastonia</t>
         </is>
       </c>
-      <c r="C22" s="12" t="inlineStr">
+      <c r="C22" s="15" t="inlineStr">
         <is>
           <t>Charlotte</t>
         </is>
       </c>
-      <c r="D22" s="11" t="n">
-        <v>41</v>
-      </c>
-      <c r="E22" s="12" t="inlineStr">
-        <is>
-          <t>B-</t>
-        </is>
-      </c>
-      <c r="F22" s="11" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="G22" s="11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H22" s="11" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="I22" s="11" t="n">
+      <c r="D22" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="E22" s="15" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="G22" s="14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>65.43000000000001</v>
+      </c>
+      <c r="I22" s="14" t="n">
         <v>-1.52</v>
       </c>
-      <c r="J22" s="11" t="n">
-        <v>1.24</v>
+      <c r="J22" s="14" t="n">
+        <v>5.19</v>
       </c>
     </row>
     <row r="23">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="D23" s="11" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E23" s="12" t="inlineStr">
         <is>
@@ -7395,19 +7395,19 @@
         </is>
       </c>
       <c r="F23" s="11" t="n">
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="G23" s="11" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="H23" s="11" t="n">
-        <v>64.55</v>
+        <v>64.19</v>
       </c>
       <c r="I23" s="11" t="n">
         <v>1.22</v>
       </c>
       <c r="J23" s="11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="24">
@@ -7425,7 +7425,7 @@
         </is>
       </c>
       <c r="D24" s="8" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
@@ -7433,19 +7433,19 @@
         </is>
       </c>
       <c r="F24" s="8" t="n">
-        <v>59.7</v>
+        <v>57.5</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H24" s="8" t="n">
-        <v>65.62</v>
+        <v>65.27</v>
       </c>
       <c r="I24" s="8" t="n">
         <v>0.66</v>
       </c>
       <c r="J24" s="8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -7471,19 +7471,19 @@
         </is>
       </c>
       <c r="F25" s="14" t="n">
-        <v>34.7</v>
+        <v>35.2</v>
       </c>
       <c r="G25" s="14" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H25" s="14" t="n">
-        <v>63.1</v>
+        <v>62.78</v>
       </c>
       <c r="I25" s="14" t="n">
         <v>1.78</v>
       </c>
       <c r="J25" s="14" t="n">
-        <v>4.84</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="26">
@@ -7509,19 +7509,19 @@
         </is>
       </c>
       <c r="F26" s="8" t="n">
-        <v>50.8</v>
+        <v>50.7</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H26" s="8" t="n">
-        <v>74.47</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="I26" s="8" t="n">
         <v>3.18</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>4.65</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="27">
@@ -7539,7 +7539,7 @@
         </is>
       </c>
       <c r="D27" s="14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="15" t="inlineStr">
         <is>
@@ -7547,19 +7547,19 @@
         </is>
       </c>
       <c r="F27" s="14" t="n">
-        <v>35.7</v>
+        <v>34.3</v>
       </c>
       <c r="G27" s="14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H27" s="14" t="n">
-        <v>66.84</v>
+        <v>66.17</v>
       </c>
       <c r="I27" s="14" t="n">
         <v>4.78</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="28">
@@ -7585,19 +7585,19 @@
         </is>
       </c>
       <c r="F28" s="17" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="G28" s="17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H28" s="17" t="n">
-        <v>60.49</v>
+        <v>60.12</v>
       </c>
       <c r="I28" s="17" t="n">
         <v>2.48</v>
       </c>
       <c r="J28" s="17" t="n">
-        <v>5.92</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="29">
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="D29" s="8" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E29" s="9" t="inlineStr">
         <is>
@@ -7623,13 +7623,13 @@
         </is>
       </c>
       <c r="F29" s="8" t="n">
-        <v>58.2</v>
+        <v>53.2</v>
       </c>
       <c r="G29" s="8" t="n">
         <v>3.6</v>
       </c>
       <c r="H29" s="8" t="n">
-        <v>60.61</v>
+        <v>60.33</v>
       </c>
       <c r="I29" s="8" t="n">
         <v>8.65</v>
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="D30" s="11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="12" t="inlineStr">
         <is>
@@ -7661,95 +7661,95 @@
         </is>
       </c>
       <c r="F30" s="11" t="n">
-        <v>44</v>
+        <v>45.2</v>
       </c>
       <c r="G30" s="11" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="H30" s="11" t="n">
-        <v>65.40000000000001</v>
+        <v>65.02</v>
       </c>
       <c r="I30" s="11" t="n">
         <v>6.71</v>
       </c>
       <c r="J30" s="11" t="n">
-        <v>5.17</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
         <is>
           <t>Cincinnati</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C31" s="9" t="inlineStr">
         <is>
           <t>Cincinnati</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H31" s="8" t="n">
+        <v>63.08</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>Kansas City</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>Kansas City</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="E31" s="6" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="G31" s="5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H31" s="5" t="n">
-        <v>63.36</v>
-      </c>
-      <c r="I31" s="5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>Kansas City</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="inlineStr">
-        <is>
-          <t>Kansas City</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H32" s="8" t="n">
-        <v>68.09</v>
-      </c>
-      <c r="I32" s="8" t="n">
+      <c r="F32" s="5" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>67.91</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>6.8</v>
       </c>
-      <c r="J32" s="8" t="n">
-        <v>4.58</v>
+      <c r="J32" s="5" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="33">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D33" s="8" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E33" s="9" t="inlineStr">
         <is>
@@ -7775,57 +7775,57 @@
         </is>
       </c>
       <c r="F33" s="8" t="n">
-        <v>57.8</v>
+        <v>51.6</v>
       </c>
       <c r="G33" s="8" t="n">
         <v>3.6</v>
       </c>
       <c r="H33" s="8" t="n">
-        <v>65.94</v>
+        <v>65.61</v>
       </c>
       <c r="I33" s="8" t="n">
         <v>0.86</v>
       </c>
       <c r="J33" s="8" t="n">
-        <v>5.39</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>Indianapolis-Carmel-Greenwood</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>Indianapolis</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="G34" s="5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H34" s="5" t="n">
-        <v>67.42</v>
-      </c>
-      <c r="I34" s="5" t="n">
+      <c r="D34" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>A-</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>66.86</v>
+      </c>
+      <c r="I34" s="2" t="n">
         <v>5.1</v>
       </c>
-      <c r="J34" s="5" t="n">
-        <v>4.17</v>
+      <c r="J34" s="2" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="35">
@@ -7843,7 +7843,7 @@
         </is>
       </c>
       <c r="D35" s="8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="9" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         </is>
       </c>
       <c r="F35" s="8" t="n">
-        <v>53</v>
+        <v>51.9</v>
       </c>
       <c r="G35" s="8" t="n">
         <v>3.4</v>
@@ -7879,7 +7879,7 @@
         </is>
       </c>
       <c r="D36" s="5" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E36" s="6" t="inlineStr">
         <is>
@@ -7887,19 +7887,19 @@
         </is>
       </c>
       <c r="F36" s="5" t="n">
-        <v>60.6</v>
+        <v>63.7</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>76.17</v>
+        <v>76.27</v>
       </c>
       <c r="I36" s="5" t="n">
         <v>1.62</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.82</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="37">
@@ -7925,19 +7925,19 @@
         </is>
       </c>
       <c r="F37" s="11" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="G37" s="11" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="11" t="n">
-        <v>64.44</v>
+        <v>64.34</v>
       </c>
       <c r="I37" s="11" t="n">
         <v>0.59</v>
       </c>
       <c r="J37" s="11" t="n">
-        <v>7.38</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="38">
@@ -7963,13 +7963,13 @@
         </is>
       </c>
       <c r="F38" s="8" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="G38" s="8" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H38" s="8" t="n">
-        <v>58.9</v>
+        <v>58.99</v>
       </c>
       <c r="I38" s="8" t="n">
         <v>10.22</v>
@@ -7993,7 +7993,7 @@
         </is>
       </c>
       <c r="D39" s="14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E39" s="15" t="inlineStr">
         <is>
@@ -8001,19 +8001,19 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>33.7</v>
+        <v>36.1</v>
       </c>
       <c r="G39" s="14" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H39" s="14" t="n">
-        <v>60.62</v>
+        <v>60.38</v>
       </c>
       <c r="I39" s="14" t="n">
         <v>5</v>
       </c>
       <c r="J39" s="14" t="n">
-        <v>4.71</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="40">
@@ -8031,7 +8031,7 @@
         </is>
       </c>
       <c r="D40" s="8" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="9" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         </is>
       </c>
       <c r="F40" s="8" t="n">
-        <v>56.9</v>
+        <v>54.7</v>
       </c>
       <c r="G40" s="8" t="n">
         <v>4.3</v>
@@ -8051,7 +8051,7 @@
         <v>3.63</v>
       </c>
       <c r="J40" s="8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="41">
@@ -8069,7 +8069,7 @@
         </is>
       </c>
       <c r="D41" s="5" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E41" s="6" t="inlineStr">
         <is>
@@ -8077,19 +8077,19 @@
         </is>
       </c>
       <c r="F41" s="5" t="n">
-        <v>64.90000000000001</v>
+        <v>62.8</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>63.2</v>
+        <v>63.19</v>
       </c>
       <c r="I41" s="5" t="n">
         <v>3.73</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="42">
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="D42" s="8" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E42" s="9" t="inlineStr">
         <is>
@@ -8115,13 +8115,13 @@
         </is>
       </c>
       <c r="F42" s="8" t="n">
-        <v>51.3</v>
+        <v>54.8</v>
       </c>
       <c r="G42" s="8" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H42" s="8" t="n">
-        <v>67.53</v>
+        <v>67.67</v>
       </c>
       <c r="I42" s="8" t="n">
         <v>4.51</v>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="D43" s="5" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E43" s="6" t="inlineStr">
         <is>
@@ -8153,57 +8153,57 @@
         </is>
       </c>
       <c r="F43" s="5" t="n">
-        <v>68</v>
+        <v>66.2</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>66.19</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="I43" s="5" t="n">
         <v>4.7</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>4.8</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="n">
+      <c r="A44" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="inlineStr">
+      <c r="B44" s="6" t="inlineStr">
         <is>
           <t>Louisville-Jefferson County</t>
         </is>
       </c>
-      <c r="C44" s="9" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>Louisville</t>
         </is>
       </c>
-      <c r="D44" s="8" t="n">
-        <v>58</v>
-      </c>
-      <c r="E44" s="9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F44" s="8" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="G44" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H44" s="8" t="n">
-        <v>62.61</v>
-      </c>
-      <c r="I44" s="8" t="n">
+      <c r="D44" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>62.74</v>
+      </c>
+      <c r="I44" s="5" t="n">
         <v>3.37</v>
       </c>
-      <c r="J44" s="8" t="n">
-        <v>0.74</v>
+      <c r="J44" s="5" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="45">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="D45" s="5" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E45" s="6" t="inlineStr">
         <is>
@@ -8229,19 +8229,19 @@
         </is>
       </c>
       <c r="F45" s="5" t="n">
-        <v>63.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G45" s="5" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>64.18000000000001</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="I45" s="5" t="n">
         <v>5.12</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>4.99</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="46">
@@ -8259,7 +8259,7 @@
         </is>
       </c>
       <c r="D46" s="14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E46" s="15" t="inlineStr">
         <is>
@@ -8267,19 +8267,19 @@
         </is>
       </c>
       <c r="F46" s="14" t="n">
-        <v>32.3</v>
+        <v>33.8</v>
       </c>
       <c r="G46" s="14" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H46" s="14" t="n">
-        <v>60.17</v>
+        <v>60.48</v>
       </c>
       <c r="I46" s="14" t="n">
         <v>6.16</v>
       </c>
       <c r="J46" s="14" t="n">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="47">
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="D47" s="5" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47" s="6" t="inlineStr">
         <is>
@@ -8305,19 +8305,19 @@
         </is>
       </c>
       <c r="F47" s="5" t="n">
-        <v>62.9</v>
+        <v>63.7</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>73.38</v>
+        <v>72.77</v>
       </c>
       <c r="I47" s="5" t="n">
         <v>3.15</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="48">
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="D48" s="8" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E48" s="9" t="inlineStr">
         <is>
@@ -8343,95 +8343,95 @@
         </is>
       </c>
       <c r="F48" s="8" t="n">
-        <v>59.8</v>
+        <v>52.6</v>
       </c>
       <c r="G48" s="8" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H48" s="8" t="n">
-        <v>60.73</v>
+        <v>60.56</v>
       </c>
       <c r="I48" s="8" t="n">
         <v>-0.12</v>
       </c>
       <c r="J48" s="8" t="n">
-        <v>3.12</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="n">
+      <c r="A49" s="11" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="15" t="inlineStr">
+      <c r="B49" s="12" t="inlineStr">
         <is>
           <t>Fresno</t>
         </is>
       </c>
-      <c r="C49" s="15" t="inlineStr">
+      <c r="C49" s="12" t="inlineStr">
         <is>
           <t>Fresno</t>
         </is>
       </c>
-      <c r="D49" s="14" t="n">
-        <v>39</v>
-      </c>
-      <c r="E49" s="15" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-      <c r="F49" s="14" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="G49" s="14" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H49" s="14" t="n">
-        <v>60.38</v>
-      </c>
-      <c r="I49" s="14" t="n">
+      <c r="D49" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="F49" s="11" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="G49" s="11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H49" s="11" t="n">
+        <v>60.33</v>
+      </c>
+      <c r="I49" s="11" t="n">
         <v>7.6</v>
       </c>
-      <c r="J49" s="14" t="n">
-        <v>5.04</v>
+      <c r="J49" s="11" t="n">
+        <v>5.05</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="6" t="inlineStr">
         <is>
           <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>Grand Rapids</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>A-</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="G50" s="2" t="n">
+      <c r="D50" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="G50" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>65.45999999999999</v>
-      </c>
-      <c r="I50" s="2" t="n">
+      <c r="H50" s="5" t="n">
+        <v>63.89</v>
+      </c>
+      <c r="I50" s="5" t="n">
         <v>3.13</v>
       </c>
-      <c r="J50" s="2" t="n">
-        <v>0.58</v>
+      <c r="J50" s="5" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="51">
@@ -8469,7 +8469,7 @@
         <v>-0.36</v>
       </c>
       <c r="J51" s="8" t="n">
-        <v>7.53</v>
+        <v>7.54</v>
       </c>
     </row>
   </sheetData>
@@ -8561,11 +8561,11 @@
       </c>
       <c r="B3" s="30" t="inlineStr">
         <is>
-          <t>Grand Rapids-Wyoming-Kentwood</t>
+          <t>Indianapolis-Carmel-Greenwood</t>
         </is>
       </c>
       <c r="C3" s="30" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="30" t="inlineStr">
         <is>
@@ -8577,11 +8577,11 @@
       </c>
       <c r="F3" s="31" t="inlineStr">
         <is>
-          <t>Riverside-San Bernardino-Ontario</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="G3" s="31" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="31" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="B4" s="30" t="inlineStr">
         <is>
-          <t>Indianapolis-Carmel-Greenwood</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="C4" s="30" t="n">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="F4" s="31" t="inlineStr">
         <is>
-          <t>San Antonio-New Braunfels</t>
+          <t>Riverside-San Bernardino-Ontario</t>
         </is>
       </c>
       <c r="G4" s="31" t="n">
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="C5" s="30" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="30" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         </is>
       </c>
       <c r="G5" s="31" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="31" t="inlineStr">
         <is>
@@ -8663,11 +8663,11 @@
       </c>
       <c r="B6" s="30" t="inlineStr">
         <is>
-          <t>Milwaukee-Waukesha</t>
+          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
         </is>
       </c>
       <c r="C6" s="30" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="30" t="inlineStr">
         <is>
@@ -8679,11 +8679,11 @@
       </c>
       <c r="F6" s="31" t="inlineStr">
         <is>
-          <t>Orlando-Kissimmee-Sanford</t>
+          <t>San Antonio-New Braunfels</t>
         </is>
       </c>
       <c r="G6" s="31" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="31" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="B7" s="30" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Salt Lake City-Murray</t>
         </is>
       </c>
       <c r="C7" s="30" t="n">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="F7" s="31" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Portland-Vancouver-Hillsboro</t>
         </is>
       </c>
       <c r="G7" s="31" t="n">
@@ -8731,11 +8731,11 @@
       </c>
       <c r="B8" s="30" t="inlineStr">
         <is>
-          <t>Salt Lake City-Murray</t>
+          <t>Grand Rapids-Wyoming-Kentwood</t>
         </is>
       </c>
       <c r="C8" s="30" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="30" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         </is>
       </c>
       <c r="G8" s="31" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="31" t="inlineStr">
         <is>
@@ -8765,11 +8765,11 @@
       </c>
       <c r="B9" s="30" t="inlineStr">
         <is>
-          <t>Nashville-Davidson--Murfreesboro--Franklin</t>
+          <t>Milwaukee-Waukesha</t>
         </is>
       </c>
       <c r="C9" s="30" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="30" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="G9" s="31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="31" t="inlineStr">
         <is>
@@ -8799,15 +8799,15 @@
       </c>
       <c r="B10" s="30" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Louisville-Jefferson County</t>
         </is>
       </c>
       <c r="C10" s="30" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D10" s="30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="E10" s="31" t="n">
@@ -8819,11 +8819,11 @@
         </is>
       </c>
       <c r="G10" s="31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -8833,11 +8833,11 @@
       </c>
       <c r="B11" s="30" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Atlanta-Sandy Springs-Roswell</t>
         </is>
       </c>
       <c r="C11" s="30" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="30" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="D12" s="30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B+</t>
         </is>
       </c>
       <c r="E12" s="31" t="n">

--- a/Economic_Metrics_All_Metros.xlsx
+++ b/Economic_Metrics_All_Metros.xlsx
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F3" s="5" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62.8</v>
+        <v>62.9</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>62.6</v>
+        <v>62.7</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61.8</v>
+        <v>60.9</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60.5</v>
+        <v>60.4</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="D12" s="10" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="F12" s="8" t="n">
-        <v>57.5</v>
+        <v>57.4</v>
       </c>
       <c r="G12" s="9" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F13" s="8" t="n">
-        <v>57</v>
+        <v>57.1</v>
       </c>
       <c r="G13" s="9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="F14" s="8" t="n">
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="G14" s="9" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="F16" s="8" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="G16" s="9" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="D17" s="10" t="n">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="F17" s="8" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="G17" s="9" t="inlineStr">
         <is>
@@ -1141,16 +1141,16 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Seattle-Tacoma-Bellevue</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Seattle</t>
         </is>
       </c>
       <c r="D18" s="10" t="n">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F18" s="8" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="G18" s="9" t="inlineStr">
         <is>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="D19" s="10" t="n">
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="F19" s="8" t="n">
-        <v>52.6</v>
+        <v>53.2</v>
       </c>
       <c r="G19" s="9" t="inlineStr">
         <is>
@@ -1203,20 +1203,20 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="D20" s="10" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="9" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="F20" s="8" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="G20" s="9" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="F22" s="8" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="G22" s="9" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F27" s="11" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="G27" s="12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="F28" s="11" t="n">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="G28" s="12" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="F29" s="11" t="n">
-        <v>46.8</v>
+        <v>46.7</v>
       </c>
       <c r="G29" s="12" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="F31" s="11" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="G31" s="12" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="F32" s="11" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="G32" s="12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="F33" s="11" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="G33" s="12" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="F34" s="11" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="G34" s="12" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="F35" s="11" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="G35" s="12" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="F37" s="11" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="G37" s="12" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="G40" s="15" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="G41" s="15" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="F44" s="14" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="G44" s="15" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="F45" s="14" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="G45" s="15" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F46" s="14" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="G46" s="15" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="F47" s="14" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="G47" s="15" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="F48" s="14" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="G48" s="15" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="F49" s="14" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="G49" s="15" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F51" s="17" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="G51" s="18" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="22" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="21" t="n">
         <v>74</v>
@@ -2390,8 +2390,8 @@
       <c r="C4" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="21" t="n">
-        <v>70</v>
+      <c r="D4" s="23" t="n">
+        <v>69</v>
       </c>
       <c r="E4" s="23" t="n">
         <v>62</v>
@@ -2511,7 +2511,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>46</v>
@@ -2551,7 +2551,7 @@
         <v>86</v>
       </c>
       <c r="D8" s="22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="23" t="n">
         <v>56</v>
@@ -2591,7 +2591,7 @@
         <v>86</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="23" t="n">
         <v>52</v>
@@ -2625,13 +2625,13 @@
         </is>
       </c>
       <c r="B10" s="20" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="21" t="n">
         <v>80</v>
       </c>
       <c r="D10" s="23" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E10" s="21" t="n">
         <v>94</v>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="B12" s="20" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="23" t="n">
         <v>68</v>
       </c>
       <c r="D12" s="23" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="22" t="n">
         <v>18</v>
@@ -2751,7 +2751,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="22" t="n">
         <v>28</v>
@@ -2791,7 +2791,7 @@
         <v>94</v>
       </c>
       <c r="D14" s="23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="22" t="n">
         <v>6</v>
@@ -2901,161 +2901,161 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
       <c r="B17" s="20" t="n">
         <v>53</v>
       </c>
       <c r="C17" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D17" s="21" t="n">
-        <v>84</v>
-      </c>
-      <c r="E17" s="21" t="n">
-        <v>92</v>
+        <v>34</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <v>43</v>
+      </c>
+      <c r="E17" s="22" t="n">
+        <v>34</v>
       </c>
       <c r="F17" s="22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17" s="21" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" s="21" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I17" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="K17" s="21" t="n">
+        <v>70</v>
+      </c>
+      <c r="L17" s="23" t="n">
         <v>64</v>
-      </c>
-      <c r="J17" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="K17" s="23" t="n">
-        <v>66</v>
-      </c>
-      <c r="L17" s="22" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Seattle-Tacoma-Bellevue</t>
         </is>
       </c>
       <c r="B18" s="20" t="n">
         <v>53</v>
       </c>
-      <c r="C18" s="23" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" s="22" t="n">
-        <v>10</v>
+      <c r="C18" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" s="21" t="n">
+        <v>84</v>
       </c>
       <c r="E18" s="21" t="n">
-        <v>96</v>
-      </c>
-      <c r="F18" s="21" t="n">
+        <v>92</v>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="H18" s="21" t="n">
         <v>76</v>
       </c>
-      <c r="G18" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="H18" s="22" t="n">
-        <v>44</v>
-      </c>
-      <c r="I18" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J18" s="21" t="n">
-        <v>76</v>
-      </c>
-      <c r="K18" s="21" t="n">
-        <v>86</v>
+      <c r="I18" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" s="23" t="n">
+        <v>66</v>
       </c>
       <c r="L18" s="22" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="B19" s="20" t="n">
         <v>53</v>
       </c>
-      <c r="C19" s="21" t="n">
-        <v>98</v>
+      <c r="C19" s="23" t="n">
+        <v>50</v>
       </c>
       <c r="D19" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <v>96</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="G19" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="I19" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="E19" s="22" t="n">
+      <c r="J19" s="21" t="n">
+        <v>76</v>
+      </c>
+      <c r="K19" s="21" t="n">
+        <v>86</v>
+      </c>
+      <c r="L19" s="22" t="n">
         <v>8</v>
-      </c>
-      <c r="F19" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="G19" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="H19" s="21" t="n">
-        <v>92</v>
-      </c>
-      <c r="I19" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="J19" s="23" t="n">
-        <v>68</v>
-      </c>
-      <c r="K19" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="L19" s="22" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B20" s="20" t="n">
-        <v>52</v>
-      </c>
-      <c r="C20" s="22" t="n">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="C20" s="21" t="n">
+        <v>98</v>
       </c>
       <c r="D20" s="22" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E20" s="22" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F20" s="22" t="n">
-        <v>32</v>
-      </c>
-      <c r="G20" s="21" t="n">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>20</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>80</v>
-      </c>
-      <c r="I20" s="23" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="K20" s="21" t="n">
-        <v>70</v>
-      </c>
-      <c r="L20" s="23" t="n">
-        <v>64</v>
+        <v>92</v>
+      </c>
+      <c r="I20" s="21" t="n">
+        <v>90</v>
+      </c>
+      <c r="J20" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="K20" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="L20" s="22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -3111,7 +3111,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="23" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="22" t="n">
         <v>20</v>
@@ -3311,7 +3311,7 @@
         <v>50</v>
       </c>
       <c r="D27" s="22" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="22" t="n">
         <v>22</v>
@@ -3351,7 +3351,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" s="22" t="n">
         <v>40</v>
@@ -3391,7 +3391,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="21" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="23" t="n">
         <v>60</v>
@@ -3471,7 +3471,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="22" t="n">
         <v>16</v>
@@ -3511,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="21" t="n">
         <v>82</v>
@@ -3551,7 +3551,7 @@
         <v>68</v>
       </c>
       <c r="D33" s="22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" s="21" t="n">
         <v>86</v>
@@ -3631,7 +3631,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="22" t="n">
         <v>42</v>
@@ -3831,7 +3831,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="23" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="22" t="n">
         <v>2</v>
@@ -3871,7 +3871,7 @@
         <v>24</v>
       </c>
       <c r="D41" s="22" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" s="22" t="n">
         <v>12</v>
@@ -3991,7 +3991,7 @@
         <v>32</v>
       </c>
       <c r="D44" s="23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" s="22" t="n">
         <v>14</v>
@@ -4031,7 +4031,7 @@
         <v>48</v>
       </c>
       <c r="D45" s="22" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45" s="22" t="n">
         <v>32</v>
@@ -4071,7 +4071,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="21" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="23" t="n">
         <v>64</v>
@@ -4151,7 +4151,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="22" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48" s="23" t="n">
         <v>66</v>
@@ -4191,7 +4191,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="22" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49" s="21" t="n">
         <v>76</v>
@@ -4737,15 +4737,13 @@
       </c>
       <c r="B10" s="25" t="inlineStr">
         <is>
-          <t>62 (B+)</t>
+          <t>61 (B+)</t>
         </is>
       </c>
       <c r="C10" s="24" t="n">
         <v>3.3</v>
       </c>
-      <c r="D10" s="24" t="n">
-        <v>64.56999999999999</v>
-      </c>
+      <c r="D10" s="24" t="n"/>
       <c r="E10" s="24" t="n">
         <v>8.27</v>
       </c>
@@ -4821,7 +4819,7 @@
       </c>
       <c r="B12" s="25" t="inlineStr">
         <is>
-          <t>58 (B)</t>
+          <t>57 (B)</t>
         </is>
       </c>
       <c r="C12" s="24" t="n">
@@ -5026,7 +5024,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Seattle-Tacoma-Bellevue</t>
+          <t>Philadelphia-Camden-Wilmington</t>
         </is>
       </c>
       <c r="B17" s="25" t="inlineStr">
@@ -5035,40 +5033,40 @@
         </is>
       </c>
       <c r="C17" s="24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="24" t="n">
-        <v>68.23999999999999</v>
+        <v>63.96</v>
       </c>
       <c r="E17" s="24" t="n">
-        <v>7.63</v>
+        <v>2.21</v>
       </c>
       <c r="F17" s="24" t="n">
-        <v>5.53</v>
+        <v>5.41</v>
       </c>
       <c r="G17" s="24" t="n">
-        <v>3.26</v>
+        <v>3.56</v>
       </c>
       <c r="H17" s="24" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="I17" s="24" t="n">
-        <v>9.73</v>
+        <v>1.56</v>
       </c>
       <c r="J17" s="24" t="n">
-        <v>-0.14</v>
+        <v>14.25</v>
       </c>
       <c r="K17" s="24" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="L17" s="24" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Seattle-Tacoma-Bellevue</t>
         </is>
       </c>
       <c r="B18" s="25" t="inlineStr">
@@ -5077,40 +5075,40 @@
         </is>
       </c>
       <c r="C18" s="24" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="24" t="n">
-        <v>60.33</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="E18" s="24" t="n">
-        <v>8.65</v>
+        <v>7.63</v>
       </c>
       <c r="F18" s="24" t="n">
-        <v>4.17</v>
+        <v>5.53</v>
       </c>
       <c r="G18" s="24" t="n">
-        <v>3.38</v>
+        <v>3.26</v>
       </c>
       <c r="H18" s="24" t="n">
-        <v>33.9</v>
+        <v>34.8</v>
       </c>
       <c r="I18" s="24" t="n">
-        <v>-18.72</v>
+        <v>9.73</v>
       </c>
       <c r="J18" s="24" t="n">
-        <v>15.05</v>
+        <v>-0.14</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>3.76</v>
+        <v>0.23</v>
       </c>
       <c r="L18" s="24" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="B19" s="25" t="inlineStr">
@@ -5119,76 +5117,76 @@
         </is>
       </c>
       <c r="C19" s="24" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D19" s="24" t="n">
-        <v>60.56</v>
+        <v>60.33</v>
       </c>
       <c r="E19" s="24" t="n">
-        <v>-0.12</v>
+        <v>8.65</v>
       </c>
       <c r="F19" s="24" t="n">
-        <v>7.12</v>
+        <v>4.17</v>
       </c>
       <c r="G19" s="24" t="n">
-        <v>1.44</v>
+        <v>3.38</v>
       </c>
       <c r="H19" s="24" t="n">
-        <v>35.5</v>
+        <v>33.9</v>
       </c>
       <c r="I19" s="24" t="n">
-        <v>32.24</v>
+        <v>-18.72</v>
       </c>
       <c r="J19" s="24" t="n">
-        <v>10.88</v>
+        <v>15.05</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>-0.21</v>
+        <v>3.76</v>
       </c>
       <c r="L19" s="24" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Philadelphia-Camden-Wilmington</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="B20" s="25" t="inlineStr">
         <is>
-          <t>52 (B)</t>
+          <t>53 (B)</t>
         </is>
       </c>
       <c r="C20" s="24" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="D20" s="24" t="n">
-        <v>63.96</v>
+        <v>60.56</v>
       </c>
       <c r="E20" s="24" t="n">
-        <v>2.21</v>
+        <v>-0.12</v>
       </c>
       <c r="F20" s="24" t="n">
-        <v>5.41</v>
+        <v>7.12</v>
       </c>
       <c r="G20" s="24" t="n">
-        <v>3.56</v>
+        <v>1.44</v>
       </c>
       <c r="H20" s="24" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="I20" s="24" t="n">
-        <v>1.56</v>
+        <v>32.24</v>
       </c>
       <c r="J20" s="24" t="n">
-        <v>14.25</v>
+        <v>10.88</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>0.44</v>
+        <v>-0.21</v>
       </c>
       <c r="L20" s="24" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -6597,7 +6595,7 @@
         </is>
       </c>
       <c r="F2" s="14" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="G2" s="14" t="n">
         <v>4.5</v>
@@ -6635,7 +6633,7 @@
         </is>
       </c>
       <c r="F3" s="14" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>4.8</v>
@@ -6673,7 +6671,7 @@
         </is>
       </c>
       <c r="F4" s="11" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>4.5</v>
@@ -6749,7 +6747,7 @@
         </is>
       </c>
       <c r="F6" s="11" t="n">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="G6" s="11" t="n">
         <v>4.2</v>
@@ -6787,7 +6785,7 @@
         </is>
       </c>
       <c r="F7" s="11" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="G7" s="11" t="n">
         <v>3.5</v>
@@ -6825,7 +6823,7 @@
         </is>
       </c>
       <c r="F8" s="11" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>3.8</v>
@@ -6855,7 +6853,7 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
@@ -6863,14 +6861,12 @@
         </is>
       </c>
       <c r="F9" s="5" t="n">
-        <v>61.8</v>
+        <v>60.9</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>3.3</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>64.56999999999999</v>
-      </c>
+      <c r="H9" s="5" t="n"/>
       <c r="I9" s="5" t="n">
         <v>8.27</v>
       </c>
@@ -6893,7 +6889,7 @@
         </is>
       </c>
       <c r="D10" s="8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
@@ -6901,7 +6897,7 @@
         </is>
       </c>
       <c r="F10" s="8" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="G10" s="8" t="n">
         <v>4</v>
@@ -6939,7 +6935,7 @@
         </is>
       </c>
       <c r="F11" s="11" t="n">
-        <v>46.8</v>
+        <v>46.7</v>
       </c>
       <c r="G11" s="11" t="n">
         <v>3.5</v>
@@ -7053,7 +7049,7 @@
         </is>
       </c>
       <c r="F14" s="14" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="G14" s="14" t="n">
         <v>4.1</v>
@@ -7091,7 +7087,7 @@
         </is>
       </c>
       <c r="F15" s="11" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="G15" s="11" t="n">
         <v>4.7</v>
@@ -7243,7 +7239,7 @@
         </is>
       </c>
       <c r="F19" s="17" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="G19" s="17" t="n">
         <v>4.4</v>
@@ -7319,7 +7315,7 @@
         </is>
       </c>
       <c r="F21" s="14" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="G21" s="14" t="n">
         <v>4.4</v>
@@ -7357,7 +7353,7 @@
         </is>
       </c>
       <c r="F22" s="14" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="G22" s="14" t="n">
         <v>3.6</v>
@@ -7395,7 +7391,7 @@
         </is>
       </c>
       <c r="F23" s="11" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="G23" s="11" t="n">
         <v>3.6</v>
@@ -7425,7 +7421,7 @@
         </is>
       </c>
       <c r="D24" s="8" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
@@ -7433,7 +7429,7 @@
         </is>
       </c>
       <c r="F24" s="8" t="n">
-        <v>57.5</v>
+        <v>57.4</v>
       </c>
       <c r="G24" s="8" t="n">
         <v>3.5</v>
@@ -7471,7 +7467,7 @@
         </is>
       </c>
       <c r="F25" s="14" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="G25" s="14" t="n">
         <v>3.7</v>
@@ -7547,7 +7543,7 @@
         </is>
       </c>
       <c r="F27" s="14" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="G27" s="14" t="n">
         <v>4.9</v>
@@ -7661,7 +7657,7 @@
         </is>
       </c>
       <c r="F30" s="11" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="G30" s="11" t="n">
         <v>5.2</v>
@@ -7699,7 +7695,7 @@
         </is>
       </c>
       <c r="F31" s="8" t="n">
-        <v>57</v>
+        <v>57.1</v>
       </c>
       <c r="G31" s="8" t="n">
         <v>3.6</v>
@@ -7737,7 +7733,7 @@
         </is>
       </c>
       <c r="F32" s="5" t="n">
-        <v>60.5</v>
+        <v>60.4</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>3.5</v>
@@ -7775,7 +7771,7 @@
         </is>
       </c>
       <c r="F33" s="8" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="G33" s="8" t="n">
         <v>3.6</v>
@@ -7813,7 +7809,7 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>2.5</v>
@@ -7925,7 +7921,7 @@
         </is>
       </c>
       <c r="F37" s="11" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="G37" s="11" t="n">
         <v>4</v>
@@ -8077,7 +8073,7 @@
         </is>
       </c>
       <c r="F41" s="5" t="n">
-        <v>62.8</v>
+        <v>62.9</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>3.1</v>
@@ -8115,7 +8111,7 @@
         </is>
       </c>
       <c r="F42" s="8" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="G42" s="8" t="n">
         <v>3</v>
@@ -8153,7 +8149,7 @@
         </is>
       </c>
       <c r="F43" s="5" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>3.6</v>
@@ -8191,7 +8187,7 @@
         </is>
       </c>
       <c r="F44" s="5" t="n">
-        <v>62.6</v>
+        <v>62.7</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>3.1</v>
@@ -8229,7 +8225,7 @@
         </is>
       </c>
       <c r="F45" s="5" t="n">
-        <v>68.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>3.3</v>
@@ -8267,7 +8263,7 @@
         </is>
       </c>
       <c r="F46" s="14" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="G46" s="14" t="n">
         <v>4</v>
@@ -8343,7 +8339,7 @@
         </is>
       </c>
       <c r="F48" s="8" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="G48" s="8" t="n">
         <v>2.2</v>
@@ -8419,7 +8415,7 @@
         </is>
       </c>
       <c r="F50" s="5" t="n">
-        <v>64.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>4</v>
@@ -8457,7 +8453,7 @@
         </is>
       </c>
       <c r="F51" s="8" t="n">
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="G51" s="8" t="n">
         <v>2.7</v>
@@ -8837,7 +8833,7 @@
         </is>
       </c>
       <c r="C11" s="30" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="30" t="inlineStr">
         <is>
